--- a/sheets/ENERGY.xlsx
+++ b/sheets/ENERGY.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="servo-tec" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="servo-tec-basic-6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="adani-green" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="adani-green-6" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Business" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Suzlon power main" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="SUZLON" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="servo-tec" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="servo-tec-basic-6" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="adani-green" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="adani-green-6" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -18,15 +21,232 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}</author>
+  </authors>
+  <commentList>
+    <comment ref="I31" authorId="0" xr:uid="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>mohit:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+this money came from exceptional item
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+  <si>
+    <t xml:space="preserve">Earnings Per Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailing twelve months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company name</t>
+  </si>
+  <si>
+    <t>TICKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of Shares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross margin</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTM EPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE </t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adani Green</t>
+  </si>
+  <si>
+    <t>ADANIGREEN</t>
+  </si>
+  <si>
+    <t>Servo-tec</t>
+  </si>
+  <si>
+    <t>SERVOTECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzlon Energy</t>
+  </si>
+  <si>
+    <t>SUZLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata Power</t>
+  </si>
+  <si>
+    <t>TATAPOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSW Energy</t>
+  </si>
+  <si>
+    <t>JSWENERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReNew Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENEW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inox Wind</t>
+  </si>
+  <si>
+    <t>INOXWIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUZLON ENERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI Innovation in Renewable Energy: Winner of the AI-Powered Data Analytics Project of the Year in the Renewable Energy category at the 2nd Edition of the Data Analytics &amp; AI Show 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top player in Wind energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptional items are the one that are making the company deliver positive PAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are these Exceptional items &gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company had some OCD's ( Optionally Convertible Debentures ) and CCPS ( Compulsorily Convertible Preference Shares ) and now they converted that to equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(in Crore)</t>
+  </si>
+  <si>
+    <t>https://www.suzlon.com/pdf/investor/annual-report-2017-18.pdf</t>
+  </si>
+  <si>
+    <t>https://www.suzlon.com/NewPdf/Financial_Reports_&amp;_Presentations/2019-20/Annual-Report-FY20.pdf</t>
+  </si>
+  <si>
+    <t>https://www.suzlon.com/NewPdf/Financial_Reports_&amp;_Presentations/2021-22/Annual_Report-FY22-2021-2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www.suzlon.com/NewPdf/Financial_Reports_&amp;_Presentations/2023-24/Annual_Report_23-24.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op. Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Operating Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of raw materials</t>
+  </si>
+  <si>
+    <t>CORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase of stock in trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes in inventory of finished goods </t>
+  </si>
+  <si>
+    <t>EBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance Cost</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op. Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense in exceptional items ( fire ( </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptional items </t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profit to equity owners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equity Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Equity </t>
+  </si>
   <si>
     <t xml:space="preserve">Servotec Renewable power system </t>
   </si>
   <si>
-    <t xml:space="preserve">Income Statement</t>
-  </si>
-  <si>
     <t>FY20</t>
   </si>
   <si>
@@ -63,18 +283,12 @@
     <t xml:space="preserve">changes in inventory</t>
   </si>
   <si>
-    <t>EBE</t>
-  </si>
-  <si>
     <t>Debt</t>
   </si>
   <si>
     <t xml:space="preserve">Finance cost</t>
   </si>
   <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other Expenses</t>
   </si>
   <si>
@@ -84,15 +298,6 @@
     <t xml:space="preserve">Expectional items </t>
   </si>
   <si>
-    <t>PBT</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>PAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">OCI </t>
   </si>
   <si>
@@ -102,18 +307,12 @@
     <t xml:space="preserve">weighted No. of equity shares</t>
   </si>
   <si>
-    <t>EPS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gross profit</t>
   </si>
   <si>
     <t>Concernings</t>
   </si>
   <si>
-    <t xml:space="preserve">Gross margin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Profit  YoY</t>
   </si>
   <si>
@@ -181,17 +380,115 @@
   </si>
   <si>
     <t xml:space="preserve">Share price too high </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Current debt</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes in inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt finance cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of profit from JV + associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception items </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op. income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Margin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBE y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt financing cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;A y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Rate </t>
+  </si>
+  <si>
+    <t>D/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALANCE SHEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share Capital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruments equity in nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Equity to equity holders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Current Borrowings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCD, raised from foreign investors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stapled instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banks , FI and others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current borrowings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total debt borrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adani Green energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrowings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Solar Singapore Pte Limited (TOTAL) to gain 50% equity interest in the solar operating assets totaling 2,353 MW housed in the subsidiaries of the Company. TOTAL has made aggregate investment of H4,018 Crores in Adani Green Energy Twenty Three Limited, comprising H5 Crores as equity with variable rights and H4,013 Crores as 40,130 nos. of redeemable Non-convertible Debentures (NCD) of H10,00,000 each for a period of 35 years. The stapled instruments are redeemable after 25 years in periodic installments starting
+from November, 2044 till May, 2055.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* &quot;(&quot;#,##0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -204,6 +501,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.500000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.000000"/>
@@ -219,15 +532,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -245,23 +555,58 @@
   <cellStyleXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,11 +631,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>440266</xdr:colOff>
+      <xdr:colOff>523609</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2828924" cy="4838699"/>
+    <xdr:ext cx="2828924" cy="4838698"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="22272961" name=""/>
@@ -304,7 +649,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="4097866" y="42333"/>
+          <a:off x="4181209" y="0"/>
           <a:ext cx="2828925" cy="4838699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -396,6 +741,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="mohit" id="{F3C4B87D-DB82-E9B0-11EA-62DA16641001}" userId="mohit" providerId="Teamlab"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -888,7 +1239,1046 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I31" dT="2025-06-18T21:27:29.95Z" personId="{F3C4B87D-DB82-E9B0-11EA-62DA16641001}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
+    <text xml:space="preserve">this money came from exceptional item
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="15.140625"/>
+    <col customWidth="1" min="7" max="7" width="15.140625"/>
+    <col customWidth="1" min="8" max="16384" width="15.140625"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.7109375"/>
+    <col customWidth="1" min="2" max="8" width="21.8515625"/>
+    <col customWidth="1" min="9" max="9" width="14.7109375"/>
+    <col customWidth="1" min="10" max="16384" width="14.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1">
+      <c r="C2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12692.530000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8292.25</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4978.46</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2933.1999999999998</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3294.6500000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6519.9499999999998</v>
+      </c>
+      <c r="I3" s="8">
+        <v>5946.8400000000001</v>
+      </c>
+      <c r="J3">
+        <v>6496.8400000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5">
+        <v>21.84</v>
+      </c>
+      <c r="D4" s="5">
+        <v>41.590000000000003</v>
+      </c>
+      <c r="E4" s="5">
+        <v>46.229999999999997</v>
+      </c>
+      <c r="F4" s="5">
+        <v>39.649999999999999</v>
+      </c>
+      <c r="G4" s="5">
+        <v>51.07</v>
+      </c>
+      <c r="H4" s="5">
+        <v>61.829999999999998</v>
+      </c>
+      <c r="I4" s="8">
+        <v>23.690000000000001</v>
+      </c>
+      <c r="J4">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5">
+        <v>88.819999999999993</v>
+      </c>
+      <c r="D5" s="5">
+        <v>79.170000000000002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>49.950000000000003</v>
+      </c>
+      <c r="F5" s="5">
+        <v>27.57</v>
+      </c>
+      <c r="G5" s="5">
+        <v>19.870000000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>22.190000000000001</v>
+      </c>
+      <c r="I5" s="8">
+        <v>19.629999999999999</v>
+      </c>
+      <c r="J5">
+        <v>38.420000000000002</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <f>SUM(C3:C5)</f>
+        <v>12803.190000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(D3:D5)</f>
+        <v>8413.0100000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(E3:E5)</f>
+        <v>5074.6399999999994</v>
+      </c>
+      <c r="F6" s="1">
+        <f>SUM(F3:F5)</f>
+        <v>3000.4200000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(G3:G5)</f>
+        <v>3365.5900000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SUM(H3:H5)</f>
+        <v>6603.9699999999993</v>
+      </c>
+      <c r="I6" s="1">
+        <f>SUM(I3:I5)</f>
+        <v>5990.1599999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f>SUM(J3:J5)</f>
+        <v>6567.5100000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <f>SUM(K3:K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8291.4400000000005</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4031.9989999999998</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2956.5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1404.4100000000001</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1610.75</v>
+      </c>
+      <c r="H8" s="9">
+        <v>4091.9499999999998</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3626.7600000000002</v>
+      </c>
+      <c r="J8">
+        <v>4018.6500000000001</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>987.95000000000005</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-748.54999999999995</v>
+      </c>
+      <c r="D10" s="9">
+        <v>95.769999999999996</v>
+      </c>
+      <c r="E10" s="9">
+        <v>41.850000000000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>469.10000000000002</v>
+      </c>
+      <c r="G10" s="9">
+        <v>-33.479999999999997</v>
+      </c>
+      <c r="H10" s="9">
+        <v>239.61000000000001</v>
+      </c>
+      <c r="I10" s="8">
+        <v>155.90000000000001</v>
+      </c>
+      <c r="J10">
+        <v>-36.520000000000003</v>
+      </c>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1046.48</v>
+      </c>
+      <c r="D11" s="9">
+        <v>804.67999999999995</v>
+      </c>
+      <c r="E11" s="9">
+        <v>874.15999999999997</v>
+      </c>
+      <c r="F11" s="9">
+        <v>796.25</v>
+      </c>
+      <c r="G11" s="9">
+        <v>553.21000000000004</v>
+      </c>
+      <c r="H11" s="9">
+        <v>545.36000000000001</v>
+      </c>
+      <c r="I11" s="8">
+        <v>609.22000000000003</v>
+      </c>
+      <c r="J11">
+        <v>702.89999999999998</v>
+      </c>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1287.5899999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1580.98</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1269.9100000000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1367.29</v>
+      </c>
+      <c r="G12" s="9">
+        <v>996.25999999999999</v>
+      </c>
+      <c r="H12" s="9">
+        <v>734.51999999999998</v>
+      </c>
+      <c r="I12" s="8">
+        <v>420.75999999999999</v>
+      </c>
+      <c r="J12">
+        <v>164.31999999999999</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9">
+        <v>389.02999999999997</v>
+      </c>
+      <c r="D13" s="9">
+        <v>341.61000000000001</v>
+      </c>
+      <c r="E13" s="9">
+        <v>341.85000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <v>418.61000000000001</v>
+      </c>
+      <c r="G13" s="9">
+        <v>258.38</v>
+      </c>
+      <c r="H13" s="9">
+        <v>259.83999999999997</v>
+      </c>
+      <c r="I13" s="8">
+        <v>259.68000000000001</v>
+      </c>
+      <c r="J13">
+        <v>189.59999999999999</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1625.6099999999999</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1410.3900000000001</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1160.9300000000001</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1162.8199999999999</v>
+      </c>
+      <c r="G14" s="9">
+        <v>680.96000000000004</v>
+      </c>
+      <c r="H14" s="9">
+        <v>815.40999999999997</v>
+      </c>
+      <c r="I14" s="8">
+        <v>746.73000000000002</v>
+      </c>
+      <c r="J14">
+        <v>815.17999999999995</v>
+      </c>
+      <c r="K14" s="8">
+        <v>746.73000000000002</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1">
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(C8:C14)</f>
+        <v>11891.600000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <f>SUM(D8:D14)</f>
+        <v>9253.3790000000008</v>
+      </c>
+      <c r="E15" s="1">
+        <f>SUM(E8:E14)</f>
+        <v>6645.2000000000007</v>
+      </c>
+      <c r="F15" s="1">
+        <f>SUM(F8:F14)</f>
+        <v>5618.4799999999996</v>
+      </c>
+      <c r="G15" s="1">
+        <f>SUM(G8:G14)</f>
+        <v>4066.0799999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SUM(H8:H14)</f>
+        <v>6686.6899999999987</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I8:I14)</f>
+        <v>5819.0500000000011</v>
+      </c>
+      <c r="J15" s="1">
+        <f>SUM(J8:J14)</f>
+        <v>5854.1300000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <f>SUM(K8:K14)</f>
+        <v>746.73000000000002</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2">
+        <f>C6-C15</f>
+        <v>911.58999999999833</v>
+      </c>
+      <c r="D16" s="2">
+        <f>D6-D15</f>
+        <v>-840.3690000000006</v>
+      </c>
+      <c r="E16" s="2">
+        <f>E6-E15</f>
+        <v>-1570.5600000000013</v>
+      </c>
+      <c r="F16" s="2">
+        <f>F6-F15</f>
+        <v>-2618.0599999999995</v>
+      </c>
+      <c r="G16" s="2">
+        <f>G6-G15</f>
+        <v>-700.48999999999978</v>
+      </c>
+      <c r="H16" s="2">
+        <f>H6-H15</f>
+        <v>-82.719999999999345</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I6-I15</f>
+        <v>171.10999999999876</v>
+      </c>
+      <c r="J16" s="2">
+        <f>J6-J15</f>
+        <v>713.38000000000011</v>
+      </c>
+      <c r="K16" s="1">
+        <f>K6-K15</f>
+        <v>-746.73000000000002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>-449.62</v>
+      </c>
+      <c r="E17" s="9">
+        <v>-27.57</v>
+      </c>
+      <c r="F17" s="9">
+        <v>65.890000000000001</v>
+      </c>
+      <c r="G17" s="9">
+        <v>-805.46000000000004</v>
+      </c>
+      <c r="H17" s="9">
+        <v>-83.120000000000005</v>
+      </c>
+      <c r="I17" s="8">
+        <v>-2720.5999999999999</v>
+      </c>
+      <c r="J17">
+        <v>53.890000000000001</v>
+      </c>
+      <c r="K17" s="8">
+        <v>-2720.5999999999999</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1">
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C6-C15-C17</f>
+        <v>911.58999999999833</v>
+      </c>
+      <c r="D18" s="1">
+        <f>D6-D15-D17</f>
+        <v>-390.74900000000059</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E6-E15-E17</f>
+        <v>-1542.9900000000014</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F6-F15-F17</f>
+        <v>-2683.9499999999994</v>
+      </c>
+      <c r="G18" s="1">
+        <f>G6-G15-G17</f>
+        <v>104.97000000000025</v>
+      </c>
+      <c r="H18" s="1">
+        <f>H6-H15-H17</f>
+        <v>0.40000000000065938</v>
+      </c>
+      <c r="I18" s="1">
+        <f>I6-I15-I17</f>
+        <v>2891.7099999999987</v>
+      </c>
+      <c r="J18" s="1">
+        <f>J6-J15-J17</f>
+        <v>659.49000000000012</v>
+      </c>
+      <c r="K18" s="1">
+        <f>K6-K15-K17</f>
+        <v>1973.8699999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9">
+        <v>11.699999999999999</v>
+      </c>
+      <c r="D19" s="9">
+        <v>-1.5600000000000001</v>
+      </c>
+      <c r="E19" s="9">
+        <f>3.09-14.99</f>
+        <v>-11.9</v>
+      </c>
+      <c r="F19" s="9">
+        <v>7.4400000000000004</v>
+      </c>
+      <c r="G19" s="9">
+        <f>184.07-17.48</f>
+        <v>166.59</v>
+      </c>
+      <c r="H19" s="9">
+        <f>184.07-17.48</f>
+        <v>166.59</v>
+      </c>
+      <c r="I19" s="8">
+        <f>4.61-0.19</f>
+        <v>4.4199999999999999</v>
+      </c>
+      <c r="J19">
+        <f>2.9-3.76</f>
+        <v>-0.85999999999999988</v>
+      </c>
+      <c r="K19">
+        <f>4.61-0.19</f>
+        <v>4.4199999999999999</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1">
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="10">
+        <f>C18-C19</f>
+        <v>899.88999999999828</v>
+      </c>
+      <c r="D20" s="10">
+        <f>D18-D19</f>
+        <v>-389.18900000000059</v>
+      </c>
+      <c r="E20" s="10">
+        <f>E18-E19</f>
+        <v>-1531.0900000000013</v>
+      </c>
+      <c r="F20" s="10">
+        <f>F18-F19</f>
+        <v>-2691.3899999999994</v>
+      </c>
+      <c r="G20" s="10">
+        <f>G18-G19</f>
+        <v>-61.619999999999749</v>
+      </c>
+      <c r="H20" s="10">
+        <f>H18-H19</f>
+        <v>-166.18999999999934</v>
+      </c>
+      <c r="I20" s="11">
+        <f>I18-I19</f>
+        <v>2887.2899999999986</v>
+      </c>
+      <c r="J20" s="1">
+        <f>J18-J19</f>
+        <v>660.35000000000014</v>
+      </c>
+      <c r="K20" s="11">
+        <f>K18-K19</f>
+        <v>1969.4499999999998</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="9">
+        <v>857.71000000000004</v>
+      </c>
+      <c r="D21" s="9">
+        <v>-376.98000000000002</v>
+      </c>
+      <c r="E21" s="9">
+        <v>-1527.1800000000001</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-2642.23</v>
+      </c>
+      <c r="G21" s="9">
+        <v>-199.59</v>
+      </c>
+      <c r="H21" s="9">
+        <v>-199.59</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2849.0100000000002</v>
+      </c>
+      <c r="J21">
+        <v>660.35000000000002</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2849.0100000000002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="D22" s="9">
+        <v>-0.71999999999999997</v>
+      </c>
+      <c r="E22" s="9">
+        <v>-2.8700000000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-4.9699999999999998</v>
+      </c>
+      <c r="G22" s="9">
+        <v>-0.22</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-0.22</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2.6400000000000001</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="8">
+        <v>2.6400000000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9">
+        <f>C6-C8</f>
+        <v>4511.75</v>
+      </c>
+      <c r="D24" s="9">
+        <f>D6-D8</f>
+        <v>4381.0110000000004</v>
+      </c>
+      <c r="E24" s="9">
+        <f>E6-E8</f>
+        <v>2118.1399999999994</v>
+      </c>
+      <c r="F24" s="9">
+        <f>F6-F8</f>
+        <v>1596.01</v>
+      </c>
+      <c r="G24" s="9">
+        <f>G6-G8</f>
+        <v>1754.8400000000001</v>
+      </c>
+      <c r="H24" s="9">
+        <f>H6-H8</f>
+        <v>2512.0199999999995</v>
+      </c>
+      <c r="I24" s="8">
+        <f>I6-I8</f>
+        <v>2363.3999999999996</v>
+      </c>
+      <c r="J24">
+        <f>J6-J8</f>
+        <v>2548.8600000000001</v>
+      </c>
+      <c r="K24" s="8">
+        <f>K6-K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="12">
+        <f>C24/C6</f>
+        <v>0.3523926458952808</v>
+      </c>
+      <c r="D25" s="12">
+        <f>D24/D6</f>
+        <v>0.52074239778628584</v>
+      </c>
+      <c r="E25" s="12">
+        <f>E24/E6</f>
+        <v>0.41739709614869225</v>
+      </c>
+      <c r="F25" s="12">
+        <f>F24/F6</f>
+        <v>0.53192886329247235</v>
+      </c>
+      <c r="G25" s="12">
+        <f>G24/G6</f>
+        <v>0.52140635074385178</v>
+      </c>
+      <c r="H25" s="12">
+        <f>H24/H6</f>
+        <v>0.38038028640348148</v>
+      </c>
+      <c r="I25" s="13">
+        <f>I24/I6</f>
+        <v>0.39454705717376493</v>
+      </c>
+      <c r="J25" s="13">
+        <f>J24/J6</f>
+        <v>0.38810142656806007</v>
+      </c>
+      <c r="K25" s="13" t="e">
+        <f>K24/K6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31">
+        <v>2721.7199999999998</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D1"/>
+    <hyperlink r:id="rId2" ref="F1"/>
+    <hyperlink r:id="rId3" ref="H1"/>
+    <hyperlink r:id="rId4" ref="J1"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -906,48 +2296,48 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15">
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
+        <v>70</v>
+      </c>
+      <c r="C4" s="14">
         <v>87.439999999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="14">
         <v>87.989999999999995</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="14">
         <v>143.66999999999999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="14">
         <v>269.56</v>
       </c>
       <c r="G4">
@@ -959,18 +2349,18 @@
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
+        <v>71</v>
+      </c>
+      <c r="C5" s="14">
         <v>0.53000000000000003</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="14">
         <v>0.90000000000000002</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="14">
         <v>9.0700000000000003</v>
       </c>
       <c r="G5">
@@ -982,7 +2372,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25">
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1">
         <f>C4+C5</f>
@@ -1019,18 +2409,18 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
+        <v>73</v>
+      </c>
+      <c r="C8" s="8">
         <v>70.439999999999998</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <v>77.670000000000002</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="8">
         <v>123.41</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="8">
         <v>236.19999999999999</v>
       </c>
       <c r="G8">
@@ -1042,18 +2432,18 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
+        <v>74</v>
+      </c>
+      <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9">
@@ -1065,18 +2455,18 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3">
+        <v>75</v>
+      </c>
+      <c r="C10" s="8">
         <v>-0.97999999999999998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="8">
         <v>-3.3475999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="8">
         <v>1.4199999999999999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="8">
         <v>-5.9100000000000001</v>
       </c>
       <c r="G10">
@@ -1088,18 +2478,18 @@
     </row>
     <row r="11" ht="14.25">
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="8">
         <v>5.4100000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
         <v>9.6999999999999993</v>
       </c>
       <c r="G11">
@@ -1111,21 +2501,21 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3">
+        <v>77</v>
+      </c>
+      <c r="C12" s="8">
         <v>2.77</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="8">
         <v>2.77</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="8">
         <v>2.4399999999999999</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="8">
         <v>2.3799999999999999</v>
       </c>
       <c r="G12">
@@ -1137,18 +2527,18 @@
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8">
         <v>0.89149999999999996</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="8">
         <v>0.95999999999999996</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="8">
         <v>1.5700000000000001</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="8">
         <v>2.1200000000000001</v>
       </c>
       <c r="G13">
@@ -1160,18 +2550,18 @@
     </row>
     <row r="14" ht="14.25">
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="8">
         <v>5.3799999999999999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="8">
         <v>4.3300000000000001</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="8">
         <v>19.68</v>
       </c>
       <c r="G14">
@@ -1182,28 +2572,28 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8">
         <f>SUM(C8:C14)</f>
         <v>86.731499999999983</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="8">
         <f>SUM(D8:D14)</f>
         <v>87.432399999999987</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="8">
         <f>SUM(E8:E14)</f>
         <v>138.58000000000001</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="8">
         <f>SUM(F8:F14)</f>
         <v>264.16999999999996</v>
       </c>
@@ -1211,31 +2601,31 @@
         <f>SUM(G8:G14)</f>
         <v>339.06999999999994</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="8">
         <f>SUM(H8:H14)</f>
         <v>631.96999999999991</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
+        <v>80</v>
+      </c>
+      <c r="C18" s="8">
         <v>0.080000000000000002</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="8">
         <v>0.23250000000000001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="8">
         <v>0.050000000000000003</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="8">
         <v>0</v>
       </c>
       <c r="G18">
@@ -1247,7 +2637,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="14.25">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1">
         <f>C6-C16-C18</f>
@@ -1276,21 +2666,21 @@
     </row>
     <row r="20" ht="14.25">
       <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3">
+        <v>55</v>
+      </c>
+      <c r="C20" s="8">
         <f>0.29+0.0044</f>
         <v>0.2944</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="8">
         <f>0.3075-0.0076</f>
         <v>0.2999</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="8">
         <f>1.5318</f>
         <v>1.5318000000000001</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="8">
         <f>3.37</f>
         <v>3.3700000000000001</v>
       </c>
@@ -1305,7 +2695,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="14.25">
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1">
         <f>C19-C20</f>
@@ -1334,18 +2724,18 @@
     </row>
     <row r="22" ht="14.25">
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="3">
+        <v>81</v>
+      </c>
+      <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="8">
         <v>0.0074999999999999997</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="8">
         <v>0.02</v>
       </c>
       <c r="G22">
@@ -1358,20 +2748,20 @@
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3">
+        <v>82</v>
+      </c>
+      <c r="C23" s="8">
         <f>C19</f>
         <v>1.1585000000000161</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="8">
         <f>D19</f>
         <v>1.2251000000000136</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="8">
         <v>4.04</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="8">
         <v>11.039999999999999</v>
       </c>
       <c r="G23">
@@ -1382,35 +2772,35 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="B25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8">
         <v>0.44</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="8">
         <v>0.5</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
         <v>0.56000000000000005</v>
       </c>
       <c r="G26">
@@ -1418,34 +2808,34 @@
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" ht="14.25">
       <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3">
+        <v>84</v>
+      </c>
+      <c r="C29" s="8">
         <f>C4-C8</f>
         <v>17</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="8">
         <f>D4-D8</f>
         <v>10.319999999999993</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="8">
         <f>E4-E8</f>
         <v>20.259999999999991</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="8">
         <f>F4-F8</f>
         <v>33.360000000000014</v>
       </c>
@@ -1453,135 +2843,135 @@
         <f>G4-G8</f>
         <v>51.860000000000014</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="8">
         <f>H4-H8</f>
         <v>98.659999999999968</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="4">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15">
         <f>C29/C4</f>
         <v>0.19441903019213175</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="15">
         <f>D29/D4</f>
         <v>0.11728605523354919</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="15">
         <f>E29/E4</f>
         <v>0.14101760980023662</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="15">
         <f>F29/F4</f>
         <v>0.1237572340109809</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="15">
         <f>G29/G4</f>
         <v>0.14662972178240222</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="15">
         <f>H29/H4</f>
         <v>0.14628649377993264</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="5">
+        <v>86</v>
+      </c>
+      <c r="C33" s="13">
         <f>D21/C21</f>
         <v>1.0707094086332558</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="13">
         <f>E21/D21</f>
         <v>4.4079118028533388</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="13">
         <f>F21/E21</f>
         <v>2.7193369623853956</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="13">
         <f>G21/F21</f>
         <v>1.0685302073940501</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="13">
         <f>H21/G21</f>
         <v>2.7569620253164473</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="13">
         <f>I21/H21</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="5">
+        <v>87</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="13">
         <f>D6/C6</f>
         <v>1.0104581107195636</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="13">
         <f>E6/D6</f>
         <v>1.6226797165035434</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="13">
         <f>F6/E6</f>
         <v>1.9317110371602886</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="13">
         <f>G6/F6</f>
         <v>1.2750242256756272</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="13">
         <f>H6/G6</f>
         <v>1.9050554523447616</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5">
+        <v>88</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13">
         <f>D8/C8</f>
         <v>1.1026405451448043</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="13">
         <f>E8/D8</f>
         <v>1.5889017638727951</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="13">
         <f>F8/E8</f>
         <v>1.9139453853010291</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="13">
         <f>G8/F8</f>
         <v>1.2778154106689246</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="13">
         <f>H8/G8</f>
         <v>1.9076601948181036</v>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -1591,167 +2981,167 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="12" style="6" width="9.140625"/>
-    <col customWidth="1" min="13" max="13" style="6" width="13.7109375"/>
-    <col customWidth="1" min="14" max="14" style="6" width="22.00390625"/>
-    <col min="15" max="16384" style="6" width="9.140625"/>
+    <col min="1" max="12" style="16" width="9.140625"/>
+    <col customWidth="1" min="13" max="13" style="16" width="13.7109375"/>
+    <col customWidth="1" min="14" max="14" style="16" width="22.00390625"/>
+    <col min="15" max="16384" style="16" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
+      <c r="A1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="M2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="M2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="16">
         <v>123.7</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="B3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="B3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="16">
         <v>216904290</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="M4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="M4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="18">
         <f>N3*N2</f>
         <v>26831060673</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="16">
         <f>N4/10000000</f>
         <v>2683.1060673000002</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="16">
         <v>2024</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="M5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="16">
         <f>32.59</f>
         <v>32.590000000000003</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" ht="16.5">
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="B6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="M6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="16">
         <f>59.6471</f>
         <v>59.647100000000002</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" ht="16.5">
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="B7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="16">
         <f>O4+N6-N5</f>
         <v>2710.1631673000002</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" ht="16.5">
-      <c r="B8" s="6" t="s">
-        <v>46</v>
+      <c r="B8" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="D9" s="6">
+      <c r="D9" s="16">
         <v>2021</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="D10" s="6"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="16"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="B18" s="9" t="s">
-        <v>47</v>
+      <c r="B18" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="A20" s="6">
+      <c r="A20" s="16">
         <v>2024</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>48</v>
+      <c r="B20" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="21" ht="16.5">
-      <c r="A21" s="6">
+      <c r="A21" s="16">
         <v>2021</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>49</v>
+      <c r="B21" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" ht="16.5">
-      <c r="B22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
+      <c r="B22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="B23" s="6" t="s">
-        <v>52</v>
+      <c r="B23" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" ht="16.5">
-      <c r="B24" s="6" t="s">
-        <v>53</v>
+      <c r="B24" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1763,15 +3153,1089 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.7109375"/>
+    <col customWidth="1" min="2" max="2" width="25.28125"/>
+    <col customWidth="1" min="3" max="7" width="14.7109375"/>
+    <col customWidth="1" min="8" max="16384" width="14.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25">
+      <c r="C2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1480.2822000000001</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2057.9830999999999</v>
+      </c>
+      <c r="E3" s="20">
+        <v>2549</v>
+      </c>
+      <c r="F3" s="20">
+        <v>3124</v>
+      </c>
+      <c r="G3" s="20">
+        <v>5133</v>
+      </c>
+      <c r="H3" s="21">
+        <v>7776</v>
+      </c>
+      <c r="I3" s="21">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="20">
+        <v>51.127400000000002</v>
+      </c>
+      <c r="D4" s="20">
+        <v>73.014899999999997</v>
+      </c>
+      <c r="E4" s="20">
+        <v>80</v>
+      </c>
+      <c r="F4" s="20">
+        <v>475</v>
+      </c>
+      <c r="G4" s="20">
+        <v>444</v>
+      </c>
+      <c r="H4" s="21">
+        <v>841</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25">
+      <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="22">
+        <f>SUM(C3:C4)</f>
+        <v>1531.4096000000002</v>
+      </c>
+      <c r="D5" s="22">
+        <f>SUM(D3:D4)</f>
+        <v>2130.998</v>
+      </c>
+      <c r="E5" s="22">
+        <f>SUM(E3:E4)</f>
+        <v>2629</v>
+      </c>
+      <c r="F5" s="22">
+        <f>SUM(F3:F4)</f>
+        <v>3599</v>
+      </c>
+      <c r="G5" s="22">
+        <f>SUM(G3:G4)</f>
+        <v>5577</v>
+      </c>
+      <c r="H5" s="22">
+        <f>SUM(H3:H4)</f>
+        <v>8617</v>
+      </c>
+      <c r="I5" s="22">
+        <f>SUM(I3:I4)</f>
+        <v>10460</v>
+      </c>
+    </row>
+    <row r="6" s="0" customFormat="1" ht="14.25">
+      <c r="B6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="20">
+        <f>C43</f>
+        <v>1351.3099999999999</v>
+      </c>
+      <c r="D6" s="20">
+        <f>D43</f>
+        <v>742.22000000000003</v>
+      </c>
+      <c r="E6" s="20">
+        <f>E43</f>
+        <v>1115</v>
+      </c>
+      <c r="F6" s="20">
+        <f>F43</f>
+        <v>3693</v>
+      </c>
+      <c r="G6" s="20">
+        <f>G43</f>
+        <v>9471</v>
+      </c>
+      <c r="H6" s="21">
+        <f>H43</f>
+        <v>4215</v>
+      </c>
+      <c r="I6" s="20">
+        <f>I43</f>
+        <v>22557</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="7" s="0" customFormat="1" ht="14.25">
+      <c r="B7" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="20">
+        <f>C42+C41</f>
+        <v>8373.0499999999993</v>
+      </c>
+      <c r="D7" s="20">
+        <f>D42+D41</f>
+        <v>9948.1100000000006</v>
+      </c>
+      <c r="E7" s="20">
+        <f>E42+E41</f>
+        <v>12610</v>
+      </c>
+      <c r="F7" s="20">
+        <f>F42+F41</f>
+        <v>19746</v>
+      </c>
+      <c r="G7" s="20">
+        <f>G42+G41</f>
+        <v>42717</v>
+      </c>
+      <c r="H7" s="21">
+        <f>H42+H41</f>
+        <v>48632</v>
+      </c>
+      <c r="I7" s="20">
+        <f>I42+I41</f>
+        <v>40503</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" s="0" customFormat="1" ht="14.25">
+      <c r="B8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="20">
+        <f>C38</f>
+        <v>1341.4100000000001</v>
+      </c>
+      <c r="D8" s="20">
+        <f>D38</f>
+        <v>1933.346</v>
+      </c>
+      <c r="E8" s="20">
+        <f>E38</f>
+        <v>2356</v>
+      </c>
+      <c r="F8" s="20">
+        <f>F38</f>
+        <v>2200</v>
+      </c>
+      <c r="G8" s="20">
+        <f>G38</f>
+        <v>2614</v>
+      </c>
+      <c r="H8" s="21">
+        <f>H38</f>
+        <v>7304</v>
+      </c>
+      <c r="I8" s="20">
+        <f>I38</f>
+        <v>9834</v>
+      </c>
+    </row>
+    <row r="9" s="0" customFormat="1" ht="14.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="24">
+        <v>90.540999999999997</v>
+      </c>
+      <c r="D10" s="24">
+        <v>130.13589999999999</v>
+      </c>
+      <c r="E10" s="24">
+        <v>462</v>
+      </c>
+      <c r="F10" s="24">
+        <v>528</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1286</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1748</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="26">
+        <v>423.86680000000001</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>19</v>
+      </c>
+      <c r="F11" s="24">
+        <v>96</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="24">
+        <v>43.653799999999997</v>
+      </c>
+      <c r="D12" s="24">
+        <v>59.649500000000003</v>
+      </c>
+      <c r="E12" s="24">
+        <v>107</v>
+      </c>
+      <c r="F12" s="24">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24">
+        <v>34</v>
+      </c>
+      <c r="H12" s="25">
+        <v>40</v>
+      </c>
+      <c r="I12" s="21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="24">
+        <v>551.82259999999997</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1121.1756</v>
+      </c>
+      <c r="E13" s="24">
+        <v>995</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1953</v>
+      </c>
+      <c r="G13" s="24">
+        <v>2617</v>
+      </c>
+      <c r="H13" s="25">
+        <v>2911</v>
+      </c>
+      <c r="I13" s="21">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="24">
+        <v>542.98710000000005</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1061.9597000000001</v>
+      </c>
+      <c r="E14" s="24">
+        <v>394</v>
+      </c>
+      <c r="F14" s="24">
+        <v>486</v>
+      </c>
+      <c r="G14" s="24">
+        <v>849</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1300</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="24">
+        <v>88.717200000000005</v>
+      </c>
+      <c r="D15" s="24">
+        <v>342.73259999999999</v>
+      </c>
+      <c r="E15" s="24">
+        <v>511</v>
+      </c>
+      <c r="F15" s="21">
+        <v>227</v>
+      </c>
+      <c r="G15" s="24">
+        <v>303</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1057</v>
+      </c>
+      <c r="I15" s="21">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.25">
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="22">
+        <f>SUM(C10:C15)</f>
+        <v>1741.5885000000001</v>
+      </c>
+      <c r="D16" s="22">
+        <f>SUM(D10:D15)</f>
+        <v>2715.6532999999999</v>
+      </c>
+      <c r="E16" s="22">
+        <f>SUM(E10:E15)</f>
+        <v>2488</v>
+      </c>
+      <c r="F16" s="22">
+        <f>SUM(F10:F15)</f>
+        <v>3328</v>
+      </c>
+      <c r="G16" s="22">
+        <f>SUM(G10:G15)</f>
+        <v>5089</v>
+      </c>
+      <c r="H16" s="22">
+        <f>SUM(H10:H15)</f>
+        <v>7056</v>
+      </c>
+      <c r="I16" s="22">
+        <f>SUM(I10:I15)</f>
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>-7</v>
+      </c>
+      <c r="F17" s="24">
+        <v>6</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="H17" s="25">
+        <v>59</v>
+      </c>
+      <c r="I17" s="21">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>-191</v>
+      </c>
+      <c r="F18" s="24">
+        <v>-84</v>
+      </c>
+      <c r="G18" s="24">
+        <v>64</v>
+      </c>
+      <c r="H18" s="25">
+        <v>-194</v>
+      </c>
+      <c r="I18" s="21">
+        <v>-246</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="22">
+        <f>C5-C16+C17+C18</f>
+        <v>-210.17889999999989</v>
+      </c>
+      <c r="D19" s="22">
+        <f>D5-D16+D17+D18</f>
+        <v>-584.6552999999999</v>
+      </c>
+      <c r="E19" s="22">
+        <f>E5-E16+E17+E18</f>
+        <v>-57</v>
+      </c>
+      <c r="F19" s="22">
+        <f>F5-F16+F17+F18</f>
+        <v>193</v>
+      </c>
+      <c r="G19" s="22">
+        <f>G5-G16+G17+G18</f>
+        <v>553</v>
+      </c>
+      <c r="H19" s="22">
+        <f>H5-H16+H17+H18</f>
+        <v>1426</v>
+      </c>
+      <c r="I19" s="22">
+        <f>I5-I16+I17+I18</f>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="20" s="0" customFormat="1" ht="14.25">
+      <c r="B20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="26">
+        <v>72.696899999999999</v>
+      </c>
+      <c r="D20" s="26">
+        <v>113.1631</v>
+      </c>
+      <c r="E20" s="26">
+        <v>-11</v>
+      </c>
+      <c r="F20" s="26">
+        <v>-11</v>
+      </c>
+      <c r="G20" s="26">
+        <v>-64</v>
+      </c>
+      <c r="H20" s="21">
+        <v>-453</v>
+      </c>
+      <c r="I20" s="20">
+        <v>-411</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.25">
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="22">
+        <f>C19+C20</f>
+        <v>-137.48199999999989</v>
+      </c>
+      <c r="D21" s="22">
+        <f>D19+D20</f>
+        <v>-471.49219999999991</v>
+      </c>
+      <c r="E21" s="22">
+        <f>E19+E20</f>
+        <v>-68</v>
+      </c>
+      <c r="F21" s="22">
+        <f>F19+F20</f>
+        <v>182</v>
+      </c>
+      <c r="G21" s="22">
+        <f>G19+G20</f>
+        <v>489</v>
+      </c>
+      <c r="H21" s="22">
+        <f>H19+H20</f>
+        <v>973</v>
+      </c>
+      <c r="I21" s="22">
+        <f>I19+I20</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="24">
+        <v>-0.88</v>
+      </c>
+      <c r="D23" s="24">
+        <v>-3.5699999999999998</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="G23" s="24">
+        <v>2.4100000000000001</v>
+      </c>
+      <c r="H23" s="25">
+        <v>5.4100000000000001</v>
+      </c>
+      <c r="I23" s="21">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="27">
+        <f>C3-C10</f>
+        <v>1389.7412000000002</v>
+      </c>
+      <c r="D25" s="27">
+        <f>D3-D10</f>
+        <v>1927.8471999999999</v>
+      </c>
+      <c r="E25" s="27">
+        <f>E3-E10</f>
+        <v>2087</v>
+      </c>
+      <c r="F25" s="27">
+        <f>F3-F10</f>
+        <v>2596</v>
+      </c>
+      <c r="G25" s="27">
+        <f>G3-G10</f>
+        <v>3847</v>
+      </c>
+      <c r="H25" s="27">
+        <f>H3-H10</f>
+        <v>6028</v>
+      </c>
+      <c r="I25" s="27">
+        <f>I3-I10</f>
+        <v>8033</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="13">
+        <f>C25/C3</f>
+        <v>0.93883531126700037</v>
+      </c>
+      <c r="D26" s="13">
+        <f>D25/D3</f>
+        <v>0.93676532134787693</v>
+      </c>
+      <c r="E26" s="13">
+        <f>E25/E3</f>
+        <v>0.81875245194193802</v>
+      </c>
+      <c r="F26" s="13">
+        <f>F25/F3</f>
+        <v>0.83098591549295775</v>
+      </c>
+      <c r="G26" s="13">
+        <f>G25/G3</f>
+        <v>0.74946425092538471</v>
+      </c>
+      <c r="H26" s="13">
+        <f>H25/H3</f>
+        <v>0.77520576131687247</v>
+      </c>
+      <c r="I26" s="13">
+        <f>I25/I3</f>
+        <v>0.87125813449023859</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="27">
+        <f>D12/C12-1</f>
+        <v>0.36642170899211535</v>
+      </c>
+      <c r="E27" s="27">
+        <f>E12/D12-1</f>
+        <v>0.79381218618764615</v>
+      </c>
+      <c r="F27" s="27">
+        <f>F12/E12-1</f>
+        <v>-0.64485981308411211</v>
+      </c>
+      <c r="G27" s="27">
+        <f>G12/F12-1</f>
+        <v>-0.10526315789473684</v>
+      </c>
+      <c r="H27" s="27">
+        <f>H12/G12-1</f>
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="I27" s="27">
+        <f>I12/H12-1</f>
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="13">
+        <f>C13/C6</f>
+        <v>0.40836121985332752</v>
+      </c>
+      <c r="D28" s="13">
+        <f>D13/D6</f>
+        <v>1.5105704508097328</v>
+      </c>
+      <c r="E28" s="13">
+        <f>E13/E6</f>
+        <v>0.8923766816143498</v>
+      </c>
+      <c r="F28" s="13">
+        <f>F13/F6</f>
+        <v>0.52883834281072295</v>
+      </c>
+      <c r="G28" s="13">
+        <f>G13/G6</f>
+        <v>0.27631717875620315</v>
+      </c>
+      <c r="H28" s="13">
+        <f>H13/H6</f>
+        <v>0.69062870699881374</v>
+      </c>
+      <c r="I28" s="13">
+        <f>I13/I6</f>
+        <v>0.22192667464645122</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="13">
+        <f>D14/C14-1</f>
+        <v>0.95577335078494507</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="27">
+        <f>MAX(0,C19/C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="27">
+        <f>MAX(0,D19/D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <f>F20/F19*-1</f>
+        <v>0.056994818652849742</v>
+      </c>
+      <c r="G30" s="13">
+        <f>G20/G19*-1</f>
+        <v>0.11573236889692586</v>
+      </c>
+      <c r="H30" s="13">
+        <f>H20/H19*-1</f>
+        <v>0.317671809256662</v>
+      </c>
+      <c r="I30" s="13">
+        <f>I20/I19*-1</f>
+        <v>0.24596050269299821</v>
+      </c>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <f>C45/C38</f>
+        <v>7.2493570198522432</v>
+      </c>
+      <c r="D31" s="8">
+        <f>D45/D38</f>
+        <v>5.5294448070857465</v>
+      </c>
+      <c r="E31" s="8">
+        <f>E45/E38</f>
+        <v>5.8255517826825125</v>
+      </c>
+      <c r="F31" s="8">
+        <f>F45/F38</f>
+        <v>10.654090909090909</v>
+      </c>
+      <c r="G31" s="8">
+        <f>G45/G38</f>
+        <v>19.964804896710024</v>
+      </c>
+      <c r="H31" s="8">
+        <f>H45/H38</f>
+        <v>7.2353504928806132</v>
+      </c>
+      <c r="I31" s="8">
+        <f>I45/I38</f>
+        <v>6.4124466137888954</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1564.01</v>
+      </c>
+      <c r="D35">
+        <v>1564.01</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1564</v>
+      </c>
+      <c r="F35">
+        <v>1564</v>
+      </c>
+      <c r="G35" s="28">
+        <v>1564</v>
+      </c>
+      <c r="H35" s="28">
+        <v>1584</v>
+      </c>
+      <c r="I35">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1093.336</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1593</v>
+      </c>
+      <c r="F36">
+        <v>1339</v>
+      </c>
+      <c r="G36" s="28">
+        <v>1424</v>
+      </c>
+      <c r="H36" s="28">
+        <v>1424</v>
+      </c>
+      <c r="I36">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-222.59999999999999</v>
+      </c>
+      <c r="D37">
+        <v>-724</v>
+      </c>
+      <c r="E37" s="8">
+        <v>-801</v>
+      </c>
+      <c r="F37">
+        <v>-703</v>
+      </c>
+      <c r="G37" s="28">
+        <v>-374</v>
+      </c>
+      <c r="H37" s="28">
+        <v>4296</v>
+      </c>
+      <c r="I37">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="14.25">
+      <c r="B38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="29">
+        <f>SUM(C35:C37)</f>
+        <v>1341.4100000000001</v>
+      </c>
+      <c r="D38" s="29">
+        <f>SUM(D35:D37)</f>
+        <v>1933.346</v>
+      </c>
+      <c r="E38" s="29">
+        <f>SUM(E35:E37)</f>
+        <v>2356</v>
+      </c>
+      <c r="F38" s="29">
+        <f>SUM(F35:F37)</f>
+        <v>2200</v>
+      </c>
+      <c r="G38" s="29">
+        <f>SUM(G35:G37)</f>
+        <v>2614</v>
+      </c>
+      <c r="H38" s="29">
+        <f>SUM(H35:H37)</f>
+        <v>7304</v>
+      </c>
+      <c r="I38" s="1">
+        <v>9834</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="28">
+        <v>0</v>
+      </c>
+      <c r="D41" s="28">
+        <v>0</v>
+      </c>
+      <c r="E41" s="28">
+        <v>0</v>
+      </c>
+      <c r="F41" s="28">
+        <v>4013</v>
+      </c>
+      <c r="G41" s="28">
+        <v>4013</v>
+      </c>
+      <c r="H41" s="28">
+        <v>4013</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="28">
+        <v>8373.0499999999993</v>
+      </c>
+      <c r="D42" s="28">
+        <v>9948.1100000000006</v>
+      </c>
+      <c r="E42" s="28">
+        <v>12610</v>
+      </c>
+      <c r="F42" s="28">
+        <v>15733</v>
+      </c>
+      <c r="G42" s="28">
+        <v>38704</v>
+      </c>
+      <c r="H42" s="28">
+        <v>44619</v>
+      </c>
+      <c r="I42">
+        <v>40503</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="B43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="28">
+        <v>1351.3099999999999</v>
+      </c>
+      <c r="D43" s="28">
+        <v>742.22000000000003</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1115</v>
+      </c>
+      <c r="F43" s="28">
+        <v>3693</v>
+      </c>
+      <c r="G43" s="28">
+        <v>9471</v>
+      </c>
+      <c r="H43" s="28">
+        <v>4215</v>
+      </c>
+      <c r="I43">
+        <v>22557</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="B44"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="29">
+        <f>SUM(C41:C43)</f>
+        <v>9724.3599999999988</v>
+      </c>
+      <c r="D45" s="29">
+        <f>SUM(D41:D43)</f>
+        <v>10690.33</v>
+      </c>
+      <c r="E45" s="29">
+        <f>SUM(E41:E43)</f>
+        <v>13725</v>
+      </c>
+      <c r="F45" s="29">
+        <f>SUM(F41:F43)</f>
+        <v>23439</v>
+      </c>
+      <c r="G45" s="29">
+        <f>SUM(G41:G43)</f>
+        <v>52188</v>
+      </c>
+      <c r="H45" s="29">
+        <f>SUM(H41:H43)</f>
+        <v>52847</v>
+      </c>
+      <c r="I45" s="29">
+        <f>SUM(I41:I43)</f>
+        <v>63060</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25"/>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1779,15 +4243,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="14.7109375"/>
+    <col customWidth="1" min="3" max="3" width="19.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/sheets/ENERGY.xlsx
+++ b/sheets/ENERGY.xlsx
@@ -7,12 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Suzlon power main" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="SUZLON" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="servo-tec" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="servo-tec-basic-6" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="adani-green" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="adani-green-6" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Tata Power main" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TATAPOWER" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Suzlon power main" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="SUZLON" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="servo-tec" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="servo-tec-basic-6" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="adani-green" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="adani-green-6" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -557,9 +559,8 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -567,22 +568,13 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -591,22 +583,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,7 +728,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="mohit" id="{F3C4B87D-DB82-E9B0-11EA-62DA16641001}" userId="mohit" providerId="Teamlab"/>
+  <person displayName="mohit" id="{887C8C47-5C89-5321-613C-79755B639A78}" userId="mohit" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -1241,7 +1224,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I31" dT="2025-06-18T21:27:29.95Z" personId="{F3C4B87D-DB82-E9B0-11EA-62DA16641001}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
+  <threadedComment ref="I31" dT="2025-06-18T21:27:29.95Z" personId="{887C8C47-5C89-5321-613C-79755B639A78}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
     <text xml:space="preserve">this money came from exceptional item
 </text>
   </threadedComment>
@@ -1257,9 +1240,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="15.140625"/>
-    <col customWidth="1" min="7" max="7" width="15.140625"/>
-    <col customWidth="1" min="8" max="16384" width="15.140625"/>
+    <col customWidth="1" min="1" max="16384" width="15.140625"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25">
@@ -1303,16 +1284,16 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1320,7 +1301,7 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1379,50 +1360,8 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="B9" s="1">
-        <v>2022</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25"/>
-    <row r="12" ht="14.25"/>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1434,16 +1373,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.7109375"/>
     <col customWidth="1" min="2" max="8" width="21.8515625"/>
-    <col customWidth="1" min="9" max="9" width="14.7109375"/>
-    <col customWidth="1" min="10" max="16384" width="14.7109375"/>
+    <col customWidth="1" min="9" max="16384" width="14.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1453,19 +1465,19 @@
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1502,25 +1514,25 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>12692.530000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>8292.25</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4978.46</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>2933.1999999999998</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>3294.6500000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>6519.9499999999998</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>5946.8400000000001</v>
       </c>
       <c r="J3">
@@ -1531,25 +1543,25 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>21.84</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>41.590000000000003</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>46.229999999999997</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>39.649999999999999</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>51.07</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>61.829999999999998</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>23.690000000000001</v>
       </c>
       <c r="J4">
@@ -1560,25 +1572,25 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>88.819999999999993</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>79.170000000000002</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>49.950000000000003</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>27.57</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>19.870000000000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>22.190000000000001</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>19.629999999999999</v>
       </c>
       <c r="J5">
@@ -1627,14 +1639,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1643,211 +1655,211 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>8291.4400000000005</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>4031.9989999999998</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>2956.5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>1404.4100000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>1610.75</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>4091.9499999999998</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>3626.7600000000002</v>
       </c>
       <c r="J8">
         <v>4018.6500000000001</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9">
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>987.95000000000005</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>-748.54999999999995</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>95.769999999999996</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>41.850000000000001</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>469.10000000000002</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>-33.479999999999997</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>239.61000000000001</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>155.90000000000001</v>
       </c>
       <c r="J10">
         <v>-36.520000000000003</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11">
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>1046.48</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>804.67999999999995</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>874.15999999999997</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>796.25</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>553.21000000000004</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>545.36000000000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>609.22000000000003</v>
       </c>
       <c r="J11">
         <v>702.89999999999998</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12">
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>1287.5899999999999</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>1580.98</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>1269.9100000000001</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>1367.29</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>996.25999999999999</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>734.51999999999998</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>420.75999999999999</v>
       </c>
       <c r="J12">
         <v>164.31999999999999</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13">
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>389.02999999999997</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>341.61000000000001</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>341.85000000000002</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <v>418.61000000000001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>258.38</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>259.83999999999997</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>259.68000000000001</v>
       </c>
       <c r="J13">
         <v>189.59999999999999</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14">
       <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>1625.6099999999999</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>1410.3900000000001</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>1160.9300000000001</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>1162.8199999999999</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>680.96000000000004</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>815.40999999999997</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>746.73000000000002</v>
       </c>
       <c r="J14">
         <v>815.17999999999995</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>746.73000000000002</v>
       </c>
     </row>
@@ -1894,30 +1906,30 @@
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f>C6-C15</f>
         <v>911.58999999999833</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f>D6-D15</f>
         <v>-840.3690000000006</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f>E6-E15</f>
         <v>-1570.5600000000013</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f>F6-F15</f>
         <v>-2618.0599999999995</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <f>G6-G15</f>
         <v>-700.48999999999978</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <f>H6-H15</f>
         <v>-82.719999999999345</v>
       </c>
@@ -1925,7 +1937,7 @@
         <f>I6-I15</f>
         <v>171.10999999999876</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f>J6-J15</f>
         <v>713.38000000000011</v>
       </c>
@@ -1941,31 +1953,31 @@
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>-449.62</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>-27.57</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>65.890000000000001</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>-805.46000000000004</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>-83.120000000000005</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>-2720.5999999999999</v>
       </c>
       <c r="J17">
         <v>53.890000000000001</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>-2720.5999999999999</v>
       </c>
     </row>
@@ -2014,28 +2026,28 @@
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>11.699999999999999</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>-1.5600000000000001</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="6">
         <f>3.09-14.99</f>
         <v>-11.9</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="6">
         <v>7.4400000000000004</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <f>184.07-17.48</f>
         <v>166.59</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <f>184.07-17.48</f>
         <v>166.59</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <f>4.61-0.19</f>
         <v>4.4199999999999999</v>
       </c>
@@ -2052,31 +2064,31 @@
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <f>C18-C19</f>
         <v>899.88999999999828</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <f>D18-D19</f>
         <v>-389.18900000000059</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <f>E18-E19</f>
         <v>-1531.0900000000013</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <f>F18-F19</f>
         <v>-2691.3899999999994</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="7">
         <f>G18-G19</f>
         <v>-61.619999999999749</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <f>H18-H19</f>
         <v>-166.18999999999934</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="7">
         <f>I18-I19</f>
         <v>2887.2899999999986</v>
       </c>
@@ -2084,7 +2096,7 @@
         <f>J18-J19</f>
         <v>660.35000000000014</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="7">
         <f>K18-K19</f>
         <v>1969.4499999999998</v>
       </c>
@@ -2093,31 +2105,31 @@
       <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>857.71000000000004</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <v>-376.98000000000002</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="6">
         <v>-1527.1800000000001</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>-2642.23</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>-199.59</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <v>-199.59</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>2849.0100000000002</v>
       </c>
       <c r="J21">
         <v>660.35000000000002</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>2849.0100000000002</v>
       </c>
     </row>
@@ -2125,73 +2137,73 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>1.71</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>-0.71999999999999997</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>-2.8700000000000001</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>-4.9699999999999998</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>-0.22</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>-0.22</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>2.6400000000000001</v>
       </c>
       <c r="J22">
         <v>0.5</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>2.6400000000000001</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24">
       <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <f>C6-C8</f>
         <v>4511.75</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <f>D6-D8</f>
         <v>4381.0110000000004</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <f>E6-E8</f>
         <v>2118.1399999999994</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <f>F6-F8</f>
         <v>1596.01</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <f>G6-G8</f>
         <v>1754.8400000000001</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <f>H6-H8</f>
         <v>2512.0199999999995</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <f>I6-I8</f>
         <v>2363.3999999999996</v>
       </c>
@@ -2199,7 +2211,7 @@
         <f>J6-J8</f>
         <v>2548.8600000000001</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <f>K6-K8</f>
         <v>0</v>
       </c>
@@ -2208,39 +2220,39 @@
       <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="8">
         <f>C24/C6</f>
         <v>0.3523926458952808</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <f>D24/D6</f>
         <v>0.52074239778628584</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <f>E24/E6</f>
         <v>0.41739709614869225</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <f>F24/F6</f>
         <v>0.53192886329247235</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="8">
         <f>G24/G6</f>
         <v>0.52140635074385178</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <f>H24/H6</f>
         <v>0.38038028640348148</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="8">
         <f>I24/I6</f>
         <v>0.39454705717376493</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="8">
         <f>J24/J6</f>
         <v>0.38810142656806007</v>
       </c>
-      <c r="K25" s="13" t="e">
+      <c r="K25" s="8" t="e">
         <f>K24/K6</f>
         <v>#DIV/0!</v>
       </c>
@@ -2278,7 +2290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -2328,16 +2340,16 @@
       <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="4">
         <v>87.439999999999998</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="4">
         <v>87.989999999999995</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="4">
         <v>143.66999999999999</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="4">
         <v>269.56</v>
       </c>
       <c r="G4">
@@ -2351,16 +2363,16 @@
       <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="4">
         <v>0.53000000000000003</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="4">
         <v>0.90000000000000002</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="4">
         <v>9.0700000000000003</v>
       </c>
       <c r="G5">
@@ -2411,16 +2423,16 @@
       <c r="B8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>70.439999999999998</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>77.670000000000002</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>123.41</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>236.19999999999999</v>
       </c>
       <c r="G8">
@@ -2434,16 +2446,16 @@
       <c r="B9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9">
@@ -2457,16 +2469,16 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>-0.97999999999999998</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>-3.3475999999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>1.4199999999999999</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>-5.9100000000000001</v>
       </c>
       <c r="G10">
@@ -2480,16 +2492,16 @@
       <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>5.4100000000000001</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>9.6999999999999993</v>
       </c>
       <c r="G11">
@@ -2506,16 +2518,16 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>2.77</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>2.77</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>2.4399999999999999</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>2.3799999999999999</v>
       </c>
       <c r="G12">
@@ -2529,16 +2541,16 @@
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>0.89149999999999996</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>0.95999999999999996</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>1.5700000000000001</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>2.1200000000000001</v>
       </c>
       <c r="G13">
@@ -2552,16 +2564,16 @@
       <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>9</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>5.3799999999999999</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>4.3300000000000001</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>19.68</v>
       </c>
       <c r="G14">
@@ -2572,28 +2584,28 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
         <v>86.731499999999983</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <f>SUM(D8:D14)</f>
         <v>87.432399999999987</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <f>SUM(E8:E14)</f>
         <v>138.58000000000001</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <f>SUM(F8:F14)</f>
         <v>264.16999999999996</v>
       </c>
@@ -2601,31 +2613,31 @@
         <f>SUM(G8:G14)</f>
         <v>339.06999999999994</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <f>SUM(H8:H14)</f>
         <v>631.96999999999991</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>0.080000000000000002</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>0.23250000000000001</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>0.050000000000000003</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
       <c r="G18">
@@ -2668,19 +2680,19 @@
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <f>0.29+0.0044</f>
         <v>0.2944</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <f>0.3075-0.0076</f>
         <v>0.2999</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <f>1.5318</f>
         <v>1.5318000000000001</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <f>3.37</f>
         <v>3.3700000000000001</v>
       </c>
@@ -2726,16 +2738,16 @@
       <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>0.0074999999999999997</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>0.02</v>
       </c>
       <c r="G22">
@@ -2750,18 +2762,18 @@
       <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <f>C19</f>
         <v>1.1585000000000161</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <f>D19</f>
         <v>1.2251000000000136</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>4.04</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>11.039999999999999</v>
       </c>
       <c r="G23">
@@ -2772,35 +2784,35 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>0.44</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>0.5</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
         <v>0.56000000000000005</v>
       </c>
       <c r="G26">
@@ -2808,34 +2820,34 @@
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" ht="14.25">
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <f>C4-C8</f>
         <v>17</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <f>D4-D8</f>
         <v>10.319999999999993</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <f>E4-E8</f>
         <v>20.259999999999991</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <f>F4-F8</f>
         <v>33.360000000000014</v>
       </c>
@@ -2843,7 +2855,7 @@
         <f>G4-G8</f>
         <v>51.860000000000014</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <f>H4-H8</f>
         <v>98.659999999999968</v>
       </c>
@@ -2855,64 +2867,64 @@
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="9">
         <f>C29/C4</f>
         <v>0.19441903019213175</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="9">
         <f>D29/D4</f>
         <v>0.11728605523354919</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="9">
         <f>E29/E4</f>
         <v>0.14101760980023662</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="9">
         <f>F29/F4</f>
         <v>0.1237572340109809</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="9">
         <f>G29/G4</f>
         <v>0.14662972178240222</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="9">
         <f>H29/H4</f>
         <v>0.14628649377993264</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="8">
         <f>D21/C21</f>
         <v>1.0707094086332558</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="8">
         <f>E21/D21</f>
         <v>4.4079118028533388</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="8">
         <f>F21/E21</f>
         <v>2.7193369623853956</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="8">
         <f>G21/F21</f>
         <v>1.0685302073940501</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="8">
         <f>H21/G21</f>
         <v>2.7569620253164473</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="8">
         <f>I21/H21</f>
         <v>0</v>
       </c>
@@ -2921,24 +2933,24 @@
       <c r="B34" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="13">
+      <c r="C34" s="6"/>
+      <c r="D34" s="8">
         <f>D6/C6</f>
         <v>1.0104581107195636</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="8">
         <f>E6/D6</f>
         <v>1.6226797165035434</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="8">
         <f>F6/E6</f>
         <v>1.9317110371602886</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="8">
         <f>G6/F6</f>
         <v>1.2750242256756272</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="8">
         <f>H6/G6</f>
         <v>1.9050554523447616</v>
       </c>
@@ -2947,31 +2959,31 @@
       <c r="B35" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
         <f>D8/C8</f>
         <v>1.1026405451448043</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="8">
         <f>E8/D8</f>
         <v>1.5889017638727951</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="8">
         <f>F8/E8</f>
         <v>1.9139453853010291</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="8">
         <f>G8/F8</f>
         <v>1.2778154106689246</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="8">
         <f>H8/G8</f>
         <v>1.9076601948181036</v>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
@@ -2981,7 +2993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -2990,157 +3002,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="12" style="16" width="9.140625"/>
-    <col customWidth="1" min="13" max="13" style="16" width="13.7109375"/>
-    <col customWidth="1" min="14" max="14" style="16" width="22.00390625"/>
-    <col min="15" max="16384" style="16" width="9.140625"/>
+    <col min="1" max="12" style="10" width="9.140625"/>
+    <col customWidth="1" min="13" max="13" style="10" width="13.7109375"/>
+    <col customWidth="1" min="14" max="14" style="10" width="22.00390625"/>
+    <col min="15" max="16384" style="10" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="10">
         <v>123.7</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="10">
         <v>216904290</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="12">
         <f>N3*N2</f>
         <v>26831060673</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="10">
         <f>N4/10000000</f>
         <v>2683.1060673000002</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>2024</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="10">
         <f>32.59</f>
         <v>32.590000000000003</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" ht="16.5">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="M6" s="16" t="s">
+      <c r="D6" s="10"/>
+      <c r="M6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="10">
         <f>59.6471</f>
         <v>59.647100000000002</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" ht="16.5">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="10">
         <f>O4+N6-N5</f>
         <v>2710.1631673000002</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" ht="16.5">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <v>2021</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="D10" s="16"/>
-      <c r="H10" s="19"/>
+      <c r="D10" s="10"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="A20" s="16">
+      <c r="A20" s="10">
         <v>2024</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" ht="16.5">
-      <c r="A21" s="16">
+      <c r="A21" s="10">
         <v>2021</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" ht="16.5">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="24" ht="16.5">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3153,7 +3165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -3165,8 +3177,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.7109375"/>
     <col customWidth="1" min="2" max="2" width="25.28125"/>
-    <col customWidth="1" min="3" max="7" width="14.7109375"/>
-    <col customWidth="1" min="8" max="16384" width="14.7109375"/>
+    <col customWidth="1" min="3" max="16384" width="14.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -3176,11 +3187,11 @@
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.25">
       <c r="C2" s="1">
@@ -3213,25 +3224,25 @@
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="14">
         <v>1480.2822000000001</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="14">
         <v>2057.9830999999999</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="14">
         <v>2549</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="14">
         <v>3124</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="14">
         <v>5133</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="14">
         <v>7776</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="14">
         <v>9220</v>
       </c>
     </row>
@@ -3239,25 +3250,25 @@
       <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="14">
         <v>51.127400000000002</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="14">
         <v>73.014899999999997</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="14">
         <v>80</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="14">
         <v>475</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="14">
         <v>444</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="14">
         <v>841</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="14">
         <v>1240</v>
       </c>
     </row>
@@ -3265,215 +3276,214 @@
       <c r="B5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <f>SUM(C3:C4)</f>
         <v>1531.4096000000002</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="15">
         <f>SUM(D3:D4)</f>
         <v>2130.998</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="15">
         <f>SUM(E3:E4)</f>
         <v>2629</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>3599</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="15">
         <f>SUM(G3:G4)</f>
         <v>5577</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="15">
         <f>SUM(H3:H4)</f>
         <v>8617</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="15">
         <f>SUM(I3:I4)</f>
         <v>10460</v>
       </c>
     </row>
     <row r="6" s="0" customFormat="1" ht="14.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="14">
         <f>C43</f>
         <v>1351.3099999999999</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="14">
         <f>D43</f>
         <v>742.22000000000003</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="14">
         <f>E43</f>
         <v>1115</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="14">
         <f>F43</f>
         <v>3693</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="14">
         <f>G43</f>
         <v>9471</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="14">
         <f>H43</f>
         <v>4215</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="14">
         <f>I43</f>
         <v>22557</v>
       </c>
-      <c r="J6"/>
     </row>
     <row r="7" s="0" customFormat="1" ht="14.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="14">
         <f>C42+C41</f>
         <v>8373.0499999999993</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="14">
         <f>D42+D41</f>
         <v>9948.1100000000006</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="14">
         <f>E42+E41</f>
         <v>12610</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="14">
         <f>F42+F41</f>
         <v>19746</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="14">
         <f>G42+G41</f>
         <v>42717</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="14">
         <f>H42+H41</f>
         <v>48632</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="14">
         <f>I42+I41</f>
         <v>40503</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" s="0" customFormat="1" ht="14.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="14">
         <f>C38</f>
         <v>1341.4100000000001</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="14">
         <f>D38</f>
         <v>1933.346</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="14">
         <f>E38</f>
         <v>2356</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="14">
         <f>F38</f>
         <v>2200</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="14">
         <f>G38</f>
         <v>2614</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="14">
         <f>H38</f>
         <v>7304</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="14">
         <f>I38</f>
         <v>9834</v>
       </c>
     </row>
     <row r="9" s="0" customFormat="1" ht="14.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="16">
         <v>90.540999999999997</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="16">
         <v>130.13589999999999</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="16">
         <v>462</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="16">
         <v>528</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="16">
         <v>1286</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="16">
         <v>1748</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="14">
         <v>1187</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="16">
         <v>423.86680000000001</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="16">
         <v>0</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="16">
         <v>19</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="16">
         <v>96</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="20"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="16">
         <v>43.653799999999997</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="16">
         <v>59.649500000000003</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="16">
         <v>107</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="16">
         <v>38</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="16">
         <v>34</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="16">
         <v>40</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="14">
         <v>77</v>
       </c>
     </row>
@@ -3484,25 +3494,25 @@
       <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="16">
         <v>551.82259999999997</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="16">
         <v>1121.1756</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="16">
         <v>995</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="16">
         <v>1953</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="16">
         <v>2617</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="16">
         <v>2911</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="14">
         <v>5006</v>
       </c>
     </row>
@@ -3510,25 +3520,25 @@
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="16">
         <v>542.98710000000005</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="16">
         <v>1061.9597000000001</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="16">
         <v>394</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="16">
         <v>486</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="16">
         <v>849</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="16">
         <v>1300</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="14">
         <v>1903</v>
       </c>
     </row>
@@ -3536,25 +3546,25 @@
       <c r="B15" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="16">
         <v>88.717200000000005</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="16">
         <v>342.73259999999999</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="16">
         <v>511</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="14">
         <v>227</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="16">
         <v>303</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="16">
         <v>1057</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="14">
         <v>659</v>
       </c>
     </row>
@@ -3562,31 +3572,31 @@
       <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="15">
         <f>SUM(C10:C15)</f>
         <v>1741.5885000000001</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="15">
         <f>SUM(D10:D15)</f>
         <v>2715.6532999999999</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="15">
         <f>SUM(E10:E15)</f>
         <v>2488</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="15">
         <f>SUM(F10:F15)</f>
         <v>3328</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="15">
         <f>SUM(G10:G15)</f>
         <v>5089</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="15">
         <f>SUM(H10:H15)</f>
         <v>7056</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="15">
         <f>SUM(I10:I15)</f>
         <v>8832</v>
       </c>
@@ -3595,25 +3605,25 @@
       <c r="B17" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="16">
         <v>0</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="16">
         <v>-7</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="16">
         <v>6</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="16">
         <v>1</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="16">
         <v>59</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="14">
         <v>289</v>
       </c>
     </row>
@@ -3621,25 +3631,25 @@
       <c r="B18" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="16">
         <v>0</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="16">
         <v>0</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="16">
         <v>-191</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="16">
         <v>-84</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="16">
         <v>64</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="16">
         <v>-194</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="14">
         <v>-246</v>
       </c>
     </row>
@@ -3650,58 +3660,58 @@
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="15">
         <f>C5-C16+C17+C18</f>
         <v>-210.17889999999989</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="15">
         <f>D5-D16+D17+D18</f>
         <v>-584.6552999999999</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="15">
         <f>E5-E16+E17+E18</f>
         <v>-57</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="15">
         <f>F5-F16+F17+F18</f>
         <v>193</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="15">
         <f>G5-G16+G17+G18</f>
         <v>553</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="15">
         <f>H5-H16+H17+H18</f>
         <v>1426</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="15">
         <f>I5-I16+I17+I18</f>
         <v>1671</v>
       </c>
     </row>
     <row r="20" s="0" customFormat="1" ht="14.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="16">
         <v>72.696899999999999</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="16">
         <v>113.1631</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="16">
         <v>-11</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="16">
         <v>-11</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="16">
         <v>-64</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="14">
         <v>-453</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="14">
         <v>-411</v>
       </c>
     </row>
@@ -3709,67 +3719,67 @@
       <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="15">
         <f>C19+C20</f>
         <v>-137.48199999999989</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="15">
         <f>D19+D20</f>
         <v>-471.49219999999991</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="15">
         <f>E19+E20</f>
         <v>-68</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="15">
         <f>F19+F20</f>
         <v>182</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="15">
         <f>G19+G20</f>
         <v>489</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="15">
         <f>H19+H20</f>
         <v>973</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="15">
         <f>I19+I20</f>
         <v>1260</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="21"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="16">
         <v>-0.88</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="16">
         <v>-3.5699999999999998</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="16">
         <v>0.68000000000000005</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="16">
         <v>0.68000000000000005</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="16">
         <v>2.4100000000000001</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="16">
         <v>5.4100000000000001</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="14">
         <v>6.21</v>
       </c>
     </row>
@@ -3778,31 +3788,31 @@
       <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="17">
         <f>C3-C10</f>
         <v>1389.7412000000002</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="17">
         <f>D3-D10</f>
         <v>1927.8471999999999</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="17">
         <f>E3-E10</f>
         <v>2087</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="17">
         <f>F3-F10</f>
         <v>2596</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="17">
         <f>G3-G10</f>
         <v>3847</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="17">
         <f>H3-H10</f>
         <v>6028</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="17">
         <f>I3-I10</f>
         <v>8033</v>
       </c>
@@ -3811,31 +3821,31 @@
       <c r="B26" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="8">
         <f>C25/C3</f>
         <v>0.93883531126700037</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="8">
         <f>D25/D3</f>
         <v>0.93676532134787693</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="8">
         <f>E25/E3</f>
         <v>0.81875245194193802</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="8">
         <f>F25/F3</f>
         <v>0.83098591549295775</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="8">
         <f>G25/G3</f>
         <v>0.74946425092538471</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="8">
         <f>H25/H3</f>
         <v>0.77520576131687247</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="8">
         <f>I25/I3</f>
         <v>0.87125813449023859</v>
       </c>
@@ -3844,27 +3854,27 @@
       <c r="B27" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="17">
         <f>D12/C12-1</f>
         <v>0.36642170899211535</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="17">
         <f>E12/D12-1</f>
         <v>0.79381218618764615</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="17">
         <f>F12/E12-1</f>
         <v>-0.64485981308411211</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="17">
         <f>G12/F12-1</f>
         <v>-0.10526315789473684</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="17">
         <f>H12/G12-1</f>
         <v>0.17647058823529416</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="17">
         <f>I12/H12-1</f>
         <v>0.92500000000000004</v>
       </c>
@@ -3873,31 +3883,31 @@
       <c r="B28" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="8">
         <f>C13/C6</f>
         <v>0.40836121985332752</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="8">
         <f>D13/D6</f>
         <v>1.5105704508097328</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="8">
         <f>E13/E6</f>
         <v>0.8923766816143498</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="8">
         <f>F13/F6</f>
         <v>0.52883834281072295</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="8">
         <f>G13/G6</f>
         <v>0.27631717875620315</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="8">
         <f>H13/H6</f>
         <v>0.69062870699881374</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="8">
         <f>I13/I6</f>
         <v>0.22192667464645122</v>
       </c>
@@ -3906,7 +3916,7 @@
       <c r="B29" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="8">
         <f>D14/C14-1</f>
         <v>0.95577335078494507</v>
       </c>
@@ -3915,34 +3925,34 @@
       <c r="B30" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="17">
         <f>MAX(0,C19/C20)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="17">
         <f>MAX(0,D19/D20)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="17">
         <v>0</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="8">
         <f>F20/F19*-1</f>
         <v>0.056994818652849742</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="8">
         <f>G20/G19*-1</f>
         <v>0.11573236889692586</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="8">
         <f>H20/H19*-1</f>
         <v>0.317671809256662</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="8">
         <f>I20/I19*-1</f>
         <v>0.24596050269299821</v>
       </c>
-      <c r="J30" s="27"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" ht="14.25">
       <c r="B31" t="s">
@@ -3952,27 +3962,27 @@
         <f>C45/C38</f>
         <v>7.2493570198522432</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <f>D45/D38</f>
         <v>5.5294448070857465</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <f>E45/E38</f>
         <v>5.8255517826825125</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <f>F45/F38</f>
         <v>10.654090909090909</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
         <f>G45/G38</f>
         <v>19.964804896710024</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <f>H45/H38</f>
         <v>7.2353504928806132</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="6">
         <f>I45/I38</f>
         <v>6.4124466137888954</v>
       </c>
@@ -3986,22 +3996,22 @@
       <c r="B35" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <v>1564.01</v>
       </c>
       <c r="D35">
         <v>1564.01</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <v>1564</v>
       </c>
       <c r="F35">
         <v>1564</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="18">
         <v>1564</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="18">
         <v>1584</v>
       </c>
       <c r="I35">
@@ -4012,22 +4022,22 @@
       <c r="B36" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <v>0</v>
       </c>
       <c r="D36">
         <v>1093.336</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="6">
         <v>1593</v>
       </c>
       <c r="F36">
         <v>1339</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="18">
         <v>1424</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="18">
         <v>1424</v>
       </c>
       <c r="I36">
@@ -4038,22 +4048,22 @@
       <c r="B37" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="6">
         <v>-222.59999999999999</v>
       </c>
       <c r="D37">
         <v>-724</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="6">
         <v>-801</v>
       </c>
       <c r="F37">
         <v>-703</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="18">
         <v>-374</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="18">
         <v>4296</v>
       </c>
       <c r="I37">
@@ -4064,27 +4074,27 @@
       <c r="B38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="19">
         <f>SUM(C35:C37)</f>
         <v>1341.4100000000001</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="19">
         <f>SUM(D35:D37)</f>
         <v>1933.346</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="19">
         <f>SUM(E35:E37)</f>
         <v>2356</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="19">
         <f>SUM(F35:F37)</f>
         <v>2200</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="19">
         <f>SUM(G35:G37)</f>
         <v>2614</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="19">
         <f>SUM(H35:H37)</f>
         <v>7304</v>
       </c>
@@ -4093,23 +4103,23 @@
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" t="s">
@@ -4118,22 +4128,22 @@
       <c r="B41" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="18">
         <v>0</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="18">
         <v>0</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="18">
         <v>0</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="18">
         <v>4013</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="18">
         <v>4013</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="18">
         <v>4013</v>
       </c>
       <c r="I41">
@@ -4144,22 +4154,22 @@
       <c r="B42" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="18">
         <v>8373.0499999999993</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="18">
         <v>9948.1100000000006</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="18">
         <v>12610</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="18">
         <v>15733</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="18">
         <v>38704</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="18">
         <v>44619</v>
       </c>
       <c r="I42">
@@ -4170,22 +4180,22 @@
       <c r="B43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="18">
         <v>1351.3099999999999</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="18">
         <v>742.22000000000003</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="18">
         <v>1115</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="18">
         <v>3693</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="18">
         <v>9471</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="18">
         <v>4215</v>
       </c>
       <c r="I43">
@@ -4193,43 +4203,42 @@
       </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="B44"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="19">
         <f>SUM(C41:C43)</f>
         <v>9724.3599999999988</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="19">
         <f>SUM(D41:D43)</f>
         <v>10690.33</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="19">
         <f>SUM(E41:E43)</f>
         <v>13725</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="19">
         <f>SUM(F41:F43)</f>
         <v>23439</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="19">
         <f>SUM(G41:G43)</f>
         <v>52188</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="19">
         <f>SUM(H41:H43)</f>
         <v>52847</v>
       </c>
-      <c r="I45" s="29">
+      <c r="I45" s="19">
         <f>SUM(I41:I43)</f>
         <v>63060</v>
       </c>
@@ -4243,7 +4252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -4265,7 +4274,7 @@
       <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="4" t="s">
         <v>140</v>
       </c>
     </row>

--- a/sheets/ENERGY.xlsx
+++ b/sheets/ENERGY.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Tata Power main" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="TATAPOWER" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Suzlon power main" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="SUZLON" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="servo-tec" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="servo-tec-basic-6" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="adani-green" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="adani-green-6" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="ReNew-main" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ReNew" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Tata Power main" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TATAPOWER" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Suzlon power main" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="SUZLON" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="servo-tec" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="servo-tec-basic-6" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="ADANIGREEN" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Adani Green main" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -26,10 +28,76 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={C25DF110-51D2-DBB6-4294-91D168F94F65}</author>
+    <author>tc={6788FAC3-FD09-97E3-2E6A-DE380B094467}</author>
+    <author>tc={3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}</author>
     <author>tc={9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}</author>
   </authors>
   <commentList>
-    <comment ref="I31" authorId="0" xr:uid="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}">
+    <comment ref="K16" authorId="0" xr:uid="{C25DF110-51D2-DBB6-4294-91D168F94F65}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>mohit:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+AGAIN ? high value ?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="1" xr:uid="{6788FAC3-FD09-97E3-2E6A-DE380B094467}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>mohit:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+This is coming from making OCD / CD to equity and removing rerducing debt and increasing the no. of shares
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="2" xr:uid="{3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>mohit:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Converting Convertible debentures to equity leading to increased equity value
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="3" xr:uid="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}">
       <text>
         <r>
           <rPr>
@@ -55,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t xml:space="preserve">Earnings Per Share</t>
   </si>
@@ -135,6 +203,444 @@
     <t>INOXWIND</t>
   </si>
   <si>
+    <t xml:space="preserve">PPA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Purchase Agreements</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering , Procurements and Constructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pumped Storage Plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroelectricity and energy storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooftop Segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar rooftop installed on homes, commercial buildings, industrial units </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plant Load Factor</t>
+  </si>
+  <si>
+    <t>DCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Content Requirements</t>
+  </si>
+  <si>
+    <t>DISCOM's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution companies</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Modular Reactors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generation Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So they have there own DISCOM they operate it and sell the energy generated back to there discom .. this is how they all work .. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReNew Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global renewable energy company based in india</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Builds , Owns and operates large-scale wind, solar , hybrid and hydroelectric power projects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17Gw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its operated in US not in india</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(in crore)</t>
+  </si>
+  <si>
+    <t>https://dg4e57nn4fnta.cloudfront.net/irr/pdf/Annual+Integrated+Report+FY+2023-24.pdf</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Operating income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment surchase from customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance Income and fair value change in derivative instrumetn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in fair value of warrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Income</t>
+  </si>
+  <si>
+    <t>CORM</t>
+  </si>
+  <si>
+    <t>EBE</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance cost and FV changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in fair-value of warrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing and related expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Expense</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share from JV</t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share Profit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH FLOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PBT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-operational </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add back to the profit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in FV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain in disposal of warrants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share based payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Income</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata power  : Building in-house solar power cells for tata products replacing needs with solar .. </t>
+  </si>
+  <si>
+    <t>Renewables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Zero by 2045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investor's call</t>
+  </si>
+  <si>
+    <t>https://www.tatapower.com/content/dam/tatapoweraemsitesprogram/tatapower/pdf-root/company-financials/analyst-call-transcript/fy-2024-25/Tata%20Power-Earnings%20Transcript-May14-2025.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new age energy solutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission and distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours in a year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">generation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital influx by BlackRock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wants to lead in EV charging space ( making compatible chargers all around india ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very slow growth rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales of solar module from 3rd party is driving the growth of the company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">old tech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mono PERC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passivated Emitter and Rear Cell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new tech</t>
+  </si>
+  <si>
+    <t>TOPCon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunnel Oxide Passivated Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakti Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported Coal-based power plant to source coal from domestic source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mundra Coal and Shipping line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind PLF stuck at 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odisha DISCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expects steady path and profits after this year .. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest private player in Power Distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe they had less efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy production </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency/ Capacity factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installed Capacity (in MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generation-power ( in gwh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal </t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste heat recover</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total production if running at this rate  </t>
+  </si>
+  <si>
+    <t>Adani-Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EV chargers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak Energy req </t>
+  </si>
+  <si>
+    <t xml:space="preserve">277 GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India Energy consumption </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1543000 GWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata power for india </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal Power plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sale of Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPA's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroelectric Station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility scale solar farms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooftop solar installation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(generation and renewables sell to T&amp;D)  and buying this power become an expense for T&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission lines </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail Supply </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar EPC contracts + leasing + project management</t>
+  </si>
+  <si>
+    <t>Unallocated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate level income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferred tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulatory adjustments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(in Crore)</t>
+  </si>
+  <si>
+    <t>https://www.tatapower.com/content/dam/tatapoweraemsitesprogram/tatapower/pdf-root/company-financials/annual-reports/102AnnualReport-2020-21.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tatapower.com/content/dam/tatapoweraemsitesprogram/tatapower/pdf-root/sustainability/integrated-reports/Integrated%20Annual%20Report%202021-22.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tatapower.com/content/dam/tatapoweraemsitesprogram/tatapower/pdf-root/company-financials/annual-reports/104AnnualReport-2022-23.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tatapower.com/content/dam/tatapoweraemsitesprogram/tatapower/pdf-root/company-financials/annual-reports/106AnnualReport-2024-25.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op. Revenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Power Purchased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost of Fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmission Charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORM + Construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase of finished goods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock in trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Deferral Balances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceptional Items </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of Net profit from JV / Associates</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUZLON ENERGY</t>
   </si>
   <si>
@@ -153,12 +659,6 @@
     <t xml:space="preserve">Company had some OCD's ( Optionally Convertible Debentures ) and CCPS ( Compulsorily Convertible Preference Shares ) and now they converted that to equity </t>
   </si>
   <si>
-    <t xml:space="preserve">Income Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(in Crore)</t>
-  </si>
-  <si>
     <t>https://www.suzlon.com/pdf/investor/annual-report-2017-18.pdf</t>
   </si>
   <si>
@@ -171,7 +671,7 @@
     <t>https://www.suzlon.com/NewPdf/Financial_Reports_&amp;_Presentations/2023-24/Annual_Report_23-24.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Op. Revenue</t>
+    <t>SHIT-COMPANY</t>
   </si>
   <si>
     <t xml:space="preserve">Other Operating Income</t>
@@ -183,33 +683,24 @@
     <t xml:space="preserve">Total income</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt </t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cost of raw materials</t>
   </si>
   <si>
-    <t>CORM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Purchase of stock in trade</t>
   </si>
   <si>
     <t xml:space="preserve">Changes in inventory of finished goods </t>
   </si>
   <si>
-    <t>EBE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance Cost</t>
-  </si>
-  <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other expense</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Expense</t>
-  </si>
-  <si>
     <t xml:space="preserve">Op. Profit</t>
   </si>
   <si>
@@ -219,22 +710,28 @@
     <t xml:space="preserve">Exceptional items </t>
   </si>
   <si>
-    <t>PBT</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>PAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Profit to equity owners</t>
   </si>
   <si>
     <t xml:space="preserve">Gross Profit</t>
   </si>
   <si>
-    <t xml:space="preserve">Gross Margin</t>
+    <t xml:space="preserve">Operational  margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORM y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance cost / Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op profit y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Rate</t>
   </si>
   <si>
     <t xml:space="preserve">Balance Sheet</t>
@@ -291,9 +788,6 @@
     <t xml:space="preserve">Finance cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Expenses</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total expense </t>
   </si>
   <si>
@@ -309,9 +803,6 @@
     <t xml:space="preserve">weighted No. of equity shares</t>
   </si>
   <si>
-    <t xml:space="preserve">Gross profit</t>
-  </si>
-  <si>
     <t>Concernings</t>
   </si>
   <si>
@@ -384,30 +875,18 @@
     <t xml:space="preserve">Share price too high </t>
   </si>
   <si>
-    <t xml:space="preserve">Other Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Income</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current Debt</t>
   </si>
   <si>
     <t xml:space="preserve">Non Current debt</t>
   </si>
   <si>
-    <t>Equity</t>
-  </si>
-  <si>
     <t xml:space="preserve">Changes in inventory</t>
   </si>
   <si>
     <t xml:space="preserve">Debt finance cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Expense</t>
-  </si>
-  <si>
     <t xml:space="preserve">Share of profit from JV + associate</t>
   </si>
   <si>
@@ -417,18 +896,54 @@
     <t xml:space="preserve">Op. income</t>
   </si>
   <si>
+    <t xml:space="preserve">Total no. of share </t>
+  </si>
+  <si>
     <t xml:space="preserve">Basic EPS</t>
   </si>
   <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIAN </t>
+  </si>
+  <si>
+    <t>TAKEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER 10 YEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount Rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gross Margin </t>
   </si>
   <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share price </t>
+  </si>
+  <si>
     <t xml:space="preserve">EBE y/y</t>
   </si>
   <si>
+    <t xml:space="preserve">Total Shares</t>
+  </si>
+  <si>
     <t xml:space="preserve">Debt financing cost </t>
   </si>
   <si>
+    <t xml:space="preserve">Valuation prie</t>
+  </si>
+  <si>
     <t xml:space="preserve">D&amp;A y/y</t>
   </si>
   <si>
@@ -469,6 +984,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total debt borrowing</t>
+  </si>
+  <si>
+    <t>ASSETS</t>
   </si>
   <si>
     <t xml:space="preserve">Adani Green energy</t>
@@ -479,18 +997,24 @@
   <si>
     <t xml:space="preserve">Total Solar Singapore Pte Limited (TOTAL) to gain 50% equity interest in the solar operating assets totaling 2,353 MW housed in the subsidiaries of the Company. TOTAL has made aggregate investment of H4,018 Crores in Adani Green Energy Twenty Three Limited, comprising H5 Crores as equity with variable rights and H4,013 Crores as 40,130 nos. of redeemable Non-convertible Debentures (NCD) of H10,00,000 each for a period of 35 years. The stapled instruments are redeemable after 25 years in periodic installments starting
 from November, 2044 till May, 2055.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of Adani-Green, Parent company takes borrowings , then it sends off this to subsidiaries as loans  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* &quot;(&quot;#,##0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* &quot;(&quot;#,##0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* &quot;(&quot;#,##0.00&quot;)&quot;;_(* &quot;-&quot;??.00_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* &quot;(&quot;#,##0.0&quot;)&quot;;_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -515,6 +1039,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11.000000"/>
       <color theme="10"/>
@@ -534,7 +1065,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,11 +1075,26 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top style="none"/>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -559,37 +1105,83 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="48">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="1" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="167" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="168" xfId="2" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="167" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,9 +1318,112 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53974</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53974</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="14455774" y="79374"/>
+          <a:ext cx="0" cy="4175124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="24231599" y="142874"/>
+          <a:ext cx="0" cy="3667124"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="mohit" id="{887C8C47-5C89-5321-613C-79755B639A78}" userId="mohit" providerId="Teamlab"/>
+  <person displayName="mohit" id="{1405B485-002A-CF64-529C-63D4F0D6727F}" userId="mohit" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -1224,7 +1919,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I31" dT="2025-06-18T21:27:29.95Z" personId="{887C8C47-5C89-5321-613C-79755B639A78}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
+  <threadedComment ref="K16" dT="2025-06-19T21:34:29.91Z" personId="{1405B485-002A-CF64-529C-63D4F0D6727F}" id="{C25DF110-51D2-DBB6-4294-91D168F94F65}" done="1">
+    <text xml:space="preserve">AGAIN ? high value ?
+</text>
+  </threadedComment>
+  <threadedComment ref="E16" dT="2025-06-19T21:36:36.25Z" personId="{1405B485-002A-CF64-529C-63D4F0D6727F}" id="{6788FAC3-FD09-97E3-2E6A-DE380B094467}" done="1">
+    <text xml:space="preserve">This is coming from making OCD / CD to equity and removing rerducing debt and increasing the no. of shares
+</text>
+  </threadedComment>
+  <threadedComment ref="I19" dT="2025-06-19T21:38:44.15Z" personId="{1405B485-002A-CF64-529C-63D4F0D6727F}" id="{3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}" done="0">
+    <text xml:space="preserve">Converting Convertible debentures to equity leading to increased equity value
+</text>
+  </threadedComment>
+  <threadedComment ref="I37" dT="2025-06-18T21:27:29.95Z" personId="{1405B485-002A-CF64-529C-63D4F0D6727F}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
     <text xml:space="preserve">this money came from exceptional item
 </text>
   </threadedComment>
@@ -1234,7 +1941,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1329,11 +2036,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
-      <c r="B10" t="s">
+    <row r="10" s="4" customFormat="1" ht="14.25">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1343,6 +2050,3131 @@
       </c>
       <c r="C11" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.7109375"/>
+    <col customWidth="1" min="2" max="2" width="25.28125"/>
+    <col customWidth="1" min="3" max="16384" width="14.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25">
+      <c r="C2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="O2" s="1">
+        <f>N2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="P2" s="1">
+        <f>O2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>P2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="R2" s="1">
+        <f>Q2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="S2" s="1">
+        <f>R2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="T2" s="1">
+        <f>S2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="U2" s="1">
+        <f>T2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="V2" s="1">
+        <f>U2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="W2" s="1">
+        <f>V2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="X2" s="1">
+        <f>W2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>X2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>Y2+1</f>
+        <v>2037</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>Z2+1</f>
+        <v>2038</v>
+      </c>
+      <c r="AB2" s="1">
+        <f>AA2+1</f>
+        <v>2039</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>AB2+1</f>
+        <v>2040</v>
+      </c>
+      <c r="AD2" s="1">
+        <f>AC2+1</f>
+        <v>2041</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>AD2+1</f>
+        <v>2042</v>
+      </c>
+      <c r="AF2" s="1">
+        <f>AE2+1</f>
+        <v>2043</v>
+      </c>
+      <c r="AG2" s="1">
+        <f>AF2+1</f>
+        <v>2044</v>
+      </c>
+      <c r="AH2" s="1">
+        <f>AG2+1</f>
+        <v>2045</v>
+      </c>
+      <c r="AI2" s="1">
+        <f>AH2+1</f>
+        <v>2046</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>AI2+1</f>
+        <v>2047</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>AJ2+1</f>
+        <v>2048</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>AK2+1</f>
+        <v>2049</v>
+      </c>
+      <c r="AM2" s="1">
+        <f>AL2+1</f>
+        <v>2050</v>
+      </c>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1480.2822000000001</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2057.9830999999999</v>
+      </c>
+      <c r="E3" s="19">
+        <v>2549</v>
+      </c>
+      <c r="F3" s="19">
+        <v>3124</v>
+      </c>
+      <c r="G3" s="19">
+        <v>5133</v>
+      </c>
+      <c r="H3" s="19">
+        <v>7776</v>
+      </c>
+      <c r="I3" s="19">
+        <v>9220</v>
+      </c>
+      <c r="J3">
+        <v>11212</v>
+      </c>
+      <c r="N3" s="6">
+        <v>11212</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="19">
+        <v>51.127400000000002</v>
+      </c>
+      <c r="D4" s="19">
+        <v>73.014899999999997</v>
+      </c>
+      <c r="E4" s="19">
+        <v>80</v>
+      </c>
+      <c r="F4" s="19">
+        <v>475</v>
+      </c>
+      <c r="G4" s="19">
+        <v>444</v>
+      </c>
+      <c r="H4" s="19">
+        <v>841</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1240</v>
+      </c>
+      <c r="J4">
+        <v>1210</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1210</v>
+      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25">
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="20">
+        <f>SUM(C3:C4)</f>
+        <v>1531.4096000000002</v>
+      </c>
+      <c r="D5" s="20">
+        <f>SUM(D3:D4)</f>
+        <v>2130.998</v>
+      </c>
+      <c r="E5" s="20">
+        <f>SUM(E3:E4)</f>
+        <v>2629</v>
+      </c>
+      <c r="F5" s="20">
+        <f>SUM(F3:F4)</f>
+        <v>3599</v>
+      </c>
+      <c r="G5" s="20">
+        <f>SUM(G3:G4)</f>
+        <v>5577</v>
+      </c>
+      <c r="H5" s="20">
+        <f>SUM(H3:H4)</f>
+        <v>8617</v>
+      </c>
+      <c r="I5" s="20">
+        <f>SUM(I3:I4)</f>
+        <v>10460</v>
+      </c>
+      <c r="J5" s="20">
+        <f>SUM(J3:J4)</f>
+        <v>12422</v>
+      </c>
+      <c r="N5" s="20">
+        <f>SUM(N3:N4)</f>
+        <v>12422</v>
+      </c>
+      <c r="O5" s="1">
+        <f>N5*(1+$M$28)</f>
+        <v>14657.959999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <f>O5*(1+$M$28)</f>
+        <v>17296.392799999998</v>
+      </c>
+      <c r="Q5" s="28">
+        <f>P5*(1+$M$28)</f>
+        <v>20409.743503999995</v>
+      </c>
+      <c r="R5" s="28">
+        <f>Q5*(1+$M$28)</f>
+        <v>24083.497334719992</v>
+      </c>
+      <c r="S5" s="28">
+        <f>R5*(1+$M$28)</f>
+        <v>28418.52685496959</v>
+      </c>
+      <c r="T5" s="28">
+        <f>S5*(1+$M$28)</f>
+        <v>33533.861688864112</v>
+      </c>
+      <c r="U5" s="28">
+        <f>T5*(1+$M$28)</f>
+        <v>39569.956792859652</v>
+      </c>
+      <c r="V5" s="28">
+        <f>U5*(1+$M$28)</f>
+        <v>46692.54901557439</v>
+      </c>
+      <c r="W5" s="28">
+        <f>V5*(1+$M$28)</f>
+        <v>55097.207838377777</v>
+      </c>
+      <c r="X5" s="28">
+        <f>W5*(1+$M$28)</f>
+        <v>65014.705249285777</v>
+      </c>
+      <c r="Y5" s="28">
+        <f>X5*($N$28+1)</f>
+        <v>70866.028721721508</v>
+      </c>
+      <c r="Z5" s="28">
+        <f>Y5*($N$28+1)</f>
+        <v>77243.971306676453</v>
+      </c>
+      <c r="AA5" s="28">
+        <f>Z5*($N$28+1)</f>
+        <v>84195.928724277343</v>
+      </c>
+      <c r="AB5" s="28">
+        <f>AA5*($N$28+1)</f>
+        <v>91773.562309462315</v>
+      </c>
+      <c r="AC5" s="28">
+        <f>AB5*($N$28+1)</f>
+        <v>100033.18291731393</v>
+      </c>
+      <c r="AD5" s="28">
+        <f>AC5*($N$28+1)</f>
+        <v>109036.16937987218</v>
+      </c>
+      <c r="AE5" s="28">
+        <f>AD5*($N$28+1)</f>
+        <v>118849.42462406069</v>
+      </c>
+      <c r="AF5" s="28">
+        <f>AE5*($N$28+1)</f>
+        <v>129545.87284022616</v>
+      </c>
+      <c r="AG5" s="28">
+        <f>AF5*($N$28+1)</f>
+        <v>141205.00139584651</v>
+      </c>
+      <c r="AH5" s="28">
+        <f>AG5*($N$28+1)</f>
+        <v>153913.45152147271</v>
+      </c>
+      <c r="AI5" s="28">
+        <f>AH5*($N$28+1)</f>
+        <v>167765.66215840526</v>
+      </c>
+      <c r="AJ5" s="28">
+        <f>AI5*($N$28+1)</f>
+        <v>182864.57175266175</v>
+      </c>
+      <c r="AK5" s="28">
+        <f>AJ5*($N$28+1)</f>
+        <v>199322.38321040131</v>
+      </c>
+      <c r="AL5" s="28">
+        <f>AK5*($N$28+1)</f>
+        <v>217261.39769933745</v>
+      </c>
+      <c r="AM5" s="28">
+        <f>AL5*($N$28+1)</f>
+        <v>236814.92349227783</v>
+      </c>
+    </row>
+    <row r="6" s="0" customFormat="1" ht="14.25">
+      <c r="B6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="19">
+        <f>C45</f>
+        <v>1351.3099999999999</v>
+      </c>
+      <c r="D6" s="19">
+        <f>D45</f>
+        <v>742.22000000000003</v>
+      </c>
+      <c r="E6" s="19">
+        <f>E45</f>
+        <v>1115</v>
+      </c>
+      <c r="F6" s="19">
+        <f>F45</f>
+        <v>3693</v>
+      </c>
+      <c r="G6" s="19">
+        <f>G45</f>
+        <v>9471</v>
+      </c>
+      <c r="H6" s="19">
+        <f>H45</f>
+        <v>4215</v>
+      </c>
+      <c r="I6" s="19">
+        <f>I45</f>
+        <v>22557</v>
+      </c>
+      <c r="J6" s="19">
+        <f>J45</f>
+        <v>10706</v>
+      </c>
+      <c r="N6" s="19">
+        <f>N45</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+    </row>
+    <row r="7" s="0" customFormat="1" ht="14.25">
+      <c r="B7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="19">
+        <f>C44+C43</f>
+        <v>8373.0499999999993</v>
+      </c>
+      <c r="D7" s="19">
+        <f>D44+D43</f>
+        <v>9948.1100000000006</v>
+      </c>
+      <c r="E7" s="19">
+        <f>E44+E43</f>
+        <v>12610</v>
+      </c>
+      <c r="F7" s="19">
+        <f>F44+F43</f>
+        <v>19746</v>
+      </c>
+      <c r="G7" s="19">
+        <f>G44+G43</f>
+        <v>42717</v>
+      </c>
+      <c r="H7" s="19">
+        <f>H44+H43</f>
+        <v>48632</v>
+      </c>
+      <c r="I7" s="19">
+        <f>I44+I43</f>
+        <v>40503</v>
+      </c>
+      <c r="J7" s="19">
+        <f>J44+J43</f>
+        <v>67363</v>
+      </c>
+      <c r="N7" s="19">
+        <f>N44+N43</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+    </row>
+    <row r="8" s="0" customFormat="1" ht="14.25">
+      <c r="B8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="19">
+        <f>C40</f>
+        <v>1341.4100000000001</v>
+      </c>
+      <c r="D8" s="19">
+        <f>D40</f>
+        <v>1933.346</v>
+      </c>
+      <c r="E8" s="19">
+        <f>E40</f>
+        <v>2356</v>
+      </c>
+      <c r="F8" s="19">
+        <f>F40</f>
+        <v>2200</v>
+      </c>
+      <c r="G8" s="19">
+        <f>G40</f>
+        <v>2614</v>
+      </c>
+      <c r="H8" s="19">
+        <f>H40</f>
+        <v>7304</v>
+      </c>
+      <c r="I8" s="19">
+        <f>I40</f>
+        <v>9834</v>
+      </c>
+      <c r="J8" s="19">
+        <f>J40</f>
+        <v>12137</v>
+      </c>
+      <c r="N8" s="19">
+        <f>N40</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+    </row>
+    <row r="9" s="0" customFormat="1" ht="14.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="18">
+        <v>90.540999999999997</v>
+      </c>
+      <c r="D10" s="18">
+        <v>130.13589999999999</v>
+      </c>
+      <c r="E10" s="18">
+        <v>462</v>
+      </c>
+      <c r="F10" s="18">
+        <v>528</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1286</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1748</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1187</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1440</v>
+      </c>
+      <c r="N10" s="30">
+        <v>1440</v>
+      </c>
+      <c r="O10" s="31">
+        <f>O5*(1-$M$27)</f>
+        <v>2198.6940000000004</v>
+      </c>
+      <c r="P10" s="32">
+        <f>P5*(1-$M$27)</f>
+        <v>2594.45892</v>
+      </c>
+      <c r="Q10" s="29">
+        <f>Q5*(1-$M$27)</f>
+        <v>3061.4615255999997</v>
+      </c>
+      <c r="R10" s="29">
+        <f>R5*(1-$M$27)</f>
+        <v>3612.5246002079994</v>
+      </c>
+      <c r="S10" s="29">
+        <f>S5*(1-$M$27)</f>
+        <v>4262.7790282454389</v>
+      </c>
+      <c r="T10" s="29">
+        <f>T5*(1-$M$27)</f>
+        <v>5030.0792533296171</v>
+      </c>
+      <c r="U10" s="29">
+        <f>U5*(1-$M$27)</f>
+        <v>5935.493518928949</v>
+      </c>
+      <c r="V10" s="29">
+        <f>V5*(1-$M$27)</f>
+        <v>7003.8823523361598</v>
+      </c>
+      <c r="W10" s="29">
+        <f>W5*(1-$M$27)</f>
+        <v>8264.581175756668</v>
+      </c>
+      <c r="X10" s="29">
+        <f>X5*(1-$M$27)</f>
+        <v>9752.2057873928679</v>
+      </c>
+      <c r="Y10" s="29">
+        <f>Y5*(1-$N$27)</f>
+        <v>9921.2440210410114</v>
+      </c>
+      <c r="Z10" s="29">
+        <f>Z5*(1-$N$27)</f>
+        <v>10814.155982934704</v>
+      </c>
+      <c r="AA10" s="29">
+        <f>AA5*(1-$N$27)</f>
+        <v>11787.43002139883</v>
+      </c>
+      <c r="AB10" s="29">
+        <f>AB5*(1-$N$27)</f>
+        <v>12848.298723324726</v>
+      </c>
+      <c r="AC10" s="29">
+        <f>AC5*(1-$N$27)</f>
+        <v>14004.645608423951</v>
+      </c>
+      <c r="AD10" s="29">
+        <f>AD5*(1-$N$27)</f>
+        <v>15265.063713182108</v>
+      </c>
+      <c r="AE10" s="29">
+        <f>AE5*(1-$N$27)</f>
+        <v>16638.919447368498</v>
+      </c>
+      <c r="AF10" s="29">
+        <f>AF5*(1-$N$27)</f>
+        <v>18136.422197631666</v>
+      </c>
+      <c r="AG10" s="29">
+        <f>AG5*(1-$N$27)</f>
+        <v>19768.700195418514</v>
+      </c>
+      <c r="AH10" s="29">
+        <f>AH5*(1-$N$27)</f>
+        <v>21547.883213006182</v>
+      </c>
+      <c r="AI10" s="29">
+        <f>AI5*(1-$N$27)</f>
+        <v>23487.192702176741</v>
+      </c>
+      <c r="AJ10" s="29">
+        <f>AJ5*(1-$N$27)</f>
+        <v>25601.040045372647</v>
+      </c>
+      <c r="AK10" s="29">
+        <f>AK5*(1-$N$27)</f>
+        <v>27905.133649456187</v>
+      </c>
+      <c r="AL10" s="29">
+        <f>AL5*(1-$N$27)</f>
+        <v>30416.595677907248</v>
+      </c>
+      <c r="AM10" s="29">
+        <f>AM5*(1-$N$27)</f>
+        <v>33154.089288918898</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="18">
+        <v>423.86680000000001</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>19</v>
+      </c>
+      <c r="F11" s="18">
+        <v>96</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="18">
+        <v>43.653799999999997</v>
+      </c>
+      <c r="D12" s="18">
+        <v>59.649500000000003</v>
+      </c>
+      <c r="E12" s="18">
+        <v>107</v>
+      </c>
+      <c r="F12" s="18">
+        <v>38</v>
+      </c>
+      <c r="G12" s="18">
+        <v>34</v>
+      </c>
+      <c r="H12" s="18">
+        <v>40</v>
+      </c>
+      <c r="I12" s="19">
+        <v>77</v>
+      </c>
+      <c r="J12" s="19">
+        <v>128</v>
+      </c>
+      <c r="N12" s="19">
+        <v>128</v>
+      </c>
+      <c r="O12">
+        <f>N12*($M$29+1)</f>
+        <v>151.03999999999999</v>
+      </c>
+      <c r="P12" s="33">
+        <f>O12*($M$29+1)</f>
+        <v>178.22719999999998</v>
+      </c>
+      <c r="Q12" s="29">
+        <f>P12*($M$29+1)</f>
+        <v>210.30809599999998</v>
+      </c>
+      <c r="R12" s="29">
+        <f>Q12*($M$29+1)</f>
+        <v>248.16355327999997</v>
+      </c>
+      <c r="S12" s="29">
+        <f>R12*($M$29+1)</f>
+        <v>292.83299287039995</v>
+      </c>
+      <c r="T12" s="29">
+        <f>S12*($M$29+1)</f>
+        <v>345.54293158707191</v>
+      </c>
+      <c r="U12" s="29">
+        <f>T12*($M$29+1)</f>
+        <v>407.74065927274484</v>
+      </c>
+      <c r="V12" s="29">
+        <f>U12*($M$29+1)</f>
+        <v>481.13397794183891</v>
+      </c>
+      <c r="W12" s="29">
+        <f>V12*($M$29+1)</f>
+        <v>567.73809397136984</v>
+      </c>
+      <c r="X12" s="29">
+        <f>W12*($M$29+1)</f>
+        <v>669.93095088621635</v>
+      </c>
+      <c r="Y12" s="29">
+        <f>X12*($N$29+1)</f>
+        <v>730.22473646597587</v>
+      </c>
+      <c r="Z12" s="29">
+        <f>Y12*($N$29+1)</f>
+        <v>795.94496274791379</v>
+      </c>
+      <c r="AA12" s="29">
+        <f>Z12*($N$29+1)</f>
+        <v>867.58000939522606</v>
+      </c>
+      <c r="AB12" s="29">
+        <f>AA12*($N$29+1)</f>
+        <v>945.66221024079653</v>
+      </c>
+      <c r="AC12" s="29">
+        <f>AB12*($N$29+1)</f>
+        <v>1030.7718091624683</v>
+      </c>
+      <c r="AD12" s="29">
+        <f>AC12*($N$29+1)</f>
+        <v>1123.5412719870906</v>
+      </c>
+      <c r="AE12" s="29">
+        <f>AD12*($N$29+1)</f>
+        <v>1224.6599864659288</v>
+      </c>
+      <c r="AF12" s="29">
+        <f>AE12*($N$29+1)</f>
+        <v>1334.8793852478625</v>
+      </c>
+      <c r="AG12" s="29">
+        <f>AF12*($N$29+1)</f>
+        <v>1455.0185299201703</v>
+      </c>
+      <c r="AH12" s="29">
+        <f>AG12*($N$29+1)</f>
+        <v>1585.9701976129857</v>
+      </c>
+      <c r="AI12" s="29">
+        <f>AH12*($N$29+1)</f>
+        <v>1728.7075153981546</v>
+      </c>
+      <c r="AJ12" s="29">
+        <f>AI12*($N$29+1)</f>
+        <v>1884.2911917839886</v>
+      </c>
+      <c r="AK12" s="29">
+        <f>AJ12*($N$29+1)</f>
+        <v>2053.8773990445475</v>
+      </c>
+      <c r="AL12" s="29">
+        <f>AK12*($N$29+1)</f>
+        <v>2238.726364958557</v>
+      </c>
+      <c r="AM12" s="29">
+        <f>AL12*($N$29+1)</f>
+        <v>2440.2117378048274</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="18">
+        <v>551.82259999999997</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1121.1756</v>
+      </c>
+      <c r="E13" s="18">
+        <v>995</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1953</v>
+      </c>
+      <c r="G13" s="18">
+        <v>2617</v>
+      </c>
+      <c r="H13" s="18">
+        <v>2911</v>
+      </c>
+      <c r="I13" s="19">
+        <v>5006</v>
+      </c>
+      <c r="J13" s="19">
+        <v>5492</v>
+      </c>
+      <c r="N13" s="19">
+        <v>5492</v>
+      </c>
+      <c r="O13">
+        <f>N13*($M$28+1)</f>
+        <v>6480.5599999999995</v>
+      </c>
+      <c r="P13" s="34">
+        <f>O13*($M$28+1)</f>
+        <v>7647.0607999999993</v>
+      </c>
+      <c r="Q13" s="29">
+        <f>P13*($M$28+1)</f>
+        <v>9023.5317439999981</v>
+      </c>
+      <c r="R13" s="29">
+        <f>Q13*($M$28+1)</f>
+        <v>10647.767457919997</v>
+      </c>
+      <c r="S13" s="29">
+        <f>R13*($M$28+1)</f>
+        <v>12564.365600345596</v>
+      </c>
+      <c r="T13" s="29">
+        <f>S13*($M$28+1)</f>
+        <v>14825.951408407804</v>
+      </c>
+      <c r="U13" s="29">
+        <f>T13*($M$28+1)</f>
+        <v>17494.622661921207</v>
+      </c>
+      <c r="V13" s="29">
+        <f>U13*($M$28+1)</f>
+        <v>20643.654741067021</v>
+      </c>
+      <c r="W13" s="29">
+        <f>V13*($M$28+1)</f>
+        <v>24359.512594459084</v>
+      </c>
+      <c r="X13" s="29">
+        <f>W13*($M$28+1)</f>
+        <v>28744.224861461717</v>
+      </c>
+      <c r="Y13" s="29">
+        <f>X13*($N$28+1)</f>
+        <v>31331.205098993272</v>
+      </c>
+      <c r="Z13" s="29">
+        <f>Y13*($N$28+1)</f>
+        <v>34151.013557902668</v>
+      </c>
+      <c r="AA13" s="29">
+        <f>Z13*($N$28+1)</f>
+        <v>37224.604778113913</v>
+      </c>
+      <c r="AB13" s="29">
+        <f>AA13*($N$28+1)</f>
+        <v>40574.819208144167</v>
+      </c>
+      <c r="AC13" s="29">
+        <f>AB13*($N$28+1)</f>
+        <v>44226.552936877146</v>
+      </c>
+      <c r="AD13" s="29">
+        <f>AC13*($N$28+1)</f>
+        <v>48206.942701196094</v>
+      </c>
+      <c r="AE13" s="29">
+        <f>AD13*($N$28+1)</f>
+        <v>52545.567544303747</v>
+      </c>
+      <c r="AF13" s="29">
+        <f>AE13*($N$28+1)</f>
+        <v>57274.668623291087</v>
+      </c>
+      <c r="AG13" s="29">
+        <f>AF13*($N$28+1)</f>
+        <v>62429.388799387292</v>
+      </c>
+      <c r="AH13" s="29">
+        <f>AG13*($N$28+1)</f>
+        <v>68048.033791332156</v>
+      </c>
+      <c r="AI13" s="29">
+        <f>AH13*($N$28+1)</f>
+        <v>74172.356832552061</v>
+      </c>
+      <c r="AJ13" s="29">
+        <f>AI13*($N$28+1)</f>
+        <v>80847.868947481751</v>
+      </c>
+      <c r="AK13" s="29">
+        <f>AJ13*($N$28+1)</f>
+        <v>88124.177152755117</v>
+      </c>
+      <c r="AL13" s="29">
+        <f>AK13*($N$28+1)</f>
+        <v>96055.35309650308</v>
+      </c>
+      <c r="AM13" s="29">
+        <f>AL13*($N$28+1)</f>
+        <v>104700.33487518836</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="18">
+        <v>542.98710000000005</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1061.9597000000001</v>
+      </c>
+      <c r="E14" s="18">
+        <v>394</v>
+      </c>
+      <c r="F14" s="18">
+        <v>486</v>
+      </c>
+      <c r="G14" s="18">
+        <v>849</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1300</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1903</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2498</v>
+      </c>
+      <c r="N14" s="19">
+        <v>2498</v>
+      </c>
+      <c r="O14">
+        <f>N14*($M$31+1)</f>
+        <v>2797.7600000000002</v>
+      </c>
+      <c r="P14" s="34">
+        <f>O14*($M$31+1)</f>
+        <v>3133.4912000000004</v>
+      </c>
+      <c r="Q14" s="29">
+        <f>P14*($M$31+1)</f>
+        <v>3509.5101440000008</v>
+      </c>
+      <c r="R14" s="29">
+        <f>Q14*($M$31+1)</f>
+        <v>3930.6513612800013</v>
+      </c>
+      <c r="S14" s="29">
+        <f>R14*($M$31+1)</f>
+        <v>4402.329524633602</v>
+      </c>
+      <c r="T14" s="29">
+        <f>S14*($M$31+1)</f>
+        <v>4930.6090675896348</v>
+      </c>
+      <c r="U14" s="29">
+        <f>T14*($M$31+1)</f>
+        <v>5522.2821557003917</v>
+      </c>
+      <c r="V14" s="29">
+        <f>U14*($M$31+1)</f>
+        <v>6184.9560143844392</v>
+      </c>
+      <c r="W14" s="29">
+        <f>V14*($M$31+1)</f>
+        <v>6927.1507361105723</v>
+      </c>
+      <c r="X14" s="29">
+        <f>W14*($M$31+1)</f>
+        <v>7758.4088244438417</v>
+      </c>
+      <c r="Y14" s="29">
+        <f>X14*($N$31+1)</f>
+        <v>8689.4178833771039</v>
+      </c>
+      <c r="Z14" s="29">
+        <f>Y14*($N$31+1)</f>
+        <v>9732.148029382357</v>
+      </c>
+      <c r="AA14" s="29">
+        <f>Z14*($N$31+1)</f>
+        <v>10900.005792908241</v>
+      </c>
+      <c r="AB14" s="29">
+        <f>AA14*($N$31+1)</f>
+        <v>12208.006488057232</v>
+      </c>
+      <c r="AC14" s="29">
+        <f>AB14*($N$31+1)</f>
+        <v>13672.9672666241</v>
+      </c>
+      <c r="AD14" s="29">
+        <f>AC14*($N$31+1)</f>
+        <v>15313.723338618995</v>
+      </c>
+      <c r="AE14" s="29">
+        <f>AD14*($N$31+1)</f>
+        <v>17151.370139253275</v>
+      </c>
+      <c r="AF14" s="29">
+        <f>AE14*($N$31+1)</f>
+        <v>19209.53455596367</v>
+      </c>
+      <c r="AG14" s="29">
+        <f>AF14*($N$31+1)</f>
+        <v>21514.678702679314</v>
+      </c>
+      <c r="AH14" s="29">
+        <f>AG14*($N$31+1)</f>
+        <v>24096.440147000834</v>
+      </c>
+      <c r="AI14" s="29">
+        <f>AH14*($N$31+1)</f>
+        <v>26988.012964640937</v>
+      </c>
+      <c r="AJ14" s="29">
+        <f>AI14*($N$31+1)</f>
+        <v>30226.574520397851</v>
+      </c>
+      <c r="AK14" s="29">
+        <f>AJ14*($N$31+1)</f>
+        <v>33853.7634628456</v>
+      </c>
+      <c r="AL14" s="29">
+        <f>AK14*($N$31+1)</f>
+        <v>37916.215078387075</v>
+      </c>
+      <c r="AM14" s="29">
+        <f>AL14*($N$31+1)</f>
+        <v>42466.160887793529</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="18">
+        <v>88.717200000000005</v>
+      </c>
+      <c r="D15" s="18">
+        <v>342.73259999999999</v>
+      </c>
+      <c r="E15" s="18">
+        <v>511</v>
+      </c>
+      <c r="F15" s="19">
+        <v>227</v>
+      </c>
+      <c r="G15" s="18">
+        <v>303</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1057</v>
+      </c>
+      <c r="I15" s="19">
+        <v>659</v>
+      </c>
+      <c r="J15" s="19">
+        <v>767</v>
+      </c>
+      <c r="N15" s="19">
+        <v>767</v>
+      </c>
+      <c r="O15">
+        <v>850</v>
+      </c>
+      <c r="P15" s="6">
+        <v>850</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>850</v>
+      </c>
+      <c r="R15" s="29">
+        <v>850</v>
+      </c>
+      <c r="S15" s="29">
+        <v>850</v>
+      </c>
+      <c r="T15" s="29">
+        <v>850</v>
+      </c>
+      <c r="U15" s="29">
+        <v>850</v>
+      </c>
+      <c r="V15" s="29">
+        <v>850</v>
+      </c>
+      <c r="W15" s="29">
+        <v>850</v>
+      </c>
+      <c r="X15" s="29">
+        <v>850</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>850</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AA15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AB15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AC15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AD15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AE15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AF15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AG15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AH15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AI15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AJ15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AK15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AL15" s="29">
+        <v>850</v>
+      </c>
+      <c r="AM15" s="29">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.25">
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="20">
+        <f>SUM(C10:C15)</f>
+        <v>1741.5885000000001</v>
+      </c>
+      <c r="D16" s="20">
+        <f>SUM(D10:D15)</f>
+        <v>2715.6532999999999</v>
+      </c>
+      <c r="E16" s="20">
+        <f>SUM(E10:E15)</f>
+        <v>2488</v>
+      </c>
+      <c r="F16" s="20">
+        <f>SUM(F10:F15)</f>
+        <v>3328</v>
+      </c>
+      <c r="G16" s="20">
+        <f>SUM(G10:G15)</f>
+        <v>5089</v>
+      </c>
+      <c r="H16" s="20">
+        <f>SUM(H10:H15)</f>
+        <v>7056</v>
+      </c>
+      <c r="I16" s="20">
+        <f>SUM(I10:I15)</f>
+        <v>8832</v>
+      </c>
+      <c r="J16" s="20">
+        <f>SUM(J10:J15)</f>
+        <v>10325</v>
+      </c>
+      <c r="N16" s="20">
+        <f>SUM(N10:N15)</f>
+        <v>10325</v>
+      </c>
+      <c r="O16" s="35">
+        <f>SUM(O10:O15)</f>
+        <v>12478.054</v>
+      </c>
+      <c r="P16" s="35">
+        <f>SUM(P10:P15)</f>
+        <v>14403.23812</v>
+      </c>
+      <c r="Q16" s="28">
+        <f>SUM(Q10:Q15)</f>
+        <v>16654.811509599996</v>
+      </c>
+      <c r="R16" s="28">
+        <f>SUM(R10:R15)</f>
+        <v>19289.106972687998</v>
+      </c>
+      <c r="S16" s="28">
+        <f>SUM(S10:S15)</f>
+        <v>22372.307146095038</v>
+      </c>
+      <c r="T16" s="28">
+        <f>SUM(T10:T15)</f>
+        <v>25982.182660914128</v>
+      </c>
+      <c r="U16" s="28">
+        <f>SUM(U10:U15)</f>
+        <v>30210.13899582329</v>
+      </c>
+      <c r="V16" s="28">
+        <f>SUM(V10:V15)</f>
+        <v>35163.627085729458</v>
+      </c>
+      <c r="W16" s="28">
+        <f>SUM(W10:W15)</f>
+        <v>40968.982600297692</v>
+      </c>
+      <c r="X16" s="28">
+        <f>SUM(X10:X15)</f>
+        <v>47774.770424184644</v>
+      </c>
+      <c r="Y16" s="28">
+        <f>SUM(Y10:Y15)</f>
+        <v>51522.09173987736</v>
+      </c>
+      <c r="Z16" s="28">
+        <f>SUM(Z10:Z15)</f>
+        <v>56343.262532967638</v>
+      </c>
+      <c r="AA16" s="28">
+        <f>SUM(AA10:AA15)</f>
+        <v>61629.620601816205</v>
+      </c>
+      <c r="AB16" s="28">
+        <f>SUM(AB10:AB15)</f>
+        <v>67426.786629766924</v>
+      </c>
+      <c r="AC16" s="28">
+        <f>SUM(AC10:AC15)</f>
+        <v>73784.937621087665</v>
+      </c>
+      <c r="AD16" s="28">
+        <f>SUM(AD10:AD15)</f>
+        <v>80759.271024984278</v>
+      </c>
+      <c r="AE16" s="28">
+        <f>SUM(AE10:AE15)</f>
+        <v>88410.517117391457</v>
+      </c>
+      <c r="AF16" s="28">
+        <f>SUM(AF10:AF15)</f>
+        <v>96805.504762134282</v>
+      </c>
+      <c r="AG16" s="28">
+        <f>SUM(AG10:AG15)</f>
+        <v>106017.78622740529</v>
+      </c>
+      <c r="AH16" s="28">
+        <f>SUM(AH10:AH15)</f>
+        <v>116128.32734895215</v>
+      </c>
+      <c r="AI16" s="28">
+        <f>SUM(AI10:AI15)</f>
+        <v>127226.27001476788</v>
+      </c>
+      <c r="AJ16" s="28">
+        <f>SUM(AJ10:AJ15)</f>
+        <v>139409.77470503622</v>
+      </c>
+      <c r="AK16" s="28">
+        <f>SUM(AK10:AK15)</f>
+        <v>152786.95166410145</v>
+      </c>
+      <c r="AL16" s="28">
+        <f>SUM(AL10:AL15)</f>
+        <v>167476.89021775598</v>
+      </c>
+      <c r="AM16" s="28">
+        <f>SUM(AM10:AM15)</f>
+        <v>183610.79678970561</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>-7</v>
+      </c>
+      <c r="F17" s="18">
+        <v>6</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18">
+        <v>59</v>
+      </c>
+      <c r="I17" s="19">
+        <v>289</v>
+      </c>
+      <c r="J17" s="19">
+        <v>444</v>
+      </c>
+      <c r="N17" s="19">
+        <v>444</v>
+      </c>
+      <c r="O17">
+        <v>200</v>
+      </c>
+      <c r="P17" s="6">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>200</v>
+      </c>
+      <c r="R17" s="29">
+        <v>200</v>
+      </c>
+      <c r="S17" s="29">
+        <v>200</v>
+      </c>
+      <c r="T17" s="29">
+        <v>200</v>
+      </c>
+      <c r="U17" s="29">
+        <v>200</v>
+      </c>
+      <c r="V17" s="29">
+        <v>200</v>
+      </c>
+      <c r="W17" s="29">
+        <v>200</v>
+      </c>
+      <c r="X17" s="29">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AB17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AC17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AE17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AF17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AG17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AH17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AI17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AJ17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AK17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AL17" s="29">
+        <v>200</v>
+      </c>
+      <c r="AM17" s="29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>-191</v>
+      </c>
+      <c r="F18" s="18">
+        <v>-84</v>
+      </c>
+      <c r="G18" s="18">
+        <v>64</v>
+      </c>
+      <c r="H18" s="18">
+        <v>-194</v>
+      </c>
+      <c r="I18" s="19">
+        <v>-246</v>
+      </c>
+      <c r="J18" s="19">
+        <v>-326</v>
+      </c>
+      <c r="N18" s="19">
+        <v>-326</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>0</v>
+      </c>
+      <c r="R18" s="29">
+        <v>0</v>
+      </c>
+      <c r="S18" s="29">
+        <v>0</v>
+      </c>
+      <c r="T18" s="29">
+        <v>0</v>
+      </c>
+      <c r="U18" s="29">
+        <v>0</v>
+      </c>
+      <c r="V18" s="29">
+        <v>0</v>
+      </c>
+      <c r="W18" s="29">
+        <v>0</v>
+      </c>
+      <c r="X18" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="20">
+        <f>C5-C16+C17+C18</f>
+        <v>-210.17889999999989</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D5-D16+D17+D18</f>
+        <v>-584.6552999999999</v>
+      </c>
+      <c r="E19" s="20">
+        <f>E5-E16+E17+E18</f>
+        <v>-57</v>
+      </c>
+      <c r="F19" s="20">
+        <f>F5-F16+F17+F18</f>
+        <v>193</v>
+      </c>
+      <c r="G19" s="20">
+        <f>G5-G16+G17+G18</f>
+        <v>553</v>
+      </c>
+      <c r="H19" s="20">
+        <f>H5-H16+H17+H18</f>
+        <v>1426</v>
+      </c>
+      <c r="I19" s="20">
+        <f>I5-I16+I17+I18</f>
+        <v>1671</v>
+      </c>
+      <c r="J19" s="20">
+        <f>J5-J16+J17+J18</f>
+        <v>2215</v>
+      </c>
+      <c r="N19" s="20">
+        <f>N5-N16+N17+N18</f>
+        <v>2215</v>
+      </c>
+      <c r="O19" s="20">
+        <f>O5-O16+O17+O18</f>
+        <v>2379.905999999999</v>
+      </c>
+      <c r="P19" s="20">
+        <f>P5-P16+P17+P18</f>
+        <v>3093.1546799999978</v>
+      </c>
+      <c r="Q19" s="36">
+        <f>Q5-Q16+Q17+Q18</f>
+        <v>3954.9319943999981</v>
+      </c>
+      <c r="R19" s="36">
+        <f>R5-R16+R17+R18</f>
+        <v>4994.3903620319943</v>
+      </c>
+      <c r="S19" s="36">
+        <f>S5-S16+S17+S18</f>
+        <v>6246.2197088745525</v>
+      </c>
+      <c r="T19" s="36">
+        <f>T5-T16+T17+T18</f>
+        <v>7751.6790279499837</v>
+      </c>
+      <c r="U19" s="36">
+        <f>U5-U16+U17+U18</f>
+        <v>9559.8177970363613</v>
+      </c>
+      <c r="V19" s="36">
+        <f>V5-V16+V17+V18</f>
+        <v>11728.921929844932</v>
+      </c>
+      <c r="W19" s="36">
+        <f>W5-W16+W17+W18</f>
+        <v>14328.225238080086</v>
+      </c>
+      <c r="X19" s="36">
+        <f>X5-X16+X17+X18</f>
+        <v>17439.934825101132</v>
+      </c>
+      <c r="Y19" s="36">
+        <f>Y5-Y16+Y17+Y18</f>
+        <v>19543.936981844148</v>
+      </c>
+      <c r="Z19" s="36">
+        <f>Z5-Z16+Z17+Z18</f>
+        <v>21100.708773708815</v>
+      </c>
+      <c r="AA19" s="36">
+        <f>AA5-AA16+AA17+AA18</f>
+        <v>22766.308122461138</v>
+      </c>
+      <c r="AB19" s="36">
+        <f>AB5-AB16+AB17+AB18</f>
+        <v>24546.775679695391</v>
+      </c>
+      <c r="AC19" s="36">
+        <f>AC5-AC16+AC17+AC18</f>
+        <v>26448.245296226261</v>
+      </c>
+      <c r="AD19" s="36">
+        <f>AD5-AD16+AD17+AD18</f>
+        <v>28476.898354887904</v>
+      </c>
+      <c r="AE19" s="36">
+        <f>AE5-AE16+AE17+AE18</f>
+        <v>30638.907506669231</v>
+      </c>
+      <c r="AF19" s="36">
+        <f>AF5-AF16+AF17+AF18</f>
+        <v>32940.36807809188</v>
+      </c>
+      <c r="AG19" s="36">
+        <f>AG5-AG16+AG17+AG18</f>
+        <v>35387.215168441224</v>
+      </c>
+      <c r="AH19" s="36">
+        <f>AH5-AH16+AH17+AH18</f>
+        <v>37985.124172520562</v>
+      </c>
+      <c r="AI19" s="36">
+        <f>AI5-AI16+AI17+AI18</f>
+        <v>40739.392143637378</v>
+      </c>
+      <c r="AJ19" s="36">
+        <f>AJ5-AJ16+AJ17+AJ18</f>
+        <v>43654.797047625529</v>
+      </c>
+      <c r="AK19" s="36">
+        <f>AK5-AK16+AK17+AK18</f>
+        <v>46735.431546299864</v>
+      </c>
+      <c r="AL19" s="36">
+        <f>AL5-AL16+AL17+AL18</f>
+        <v>49984.507481581473</v>
+      </c>
+      <c r="AM19" s="36">
+        <f>AM5-AM16+AM17+AM18</f>
+        <v>53404.126702572219</v>
+      </c>
+    </row>
+    <row r="20" s="0" customFormat="1" ht="14.25">
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="18">
+        <v>72.696899999999999</v>
+      </c>
+      <c r="D20" s="18">
+        <v>113.1631</v>
+      </c>
+      <c r="E20" s="18">
+        <v>-11</v>
+      </c>
+      <c r="F20" s="18">
+        <v>-11</v>
+      </c>
+      <c r="G20" s="18">
+        <v>-64</v>
+      </c>
+      <c r="H20" s="19">
+        <v>-453</v>
+      </c>
+      <c r="I20" s="19">
+        <v>-411</v>
+      </c>
+      <c r="J20" s="19">
+        <v>-214</v>
+      </c>
+      <c r="N20" s="19">
+        <v>-214</v>
+      </c>
+      <c r="O20">
+        <f>-1*$M$32*O19</f>
+        <v>-333.1868399999999</v>
+      </c>
+      <c r="P20" s="34">
+        <f>-1*$M$32*P19</f>
+        <v>-433.04165519999975</v>
+      </c>
+      <c r="Q20" s="29">
+        <f>-1*$M$32*Q19</f>
+        <v>-553.69047921599974</v>
+      </c>
+      <c r="R20" s="29">
+        <f>-1*$M$32*R19</f>
+        <v>-699.21465068447924</v>
+      </c>
+      <c r="S20" s="29">
+        <f>-1*$M$32*S19</f>
+        <v>-874.47075924243745</v>
+      </c>
+      <c r="T20" s="29">
+        <f>-1*$M$32*T19</f>
+        <v>-1085.2350639129979</v>
+      </c>
+      <c r="U20" s="29">
+        <f>-1*$M$32*U19</f>
+        <v>-1338.3744915850907</v>
+      </c>
+      <c r="V20" s="29">
+        <f>-1*$M$32*V19</f>
+        <v>-1642.0490701782905</v>
+      </c>
+      <c r="W20" s="29">
+        <f>-1*$M$32*W19</f>
+        <v>-2005.9515333312122</v>
+      </c>
+      <c r="X20" s="29">
+        <f>-1*$M$32*X19</f>
+        <v>-2441.5908755141586</v>
+      </c>
+      <c r="Y20" s="29">
+        <f>-1*$N$32*Y19</f>
+        <v>-2736.1511774581809</v>
+      </c>
+      <c r="Z20" s="29">
+        <f>-1*$N$32*Z19</f>
+        <v>-2954.0992283192345</v>
+      </c>
+      <c r="AA20" s="29">
+        <f>-1*$N$32*AA19</f>
+        <v>-3187.2831371445595</v>
+      </c>
+      <c r="AB20" s="29">
+        <f>-1*$N$32*AB19</f>
+        <v>-3436.5485951573551</v>
+      </c>
+      <c r="AC20" s="29">
+        <f>-1*$N$32*AC19</f>
+        <v>-3702.754341471677</v>
+      </c>
+      <c r="AD20" s="29">
+        <f>-1*$N$32*AD19</f>
+        <v>-3986.7657696843071</v>
+      </c>
+      <c r="AE20" s="29">
+        <f>-1*$N$32*AE19</f>
+        <v>-4289.4470509336925</v>
+      </c>
+      <c r="AF20" s="29">
+        <f>-1*$N$32*AF19</f>
+        <v>-4611.6515309328634</v>
+      </c>
+      <c r="AG20" s="29">
+        <f>-1*$N$32*AG19</f>
+        <v>-4954.2101235817718</v>
+      </c>
+      <c r="AH20" s="29">
+        <f>-1*$N$32*AH19</f>
+        <v>-5317.9173841528791</v>
+      </c>
+      <c r="AI20" s="29">
+        <f>-1*$N$32*AI19</f>
+        <v>-5703.5149001092332</v>
+      </c>
+      <c r="AJ20" s="29">
+        <f>-1*$N$32*AJ19</f>
+        <v>-6111.671586667575</v>
+      </c>
+      <c r="AK20" s="29">
+        <f>-1*$N$32*AK19</f>
+        <v>-6542.9604164819812</v>
+      </c>
+      <c r="AL20" s="29">
+        <f>-1*$N$32*AL19</f>
+        <v>-6997.8310474214068</v>
+      </c>
+      <c r="AM20" s="29">
+        <f>-1*$N$32*AM19</f>
+        <v>-7476.5777383601117</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.25">
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="20">
+        <f>C19+C20</f>
+        <v>-137.48199999999989</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D19+D20</f>
+        <v>-471.49219999999991</v>
+      </c>
+      <c r="E21" s="20">
+        <f>E19+E20</f>
+        <v>-68</v>
+      </c>
+      <c r="F21" s="20">
+        <f>F19+F20</f>
+        <v>182</v>
+      </c>
+      <c r="G21" s="20">
+        <f>G19+G20</f>
+        <v>489</v>
+      </c>
+      <c r="H21" s="20">
+        <f>H19+H20</f>
+        <v>973</v>
+      </c>
+      <c r="I21" s="20">
+        <f>I19+I20</f>
+        <v>1260</v>
+      </c>
+      <c r="J21" s="20">
+        <f>J19+J20</f>
+        <v>2001</v>
+      </c>
+      <c r="N21" s="20">
+        <f>N19+N20</f>
+        <v>2001</v>
+      </c>
+      <c r="O21" s="37">
+        <f>O19+O20</f>
+        <v>2046.7191599999992</v>
+      </c>
+      <c r="P21" s="37">
+        <f>P19+P20</f>
+        <v>2660.1130247999981</v>
+      </c>
+      <c r="Q21" s="28">
+        <f>Q19+Q20</f>
+        <v>3401.2415151839982</v>
+      </c>
+      <c r="R21" s="28">
+        <f>R19+R20</f>
+        <v>4295.1757113475151</v>
+      </c>
+      <c r="S21" s="28">
+        <f>S19+S20</f>
+        <v>5371.748949632115</v>
+      </c>
+      <c r="T21" s="28">
+        <f>T19+T20</f>
+        <v>6666.4439640369856</v>
+      </c>
+      <c r="U21" s="28">
+        <f>U19+U20</f>
+        <v>8221.4433054512701</v>
+      </c>
+      <c r="V21" s="28">
+        <f>V19+V20</f>
+        <v>10086.872859666641</v>
+      </c>
+      <c r="W21" s="28">
+        <f>W19+W20</f>
+        <v>12322.273704748874</v>
+      </c>
+      <c r="X21" s="28">
+        <f>X19+X20</f>
+        <v>14998.343949586973</v>
+      </c>
+      <c r="Y21" s="28">
+        <f>Y19+Y20</f>
+        <v>16807.785804385967</v>
+      </c>
+      <c r="Z21" s="28">
+        <f>Z19+Z20</f>
+        <v>18146.60954538958</v>
+      </c>
+      <c r="AA21" s="28">
+        <f>AA19+AA20</f>
+        <v>19579.024985316577</v>
+      </c>
+      <c r="AB21" s="28">
+        <f>AB19+AB20</f>
+        <v>21110.227084538037</v>
+      </c>
+      <c r="AC21" s="28">
+        <f>AC19+AC20</f>
+        <v>22745.490954754583</v>
+      </c>
+      <c r="AD21" s="28">
+        <f>AD19+AD20</f>
+        <v>24490.132585203595</v>
+      </c>
+      <c r="AE21" s="28">
+        <f>AE19+AE20</f>
+        <v>26349.460455735538</v>
+      </c>
+      <c r="AF21" s="28">
+        <f>AF19+AF20</f>
+        <v>28328.716547159016</v>
+      </c>
+      <c r="AG21" s="28">
+        <f>AG19+AG20</f>
+        <v>30433.005044859452</v>
+      </c>
+      <c r="AH21" s="28">
+        <f>AH19+AH20</f>
+        <v>32667.206788367683</v>
+      </c>
+      <c r="AI21" s="28">
+        <f>AI19+AI20</f>
+        <v>35035.877243528143</v>
+      </c>
+      <c r="AJ21" s="28">
+        <f>AJ19+AJ20</f>
+        <v>37543.125460957956</v>
+      </c>
+      <c r="AK21" s="28">
+        <f>AK19+AK20</f>
+        <v>40192.471129817881</v>
+      </c>
+      <c r="AL21" s="28">
+        <f>AL19+AL20</f>
+        <v>42986.676434160065</v>
+      </c>
+      <c r="AM21" s="28">
+        <f>AM19+AM20</f>
+        <v>45927.54896421211</v>
+      </c>
+      <c r="AN21" s="35">
+        <f>AM21*(1+$Z$25)</f>
+        <v>46386.824453854235</v>
+      </c>
+      <c r="AO21" s="35">
+        <f>AN21*(1+$Z$25)</f>
+        <v>46850.692698392777</v>
+      </c>
+      <c r="AP21" s="35">
+        <f>AO21*(1+$Z$25)</f>
+        <v>47319.199625376707</v>
+      </c>
+      <c r="AQ21" s="35">
+        <f>AP21*(1+$Z$25)</f>
+        <v>47792.391621630471</v>
+      </c>
+      <c r="AR21" s="35">
+        <f>AQ21*(1+$Z$25)</f>
+        <v>48270.315537846778</v>
+      </c>
+      <c r="AS21" s="35">
+        <f>AR21*(1+$Z$25)</f>
+        <v>48753.018693225247</v>
+      </c>
+      <c r="AT21" s="35">
+        <f>AS21*(1+$Z$25)</f>
+        <v>49240.548880157497</v>
+      </c>
+      <c r="AU21" s="35">
+        <f>AT21*(1+$Z$25)</f>
+        <v>49732.954368959072</v>
+      </c>
+      <c r="AV21" s="35">
+        <f>AU21*(1+$Z$25)</f>
+        <v>50230.283912648665</v>
+      </c>
+      <c r="AW21" s="35">
+        <f>AV21*(1+$Z$25)</f>
+        <v>50732.586751775154</v>
+      </c>
+      <c r="AX21" s="35">
+        <f>AW21*(1+$Z$25)</f>
+        <v>51239.912619292903</v>
+      </c>
+      <c r="AY21" s="35">
+        <f>AX21*(1+$Z$25)</f>
+        <v>51752.311745485829</v>
+      </c>
+      <c r="AZ21" s="35">
+        <f>AY21*(1+$Z$25)</f>
+        <v>52269.83486294069</v>
+      </c>
+      <c r="BA21" s="35">
+        <f>AZ21*(1+$Z$25)</f>
+        <v>52792.533211570095</v>
+      </c>
+      <c r="BB21" s="35">
+        <f>BA21*(1+$Z$25)</f>
+        <v>53320.458543685796</v>
+      </c>
+      <c r="BC21" s="35">
+        <f>BB21*(1+$Z$25)</f>
+        <v>53853.663129122651</v>
+      </c>
+      <c r="BD21" s="35">
+        <f>BC21*(1+$Z$25)</f>
+        <v>54392.199760413881</v>
+      </c>
+      <c r="BE21" s="35">
+        <f>BD21*(1+$Z$25)</f>
+        <v>54936.121758018024</v>
+      </c>
+      <c r="BF21" s="35">
+        <f>BE21*(1+$Z$25)</f>
+        <v>55485.482975598206</v>
+      </c>
+      <c r="BG21" s="35">
+        <f>BF21*(1+$Z$25)</f>
+        <v>56040.337805354189</v>
+      </c>
+      <c r="BH21" s="35">
+        <f>BG21*(1+$Z$25)</f>
+        <v>56600.741183407728</v>
+      </c>
+      <c r="BI21" s="35">
+        <f>BH21*(1+$Z$25)</f>
+        <v>57166.748595241806</v>
+      </c>
+      <c r="BJ21" s="35">
+        <f>BI21*(1+$Z$25)</f>
+        <v>57738.416081194227</v>
+      </c>
+      <c r="BK21" s="35">
+        <f>BJ21*(1+$Z$25)</f>
+        <v>58315.800242006168</v>
+      </c>
+      <c r="BL21" s="35">
+        <f>BK21*(1+$Z$25)</f>
+        <v>58898.958244426227</v>
+      </c>
+      <c r="BM21" s="35">
+        <f>BL21*(1+$Z$25)</f>
+        <v>59487.947826870492</v>
+      </c>
+      <c r="BN21" s="35">
+        <f>BM21*(1+$Z$25)</f>
+        <v>60082.827305139195</v>
+      </c>
+      <c r="BO21" s="35">
+        <f>BN21*(1+$Z$25)</f>
+        <v>60683.655578190584</v>
+      </c>
+      <c r="BP21" s="35">
+        <f>BO21*(1+$Z$25)</f>
+        <v>61290.49213397249</v>
+      </c>
+      <c r="BQ21" s="35">
+        <f>BP21*(1+$Z$25)</f>
+        <v>61903.397055312213</v>
+      </c>
+      <c r="BR21" s="35">
+        <f>BQ21*(1+$Z$25)</f>
+        <v>62522.431025865335</v>
+      </c>
+      <c r="BS21" s="35">
+        <f>BR21*(1+$Z$25)</f>
+        <v>63147.655336123986</v>
+      </c>
+      <c r="BT21" s="35">
+        <f>BS21*(1+$Z$25)</f>
+        <v>63779.131889485223</v>
+      </c>
+      <c r="BU21" s="35">
+        <f>BT21*(1+$Z$25)</f>
+        <v>64416.923208380074</v>
+      </c>
+      <c r="BV21" s="35">
+        <f>BU21*(1+$Z$25)</f>
+        <v>65061.092440463879</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.25">
+      <c r="B22" s="38"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="18">
+        <v>-0.88</v>
+      </c>
+      <c r="D24" s="18">
+        <v>-3.5699999999999998</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="G24" s="18">
+        <v>2.4100000000000001</v>
+      </c>
+      <c r="H24" s="18">
+        <v>5.4100000000000001</v>
+      </c>
+      <c r="I24" s="19">
+        <v>6.21</v>
+      </c>
+      <c r="J24" s="19">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="J25" s="6"/>
+      <c r="K25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z25" s="39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="40">
+        <f>C3-C10</f>
+        <v>1389.7412000000002</v>
+      </c>
+      <c r="D26" s="40">
+        <f>D3-D10</f>
+        <v>1927.8471999999999</v>
+      </c>
+      <c r="E26" s="40">
+        <f>E3-E10</f>
+        <v>2087</v>
+      </c>
+      <c r="F26" s="40">
+        <f>F3-F10</f>
+        <v>2596</v>
+      </c>
+      <c r="G26" s="40">
+        <f>G3-G10</f>
+        <v>3847</v>
+      </c>
+      <c r="H26" s="40">
+        <f>H3-H10</f>
+        <v>6028</v>
+      </c>
+      <c r="I26" s="40">
+        <f>I3-I10</f>
+        <v>8033</v>
+      </c>
+      <c r="J26" s="40">
+        <f>J3-J10</f>
+        <v>9772</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z26" s="39">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" s="9">
+        <f>C26/C3</f>
+        <v>0.93883531126700037</v>
+      </c>
+      <c r="D27" s="9">
+        <f>D26/D3</f>
+        <v>0.93676532134787693</v>
+      </c>
+      <c r="E27" s="9">
+        <f>E26/E3</f>
+        <v>0.81875245194193802</v>
+      </c>
+      <c r="F27" s="9">
+        <f>F26/F3</f>
+        <v>0.83098591549295775</v>
+      </c>
+      <c r="G27" s="9">
+        <f>G26/G3</f>
+        <v>0.74946425092538471</v>
+      </c>
+      <c r="H27" s="9">
+        <f>H26/H3</f>
+        <v>0.77520576131687247</v>
+      </c>
+      <c r="I27" s="9">
+        <f>I26/I3</f>
+        <v>0.87125813449023859</v>
+      </c>
+      <c r="J27" s="9">
+        <f>J26/J3</f>
+        <v>0.87156617909382805</v>
+      </c>
+      <c r="K27" s="41">
+        <f>AVERAGE(C27:J27)</f>
+        <v>0.8491041657345122</v>
+      </c>
+      <c r="L27" s="41">
+        <f>MEDIAN(C27:J27)</f>
+        <v>0.85112202499159817</v>
+      </c>
+      <c r="M27" s="39">
+        <v>0.84999999999999998</v>
+      </c>
+      <c r="N27" s="39">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z27" s="42">
+        <f>NPV(Z26,O21:BV21)</f>
+        <v>158008.34369682599</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="9">
+        <f>D5/C5-1</f>
+        <v>0.3915271263808191</v>
+      </c>
+      <c r="E28" s="9">
+        <f>E5/D5-1</f>
+        <v>0.23369425968489876</v>
+      </c>
+      <c r="F28" s="9">
+        <f>F5/E5-1</f>
+        <v>0.36896158235070375</v>
+      </c>
+      <c r="G28" s="9">
+        <f>G5/F5-1</f>
+        <v>0.54959711030841896</v>
+      </c>
+      <c r="H28" s="9">
+        <f>H5/G5-1</f>
+        <v>0.54509592971131426</v>
+      </c>
+      <c r="I28" s="9">
+        <f>I5/H5-1</f>
+        <v>0.21387954044330981</v>
+      </c>
+      <c r="J28" s="9">
+        <f>J5/I5-1</f>
+        <v>0.18757170172084137</v>
+      </c>
+      <c r="K28" s="41">
+        <f>AVERAGE(C28:J28)</f>
+        <v>0.35576103580004376</v>
+      </c>
+      <c r="L28" s="41">
+        <f>MEDIAN(C28:J28)</f>
+        <v>0.36896158235070375</v>
+      </c>
+      <c r="M28" s="41">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="N28" s="39">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" s="40">
+        <f>D12/C12-1</f>
+        <v>0.36642170899211535</v>
+      </c>
+      <c r="E29" s="40">
+        <f>E12/D12-1</f>
+        <v>0.79381218618764615</v>
+      </c>
+      <c r="F29" s="40">
+        <f>F12/E12-1</f>
+        <v>-0.64485981308411211</v>
+      </c>
+      <c r="G29" s="40">
+        <f>G12/F12-1</f>
+        <v>-0.10526315789473684</v>
+      </c>
+      <c r="H29" s="40">
+        <f>H12/G12-1</f>
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="I29" s="40">
+        <f>I12/H12-1</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J29" s="40">
+        <f>J12/I12-1</f>
+        <v>0.66233766233766245</v>
+      </c>
+      <c r="K29" s="41">
+        <f>AVERAGE(C29:J29)</f>
+        <v>0.31055988211055274</v>
+      </c>
+      <c r="L29" s="41">
+        <f>MEDIAN(C29:J29)</f>
+        <v>0.36642170899211535</v>
+      </c>
+      <c r="M29" s="39">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="N29" s="39">
+        <v>0.089999999999999997</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z29">
+        <v>1684931507</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="9">
+        <f>C13/C6</f>
+        <v>0.40836121985332752</v>
+      </c>
+      <c r="D30" s="9">
+        <f>D13/D6</f>
+        <v>1.5105704508097328</v>
+      </c>
+      <c r="E30" s="9">
+        <f>E13/E6</f>
+        <v>0.8923766816143498</v>
+      </c>
+      <c r="F30" s="9">
+        <f>F13/F6</f>
+        <v>0.52883834281072295</v>
+      </c>
+      <c r="G30" s="9">
+        <f>G13/G6</f>
+        <v>0.27631717875620315</v>
+      </c>
+      <c r="H30" s="9">
+        <f>H13/H6</f>
+        <v>0.69062870699881374</v>
+      </c>
+      <c r="I30" s="9">
+        <f>I13/I6</f>
+        <v>0.22192667464645122</v>
+      </c>
+      <c r="J30" s="9">
+        <f>J13/J6</f>
+        <v>0.51298337380907899</v>
+      </c>
+      <c r="K30" s="41">
+        <f>AVERAGE(C30:J30)</f>
+        <v>0.6302503286623351</v>
+      </c>
+      <c r="L30" s="41">
+        <f>MEDIAN(C30:J30)</f>
+        <v>0.52091085830990091</v>
+      </c>
+      <c r="M30" s="39">
+        <v>0.52000000000000002</v>
+      </c>
+      <c r="N30" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z30" s="35">
+        <f>Z27*10000000/Z29</f>
+        <v>937.77309665339408</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9">
+        <f>D14/C14-1</f>
+        <v>0.95577335078494507</v>
+      </c>
+      <c r="E31" s="9">
+        <f>E14/D14-1</f>
+        <v>-0.62898780433946788</v>
+      </c>
+      <c r="F31" s="9">
+        <f>F14/E14-1</f>
+        <v>0.23350253807106602</v>
+      </c>
+      <c r="G31" s="9">
+        <f>G14/F14-1</f>
+        <v>0.74691358024691357</v>
+      </c>
+      <c r="H31" s="9">
+        <f>H14/G14-1</f>
+        <v>0.53121319199057715</v>
+      </c>
+      <c r="I31" s="9">
+        <f>I14/H14-1</f>
+        <v>0.4638461538461538</v>
+      </c>
+      <c r="J31" s="9">
+        <f>J14/I14-1</f>
+        <v>0.31266421439831849</v>
+      </c>
+      <c r="K31" s="41">
+        <f>AVERAGE(C31:J31)</f>
+        <v>0.37356074642835807</v>
+      </c>
+      <c r="L31" s="41">
+        <f>MEDIAN(C31:J31)</f>
+        <v>0.4638461538461538</v>
+      </c>
+      <c r="M31" s="39">
+        <v>0.12</v>
+      </c>
+      <c r="N31" s="39">
+        <f>M31</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C32" s="40">
+        <f>MAX(0,C19/C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="40">
+        <f>MAX(0,D19/D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="40">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <f>F20/F19*-1</f>
+        <v>0.056994818652849742</v>
+      </c>
+      <c r="G32" s="9">
+        <f>G20/G19*-1</f>
+        <v>0.11573236889692586</v>
+      </c>
+      <c r="H32" s="9">
+        <f>H20/H19*-1</f>
+        <v>0.317671809256662</v>
+      </c>
+      <c r="I32" s="9">
+        <f>I20/I19*-1</f>
+        <v>0.24596050269299821</v>
+      </c>
+      <c r="J32" s="9">
+        <f>J20/J19*-1</f>
+        <v>0.096613995485327314</v>
+      </c>
+      <c r="K32" s="41">
+        <f>AVERAGE(F32:J32)</f>
+        <v>0.16659469899695262</v>
+      </c>
+      <c r="L32" s="41">
+        <f>MEDIAN(F32:J32)</f>
+        <v>0.11573236889692586</v>
+      </c>
+      <c r="M32" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N32" s="45">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33">
+        <f>C47/C40</f>
+        <v>7.2493570198522432</v>
+      </c>
+      <c r="D33" s="6">
+        <f>D47/D40</f>
+        <v>5.5294448070857465</v>
+      </c>
+      <c r="E33" s="6">
+        <f>E47/E40</f>
+        <v>5.8255517826825125</v>
+      </c>
+      <c r="F33" s="6">
+        <f>F47/F40</f>
+        <v>10.654090909090909</v>
+      </c>
+      <c r="G33" s="6">
+        <f>G47/G40</f>
+        <v>19.964804896710024</v>
+      </c>
+      <c r="H33" s="6">
+        <f>H47/H40</f>
+        <v>7.2353504928806132</v>
+      </c>
+      <c r="I33" s="6">
+        <f>I47/I40</f>
+        <v>6.4124466137888954</v>
+      </c>
+      <c r="J33" s="6">
+        <f>J47/J40</f>
+        <v>6.4323144104803491</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" ht="14.25"/>
+    <row r="36" ht="14.25">
+      <c r="A36" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1564.01</v>
+      </c>
+      <c r="D37">
+        <v>1564.01</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1564</v>
+      </c>
+      <c r="F37">
+        <v>1564</v>
+      </c>
+      <c r="G37" s="46">
+        <v>1564</v>
+      </c>
+      <c r="H37" s="46">
+        <v>1584</v>
+      </c>
+      <c r="I37">
+        <v>1584</v>
+      </c>
+      <c r="J37">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1093.336</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1593</v>
+      </c>
+      <c r="F38">
+        <v>1339</v>
+      </c>
+      <c r="G38" s="46">
+        <v>1424</v>
+      </c>
+      <c r="H38" s="46">
+        <v>1424</v>
+      </c>
+      <c r="I38">
+        <v>1424</v>
+      </c>
+      <c r="J38">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="6">
+        <v>-222.59999999999999</v>
+      </c>
+      <c r="D39">
+        <v>-724</v>
+      </c>
+      <c r="E39" s="6">
+        <v>-801</v>
+      </c>
+      <c r="F39">
+        <v>-703</v>
+      </c>
+      <c r="G39" s="46">
+        <v>-374</v>
+      </c>
+      <c r="H39" s="46">
+        <v>4296</v>
+      </c>
+      <c r="I39">
+        <v>6826</v>
+      </c>
+      <c r="J39">
+        <v>9129</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="14.25">
+      <c r="B40" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" s="47">
+        <f>SUM(C37:C39)</f>
+        <v>1341.4100000000001</v>
+      </c>
+      <c r="D40" s="47">
+        <f>SUM(D37:D39)</f>
+        <v>1933.346</v>
+      </c>
+      <c r="E40" s="47">
+        <f>SUM(E37:E39)</f>
+        <v>2356</v>
+      </c>
+      <c r="F40" s="47">
+        <f>SUM(F37:F39)</f>
+        <v>2200</v>
+      </c>
+      <c r="G40" s="47">
+        <f>SUM(G37:G39)</f>
+        <v>2614</v>
+      </c>
+      <c r="H40" s="47">
+        <f>SUM(H37:H39)</f>
+        <v>7304</v>
+      </c>
+      <c r="I40" s="47">
+        <f>SUM(I37:I39)</f>
+        <v>9834</v>
+      </c>
+      <c r="J40" s="47">
+        <f>SUM(J37:J39)</f>
+        <v>12137</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="B42" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="46">
+        <v>0</v>
+      </c>
+      <c r="D43" s="46">
+        <v>0</v>
+      </c>
+      <c r="E43" s="46">
+        <v>0</v>
+      </c>
+      <c r="F43" s="46">
+        <v>4013</v>
+      </c>
+      <c r="G43" s="46">
+        <v>4013</v>
+      </c>
+      <c r="H43" s="46">
+        <v>4013</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="B44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="46">
+        <v>8373.0499999999993</v>
+      </c>
+      <c r="D44" s="46">
+        <v>9948.1100000000006</v>
+      </c>
+      <c r="E44" s="46">
+        <v>12610</v>
+      </c>
+      <c r="F44" s="46">
+        <v>15733</v>
+      </c>
+      <c r="G44" s="46">
+        <v>38704</v>
+      </c>
+      <c r="H44" s="46">
+        <v>44619</v>
+      </c>
+      <c r="I44">
+        <v>40503</v>
+      </c>
+      <c r="J44">
+        <v>67363</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="B45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="46">
+        <v>1351.3099999999999</v>
+      </c>
+      <c r="D45" s="46">
+        <v>742.22000000000003</v>
+      </c>
+      <c r="E45" s="46">
+        <v>1115</v>
+      </c>
+      <c r="F45" s="46">
+        <v>3693</v>
+      </c>
+      <c r="G45" s="46">
+        <v>9471</v>
+      </c>
+      <c r="H45" s="46">
+        <v>4215</v>
+      </c>
+      <c r="I45">
+        <v>22557</v>
+      </c>
+      <c r="J45">
+        <v>10706</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="B47" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C47" s="47">
+        <f>SUM(C43:C45)</f>
+        <v>9724.3599999999988</v>
+      </c>
+      <c r="D47" s="47">
+        <f>SUM(D43:D45)</f>
+        <v>10690.33</v>
+      </c>
+      <c r="E47" s="47">
+        <f>SUM(E43:E45)</f>
+        <v>13725</v>
+      </c>
+      <c r="F47" s="47">
+        <f>SUM(F43:F45)</f>
+        <v>23439</v>
+      </c>
+      <c r="G47" s="47">
+        <f>SUM(G43:G45)</f>
+        <v>52188</v>
+      </c>
+      <c r="H47" s="47">
+        <f>SUM(H43:H45)</f>
+        <v>52847</v>
+      </c>
+      <c r="I47" s="47">
+        <f>SUM(I43:I45)</f>
+        <v>63060</v>
+      </c>
+      <c r="J47" s="47">
+        <f>SUM(J43:J45)</f>
+        <v>78069</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25"/>
+    <row r="50" ht="14.25">
+      <c r="A50" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="14.7109375"/>
+    <col customWidth="1" min="3" max="3" width="19.8515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15">
+      <c r="A1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +5193,36 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" ht="15">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" ht="15">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="15">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1373,11 +5234,524 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="16384" width="14.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1">
+      <c r="C2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>5934.8999999999996</v>
+      </c>
+      <c r="E3">
+        <v>7822.3000000000002</v>
+      </c>
+      <c r="F3">
+        <v>8131.8999999999996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="E4">
+        <v>110.5</v>
+      </c>
+      <c r="F4">
+        <v>62.899999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>113.40000000000001</v>
+      </c>
+      <c r="F5">
+        <v>145.09999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>201.30000000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>291</v>
+      </c>
+      <c r="F6">
+        <v>527.20000000000005</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>513.89999999999998</v>
+      </c>
+      <c r="E7" s="6">
+        <v>458.10000000000002</v>
+      </c>
+      <c r="F7">
+        <v>730.89999999999998</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>135.59999999999999</v>
+      </c>
+      <c r="F8">
+        <v>55.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM(D3:D8)</f>
+        <v>6919.4999999999991</v>
+      </c>
+      <c r="E9" s="1">
+        <f>SUM(E3:E8)</f>
+        <v>8930.9000000000015</v>
+      </c>
+      <c r="F9" s="1">
+        <f>SUM(F3:F8)</f>
+        <v>9653.1000000000004</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6">
+        <v>32.399999999999999</v>
+      </c>
+      <c r="E11" s="6">
+        <v>695.60000000000002</v>
+      </c>
+      <c r="F11">
+        <v>384.39999999999998</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="6">
+        <v>450.10000000000002</v>
+      </c>
+      <c r="E12" s="6">
+        <v>441.30000000000001</v>
+      </c>
+      <c r="F12">
+        <v>446.69999999999999</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1376.4000000000001</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1590.0999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1758.3</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6">
+        <v>992.5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1363.5999999999999</v>
+      </c>
+      <c r="F14">
+        <v>1483.4000000000001</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4171.1999999999998</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5096.6000000000004</v>
+      </c>
+      <c r="F15">
+        <v>4750.6000000000004</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6">
+        <v>69</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1051.2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15">
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM(D11:D17)</f>
+        <v>8142.8000000000002</v>
+      </c>
+      <c r="E18" s="1">
+        <f>SUM(E11:E17)</f>
+        <v>9187.2000000000007</v>
+      </c>
+      <c r="F18" s="1">
+        <f>SUM(F11:F17)</f>
+        <v>8823.3999999999996</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" ht="15">
+      <c r="B19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6">
+        <f>D12+D11</f>
+        <v>482.5</v>
+      </c>
+      <c r="E19" s="6">
+        <f>E12+E11</f>
+        <v>1136.9000000000001</v>
+      </c>
+      <c r="F19" s="6">
+        <f>F12+F11</f>
+        <v>831.09999999999991</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15">
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1">
+        <f>D9-D18</f>
+        <v>-1223.3000000000011</v>
+      </c>
+      <c r="E20" s="1">
+        <f>E9-E18</f>
+        <v>-256.29999999999927</v>
+      </c>
+      <c r="F20" s="1">
+        <f>F9-F18</f>
+        <v>829.70000000000073</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F21">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="6">
+        <f>D20+D21</f>
+        <v>-1223.3000000000011</v>
+      </c>
+      <c r="E22" s="6">
+        <f>E20+E21</f>
+        <v>-246.99999999999926</v>
+      </c>
+      <c r="F22">
+        <f>F20+F21</f>
+        <v>814.20000000000073</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="6">
+        <f>109.8+279.7</f>
+        <v>389.5</v>
+      </c>
+      <c r="E23" s="6">
+        <f>96.6+159.3</f>
+        <v>255.90000000000001</v>
+      </c>
+      <c r="F23">
+        <f>98.1+301.4</f>
+        <v>399.5</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.25">
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D22-D23</f>
+        <v>-1612.8000000000011</v>
+      </c>
+      <c r="E24" s="1">
+        <f>E22-E23</f>
+        <v>-502.8999999999993</v>
+      </c>
+      <c r="F24" s="1">
+        <f>F22-F23</f>
+        <v>414.70000000000073</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D3-D11</f>
+        <v>5902.5</v>
+      </c>
+      <c r="E29" s="6">
+        <f>E3-E11</f>
+        <v>7126.6999999999998</v>
+      </c>
+      <c r="F29">
+        <f>F3-F11</f>
+        <v>7747.5</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="8">
+        <f>D29/D3</f>
+        <v>0.99454076732548158</v>
+      </c>
+      <c r="E30" s="8">
+        <f>E29/E3</f>
+        <v>0.91107474783631404</v>
+      </c>
+      <c r="F30" s="9">
+        <f>F29/F3</f>
+        <v>0.95272937443893801</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <f>D22</f>
+        <v>-1223.3000000000011</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36">
+        <v>4108.8000000000002</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37">
+        <v>1376.4000000000001</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>-21.399999999999999</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41">
+        <v>761.70000000000005</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42">
+        <v>-201.30000000000001</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43">
+        <v>-31.199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F1"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1388,54 +5762,963 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="11.00390625"/>
+    <col customWidth="1" min="5" max="5" width="13.57421875"/>
+    <col bestFit="1" min="7" max="7" width="11.421875"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="2" ht="14.25">
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="B3" t="s">
-        <v>28</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <f>365*24</f>
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="B8" t="s">
-        <v>30</v>
+      <c r="B8" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="B9" s="1">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21"/>
+    </row>
+    <row r="22" s="10" customFormat="1" ht="14.25">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2025</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G24" s="11">
+        <v>2024</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2023</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2023</v>
+      </c>
+      <c r="J24" s="1">
         <v>2022</v>
       </c>
-      <c r="C9" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25"/>
-    <row r="12" ht="14.25"/>
+      <c r="K24" s="11">
+        <v>2022</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2021</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2021</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2020</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="D26" s="6">
+        <v>8860</v>
+      </c>
+      <c r="E26" s="12">
+        <f>D26*$C$26*$F$6/1000</f>
+        <v>46568.160000000003</v>
+      </c>
+      <c r="F26" s="6">
+        <v>8860</v>
+      </c>
+      <c r="G26" s="12">
+        <f>F26*$C$26*$F$6/1000</f>
+        <v>46568.160000000003</v>
+      </c>
+      <c r="H26" s="6">
+        <v>8860</v>
+      </c>
+      <c r="I26" s="12">
+        <f>H26*$C$26*$F$6/1000</f>
+        <v>46568.160000000003</v>
+      </c>
+      <c r="J26" s="6">
+        <v>8860</v>
+      </c>
+      <c r="K26" s="12">
+        <f>J26*$C$26*$F$6/1000</f>
+        <v>46568.160000000003</v>
+      </c>
+      <c r="L26" s="6">
+        <v>8859</v>
+      </c>
+      <c r="M26" s="12">
+        <f>L26*$C$26*$F$6/1000</f>
+        <v>46562.904000000002</v>
+      </c>
+      <c r="N26" s="6">
+        <v>8805</v>
+      </c>
+      <c r="O26" s="12">
+        <f>N26*$C$26*$F$6/1000</f>
+        <v>46279.080000000002</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1034</v>
+      </c>
+      <c r="E27" s="12">
+        <f>D27*$C$27*$F$6/1000</f>
+        <v>1811.568</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1034</v>
+      </c>
+      <c r="G27" s="12">
+        <f>F27*$C$27*$F$6/1000</f>
+        <v>1811.568</v>
+      </c>
+      <c r="H27" s="6">
+        <v>932</v>
+      </c>
+      <c r="I27" s="12">
+        <f>H27*$C$27*$F$6/1000</f>
+        <v>1632.864</v>
+      </c>
+      <c r="J27" s="6">
+        <v>932</v>
+      </c>
+      <c r="K27" s="12">
+        <f>J27*$C$27*$F$6/1000</f>
+        <v>1632.864</v>
+      </c>
+      <c r="L27" s="6">
+        <v>932</v>
+      </c>
+      <c r="M27" s="12">
+        <f>L27*$C$27*$F$6/1000</f>
+        <v>1632.864</v>
+      </c>
+      <c r="N27" s="6">
+        <v>932</v>
+      </c>
+      <c r="O27" s="12">
+        <f>N27*$C$27*$F$6/1000</f>
+        <v>1632.864</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="D28" s="6">
+        <v>880</v>
+      </c>
+      <c r="E28" s="12">
+        <f>D28*$C$28*$F$6/1000</f>
+        <v>3468.96</v>
+      </c>
+      <c r="F28" s="6">
+        <v>880</v>
+      </c>
+      <c r="G28" s="12">
+        <f>F28*$C$28*$F$6/1000</f>
+        <v>3468.96</v>
+      </c>
+      <c r="H28" s="6">
+        <v>880</v>
+      </c>
+      <c r="I28" s="12">
+        <f>H28*$C$28*$F$6/1000</f>
+        <v>3468.96</v>
+      </c>
+      <c r="J28" s="6">
+        <v>880</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28*$C$28*$F$6/1000</f>
+        <v>3468.96</v>
+      </c>
+      <c r="L28" s="6">
+        <v>880</v>
+      </c>
+      <c r="M28" s="12">
+        <f>L28*$C$28*$F$6/1000</f>
+        <v>3468.96</v>
+      </c>
+      <c r="N28" s="6">
+        <v>447</v>
+      </c>
+      <c r="O28" s="12">
+        <f>N28*$C$28*$F$6/1000</f>
+        <v>1762.0740000000001</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>443</v>
+      </c>
+      <c r="E29" s="12">
+        <f>D29*$C$29*$F$6/1000</f>
+        <v>1940.3399999999999</v>
+      </c>
+      <c r="F29" s="6">
+        <v>443</v>
+      </c>
+      <c r="G29" s="12">
+        <f>F29*$C$29*$F$6/1000</f>
+        <v>1940.3399999999999</v>
+      </c>
+      <c r="H29" s="6">
+        <v>443</v>
+      </c>
+      <c r="I29" s="12">
+        <f>H29*$C$29*$F$6/1000</f>
+        <v>1940.3399999999999</v>
+      </c>
+      <c r="J29" s="6">
+        <v>375</v>
+      </c>
+      <c r="K29" s="12">
+        <f>J29*$C$29*$F$6/1000</f>
+        <v>1642.5</v>
+      </c>
+      <c r="L29" s="6">
+        <v>375</v>
+      </c>
+      <c r="M29" s="12">
+        <f>L29*$C$29*$F$6/1000</f>
+        <v>1642.5</v>
+      </c>
+      <c r="N29" s="6">
+        <v>375</v>
+      </c>
+      <c r="O29" s="12">
+        <f>N29*$C$29*$F$6/1000</f>
+        <v>1642.5</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D30" s="6">
+        <f>5550-D27</f>
+        <v>4516</v>
+      </c>
+      <c r="E30" s="12">
+        <f>D30*$C$30*$F$6/1000</f>
+        <v>7912.0320000000002</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3490</v>
+      </c>
+      <c r="G30" s="12">
+        <f>F30*$C$30*$F$6/1000</f>
+        <v>6114.4799999999996</v>
+      </c>
+      <c r="H30" s="6">
+        <v>2995</v>
+      </c>
+      <c r="I30" s="12">
+        <f>H30*$C$30*$F$6/1000</f>
+        <v>5247.2399999999998</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2468</v>
+      </c>
+      <c r="K30" s="12">
+        <f>J30*$C$30*$F$6/1000</f>
+        <v>4323.9359999999997</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1762</v>
+      </c>
+      <c r="M30" s="12">
+        <f>L30*$C$30*$F$6/1000</f>
+        <v>3087.0240000000003</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1705</v>
+      </c>
+      <c r="O30" s="12">
+        <f>N30*$C$30*$F$6/1000</f>
+        <v>2987.1599999999999</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.25">
+      <c r="B31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="15">
+        <f>SUM(D26:D30)</f>
+        <v>15733</v>
+      </c>
+      <c r="E31" s="16">
+        <f>SUM(E26:E30)</f>
+        <v>61701.059999999998</v>
+      </c>
+      <c r="F31" s="15">
+        <f>SUM(F26:F30)</f>
+        <v>14707</v>
+      </c>
+      <c r="G31" s="16">
+        <f>SUM(G26:G30)</f>
+        <v>59903.508000000002</v>
+      </c>
+      <c r="H31" s="15">
+        <f>SUM(H26:H30)</f>
+        <v>14110</v>
+      </c>
+      <c r="I31" s="16">
+        <f>SUM(I26:I30)</f>
+        <v>58857.563999999998</v>
+      </c>
+      <c r="J31" s="15">
+        <f>SUM(J26:J30)</f>
+        <v>13515</v>
+      </c>
+      <c r="K31" s="16">
+        <f>SUM(K26:K30)</f>
+        <v>57636.420000000006</v>
+      </c>
+      <c r="L31" s="15">
+        <f>SUM(L26:L30)</f>
+        <v>12808</v>
+      </c>
+      <c r="M31" s="16">
+        <f>SUM(M26:M30)</f>
+        <v>56394.252</v>
+      </c>
+      <c r="N31" s="15">
+        <f>SUM(N26:N30)</f>
+        <v>12264</v>
+      </c>
+      <c r="O31" s="16">
+        <f>SUM(O26:O30)</f>
+        <v>54303.678</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="D32" s="6">
+        <f>D31/1000</f>
+        <v>15.733000000000001</v>
+      </c>
+      <c r="E32" s="12">
+        <f>E31/1000</f>
+        <v>61.701059999999998</v>
+      </c>
+      <c r="F32" s="6">
+        <f>F31/1000</f>
+        <v>14.707000000000001</v>
+      </c>
+      <c r="G32" s="12">
+        <f>G31/1000</f>
+        <v>59.903508000000002</v>
+      </c>
+      <c r="H32" s="6">
+        <f>H31/1000</f>
+        <v>14.109999999999999</v>
+      </c>
+      <c r="I32" s="12">
+        <f>I31/1000</f>
+        <v>58.857563999999996</v>
+      </c>
+      <c r="J32" s="6">
+        <f>J31/1000</f>
+        <v>13.515000000000001</v>
+      </c>
+      <c r="K32" s="12">
+        <f>K31/1000</f>
+        <v>57.636420000000008</v>
+      </c>
+      <c r="L32" s="6">
+        <f>L31/1000</f>
+        <v>12.808</v>
+      </c>
+      <c r="M32" s="12">
+        <f>M31/1000</f>
+        <v>56.394252000000002</v>
+      </c>
+      <c r="N32" s="6">
+        <f>N31/1000</f>
+        <v>12.263999999999999</v>
+      </c>
+      <c r="O32" s="12">
+        <f>O31/1000</f>
+        <v>54.303677999999998</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="E33" s="13"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.25">
+      <c r="B34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="1">
+        <f>SUM(D27:D30)</f>
+        <v>6873</v>
+      </c>
+      <c r="E34" s="15">
+        <f>SUM(E27:E30)</f>
+        <v>15132.900000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <f>SUM(F27:F30)</f>
+        <v>5847</v>
+      </c>
+      <c r="G34" s="15">
+        <f>SUM(G27:G30)</f>
+        <v>13335.348</v>
+      </c>
+      <c r="H34" s="15">
+        <f>SUM(H27:H30)</f>
+        <v>5250</v>
+      </c>
+      <c r="I34" s="15">
+        <f>SUM(I27:I30)</f>
+        <v>12289.404</v>
+      </c>
+      <c r="J34" s="15">
+        <f>SUM(J27:J30)</f>
+        <v>4655</v>
+      </c>
+      <c r="K34" s="15">
+        <f>SUM(K27:K30)</f>
+        <v>11068.26</v>
+      </c>
+      <c r="L34" s="15">
+        <f>SUM(L27:L30)</f>
+        <v>3949</v>
+      </c>
+      <c r="M34" s="15">
+        <f>SUM(M27:M30)</f>
+        <v>9831.3480000000018</v>
+      </c>
+      <c r="N34" s="15">
+        <f>SUM(N27:N30)</f>
+        <v>3459</v>
+      </c>
+      <c r="O34" s="15">
+        <f>SUM(O27:O30)</f>
+        <v>8024.598</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="D35">
+        <f>D34/1000</f>
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="E35" s="6">
+        <f>E34/1000</f>
+        <v>15.132900000000001</v>
+      </c>
+      <c r="F35" s="6">
+        <f>F34/1000</f>
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="G35" s="6">
+        <f>G34/1000</f>
+        <v>13.335348</v>
+      </c>
+      <c r="H35" s="6">
+        <f>H34/1000</f>
+        <v>5.25</v>
+      </c>
+      <c r="I35" s="6">
+        <f>I34/1000</f>
+        <v>12.289404000000001</v>
+      </c>
+      <c r="J35" s="6">
+        <f>J34/1000</f>
+        <v>4.6550000000000002</v>
+      </c>
+      <c r="K35" s="6">
+        <f>K34/1000</f>
+        <v>11.06826</v>
+      </c>
+      <c r="L35" s="6">
+        <f>L34/1000</f>
+        <v>3.9489999999999998</v>
+      </c>
+      <c r="M35" s="6">
+        <f>M34/1000</f>
+        <v>9.831348000000002</v>
+      </c>
+      <c r="N35" s="6">
+        <f>N34/1000</f>
+        <v>3.4590000000000001</v>
+      </c>
+      <c r="O35" s="6">
+        <f>O34/1000</f>
+        <v>8.0245979999999992</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="14.25">
+      <c r="B40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1">
+        <v>140000</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="17">
+        <f>E31/1543000</f>
+        <v>0.039987725210628641</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="E45" s="17">
+        <f>D32/277</f>
+        <v>0.056797833935018055</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25"/>
+    <row r="49" ht="14.25">
+      <c r="A49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50">
+        <v>6068.7799999999997</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25"/>
+    <row r="61" ht="14.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64">
+        <v>11211</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65">
+        <v>-8290</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H4"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1453,6 +6736,391 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col customWidth="1" min="1" max="16384" width="15.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25">
+      <c r="C2" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="E2" s="1">
+        <f>D2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="H2" s="1">
+        <f>G2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="18">
+        <v>55109.080000000002</v>
+      </c>
+      <c r="H3" s="19">
+        <v>61448.900000000001</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1438.02</v>
+      </c>
+      <c r="H4" s="19">
+        <v>1823.4200000000001</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25">
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="20">
+        <f>SUM(G3:G4)</f>
+        <v>56547.099999999999</v>
+      </c>
+      <c r="H5" s="20">
+        <f>SUM(H3:H4)</f>
+        <v>63272.32</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="18">
+        <v>19062.669999999998</v>
+      </c>
+      <c r="H7" s="19">
+        <v>20014.459999999999</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="18">
+        <v>13763.59</v>
+      </c>
+      <c r="H8" s="19">
+        <v>14130.469999999999</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1194.95</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1168.6900000000001</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="18">
+        <v>3882.3000000000002</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5439.8599999999997</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="18">
+        <v>56.149999999999999</v>
+      </c>
+      <c r="H11" s="19">
+        <v>39.890000000000001</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="18">
+        <v>43.530000000000001</v>
+      </c>
+      <c r="H12" s="19">
+        <v>-51.780000000000001</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="18">
+        <v>3624.2600000000002</v>
+      </c>
+      <c r="H13" s="19">
+        <v>4036.0599999999999</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4371.6499999999996</v>
+      </c>
+      <c r="H14" s="19">
+        <v>4633.2200000000003</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="18">
+        <v>3439.1999999999998</v>
+      </c>
+      <c r="H15" s="19">
+        <v>3786.3699999999999</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="18">
+        <v>5775.3100000000004</v>
+      </c>
+      <c r="H16" s="19">
+        <v>5887.3900000000003</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.25">
+      <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="20">
+        <f>SUM(G7:G16)</f>
+        <v>55213.609999999993</v>
+      </c>
+      <c r="H17" s="20">
+        <f>SUM(H7:H16)</f>
+        <v>59084.630000000005</v>
+      </c>
+    </row>
+    <row r="18" s="0" customFormat="1" ht="14.25">
+      <c r="B18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="19">
+        <v>924.04999999999995</v>
+      </c>
+      <c r="H18" s="19">
+        <v>93.430000000000007</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>273.36000000000001</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="18">
+        <f>3199.46</f>
+        <v>3199.46</v>
+      </c>
+      <c r="H20" s="19">
+        <f>1177.57</f>
+        <v>1177.5699999999999</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="18">
+        <f>G5-G17+G20+G19+G18</f>
+        <v>5457.0000000000055</v>
+      </c>
+      <c r="H21" s="18">
+        <f>H5-H17+H20+H19+H18</f>
+        <v>5732.0499999999947</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1647.3299999999999</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1451.9200000000001</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.25">
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="21">
+        <f>G21-G22</f>
+        <v>3809.6700000000055</v>
+      </c>
+      <c r="H23" s="20">
+        <f>H21-H22</f>
+        <v>4280.1299999999947</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="18">
+        <v>8.0899999999999999</v>
+      </c>
+      <c r="H25" s="19">
+        <v>11.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E1"/>
+    <hyperlink r:id="rId2" ref="F1"/>
+    <hyperlink r:id="rId3" ref="G1"/>
+    <hyperlink r:id="rId4" ref="I1"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="12.7109375"/>
     <col customWidth="1" min="2" max="8" width="21.8515625"/>
     <col customWidth="1" min="9" max="16384" width="14.7109375"/>
@@ -1460,28 +7128,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="E1" s="7"/>
       <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="G1" s="7"/>
       <c r="H1" s="5" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C2" s="1">
         <v>2017</v>
       </c>
@@ -1512,24 +7183,24 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4">
+        <v>158</v>
+      </c>
+      <c r="C3" s="7">
         <v>12692.530000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>8292.25</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>4978.46</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>2933.1999999999998</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <v>3294.6500000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <v>6519.9499999999998</v>
       </c>
       <c r="I3" s="6">
@@ -1538,27 +7209,30 @@
       <c r="J3">
         <v>6496.8400000000001</v>
       </c>
+      <c r="K3">
+        <v>10851.32</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4">
+        <v>183</v>
+      </c>
+      <c r="C4" s="7">
         <v>21.84</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>41.590000000000003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>46.229999999999997</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>39.649999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>51.07</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>61.829999999999998</v>
       </c>
       <c r="I4" s="6">
@@ -1567,27 +7241,30 @@
       <c r="J4">
         <v>32.25</v>
       </c>
+      <c r="K4">
+        <v>38.420000000000002</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4">
+        <v>184</v>
+      </c>
+      <c r="C5" s="7">
         <v>88.819999999999993</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>79.170000000000002</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>49.950000000000003</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>27.57</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>19.870000000000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>22.190000000000001</v>
       </c>
       <c r="I5" s="6">
@@ -1596,10 +7273,13 @@
       <c r="J5">
         <v>38.420000000000002</v>
       </c>
+      <c r="K5">
+        <v>103.39</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1">
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(C3:C5)</f>
@@ -1635,644 +7315,887 @@
       </c>
       <c r="K6" s="1">
         <f>SUM(K3:K5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="6">
+        <v>10993.129999999999</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1">
+      <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" s="1" customFormat="1">
+      <c r="B8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6">
         <v>8291.4400000000005</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D10" s="6">
         <v>4031.9989999999998</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E10" s="6">
         <v>2956.5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F10" s="6">
         <v>1404.4100000000001</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G10" s="6">
         <v>1610.75</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H10" s="6">
         <v>4091.9499999999998</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I10" s="6">
         <v>3626.7600000000002</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>4018.6500000000001</v>
       </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>987.95000000000005</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-748.54999999999995</v>
-      </c>
-      <c r="D10" s="6">
-        <v>95.769999999999996</v>
-      </c>
-      <c r="E10" s="6">
-        <v>41.850000000000001</v>
-      </c>
-      <c r="F10" s="6">
-        <v>469.10000000000002</v>
-      </c>
-      <c r="G10" s="6">
-        <v>-33.479999999999997</v>
-      </c>
-      <c r="H10" s="6">
-        <v>239.61000000000001</v>
-      </c>
-      <c r="I10" s="6">
-        <v>155.90000000000001</v>
-      </c>
-      <c r="J10">
-        <v>-36.520000000000003</v>
-      </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6">
+        <v>7139.1700000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="C11" s="6">
-        <v>1046.48</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>804.67999999999995</v>
+        <v>987.95000000000005</v>
       </c>
       <c r="E11" s="6">
-        <v>874.15999999999997</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>796.25</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6">
-        <v>553.21000000000004</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>545.36000000000001</v>
+        <v>0</v>
       </c>
       <c r="I11" s="6">
-        <v>609.22000000000003</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>702.89999999999998</v>
-      </c>
-      <c r="K11" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="C12" s="6">
-        <v>1287.5899999999999</v>
+        <v>-748.54999999999995</v>
       </c>
       <c r="D12" s="6">
-        <v>1580.98</v>
+        <v>95.769999999999996</v>
       </c>
       <c r="E12" s="6">
-        <v>1269.9100000000001</v>
+        <v>41.850000000000001</v>
       </c>
       <c r="F12" s="6">
-        <v>1367.29</v>
+        <v>469.10000000000002</v>
       </c>
       <c r="G12" s="6">
-        <v>996.25999999999999</v>
+        <v>-33.479999999999997</v>
       </c>
       <c r="H12" s="6">
-        <v>734.51999999999998</v>
+        <v>239.61000000000001</v>
       </c>
       <c r="I12" s="6">
-        <v>420.75999999999999</v>
+        <v>155.90000000000001</v>
       </c>
       <c r="J12">
-        <v>164.31999999999999</v>
-      </c>
-      <c r="K12" s="6"/>
+        <v>-36.520000000000003</v>
+      </c>
+      <c r="K12" s="6">
+        <v>-252.56999999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C13" s="6">
-        <v>389.02999999999997</v>
+        <v>1046.48</v>
       </c>
       <c r="D13" s="6">
-        <v>341.61000000000001</v>
+        <v>804.67999999999995</v>
       </c>
       <c r="E13" s="6">
-        <v>341.85000000000002</v>
+        <v>874.15999999999997</v>
       </c>
       <c r="F13" s="6">
-        <v>418.61000000000001</v>
+        <v>796.25</v>
       </c>
       <c r="G13" s="6">
-        <v>258.38</v>
+        <v>553.21000000000004</v>
       </c>
       <c r="H13" s="6">
-        <v>259.83999999999997</v>
+        <v>545.36000000000001</v>
       </c>
       <c r="I13" s="6">
-        <v>259.68000000000001</v>
+        <v>609.22000000000003</v>
       </c>
       <c r="J13">
-        <v>189.59999999999999</v>
-      </c>
-      <c r="K13" s="6"/>
+        <v>702.89999999999998</v>
+      </c>
+      <c r="K13" s="6">
+        <v>941.52999999999997</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="C14" s="6">
+        <v>1287.5899999999999</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1580.98</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1269.9100000000001</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1367.29</v>
+      </c>
+      <c r="G14" s="6">
+        <v>996.25999999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>734.51999999999998</v>
+      </c>
+      <c r="I14" s="6">
+        <v>420.75999999999999</v>
+      </c>
+      <c r="J14">
+        <v>164.31999999999999</v>
+      </c>
+      <c r="K14" s="6">
+        <v>254.80000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="6">
+        <v>389.02999999999997</v>
+      </c>
+      <c r="D15" s="6">
+        <v>341.61000000000001</v>
+      </c>
+      <c r="E15" s="6">
+        <v>341.85000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <v>418.61000000000001</v>
+      </c>
+      <c r="G15" s="6">
+        <v>258.38</v>
+      </c>
+      <c r="H15" s="6">
+        <v>259.83999999999997</v>
+      </c>
+      <c r="I15" s="6">
+        <v>259.68000000000001</v>
+      </c>
+      <c r="J15">
+        <v>189.59999999999999</v>
+      </c>
+      <c r="K15" s="6">
+        <v>259.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="6">
         <v>1625.6099999999999</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D16" s="6">
         <v>1410.3900000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E16" s="6">
         <v>1160.9300000000001</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F16" s="6">
         <v>1162.8199999999999</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G16" s="6">
         <v>680.96000000000004</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H16" s="6">
         <v>815.40999999999997</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I16" s="6">
         <v>746.73000000000002</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>815.17999999999995</v>
       </c>
-      <c r="K14" s="6">
-        <v>746.73000000000002</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1">
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1">
-        <f>SUM(C8:C14)</f>
+      <c r="K16" s="6">
+        <f>1234.76-30.38</f>
+        <v>1204.3799999999999</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1">
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1">
+        <f>SUM(C10:C16)</f>
         <v>11891.600000000002</v>
       </c>
-      <c r="D15" s="1">
-        <f>SUM(D8:D14)</f>
+      <c r="D17" s="1">
+        <f>SUM(D10:D16)</f>
         <v>9253.3790000000008</v>
       </c>
-      <c r="E15" s="1">
-        <f>SUM(E8:E14)</f>
+      <c r="E17" s="1">
+        <f>SUM(E10:E16)</f>
         <v>6645.2000000000007</v>
       </c>
-      <c r="F15" s="1">
-        <f>SUM(F8:F14)</f>
+      <c r="F17" s="1">
+        <f>SUM(F10:F16)</f>
         <v>5618.4799999999996</v>
       </c>
-      <c r="G15" s="1">
-        <f>SUM(G8:G14)</f>
+      <c r="G17" s="1">
+        <f>SUM(G10:G16)</f>
         <v>4066.0799999999999</v>
       </c>
-      <c r="H15" s="1">
-        <f>SUM(H8:H14)</f>
+      <c r="H17" s="1">
+        <f>SUM(H10:H16)</f>
         <v>6686.6899999999987</v>
       </c>
-      <c r="I15" s="1">
-        <f>SUM(I8:I14)</f>
+      <c r="I17" s="1">
+        <f>SUM(I10:I16)</f>
         <v>5819.0500000000011</v>
       </c>
-      <c r="J15" s="1">
-        <f>SUM(J8:J14)</f>
+      <c r="J17" s="1">
+        <f>SUM(J10:J16)</f>
         <v>5854.1300000000001</v>
       </c>
-      <c r="K15" s="1">
-        <f>SUM(K8:K14)</f>
-        <v>746.73000000000002</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1">
-        <f>C6-C15</f>
+      <c r="K17" s="1">
+        <f>SUM(K10:K16)</f>
+        <v>9546.5</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C6-C17</f>
         <v>911.58999999999833</v>
       </c>
-      <c r="D16" s="1">
-        <f>D6-D15</f>
+      <c r="D18" s="1">
+        <f>D6-D17</f>
         <v>-840.3690000000006</v>
       </c>
-      <c r="E16" s="1">
-        <f>E6-E15</f>
+      <c r="E18" s="1">
+        <f>E6-E17</f>
         <v>-1570.5600000000013</v>
       </c>
-      <c r="F16" s="1">
-        <f>F6-F15</f>
+      <c r="F18" s="1">
+        <f>F6-F17</f>
         <v>-2618.0599999999995</v>
       </c>
-      <c r="G16" s="1">
-        <f>G6-G15</f>
+      <c r="G18" s="1">
+        <f>G6-G17</f>
         <v>-700.48999999999978</v>
       </c>
-      <c r="H16" s="1">
-        <f>H6-H15</f>
+      <c r="H18" s="1">
+        <f>H6-H17</f>
         <v>-82.719999999999345</v>
       </c>
-      <c r="I16" s="1">
-        <f>I6-I15</f>
+      <c r="I18" s="1">
+        <f>I6-I17</f>
         <v>171.10999999999876</v>
       </c>
-      <c r="J16" s="1">
-        <f>J6-J15</f>
+      <c r="J18" s="1">
+        <f>J6-J17</f>
         <v>713.38000000000011</v>
       </c>
-      <c r="K16" s="1">
-        <f>K6-K15</f>
-        <v>-746.73000000000002</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="K18" s="1">
+        <f>K6-K17</f>
+        <v>1446.6299999999992</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D19" s="6">
         <v>-449.62</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E19" s="6">
         <v>-27.57</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F19" s="6">
         <v>65.890000000000001</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G19" s="6">
         <v>-805.46000000000004</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H19" s="6">
         <v>-83.120000000000005</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I19" s="6">
         <v>-2720.5999999999999</v>
       </c>
-      <c r="J17">
+      <c r="J19">
         <v>53.890000000000001</v>
       </c>
-      <c r="K17" s="6">
-        <v>-2720.5999999999999</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1">
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1">
-        <f>C6-C15-C17</f>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1">
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1">
+        <f>C6-C17-C19</f>
         <v>911.58999999999833</v>
       </c>
-      <c r="D18" s="1">
-        <f>D6-D15-D17</f>
+      <c r="D20" s="1">
+        <f>D6-D17-D19</f>
         <v>-390.74900000000059</v>
       </c>
-      <c r="E18" s="1">
-        <f>E6-E15-E17</f>
+      <c r="E20" s="1">
+        <f>E6-E17-E19</f>
         <v>-1542.9900000000014</v>
       </c>
-      <c r="F18" s="1">
-        <f>F6-F15-F17</f>
+      <c r="F20" s="1">
+        <f>F6-F17-F19</f>
         <v>-2683.9499999999994</v>
       </c>
-      <c r="G18" s="1">
-        <f>G6-G15-G17</f>
+      <c r="G20" s="1">
+        <f>G6-G17-G19</f>
         <v>104.97000000000025</v>
       </c>
-      <c r="H18" s="1">
-        <f>H6-H15-H17</f>
+      <c r="H20" s="1">
+        <f>H6-H17-H19</f>
         <v>0.40000000000065938</v>
       </c>
-      <c r="I18" s="1">
-        <f>I6-I15-I17</f>
+      <c r="I20" s="1">
+        <f>I6-I17-I19</f>
         <v>2891.7099999999987</v>
       </c>
-      <c r="J18" s="1">
-        <f>J6-J15-J17</f>
+      <c r="J20" s="1">
+        <f>J6-J17-J19</f>
         <v>659.49000000000012</v>
       </c>
-      <c r="K18" s="1">
-        <f>K6-K15-K17</f>
-        <v>1973.8699999999999</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="K20" s="1">
+        <f>K6-K17-K19</f>
+        <v>1446.6299999999992</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="6">
         <v>11.699999999999999</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D21" s="6">
         <v>-1.5600000000000001</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E21" s="6">
         <f>3.09-14.99</f>
         <v>-11.9</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F21" s="6">
         <v>7.4400000000000004</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G21" s="6">
         <f>184.07-17.48</f>
         <v>166.59</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H21" s="6">
         <f>184.07-17.48</f>
         <v>166.59</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I21" s="6">
         <f>4.61-0.19</f>
         <v>4.4199999999999999</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <f>2.9-3.76</f>
         <v>-0.85999999999999988</v>
       </c>
-      <c r="K19">
-        <f>4.61-0.19</f>
-        <v>4.4199999999999999</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1">
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="7">
-        <f>C18-C19</f>
+      <c r="K21">
+        <f>14.42-639.42</f>
+        <v>-625</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1">
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="15">
+        <f>C20-C21</f>
         <v>899.88999999999828</v>
       </c>
-      <c r="D20" s="7">
-        <f>D18-D19</f>
+      <c r="D22" s="15">
+        <f>D20-D21</f>
         <v>-389.18900000000059</v>
       </c>
-      <c r="E20" s="7">
-        <f>E18-E19</f>
+      <c r="E22" s="15">
+        <f>E20-E21</f>
         <v>-1531.0900000000013</v>
       </c>
-      <c r="F20" s="7">
-        <f>F18-F19</f>
+      <c r="F22" s="15">
+        <f>F20-F21</f>
         <v>-2691.3899999999994</v>
       </c>
-      <c r="G20" s="7">
-        <f>G18-G19</f>
+      <c r="G22" s="15">
+        <f>G20-G21</f>
         <v>-61.619999999999749</v>
       </c>
-      <c r="H20" s="7">
-        <f>H18-H19</f>
+      <c r="H22" s="15">
+        <f>H20-H21</f>
         <v>-166.18999999999934</v>
       </c>
-      <c r="I20" s="7">
-        <f>I18-I19</f>
+      <c r="I22" s="15">
+        <f>I20-I21</f>
         <v>2887.2899999999986</v>
       </c>
-      <c r="J20" s="1">
-        <f>J18-J19</f>
+      <c r="J22" s="1">
+        <f>J20-J21</f>
         <v>660.35000000000014</v>
       </c>
-      <c r="K20" s="7">
-        <f>K18-K19</f>
-        <v>1969.4499999999998</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="K22" s="15">
+        <f>K20-K21</f>
+        <v>2071.6299999999992</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="6">
         <v>857.71000000000004</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D23" s="6">
         <v>-376.98000000000002</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E23" s="6">
         <v>-1527.1800000000001</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F23" s="6">
         <v>-2642.23</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G23" s="6">
         <v>-199.59</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H23" s="6">
         <v>-199.59</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I23" s="6">
         <v>2849.0100000000002</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <v>660.35000000000002</v>
       </c>
-      <c r="K21" s="6">
-        <v>2849.0100000000002</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1.71</v>
-      </c>
-      <c r="D22" s="6">
-        <v>-0.71999999999999997</v>
-      </c>
-      <c r="E22" s="6">
-        <v>-2.8700000000000001</v>
-      </c>
-      <c r="F22" s="6">
-        <v>-4.9699999999999998</v>
-      </c>
-      <c r="G22" s="6">
-        <v>-0.22</v>
-      </c>
-      <c r="H22" s="6">
-        <v>-0.22</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2.6400000000000001</v>
-      </c>
-      <c r="J22">
-        <v>0.5</v>
-      </c>
-      <c r="K22" s="6">
-        <v>2.6400000000000001</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="K23" s="6">
+        <f>K22</f>
+        <v>2071.6299999999992</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C24" s="6">
-        <f>C6-C8</f>
+        <v>1.71</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-0.71999999999999997</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-2.8700000000000001</v>
+      </c>
+      <c r="F24" s="6">
+        <v>-4.9699999999999998</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-0.22</v>
+      </c>
+      <c r="H24" s="6">
+        <v>-0.22</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2.6400000000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="6">
+        <f>C6-C10</f>
         <v>4511.75</v>
       </c>
-      <c r="D24" s="6">
-        <f>D6-D8</f>
+      <c r="D26" s="6">
+        <f>D6-D10</f>
         <v>4381.0110000000004</v>
       </c>
-      <c r="E24" s="6">
-        <f>E6-E8</f>
+      <c r="E26" s="6">
+        <f>E6-E10</f>
         <v>2118.1399999999994</v>
       </c>
-      <c r="F24" s="6">
-        <f>F6-F8</f>
+      <c r="F26" s="6">
+        <f>F6-F10</f>
         <v>1596.01</v>
       </c>
-      <c r="G24" s="6">
-        <f>G6-G8</f>
+      <c r="G26" s="6">
+        <f>G6-G10</f>
         <v>1754.8400000000001</v>
       </c>
-      <c r="H24" s="6">
-        <f>H6-H8</f>
+      <c r="H26" s="6">
+        <f>H6-H10</f>
         <v>2512.0199999999995</v>
       </c>
-      <c r="I24" s="6">
-        <f>I6-I8</f>
+      <c r="I26" s="6">
+        <f>I6-I10</f>
         <v>2363.3999999999996</v>
       </c>
-      <c r="J24">
-        <f>J6-J8</f>
+      <c r="J26">
+        <f>J6-J10</f>
         <v>2548.8600000000001</v>
       </c>
-      <c r="K24" s="6">
-        <f>K6-K8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="8">
-        <f>C24/C6</f>
+      <c r="K26" s="6">
+        <f>K6-K10</f>
+        <v>3853.9599999999991</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="9">
+        <f>C26/C6</f>
         <v>0.3523926458952808</v>
       </c>
-      <c r="D25" s="8">
-        <f>D24/D6</f>
+      <c r="D27" s="9">
+        <f>D26/D6</f>
         <v>0.52074239778628584</v>
       </c>
-      <c r="E25" s="8">
-        <f>E24/E6</f>
+      <c r="E27" s="9">
+        <f>E26/E6</f>
         <v>0.41739709614869225</v>
       </c>
-      <c r="F25" s="8">
-        <f>F24/F6</f>
+      <c r="F27" s="9">
+        <f>F26/F6</f>
         <v>0.53192886329247235</v>
       </c>
-      <c r="G25" s="8">
-        <f>G24/G6</f>
+      <c r="G27" s="9">
+        <f>G26/G6</f>
         <v>0.52140635074385178</v>
       </c>
-      <c r="H25" s="8">
-        <f>H24/H6</f>
+      <c r="H27" s="9">
+        <f>H26/H6</f>
         <v>0.38038028640348148</v>
       </c>
-      <c r="I25" s="8">
-        <f>I24/I6</f>
+      <c r="I27" s="9">
+        <f>I26/I6</f>
         <v>0.39454705717376493</v>
       </c>
-      <c r="J25" s="8">
-        <f>J24/J6</f>
+      <c r="J27" s="9">
+        <f>J26/J6</f>
         <v>0.38810142656806007</v>
       </c>
-      <c r="K25" s="8" t="e">
-        <f>K24/K6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="K27" s="9">
+        <f>K26/K6</f>
+        <v>0.35057895249123766</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="9">
+        <f>C18/C6</f>
+        <v>0.07120022431909534</v>
+      </c>
+      <c r="D28" s="9">
+        <f>D18/D6</f>
+        <v>-0.099889219197409798</v>
+      </c>
+      <c r="E28" s="9">
+        <f>E18/E6</f>
+        <v>-0.30949190484448186</v>
+      </c>
+      <c r="F28" s="9">
+        <f>F18/F6</f>
+        <v>-0.87256450763559745</v>
+      </c>
+      <c r="G28" s="9">
+        <f>G18/G6</f>
+        <v>-0.20813289794657097</v>
+      </c>
+      <c r="H28" s="9">
+        <f>H18/H6</f>
+        <v>-0.012525798875524775</v>
+      </c>
+      <c r="I28" s="9">
+        <f>I18/I6</f>
+        <v>0.028565180228908537</v>
+      </c>
+      <c r="J28" s="9">
+        <f>J18/J6</f>
+        <v>0.10862259821454404</v>
+      </c>
+      <c r="K28" s="9">
+        <f>K18/K6</f>
+        <v>0.1315940046192485</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="9">
+        <f>D6/C6-1</f>
+        <v>-0.34289735604954708</v>
+      </c>
+      <c r="E29" s="9">
+        <f>E6/D6-1</f>
+        <v>-0.39681041624816815</v>
+      </c>
+      <c r="F29" s="9">
+        <f>F6/E6-1</f>
+        <v>-0.40874229501994219</v>
+      </c>
+      <c r="G29" s="9">
+        <f>G6/F6-1</f>
+        <v>0.12170629445211012</v>
+      </c>
+      <c r="H29" s="9">
+        <f>H6/G6-1</f>
+        <v>0.9622027638541828</v>
+      </c>
+      <c r="I29" s="9">
+        <f>I6/H6-1</f>
+        <v>-0.092945606960661453</v>
+      </c>
+      <c r="J29" s="9">
+        <f>J6/I6-1</f>
+        <v>0.096383068231900459</v>
+      </c>
+      <c r="K29" s="9">
+        <f>K6/J6-1</f>
+        <v>0.67386574211535244</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="9">
+        <f>D10/C10-1</f>
+        <v>-0.51371547041285959</v>
+      </c>
+      <c r="E30" s="9">
+        <f>E10/D10-1</f>
+        <v>-0.26674088956867292</v>
+      </c>
+      <c r="F30" s="9">
+        <f>F10/E10-1</f>
+        <v>-0.52497547776086584</v>
+      </c>
+      <c r="G30" s="9">
+        <f>G10/F10-1</f>
+        <v>0.14692290712826028</v>
+      </c>
+      <c r="H30" s="9">
+        <f>H10/G10-1</f>
+        <v>1.5404004345801643</v>
+      </c>
+      <c r="I30" s="9">
+        <f>I10/H10-1</f>
+        <v>-0.11368418480186704</v>
+      </c>
+      <c r="J30" s="9">
+        <f>J10/I10-1</f>
+        <v>0.10805512358137848</v>
+      </c>
+      <c r="K30" s="9">
+        <f>K10/J10-1</f>
+        <v>0.776509524342752</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
       <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31">
+        <v>200</v>
+      </c>
+      <c r="D31" s="17">
+        <f>D18/C18-1</f>
+        <v>-1.9218716747660705</v>
+      </c>
+      <c r="E31" s="22">
+        <f>E18/D18-1</f>
+        <v>0.86889330758274075</v>
+      </c>
+      <c r="F31" s="22">
+        <f>F18/E18-1</f>
+        <v>0.66695955582721922</v>
+      </c>
+      <c r="G31" s="22">
+        <f>G18/F18-1</f>
+        <v>-0.73243928710571948</v>
+      </c>
+      <c r="H31" s="22">
+        <f>H18/G18-1</f>
+        <v>-0.88191123356507672</v>
+      </c>
+      <c r="I31" s="22">
+        <f>I18/H18-1</f>
+        <v>-3.0685444874274674</v>
+      </c>
+      <c r="J31" s="22">
+        <f>J18/I18-1</f>
+        <v>3.1691309683829427</v>
+      </c>
+      <c r="K31" s="22">
+        <f>K18/J18-1</f>
+        <v>1.0278533180072316</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="17">
+        <f>C21/C20</f>
+        <v>0.012834717361971962</v>
+      </c>
+      <c r="D33" s="22">
+        <f>D21/D20</f>
+        <v>0.0039923326739159859</v>
+      </c>
+      <c r="E33" s="22">
+        <f>E21/E20</f>
+        <v>0.0077122988483399046</v>
+      </c>
+      <c r="F33" s="22">
+        <f>F21/F20</f>
+        <v>-0.0027720337562175158</v>
+      </c>
+      <c r="G33" s="22">
+        <f>G21/G20</f>
+        <v>1.5870248642469238</v>
+      </c>
+      <c r="H33" s="22">
+        <f>H21/H20</f>
+        <v>416.47499999931347</v>
+      </c>
+      <c r="I33" s="22">
+        <f>I21/I20</f>
+        <v>0.0015285073537802899</v>
+      </c>
+      <c r="J33" s="22">
+        <f>J21/J20</f>
+        <v>-0.0013040379687334147</v>
+      </c>
+      <c r="K33" s="22">
+        <f>K21/K20</f>
+        <v>-0.43203860005668371</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" s="7"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37">
         <v>2721.7199999999998</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" t="s">
-        <v>62</v>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +8213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -2308,48 +8231,48 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15">
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>209</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="4">
+        <v>213</v>
+      </c>
+      <c r="C4" s="7">
         <v>87.439999999999998</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>87.989999999999995</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>143.66999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>269.56</v>
       </c>
       <c r="G4">
@@ -2361,18 +8284,18 @@
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="4">
+        <v>214</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.53000000000000003</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>0.90000000000000002</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>9.0700000000000003</v>
       </c>
       <c r="G5">
@@ -2384,7 +8307,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25">
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1">
         <f>C4+C5</f>
@@ -2421,7 +8344,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="C8" s="6">
         <v>70.439999999999998</v>
@@ -2444,7 +8367,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -2467,7 +8390,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="C10" s="6">
         <v>-0.97999999999999998</v>
@@ -2490,7 +8413,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6">
         <v>4.6100000000000003</v>
@@ -2513,10 +8436,10 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="C12" s="6">
         <v>2.77</v>
@@ -2539,7 +8462,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6">
         <v>0.89149999999999996</v>
@@ -2562,7 +8485,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="C14" s="6">
         <v>9</v>
@@ -2591,7 +8514,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
@@ -2626,7 +8549,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="C18" s="6">
         <v>0.080000000000000002</v>
@@ -2649,7 +8572,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="14.25">
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1">
         <f>C6-C16-C18</f>
@@ -2678,7 +8601,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C20" s="6">
         <f>0.29+0.0044</f>
@@ -2707,7 +8630,7 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="14.25">
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1">
         <f>C19-C20</f>
@@ -2736,7 +8659,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="B22" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2760,7 +8683,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="C23" s="6">
         <f>C19</f>
@@ -2784,22 +8707,22 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" ht="14.25">
       <c r="B26" t="s">
@@ -2833,7 +8756,7 @@
     </row>
     <row r="29" ht="14.25">
       <c r="B29" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C29" s="6">
         <f>C4-C8</f>
@@ -2862,32 +8785,32 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="23">
         <f>C29/C4</f>
         <v>0.19441903019213175</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="23">
         <f>D29/D4</f>
         <v>0.11728605523354919</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="23">
         <f>E29/E4</f>
         <v>0.14101760980023662</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="23">
         <f>F29/F4</f>
         <v>0.1237572340109809</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="23">
         <f>G29/G4</f>
         <v>0.14662972178240222</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="23">
         <f>H29/H4</f>
         <v>0.14628649377993264</v>
       </c>
@@ -2902,81 +8825,81 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="8">
+        <v>227</v>
+      </c>
+      <c r="C33" s="9">
         <f>D21/C21</f>
         <v>1.0707094086332558</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <f>E21/D21</f>
         <v>4.4079118028533388</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="9">
         <f>F21/E21</f>
         <v>2.7193369623853956</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <f>G21/F21</f>
         <v>1.0685302073940501</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <f>H21/G21</f>
         <v>2.7569620253164473</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="9">
         <f>I21/H21</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="B34" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <f>D6/C6</f>
         <v>1.0104581107195636</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <f>E6/D6</f>
         <v>1.6226797165035434</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <f>F6/E6</f>
         <v>1.9317110371602886</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <f>G6/F6</f>
         <v>1.2750242256756272</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="9">
         <f>H6/G6</f>
         <v>1.9050554523447616</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8">
+        <v>229</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9">
         <f>D8/C8</f>
         <v>1.1026405451448043</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="9">
         <f>E8/D8</f>
         <v>1.5889017638727951</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <f>F8/E8</f>
         <v>1.9139453853010291</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <f>G8/F8</f>
         <v>1.2778154106689246</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="9">
         <f>H8/G8</f>
         <v>1.9076601948181036</v>
       </c>
@@ -2989,1265 +8912,6 @@
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="0" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="12" style="10" width="9.140625"/>
-    <col customWidth="1" min="13" max="13" style="10" width="13.7109375"/>
-    <col customWidth="1" min="14" max="14" style="10" width="22.00390625"/>
-    <col min="15" max="16384" style="10" width="9.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5">
-      <c r="A1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" ht="16.5">
-      <c r="M2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="10">
-        <v>123.7</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" ht="16.5">
-      <c r="B3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N3" s="10">
-        <v>216904290</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" ht="16.5">
-      <c r="M4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N4" s="12">
-        <f>N3*N2</f>
-        <v>26831060673</v>
-      </c>
-      <c r="O4" s="10">
-        <f>N4/10000000</f>
-        <v>2683.1060673000002</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" ht="16.5">
-      <c r="B5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2024</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N5" s="10">
-        <f>32.59</f>
-        <v>32.590000000000003</v>
-      </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="B6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="M6" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="10">
-        <f>59.6471</f>
-        <v>59.647100000000002</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" ht="16.5">
-      <c r="B7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="10">
-        <f>O4+N6-N5</f>
-        <v>2710.1631673000002</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" ht="16.5">
-      <c r="B8" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5">
-      <c r="D9" s="10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="D10" s="10"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="18" ht="16.5">
-      <c r="B18" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5">
-      <c r="A20" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5">
-      <c r="A21" s="10">
-        <v>2021</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5">
-      <c r="B22" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5">
-      <c r="B23" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5">
-      <c r="B24" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="14.7109375"/>
-    <col customWidth="1" min="2" max="2" width="25.28125"/>
-    <col customWidth="1" min="3" max="16384" width="14.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14.25">
-      <c r="C2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2023</v>
-      </c>
-      <c r="I2" s="1">
-        <f>H2+1</f>
-        <v>2024</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1480.2822000000001</v>
-      </c>
-      <c r="D3" s="14">
-        <v>2057.9830999999999</v>
-      </c>
-      <c r="E3" s="14">
-        <v>2549</v>
-      </c>
-      <c r="F3" s="14">
-        <v>3124</v>
-      </c>
-      <c r="G3" s="14">
-        <v>5133</v>
-      </c>
-      <c r="H3" s="14">
-        <v>7776</v>
-      </c>
-      <c r="I3" s="14">
-        <v>9220</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="14">
-        <v>51.127400000000002</v>
-      </c>
-      <c r="D4" s="14">
-        <v>73.014899999999997</v>
-      </c>
-      <c r="E4" s="14">
-        <v>80</v>
-      </c>
-      <c r="F4" s="14">
-        <v>475</v>
-      </c>
-      <c r="G4" s="14">
-        <v>444</v>
-      </c>
-      <c r="H4" s="14">
-        <v>841</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="14.25">
-      <c r="B5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="15">
-        <f>SUM(C3:C4)</f>
-        <v>1531.4096000000002</v>
-      </c>
-      <c r="D5" s="15">
-        <f>SUM(D3:D4)</f>
-        <v>2130.998</v>
-      </c>
-      <c r="E5" s="15">
-        <f>SUM(E3:E4)</f>
-        <v>2629</v>
-      </c>
-      <c r="F5" s="15">
-        <f>SUM(F3:F4)</f>
-        <v>3599</v>
-      </c>
-      <c r="G5" s="15">
-        <f>SUM(G3:G4)</f>
-        <v>5577</v>
-      </c>
-      <c r="H5" s="15">
-        <f>SUM(H3:H4)</f>
-        <v>8617</v>
-      </c>
-      <c r="I5" s="15">
-        <f>SUM(I3:I4)</f>
-        <v>10460</v>
-      </c>
-    </row>
-    <row r="6" s="0" customFormat="1" ht="14.25">
-      <c r="B6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="14">
-        <f>C43</f>
-        <v>1351.3099999999999</v>
-      </c>
-      <c r="D6" s="14">
-        <f>D43</f>
-        <v>742.22000000000003</v>
-      </c>
-      <c r="E6" s="14">
-        <f>E43</f>
-        <v>1115</v>
-      </c>
-      <c r="F6" s="14">
-        <f>F43</f>
-        <v>3693</v>
-      </c>
-      <c r="G6" s="14">
-        <f>G43</f>
-        <v>9471</v>
-      </c>
-      <c r="H6" s="14">
-        <f>H43</f>
-        <v>4215</v>
-      </c>
-      <c r="I6" s="14">
-        <f>I43</f>
-        <v>22557</v>
-      </c>
-    </row>
-    <row r="7" s="0" customFormat="1" ht="14.25">
-      <c r="B7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="14">
-        <f>C42+C41</f>
-        <v>8373.0499999999993</v>
-      </c>
-      <c r="D7" s="14">
-        <f>D42+D41</f>
-        <v>9948.1100000000006</v>
-      </c>
-      <c r="E7" s="14">
-        <f>E42+E41</f>
-        <v>12610</v>
-      </c>
-      <c r="F7" s="14">
-        <f>F42+F41</f>
-        <v>19746</v>
-      </c>
-      <c r="G7" s="14">
-        <f>G42+G41</f>
-        <v>42717</v>
-      </c>
-      <c r="H7" s="14">
-        <f>H42+H41</f>
-        <v>48632</v>
-      </c>
-      <c r="I7" s="14">
-        <f>I42+I41</f>
-        <v>40503</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" s="0" customFormat="1" ht="14.25">
-      <c r="B8" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="14">
-        <f>C38</f>
-        <v>1341.4100000000001</v>
-      </c>
-      <c r="D8" s="14">
-        <f>D38</f>
-        <v>1933.346</v>
-      </c>
-      <c r="E8" s="14">
-        <f>E38</f>
-        <v>2356</v>
-      </c>
-      <c r="F8" s="14">
-        <f>F38</f>
-        <v>2200</v>
-      </c>
-      <c r="G8" s="14">
-        <f>G38</f>
-        <v>2614</v>
-      </c>
-      <c r="H8" s="14">
-        <f>H38</f>
-        <v>7304</v>
-      </c>
-      <c r="I8" s="14">
-        <f>I38</f>
-        <v>9834</v>
-      </c>
-    </row>
-    <row r="9" s="0" customFormat="1" ht="14.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="16">
-        <v>90.540999999999997</v>
-      </c>
-      <c r="D10" s="16">
-        <v>130.13589999999999</v>
-      </c>
-      <c r="E10" s="16">
-        <v>462</v>
-      </c>
-      <c r="F10" s="16">
-        <v>528</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1286</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1748</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="B11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="16">
-        <v>423.86680000000001</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>19</v>
-      </c>
-      <c r="F11" s="16">
-        <v>96</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="16">
-        <v>43.653799999999997</v>
-      </c>
-      <c r="D12" s="16">
-        <v>59.649500000000003</v>
-      </c>
-      <c r="E12" s="16">
-        <v>107</v>
-      </c>
-      <c r="F12" s="16">
-        <v>38</v>
-      </c>
-      <c r="G12" s="16">
-        <v>34</v>
-      </c>
-      <c r="H12" s="16">
-        <v>40</v>
-      </c>
-      <c r="I12" s="14">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="16">
-        <v>551.82259999999997</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1121.1756</v>
-      </c>
-      <c r="E13" s="16">
-        <v>995</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1953</v>
-      </c>
-      <c r="G13" s="16">
-        <v>2617</v>
-      </c>
-      <c r="H13" s="16">
-        <v>2911</v>
-      </c>
-      <c r="I13" s="14">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="16">
-        <v>542.98710000000005</v>
-      </c>
-      <c r="D14" s="16">
-        <v>1061.9597000000001</v>
-      </c>
-      <c r="E14" s="16">
-        <v>394</v>
-      </c>
-      <c r="F14" s="16">
-        <v>486</v>
-      </c>
-      <c r="G14" s="16">
-        <v>849</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1300</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="16">
-        <v>88.717200000000005</v>
-      </c>
-      <c r="D15" s="16">
-        <v>342.73259999999999</v>
-      </c>
-      <c r="E15" s="16">
-        <v>511</v>
-      </c>
-      <c r="F15" s="14">
-        <v>227</v>
-      </c>
-      <c r="G15" s="16">
-        <v>303</v>
-      </c>
-      <c r="H15" s="16">
-        <v>1057</v>
-      </c>
-      <c r="I15" s="14">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="14.25">
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="15">
-        <f>SUM(C10:C15)</f>
-        <v>1741.5885000000001</v>
-      </c>
-      <c r="D16" s="15">
-        <f>SUM(D10:D15)</f>
-        <v>2715.6532999999999</v>
-      </c>
-      <c r="E16" s="15">
-        <f>SUM(E10:E15)</f>
-        <v>2488</v>
-      </c>
-      <c r="F16" s="15">
-        <f>SUM(F10:F15)</f>
-        <v>3328</v>
-      </c>
-      <c r="G16" s="15">
-        <f>SUM(G10:G15)</f>
-        <v>5089</v>
-      </c>
-      <c r="H16" s="15">
-        <f>SUM(H10:H15)</f>
-        <v>7056</v>
-      </c>
-      <c r="I16" s="15">
-        <f>SUM(I10:I15)</f>
-        <v>8832</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="B17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16">
-        <v>-7</v>
-      </c>
-      <c r="F17" s="16">
-        <v>6</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16">
-        <v>59</v>
-      </c>
-      <c r="I17" s="14">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="B18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16">
-        <v>-191</v>
-      </c>
-      <c r="F18" s="16">
-        <v>-84</v>
-      </c>
-      <c r="G18" s="16">
-        <v>64</v>
-      </c>
-      <c r="H18" s="16">
-        <v>-194</v>
-      </c>
-      <c r="I18" s="14">
-        <v>-246</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="15">
-        <f>C5-C16+C17+C18</f>
-        <v>-210.17889999999989</v>
-      </c>
-      <c r="D19" s="15">
-        <f>D5-D16+D17+D18</f>
-        <v>-584.6552999999999</v>
-      </c>
-      <c r="E19" s="15">
-        <f>E5-E16+E17+E18</f>
-        <v>-57</v>
-      </c>
-      <c r="F19" s="15">
-        <f>F5-F16+F17+F18</f>
-        <v>193</v>
-      </c>
-      <c r="G19" s="15">
-        <f>G5-G16+G17+G18</f>
-        <v>553</v>
-      </c>
-      <c r="H19" s="15">
-        <f>H5-H16+H17+H18</f>
-        <v>1426</v>
-      </c>
-      <c r="I19" s="15">
-        <f>I5-I16+I17+I18</f>
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="20" s="0" customFormat="1" ht="14.25">
-      <c r="B20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="16">
-        <v>72.696899999999999</v>
-      </c>
-      <c r="D20" s="16">
-        <v>113.1631</v>
-      </c>
-      <c r="E20" s="16">
-        <v>-11</v>
-      </c>
-      <c r="F20" s="16">
-        <v>-11</v>
-      </c>
-      <c r="G20" s="16">
-        <v>-64</v>
-      </c>
-      <c r="H20" s="14">
-        <v>-453</v>
-      </c>
-      <c r="I20" s="14">
-        <v>-411</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="14.25">
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="15">
-        <f>C19+C20</f>
-        <v>-137.48199999999989</v>
-      </c>
-      <c r="D21" s="15">
-        <f>D19+D20</f>
-        <v>-471.49219999999991</v>
-      </c>
-      <c r="E21" s="15">
-        <f>E19+E20</f>
-        <v>-68</v>
-      </c>
-      <c r="F21" s="15">
-        <f>F19+F20</f>
-        <v>182</v>
-      </c>
-      <c r="G21" s="15">
-        <f>G19+G20</f>
-        <v>489</v>
-      </c>
-      <c r="H21" s="15">
-        <f>H19+H20</f>
-        <v>973</v>
-      </c>
-      <c r="I21" s="15">
-        <f>I19+I20</f>
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="B23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="16">
-        <v>-0.88</v>
-      </c>
-      <c r="D23" s="16">
-        <v>-3.5699999999999998</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0.68000000000000005</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0.68000000000000005</v>
-      </c>
-      <c r="G23" s="16">
-        <v>2.4100000000000001</v>
-      </c>
-      <c r="H23" s="16">
-        <v>5.4100000000000001</v>
-      </c>
-      <c r="I23" s="14">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25"/>
-    <row r="25" ht="14.25">
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="17">
-        <f>C3-C10</f>
-        <v>1389.7412000000002</v>
-      </c>
-      <c r="D25" s="17">
-        <f>D3-D10</f>
-        <v>1927.8471999999999</v>
-      </c>
-      <c r="E25" s="17">
-        <f>E3-E10</f>
-        <v>2087</v>
-      </c>
-      <c r="F25" s="17">
-        <f>F3-F10</f>
-        <v>2596</v>
-      </c>
-      <c r="G25" s="17">
-        <f>G3-G10</f>
-        <v>3847</v>
-      </c>
-      <c r="H25" s="17">
-        <f>H3-H10</f>
-        <v>6028</v>
-      </c>
-      <c r="I25" s="17">
-        <f>I3-I10</f>
-        <v>8033</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="8">
-        <f>C25/C3</f>
-        <v>0.93883531126700037</v>
-      </c>
-      <c r="D26" s="8">
-        <f>D25/D3</f>
-        <v>0.93676532134787693</v>
-      </c>
-      <c r="E26" s="8">
-        <f>E25/E3</f>
-        <v>0.81875245194193802</v>
-      </c>
-      <c r="F26" s="8">
-        <f>F25/F3</f>
-        <v>0.83098591549295775</v>
-      </c>
-      <c r="G26" s="8">
-        <f>G25/G3</f>
-        <v>0.74946425092538471</v>
-      </c>
-      <c r="H26" s="8">
-        <f>H25/H3</f>
-        <v>0.77520576131687247</v>
-      </c>
-      <c r="I26" s="8">
-        <f>I25/I3</f>
-        <v>0.87125813449023859</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="17">
-        <f>D12/C12-1</f>
-        <v>0.36642170899211535</v>
-      </c>
-      <c r="E27" s="17">
-        <f>E12/D12-1</f>
-        <v>0.79381218618764615</v>
-      </c>
-      <c r="F27" s="17">
-        <f>F12/E12-1</f>
-        <v>-0.64485981308411211</v>
-      </c>
-      <c r="G27" s="17">
-        <f>G12/F12-1</f>
-        <v>-0.10526315789473684</v>
-      </c>
-      <c r="H27" s="17">
-        <f>H12/G12-1</f>
-        <v>0.17647058823529416</v>
-      </c>
-      <c r="I27" s="17">
-        <f>I12/H12-1</f>
-        <v>0.92500000000000004</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="8">
-        <f>C13/C6</f>
-        <v>0.40836121985332752</v>
-      </c>
-      <c r="D28" s="8">
-        <f>D13/D6</f>
-        <v>1.5105704508097328</v>
-      </c>
-      <c r="E28" s="8">
-        <f>E13/E6</f>
-        <v>0.8923766816143498</v>
-      </c>
-      <c r="F28" s="8">
-        <f>F13/F6</f>
-        <v>0.52883834281072295</v>
-      </c>
-      <c r="G28" s="8">
-        <f>G13/G6</f>
-        <v>0.27631717875620315</v>
-      </c>
-      <c r="H28" s="8">
-        <f>H13/H6</f>
-        <v>0.69062870699881374</v>
-      </c>
-      <c r="I28" s="8">
-        <f>I13/I6</f>
-        <v>0.22192667464645122</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="B29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="8">
-        <f>D14/C14-1</f>
-        <v>0.95577335078494507</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25">
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="17">
-        <f>MAX(0,C19/C20)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="17">
-        <f>MAX(0,D19/D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <f>F20/F19*-1</f>
-        <v>0.056994818652849742</v>
-      </c>
-      <c r="G30" s="8">
-        <f>G20/G19*-1</f>
-        <v>0.11573236889692586</v>
-      </c>
-      <c r="H30" s="8">
-        <f>H20/H19*-1</f>
-        <v>0.317671809256662</v>
-      </c>
-      <c r="I30" s="8">
-        <f>I20/I19*-1</f>
-        <v>0.24596050269299821</v>
-      </c>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" ht="14.25">
-      <c r="B31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31">
-        <f>C45/C38</f>
-        <v>7.2493570198522432</v>
-      </c>
-      <c r="D31" s="6">
-        <f>D45/D38</f>
-        <v>5.5294448070857465</v>
-      </c>
-      <c r="E31" s="6">
-        <f>E45/E38</f>
-        <v>5.8255517826825125</v>
-      </c>
-      <c r="F31" s="6">
-        <f>F45/F38</f>
-        <v>10.654090909090909</v>
-      </c>
-      <c r="G31" s="6">
-        <f>G45/G38</f>
-        <v>19.964804896710024</v>
-      </c>
-      <c r="H31" s="6">
-        <f>H45/H38</f>
-        <v>7.2353504928806132</v>
-      </c>
-      <c r="I31" s="6">
-        <f>I45/I38</f>
-        <v>6.4124466137888954</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25">
-      <c r="A34" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="B35" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1564.01</v>
-      </c>
-      <c r="D35">
-        <v>1564.01</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1564</v>
-      </c>
-      <c r="F35">
-        <v>1564</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1564</v>
-      </c>
-      <c r="H35" s="18">
-        <v>1584</v>
-      </c>
-      <c r="I35">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="B36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1093.336</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1593</v>
-      </c>
-      <c r="F36">
-        <v>1339</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1424</v>
-      </c>
-      <c r="H36" s="18">
-        <v>1424</v>
-      </c>
-      <c r="I36">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="B37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="6">
-        <v>-222.59999999999999</v>
-      </c>
-      <c r="D37">
-        <v>-724</v>
-      </c>
-      <c r="E37" s="6">
-        <v>-801</v>
-      </c>
-      <c r="F37">
-        <v>-703</v>
-      </c>
-      <c r="G37" s="18">
-        <v>-374</v>
-      </c>
-      <c r="H37" s="18">
-        <v>4296</v>
-      </c>
-      <c r="I37">
-        <v>6826</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="14.25">
-      <c r="B38" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="19">
-        <f>SUM(C35:C37)</f>
-        <v>1341.4100000000001</v>
-      </c>
-      <c r="D38" s="19">
-        <f>SUM(D35:D37)</f>
-        <v>1933.346</v>
-      </c>
-      <c r="E38" s="19">
-        <f>SUM(E35:E37)</f>
-        <v>2356</v>
-      </c>
-      <c r="F38" s="19">
-        <f>SUM(F35:F37)</f>
-        <v>2200</v>
-      </c>
-      <c r="G38" s="19">
-        <f>SUM(G35:G37)</f>
-        <v>2614</v>
-      </c>
-      <c r="H38" s="19">
-        <f>SUM(H35:H37)</f>
-        <v>7304</v>
-      </c>
-      <c r="I38" s="1">
-        <v>9834</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="B40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="18">
-        <v>0</v>
-      </c>
-      <c r="D41" s="18">
-        <v>0</v>
-      </c>
-      <c r="E41" s="18">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>4013</v>
-      </c>
-      <c r="G41" s="18">
-        <v>4013</v>
-      </c>
-      <c r="H41" s="18">
-        <v>4013</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="B42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="18">
-        <v>8373.0499999999993</v>
-      </c>
-      <c r="D42" s="18">
-        <v>9948.1100000000006</v>
-      </c>
-      <c r="E42" s="18">
-        <v>12610</v>
-      </c>
-      <c r="F42" s="18">
-        <v>15733</v>
-      </c>
-      <c r="G42" s="18">
-        <v>38704</v>
-      </c>
-      <c r="H42" s="18">
-        <v>44619</v>
-      </c>
-      <c r="I42">
-        <v>40503</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="B43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="18">
-        <v>1351.3099999999999</v>
-      </c>
-      <c r="D43" s="18">
-        <v>742.22000000000003</v>
-      </c>
-      <c r="E43" s="18">
-        <v>1115</v>
-      </c>
-      <c r="F43" s="18">
-        <v>3693</v>
-      </c>
-      <c r="G43" s="18">
-        <v>9471</v>
-      </c>
-      <c r="H43" s="18">
-        <v>4215</v>
-      </c>
-      <c r="I43">
-        <v>22557</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="B45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="19">
-        <f>SUM(C41:C43)</f>
-        <v>9724.3599999999988</v>
-      </c>
-      <c r="D45" s="19">
-        <f>SUM(D41:D43)</f>
-        <v>10690.33</v>
-      </c>
-      <c r="E45" s="19">
-        <f>SUM(E41:E43)</f>
-        <v>13725</v>
-      </c>
-      <c r="F45" s="19">
-        <f>SUM(F41:F43)</f>
-        <v>23439</v>
-      </c>
-      <c r="G45" s="19">
-        <f>SUM(G41:G43)</f>
-        <v>52188</v>
-      </c>
-      <c r="H45" s="19">
-        <f>SUM(H41:H43)</f>
-        <v>52847</v>
-      </c>
-      <c r="I45" s="19">
-        <f>SUM(I41:I43)</f>
-        <v>63060</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25"/>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4261,21 +8925,158 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.7109375"/>
-    <col customWidth="1" min="3" max="3" width="19.8515625"/>
+    <col min="1" max="12" style="24" width="9.140625"/>
+    <col customWidth="1" min="13" max="13" style="24" width="13.7109375"/>
+    <col customWidth="1" min="14" max="14" style="24" width="22.00390625"/>
+    <col min="15" max="16384" style="24" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="B5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>140</v>
+    <row r="1" ht="16.5">
+      <c r="A1" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5">
+      <c r="M2" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="24">
+        <v>123.7</v>
+      </c>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" ht="16.5">
+      <c r="B3" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="N3" s="24">
+        <v>216904290</v>
+      </c>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" ht="16.5">
+      <c r="M4" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="N4" s="26">
+        <f>N3*N2</f>
+        <v>26831060673</v>
+      </c>
+      <c r="O4" s="24">
+        <f>N4/10000000</f>
+        <v>2683.1060673000002</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" ht="16.5">
+      <c r="B5" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2024</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" s="24">
+        <f>32.59</f>
+        <v>32.590000000000003</v>
+      </c>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" ht="16.5">
+      <c r="B6" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="M6" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="N6" s="24">
+        <f>59.6471</f>
+        <v>59.647100000000002</v>
+      </c>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" ht="16.5">
+      <c r="B7" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="N7" s="24">
+        <f>O4+N6-N5</f>
+        <v>2710.1631673000002</v>
+      </c>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" ht="16.5">
+      <c r="B8" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5">
+      <c r="D9" s="24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="D10" s="24"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="18" ht="16.5">
+      <c r="B18" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5">
+      <c r="A20" s="24">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5">
+      <c r="A21" s="24">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5">
+      <c r="B22" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5">
+      <c r="B23" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5">
+      <c r="B24" s="24" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4283,5 +9084,6 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sheets/ENERGY.xlsx
+++ b/sheets/ENERGY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId2"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t xml:space="preserve">Earnings Per Share</t>
   </si>
@@ -599,6 +599,45 @@
     <t>https://www.tatapower.com/content/dam/tatapoweraemsitesprogram/tatapower/pdf-root/company-financials/annual-reports/106AnnualReport-2024-25.pdf</t>
   </si>
   <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
     <t xml:space="preserve">Op. Revenue</t>
   </si>
   <si>
@@ -620,6 +659,9 @@
     <t xml:space="preserve">Purchase of finished goods</t>
   </si>
   <si>
+    <t xml:space="preserve">Operational Expense</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stock in trade</t>
   </si>
   <si>
@@ -632,6 +674,9 @@
     <t xml:space="preserve">Total Expenses</t>
   </si>
   <si>
+    <t xml:space="preserve">Operational Profit </t>
+  </si>
+  <si>
     <t xml:space="preserve">Regulatory Deferral Balances</t>
   </si>
   <si>
@@ -641,6 +686,54 @@
     <t xml:space="preserve">Share of Net profit from JV / Associates</t>
   </si>
   <si>
+    <t xml:space="preserve">AVERAGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDIAN </t>
+  </si>
+  <si>
+    <t>TAKING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount  Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue growht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total no. of shares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational  Profit</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational  Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shares price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBE y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted Share price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D&amp;A y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finance Cost y/y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUZLON ENERGY</t>
   </si>
   <si>
@@ -905,36 +998,24 @@
     <t>AVERAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">MEDIAN </t>
-  </si>
-  <si>
     <t>TAKEN</t>
   </si>
   <si>
     <t xml:space="preserve">AFTER 10 YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Terminal Value</t>
-  </si>
-  <si>
     <t xml:space="preserve">Discount Rate</t>
   </si>
   <si>
     <t xml:space="preserve">Gross Margin </t>
   </si>
   <si>
-    <t>NPV</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revenue Growth</t>
   </si>
   <si>
     <t xml:space="preserve">Share price </t>
   </si>
   <si>
-    <t xml:space="preserve">EBE y/y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total Shares</t>
   </si>
   <si>
@@ -942,9 +1023,6 @@
   </si>
   <si>
     <t xml:space="preserve">Valuation prie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D&amp;A y/y</t>
   </si>
   <si>
     <t xml:space="preserve">Tax Rate </t>
@@ -1105,7 +1183,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1136,14 +1214,46 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1166,20 +1276,9 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="167" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="166" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -1202,6 +1301,158 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="0">
+          <a:off x="27495499" y="158749"/>
+          <a:ext cx="0" cy="6753224"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44449</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="30613349" y="253999"/>
+          <a:ext cx="0" cy="6340474"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+        <xdr:nvPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="0">
+          <a:off x="14795499" y="174624"/>
+          <a:ext cx="0" cy="8175624"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1318,7 +1569,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
@@ -1423,7 +1674,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="mohit" id="{1405B485-002A-CF64-529C-63D4F0D6727F}" userId="mohit" providerId="Teamlab"/>
+  <person displayName="mohit" id="{EA49A2FE-1B4B-0C52-E3D4-52FD7087E743}" userId="mohit" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -1919,19 +2170,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K16" dT="2025-06-19T21:34:29.91Z" personId="{1405B485-002A-CF64-529C-63D4F0D6727F}" id="{C25DF110-51D2-DBB6-4294-91D168F94F65}" done="1">
+  <threadedComment ref="K16" dT="2025-06-19T21:34:29.91Z" personId="{EA49A2FE-1B4B-0C52-E3D4-52FD7087E743}" id="{C25DF110-51D2-DBB6-4294-91D168F94F65}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="E16" dT="2025-06-19T21:36:36.25Z" personId="{1405B485-002A-CF64-529C-63D4F0D6727F}" id="{6788FAC3-FD09-97E3-2E6A-DE380B094467}" done="1">
+  <threadedComment ref="E16" dT="2025-06-19T21:36:36.25Z" personId="{EA49A2FE-1B4B-0C52-E3D4-52FD7087E743}" id="{6788FAC3-FD09-97E3-2E6A-DE380B094467}" done="1">
     <text xml:space="preserve">This is coming from making OCD / CD to equity and removing rerducing debt and increasing the no. of shares
 </text>
   </threadedComment>
-  <threadedComment ref="I19" dT="2025-06-19T21:38:44.15Z" personId="{1405B485-002A-CF64-529C-63D4F0D6727F}" id="{3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}" done="0">
+  <threadedComment ref="I19" dT="2025-06-19T21:38:44.15Z" personId="{EA49A2FE-1B4B-0C52-E3D4-52FD7087E743}" id="{3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}" done="0">
     <text xml:space="preserve">Converting Convertible debentures to equity leading to increased equity value
 </text>
   </threadedComment>
-  <threadedComment ref="I37" dT="2025-06-18T21:27:29.95Z" personId="{1405B485-002A-CF64-529C-63D4F0D6727F}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
+  <threadedComment ref="I37" dT="2025-06-18T21:27:29.95Z" personId="{EA49A2FE-1B4B-0C52-E3D4-52FD7087E743}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
     <text xml:space="preserve">this money came from exceptional item
 </text>
   </threadedComment>
@@ -2303,27 +2554,27 @@
     </row>
     <row r="3" ht="14.25">
       <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="19">
+        <v>171</v>
+      </c>
+      <c r="C3" s="21">
         <v>1480.2822000000001</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="21">
         <v>2057.9830999999999</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="21">
         <v>2549</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="21">
         <v>3124</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="21">
         <v>5133</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="21">
         <v>7776</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="21">
         <v>9220</v>
       </c>
       <c r="J3">
@@ -2350,27 +2601,27 @@
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="19">
+        <v>172</v>
+      </c>
+      <c r="C4" s="21">
         <v>51.127400000000002</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="21">
         <v>73.014899999999997</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="21">
         <v>80</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="21">
         <v>475</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="21">
         <v>444</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="21">
         <v>841</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="21">
         <v>1240</v>
       </c>
       <c r="J4">
@@ -2399,39 +2650,39 @@
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="23">
         <f>SUM(C3:C4)</f>
         <v>1531.4096000000002</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="23">
         <f>SUM(D3:D4)</f>
         <v>2130.998</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="23">
         <f>SUM(E3:E4)</f>
         <v>2629</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="23">
         <f>SUM(F3:F4)</f>
         <v>3599</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="23">
         <f>SUM(G3:G4)</f>
         <v>5577</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="23">
         <f>SUM(H3:H4)</f>
         <v>8617</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="23">
         <f>SUM(I3:I4)</f>
         <v>10460</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="23">
         <f>SUM(J3:J4)</f>
         <v>12422</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="23">
         <f>SUM(N3:N4)</f>
         <v>12422</v>
       </c>
@@ -2443,771 +2694,771 @@
         <f>O5*(1+$M$28)</f>
         <v>17296.392799999998</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="48">
         <f>P5*(1+$M$28)</f>
         <v>20409.743503999995</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="48">
         <f>Q5*(1+$M$28)</f>
         <v>24083.497334719992</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="48">
         <f>R5*(1+$M$28)</f>
         <v>28418.52685496959</v>
       </c>
-      <c r="T5" s="28">
+      <c r="T5" s="48">
         <f>S5*(1+$M$28)</f>
         <v>33533.861688864112</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="48">
         <f>T5*(1+$M$28)</f>
         <v>39569.956792859652</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="48">
         <f>U5*(1+$M$28)</f>
         <v>46692.54901557439</v>
       </c>
-      <c r="W5" s="28">
+      <c r="W5" s="48">
         <f>V5*(1+$M$28)</f>
         <v>55097.207838377777</v>
       </c>
-      <c r="X5" s="28">
+      <c r="X5" s="48">
         <f>W5*(1+$M$28)</f>
         <v>65014.705249285777</v>
       </c>
-      <c r="Y5" s="28">
+      <c r="Y5" s="48">
         <f>X5*($N$28+1)</f>
         <v>70866.028721721508</v>
       </c>
-      <c r="Z5" s="28">
+      <c r="Z5" s="48">
         <f>Y5*($N$28+1)</f>
         <v>77243.971306676453</v>
       </c>
-      <c r="AA5" s="28">
+      <c r="AA5" s="48">
         <f>Z5*($N$28+1)</f>
         <v>84195.928724277343</v>
       </c>
-      <c r="AB5" s="28">
+      <c r="AB5" s="48">
         <f>AA5*($N$28+1)</f>
         <v>91773.562309462315</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AC5" s="48">
         <f>AB5*($N$28+1)</f>
         <v>100033.18291731393</v>
       </c>
-      <c r="AD5" s="28">
+      <c r="AD5" s="48">
         <f>AC5*($N$28+1)</f>
         <v>109036.16937987218</v>
       </c>
-      <c r="AE5" s="28">
+      <c r="AE5" s="48">
         <f>AD5*($N$28+1)</f>
         <v>118849.42462406069</v>
       </c>
-      <c r="AF5" s="28">
+      <c r="AF5" s="48">
         <f>AE5*($N$28+1)</f>
         <v>129545.87284022616</v>
       </c>
-      <c r="AG5" s="28">
+      <c r="AG5" s="48">
         <f>AF5*($N$28+1)</f>
         <v>141205.00139584651</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="48">
         <f>AG5*($N$28+1)</f>
         <v>153913.45152147271</v>
       </c>
-      <c r="AI5" s="28">
+      <c r="AI5" s="48">
         <f>AH5*($N$28+1)</f>
         <v>167765.66215840526</v>
       </c>
-      <c r="AJ5" s="28">
+      <c r="AJ5" s="48">
         <f>AI5*($N$28+1)</f>
         <v>182864.57175266175</v>
       </c>
-      <c r="AK5" s="28">
+      <c r="AK5" s="48">
         <f>AJ5*($N$28+1)</f>
         <v>199322.38321040131</v>
       </c>
-      <c r="AL5" s="28">
+      <c r="AL5" s="48">
         <f>AK5*($N$28+1)</f>
         <v>217261.39769933745</v>
       </c>
-      <c r="AM5" s="28">
+      <c r="AM5" s="48">
         <f>AL5*($N$28+1)</f>
         <v>236814.92349227783</v>
       </c>
     </row>
     <row r="6" s="0" customFormat="1" ht="14.25">
       <c r="B6" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="19">
+        <v>281</v>
+      </c>
+      <c r="C6" s="21">
         <f>C45</f>
         <v>1351.3099999999999</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="21">
         <f>D45</f>
         <v>742.22000000000003</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="21">
         <f>E45</f>
         <v>1115</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="21">
         <f>F45</f>
         <v>3693</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="21">
         <f>G45</f>
         <v>9471</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="21">
         <f>H45</f>
         <v>4215</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="21">
         <f>I45</f>
         <v>22557</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="21">
         <f>J45</f>
         <v>10706</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="21">
         <f>N45</f>
         <v>0</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
     </row>
     <row r="7" s="0" customFormat="1" ht="14.25">
       <c r="B7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="19">
+        <v>282</v>
+      </c>
+      <c r="C7" s="21">
         <f>C44+C43</f>
         <v>8373.0499999999993</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="21">
         <f>D44+D43</f>
         <v>9948.1100000000006</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="21">
         <f>E44+E43</f>
         <v>12610</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="21">
         <f>F44+F43</f>
         <v>19746</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="21">
         <f>G44+G43</f>
         <v>42717</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="21">
         <f>H44+H43</f>
         <v>48632</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="21">
         <f>I44+I43</f>
         <v>40503</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="21">
         <f>J44+J43</f>
         <v>67363</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="21">
         <f>N44+N43</f>
         <v>0</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
     </row>
     <row r="8" s="0" customFormat="1" ht="14.25">
       <c r="B8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="19">
+        <v>218</v>
+      </c>
+      <c r="C8" s="21">
         <f>C40</f>
         <v>1341.4100000000001</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="21">
         <f>D40</f>
         <v>1933.346</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="21">
         <f>E40</f>
         <v>2356</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="21">
         <f>F40</f>
         <v>2200</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="21">
         <f>G40</f>
         <v>2614</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="21">
         <f>H40</f>
         <v>7304</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="21">
         <f>I40</f>
         <v>9834</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="21">
         <f>J40</f>
         <v>12137</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="21">
         <f>N40</f>
         <v>0</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
     </row>
     <row r="9" s="0" customFormat="1" ht="14.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="N9" s="21"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="18">
+        <v>247</v>
+      </c>
+      <c r="C10" s="20">
         <v>90.540999999999997</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="20">
         <v>130.13589999999999</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="20">
         <v>462</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="20">
         <v>528</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="20">
         <v>1286</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="20">
         <v>1748</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="21">
         <v>1187</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="21">
         <v>1440</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="50">
         <v>1440</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="51">
         <f>O5*(1-$M$27)</f>
         <v>2198.6940000000004</v>
       </c>
-      <c r="P10" s="32">
+      <c r="P10" s="52">
         <f>P5*(1-$M$27)</f>
         <v>2594.45892</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="49">
         <f>Q5*(1-$M$27)</f>
         <v>3061.4615255999997</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="49">
         <f>R5*(1-$M$27)</f>
         <v>3612.5246002079994</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="49">
         <f>S5*(1-$M$27)</f>
         <v>4262.7790282454389</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="49">
         <f>T5*(1-$M$27)</f>
         <v>5030.0792533296171</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="49">
         <f>U5*(1-$M$27)</f>
         <v>5935.493518928949</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="49">
         <f>V5*(1-$M$27)</f>
         <v>7003.8823523361598</v>
       </c>
-      <c r="W10" s="29">
+      <c r="W10" s="49">
         <f>W5*(1-$M$27)</f>
         <v>8264.581175756668</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="49">
         <f>X5*(1-$M$27)</f>
         <v>9752.2057873928679</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="49">
         <f>Y5*(1-$N$27)</f>
         <v>9921.2440210410114</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="49">
         <f>Z5*(1-$N$27)</f>
         <v>10814.155982934704</v>
       </c>
-      <c r="AA10" s="29">
+      <c r="AA10" s="49">
         <f>AA5*(1-$N$27)</f>
         <v>11787.43002139883</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AB10" s="49">
         <f>AB5*(1-$N$27)</f>
         <v>12848.298723324726</v>
       </c>
-      <c r="AC10" s="29">
+      <c r="AC10" s="49">
         <f>AC5*(1-$N$27)</f>
         <v>14004.645608423951</v>
       </c>
-      <c r="AD10" s="29">
+      <c r="AD10" s="49">
         <f>AD5*(1-$N$27)</f>
         <v>15265.063713182108</v>
       </c>
-      <c r="AE10" s="29">
+      <c r="AE10" s="49">
         <f>AE5*(1-$N$27)</f>
         <v>16638.919447368498</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AF10" s="49">
         <f>AF5*(1-$N$27)</f>
         <v>18136.422197631666</v>
       </c>
-      <c r="AG10" s="29">
+      <c r="AG10" s="49">
         <f>AG5*(1-$N$27)</f>
         <v>19768.700195418514</v>
       </c>
-      <c r="AH10" s="29">
+      <c r="AH10" s="49">
         <f>AH5*(1-$N$27)</f>
         <v>21547.883213006182</v>
       </c>
-      <c r="AI10" s="29">
+      <c r="AI10" s="49">
         <f>AI5*(1-$N$27)</f>
         <v>23487.192702176741</v>
       </c>
-      <c r="AJ10" s="29">
+      <c r="AJ10" s="49">
         <f>AJ5*(1-$N$27)</f>
         <v>25601.040045372647</v>
       </c>
-      <c r="AK10" s="29">
+      <c r="AK10" s="49">
         <f>AK5*(1-$N$27)</f>
         <v>27905.133649456187</v>
       </c>
-      <c r="AL10" s="29">
+      <c r="AL10" s="49">
         <f>AL5*(1-$N$27)</f>
         <v>30416.595677907248</v>
       </c>
-      <c r="AM10" s="29">
+      <c r="AM10" s="49">
         <f>AM5*(1-$N$27)</f>
         <v>33154.089288918898</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="18">
+        <v>283</v>
+      </c>
+      <c r="C11" s="20">
         <v>423.86680000000001</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="20">
         <v>0</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="20">
         <v>19</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="20">
         <v>96</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="N11" s="21"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="20">
         <v>43.653799999999997</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="20">
         <v>59.649500000000003</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="20">
         <v>107</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="20">
         <v>38</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="20">
         <v>34</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="20">
         <v>40</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="21">
         <v>77</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="21">
         <v>128</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="21">
         <v>128</v>
       </c>
       <c r="O12">
         <f>N12*($M$29+1)</f>
         <v>151.03999999999999</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="53">
         <f>O12*($M$29+1)</f>
         <v>178.22719999999998</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="49">
         <f>P12*($M$29+1)</f>
         <v>210.30809599999998</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="49">
         <f>Q12*($M$29+1)</f>
         <v>248.16355327999997</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="49">
         <f>R12*($M$29+1)</f>
         <v>292.83299287039995</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="49">
         <f>S12*($M$29+1)</f>
         <v>345.54293158707191</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="49">
         <f>T12*($M$29+1)</f>
         <v>407.74065927274484</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="49">
         <f>U12*($M$29+1)</f>
         <v>481.13397794183891</v>
       </c>
-      <c r="W12" s="29">
+      <c r="W12" s="49">
         <f>V12*($M$29+1)</f>
         <v>567.73809397136984</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="49">
         <f>W12*($M$29+1)</f>
         <v>669.93095088621635</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="49">
         <f>X12*($N$29+1)</f>
         <v>730.22473646597587</v>
       </c>
-      <c r="Z12" s="29">
+      <c r="Z12" s="49">
         <f>Y12*($N$29+1)</f>
         <v>795.94496274791379</v>
       </c>
-      <c r="AA12" s="29">
+      <c r="AA12" s="49">
         <f>Z12*($N$29+1)</f>
         <v>867.58000939522606</v>
       </c>
-      <c r="AB12" s="29">
+      <c r="AB12" s="49">
         <f>AA12*($N$29+1)</f>
         <v>945.66221024079653</v>
       </c>
-      <c r="AC12" s="29">
+      <c r="AC12" s="49">
         <f>AB12*($N$29+1)</f>
         <v>1030.7718091624683</v>
       </c>
-      <c r="AD12" s="29">
+      <c r="AD12" s="49">
         <f>AC12*($N$29+1)</f>
         <v>1123.5412719870906</v>
       </c>
-      <c r="AE12" s="29">
+      <c r="AE12" s="49">
         <f>AD12*($N$29+1)</f>
         <v>1224.6599864659288</v>
       </c>
-      <c r="AF12" s="29">
+      <c r="AF12" s="49">
         <f>AE12*($N$29+1)</f>
         <v>1334.8793852478625</v>
       </c>
-      <c r="AG12" s="29">
+      <c r="AG12" s="49">
         <f>AF12*($N$29+1)</f>
         <v>1455.0185299201703</v>
       </c>
-      <c r="AH12" s="29">
+      <c r="AH12" s="49">
         <f>AG12*($N$29+1)</f>
         <v>1585.9701976129857</v>
       </c>
-      <c r="AI12" s="29">
+      <c r="AI12" s="49">
         <f>AH12*($N$29+1)</f>
         <v>1728.7075153981546</v>
       </c>
-      <c r="AJ12" s="29">
+      <c r="AJ12" s="49">
         <f>AI12*($N$29+1)</f>
         <v>1884.2911917839886</v>
       </c>
-      <c r="AK12" s="29">
+      <c r="AK12" s="49">
         <f>AJ12*($N$29+1)</f>
         <v>2053.8773990445475</v>
       </c>
-      <c r="AL12" s="29">
+      <c r="AL12" s="49">
         <f>AK12*($N$29+1)</f>
         <v>2238.726364958557</v>
       </c>
-      <c r="AM12" s="29">
+      <c r="AM12" s="49">
         <f>AL12*($N$29+1)</f>
         <v>2440.2117378048274</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="18">
+        <v>180</v>
+      </c>
+      <c r="C13" s="20">
         <v>551.82259999999997</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="20">
         <v>1121.1756</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="20">
         <v>995</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="20">
         <v>1953</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="20">
         <v>2617</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="20">
         <v>2911</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="21">
         <v>5006</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="21">
         <v>5492</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="21">
         <v>5492</v>
       </c>
       <c r="O13">
         <f>N13*($M$28+1)</f>
         <v>6480.5599999999995</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="38">
         <f>O13*($M$28+1)</f>
         <v>7647.0607999999993</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="49">
         <f>P13*($M$28+1)</f>
         <v>9023.5317439999981</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="49">
         <f>Q13*($M$28+1)</f>
         <v>10647.767457919997</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13" s="49">
         <f>R13*($M$28+1)</f>
         <v>12564.365600345596</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="49">
         <f>S13*($M$28+1)</f>
         <v>14825.951408407804</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="49">
         <f>T13*($M$28+1)</f>
         <v>17494.622661921207</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="49">
         <f>U13*($M$28+1)</f>
         <v>20643.654741067021</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="49">
         <f>V13*($M$28+1)</f>
         <v>24359.512594459084</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="49">
         <f>W13*($M$28+1)</f>
         <v>28744.224861461717</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13" s="49">
         <f>X13*($N$28+1)</f>
         <v>31331.205098993272</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13" s="49">
         <f>Y13*($N$28+1)</f>
         <v>34151.013557902668</v>
       </c>
-      <c r="AA13" s="29">
+      <c r="AA13" s="49">
         <f>Z13*($N$28+1)</f>
         <v>37224.604778113913</v>
       </c>
-      <c r="AB13" s="29">
+      <c r="AB13" s="49">
         <f>AA13*($N$28+1)</f>
         <v>40574.819208144167</v>
       </c>
-      <c r="AC13" s="29">
+      <c r="AC13" s="49">
         <f>AB13*($N$28+1)</f>
         <v>44226.552936877146</v>
       </c>
-      <c r="AD13" s="29">
+      <c r="AD13" s="49">
         <f>AC13*($N$28+1)</f>
         <v>48206.942701196094</v>
       </c>
-      <c r="AE13" s="29">
+      <c r="AE13" s="49">
         <f>AD13*($N$28+1)</f>
         <v>52545.567544303747</v>
       </c>
-      <c r="AF13" s="29">
+      <c r="AF13" s="49">
         <f>AE13*($N$28+1)</f>
         <v>57274.668623291087</v>
       </c>
-      <c r="AG13" s="29">
+      <c r="AG13" s="49">
         <f>AF13*($N$28+1)</f>
         <v>62429.388799387292</v>
       </c>
-      <c r="AH13" s="29">
+      <c r="AH13" s="49">
         <f>AG13*($N$28+1)</f>
         <v>68048.033791332156</v>
       </c>
-      <c r="AI13" s="29">
+      <c r="AI13" s="49">
         <f>AH13*($N$28+1)</f>
         <v>74172.356832552061</v>
       </c>
-      <c r="AJ13" s="29">
+      <c r="AJ13" s="49">
         <f>AI13*($N$28+1)</f>
         <v>80847.868947481751</v>
       </c>
-      <c r="AK13" s="29">
+      <c r="AK13" s="49">
         <f>AJ13*($N$28+1)</f>
         <v>88124.177152755117</v>
       </c>
-      <c r="AL13" s="29">
+      <c r="AL13" s="49">
         <f>AK13*($N$28+1)</f>
         <v>96055.35309650308</v>
       </c>
-      <c r="AM13" s="29">
+      <c r="AM13" s="49">
         <f>AL13*($N$28+1)</f>
         <v>104700.33487518836</v>
       </c>
@@ -3216,130 +3467,130 @@
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="20">
         <v>542.98710000000005</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="20">
         <v>1061.9597000000001</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="20">
         <v>394</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="20">
         <v>486</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="20">
         <v>849</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="20">
         <v>1300</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="21">
         <v>1903</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="21">
         <v>2498</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="21">
         <v>2498</v>
       </c>
       <c r="O14">
         <f>N14*($M$31+1)</f>
         <v>2797.7600000000002</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="38">
         <f>O14*($M$31+1)</f>
         <v>3133.4912000000004</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="49">
         <f>P14*($M$31+1)</f>
         <v>3509.5101440000008</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="49">
         <f>Q14*($M$31+1)</f>
         <v>3930.6513612800013</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="49">
         <f>R14*($M$31+1)</f>
         <v>4402.329524633602</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="49">
         <f>S14*($M$31+1)</f>
         <v>4930.6090675896348</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="49">
         <f>T14*($M$31+1)</f>
         <v>5522.2821557003917</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="49">
         <f>U14*($M$31+1)</f>
         <v>6184.9560143844392</v>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="49">
         <f>V14*($M$31+1)</f>
         <v>6927.1507361105723</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="49">
         <f>W14*($M$31+1)</f>
         <v>7758.4088244438417</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="49">
         <f>X14*($N$31+1)</f>
         <v>8689.4178833771039</v>
       </c>
-      <c r="Z14" s="29">
+      <c r="Z14" s="49">
         <f>Y14*($N$31+1)</f>
         <v>9732.148029382357</v>
       </c>
-      <c r="AA14" s="29">
+      <c r="AA14" s="49">
         <f>Z14*($N$31+1)</f>
         <v>10900.005792908241</v>
       </c>
-      <c r="AB14" s="29">
+      <c r="AB14" s="49">
         <f>AA14*($N$31+1)</f>
         <v>12208.006488057232</v>
       </c>
-      <c r="AC14" s="29">
+      <c r="AC14" s="49">
         <f>AB14*($N$31+1)</f>
         <v>13672.9672666241</v>
       </c>
-      <c r="AD14" s="29">
+      <c r="AD14" s="49">
         <f>AC14*($N$31+1)</f>
         <v>15313.723338618995</v>
       </c>
-      <c r="AE14" s="29">
+      <c r="AE14" s="49">
         <f>AD14*($N$31+1)</f>
         <v>17151.370139253275</v>
       </c>
-      <c r="AF14" s="29">
+      <c r="AF14" s="49">
         <f>AE14*($N$31+1)</f>
         <v>19209.53455596367</v>
       </c>
-      <c r="AG14" s="29">
+      <c r="AG14" s="49">
         <f>AF14*($N$31+1)</f>
         <v>21514.678702679314</v>
       </c>
-      <c r="AH14" s="29">
+      <c r="AH14" s="49">
         <f>AG14*($N$31+1)</f>
         <v>24096.440147000834</v>
       </c>
-      <c r="AI14" s="29">
+      <c r="AI14" s="49">
         <f>AH14*($N$31+1)</f>
         <v>26988.012964640937</v>
       </c>
-      <c r="AJ14" s="29">
+      <c r="AJ14" s="49">
         <f>AI14*($N$31+1)</f>
         <v>30226.574520397851</v>
       </c>
-      <c r="AK14" s="29">
+      <c r="AK14" s="49">
         <f>AJ14*($N$31+1)</f>
         <v>33853.7634628456</v>
       </c>
-      <c r="AL14" s="29">
+      <c r="AL14" s="49">
         <f>AK14*($N$31+1)</f>
         <v>37916.215078387075</v>
       </c>
-      <c r="AM14" s="29">
+      <c r="AM14" s="49">
         <f>AL14*($N$31+1)</f>
         <v>42466.160887793529</v>
       </c>
@@ -3348,31 +3599,31 @@
       <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="20">
         <v>88.717200000000005</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="20">
         <v>342.73259999999999</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="20">
         <v>511</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="21">
         <v>227</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="20">
         <v>303</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="20">
         <v>1057</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="21">
         <v>659</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="21">
         <v>767</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="21">
         <v>767</v>
       </c>
       <c r="O15">
@@ -3381,73 +3632,73 @@
       <c r="P15" s="6">
         <v>850</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="49">
         <v>850</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="49">
         <v>850</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="49">
         <v>850</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="49">
         <v>850</v>
       </c>
-      <c r="U15" s="29">
+      <c r="U15" s="49">
         <v>850</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="49">
         <v>850</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="49">
         <v>850</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="49">
         <v>850</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Y15" s="49">
         <v>850</v>
       </c>
-      <c r="Z15" s="29">
+      <c r="Z15" s="49">
         <v>850</v>
       </c>
-      <c r="AA15" s="29">
+      <c r="AA15" s="49">
         <v>850</v>
       </c>
-      <c r="AB15" s="29">
+      <c r="AB15" s="49">
         <v>850</v>
       </c>
-      <c r="AC15" s="29">
+      <c r="AC15" s="49">
         <v>850</v>
       </c>
-      <c r="AD15" s="29">
+      <c r="AD15" s="49">
         <v>850</v>
       </c>
-      <c r="AE15" s="29">
+      <c r="AE15" s="49">
         <v>850</v>
       </c>
-      <c r="AF15" s="29">
+      <c r="AF15" s="49">
         <v>850</v>
       </c>
-      <c r="AG15" s="29">
+      <c r="AG15" s="49">
         <v>850</v>
       </c>
-      <c r="AH15" s="29">
+      <c r="AH15" s="49">
         <v>850</v>
       </c>
-      <c r="AI15" s="29">
+      <c r="AI15" s="49">
         <v>850</v>
       </c>
-      <c r="AJ15" s="29">
+      <c r="AJ15" s="49">
         <v>850</v>
       </c>
-      <c r="AK15" s="29">
+      <c r="AK15" s="49">
         <v>850</v>
       </c>
-      <c r="AL15" s="29">
+      <c r="AL15" s="49">
         <v>850</v>
       </c>
-      <c r="AM15" s="29">
+      <c r="AM15" s="49">
         <v>850</v>
       </c>
     </row>
@@ -3455,172 +3706,172 @@
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="23">
         <f>SUM(C10:C15)</f>
         <v>1741.5885000000001</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="23">
         <f>SUM(D10:D15)</f>
         <v>2715.6532999999999</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="23">
         <f>SUM(E10:E15)</f>
         <v>2488</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="23">
         <f>SUM(F10:F15)</f>
         <v>3328</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="23">
         <f>SUM(G10:G15)</f>
         <v>5089</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="23">
         <f>SUM(H10:H15)</f>
         <v>7056</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="23">
         <f>SUM(I10:I15)</f>
         <v>8832</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="23">
         <f>SUM(J10:J15)</f>
         <v>10325</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="23">
         <f>SUM(N10:N15)</f>
         <v>10325</v>
       </c>
-      <c r="O16" s="35">
+      <c r="O16" s="24">
         <f>SUM(O10:O15)</f>
         <v>12478.054</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="24">
         <f>SUM(P10:P15)</f>
         <v>14403.23812</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="48">
         <f>SUM(Q10:Q15)</f>
         <v>16654.811509599996</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="48">
         <f>SUM(R10:R15)</f>
         <v>19289.106972687998</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="48">
         <f>SUM(S10:S15)</f>
         <v>22372.307146095038</v>
       </c>
-      <c r="T16" s="28">
+      <c r="T16" s="48">
         <f>SUM(T10:T15)</f>
         <v>25982.182660914128</v>
       </c>
-      <c r="U16" s="28">
+      <c r="U16" s="48">
         <f>SUM(U10:U15)</f>
         <v>30210.13899582329</v>
       </c>
-      <c r="V16" s="28">
+      <c r="V16" s="48">
         <f>SUM(V10:V15)</f>
         <v>35163.627085729458</v>
       </c>
-      <c r="W16" s="28">
+      <c r="W16" s="48">
         <f>SUM(W10:W15)</f>
         <v>40968.982600297692</v>
       </c>
-      <c r="X16" s="28">
+      <c r="X16" s="48">
         <f>SUM(X10:X15)</f>
         <v>47774.770424184644</v>
       </c>
-      <c r="Y16" s="28">
+      <c r="Y16" s="48">
         <f>SUM(Y10:Y15)</f>
         <v>51522.09173987736</v>
       </c>
-      <c r="Z16" s="28">
+      <c r="Z16" s="48">
         <f>SUM(Z10:Z15)</f>
         <v>56343.262532967638</v>
       </c>
-      <c r="AA16" s="28">
+      <c r="AA16" s="48">
         <f>SUM(AA10:AA15)</f>
         <v>61629.620601816205</v>
       </c>
-      <c r="AB16" s="28">
+      <c r="AB16" s="48">
         <f>SUM(AB10:AB15)</f>
         <v>67426.786629766924</v>
       </c>
-      <c r="AC16" s="28">
+      <c r="AC16" s="48">
         <f>SUM(AC10:AC15)</f>
         <v>73784.937621087665</v>
       </c>
-      <c r="AD16" s="28">
+      <c r="AD16" s="48">
         <f>SUM(AD10:AD15)</f>
         <v>80759.271024984278</v>
       </c>
-      <c r="AE16" s="28">
+      <c r="AE16" s="48">
         <f>SUM(AE10:AE15)</f>
         <v>88410.517117391457</v>
       </c>
-      <c r="AF16" s="28">
+      <c r="AF16" s="48">
         <f>SUM(AF10:AF15)</f>
         <v>96805.504762134282</v>
       </c>
-      <c r="AG16" s="28">
+      <c r="AG16" s="48">
         <f>SUM(AG10:AG15)</f>
         <v>106017.78622740529</v>
       </c>
-      <c r="AH16" s="28">
+      <c r="AH16" s="48">
         <f>SUM(AH10:AH15)</f>
         <v>116128.32734895215</v>
       </c>
-      <c r="AI16" s="28">
+      <c r="AI16" s="48">
         <f>SUM(AI10:AI15)</f>
         <v>127226.27001476788</v>
       </c>
-      <c r="AJ16" s="28">
+      <c r="AJ16" s="48">
         <f>SUM(AJ10:AJ15)</f>
         <v>139409.77470503622</v>
       </c>
-      <c r="AK16" s="28">
+      <c r="AK16" s="48">
         <f>SUM(AK10:AK15)</f>
         <v>152786.95166410145</v>
       </c>
-      <c r="AL16" s="28">
+      <c r="AL16" s="48">
         <f>SUM(AL10:AL15)</f>
         <v>167476.89021775598</v>
       </c>
-      <c r="AM16" s="28">
+      <c r="AM16" s="48">
         <f>SUM(AM10:AM15)</f>
         <v>183610.79678970561</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="18">
+        <v>285</v>
+      </c>
+      <c r="C17" s="20">
         <v>0</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="20">
         <v>-7</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="20">
         <v>6</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="20">
         <v>1</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="20">
         <v>59</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="21">
         <v>289</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="21">
         <v>444</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="21">
         <v>444</v>
       </c>
       <c r="O17">
@@ -3629,105 +3880,105 @@
       <c r="P17" s="6">
         <v>200</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="49">
         <v>200</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="49">
         <v>200</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="49">
         <v>200</v>
       </c>
-      <c r="T17" s="29">
+      <c r="T17" s="49">
         <v>200</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="49">
         <v>200</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="49">
         <v>200</v>
       </c>
-      <c r="W17" s="29">
+      <c r="W17" s="49">
         <v>200</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="49">
         <v>200</v>
       </c>
-      <c r="Y17" s="29">
+      <c r="Y17" s="49">
         <v>200</v>
       </c>
-      <c r="Z17" s="29">
+      <c r="Z17" s="49">
         <v>200</v>
       </c>
-      <c r="AA17" s="29">
+      <c r="AA17" s="49">
         <v>200</v>
       </c>
-      <c r="AB17" s="29">
+      <c r="AB17" s="49">
         <v>200</v>
       </c>
-      <c r="AC17" s="29">
+      <c r="AC17" s="49">
         <v>200</v>
       </c>
-      <c r="AD17" s="29">
+      <c r="AD17" s="49">
         <v>200</v>
       </c>
-      <c r="AE17" s="29">
+      <c r="AE17" s="49">
         <v>200</v>
       </c>
-      <c r="AF17" s="29">
+      <c r="AF17" s="49">
         <v>200</v>
       </c>
-      <c r="AG17" s="29">
+      <c r="AG17" s="49">
         <v>200</v>
       </c>
-      <c r="AH17" s="29">
+      <c r="AH17" s="49">
         <v>200</v>
       </c>
-      <c r="AI17" s="29">
+      <c r="AI17" s="49">
         <v>200</v>
       </c>
-      <c r="AJ17" s="29">
+      <c r="AJ17" s="49">
         <v>200</v>
       </c>
-      <c r="AK17" s="29">
+      <c r="AK17" s="49">
         <v>200</v>
       </c>
-      <c r="AL17" s="29">
+      <c r="AL17" s="49">
         <v>200</v>
       </c>
-      <c r="AM17" s="29">
+      <c r="AM17" s="49">
         <v>200</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="18">
+        <v>286</v>
+      </c>
+      <c r="C18" s="20">
         <v>0</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="20">
         <v>0</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="20">
         <v>-191</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="20">
         <v>-84</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="20">
         <v>64</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="20">
         <v>-194</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="21">
         <v>-246</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="21">
         <v>-326</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="21">
         <v>-326</v>
       </c>
       <c r="O18">
@@ -3736,216 +3987,216 @@
       <c r="P18" s="6">
         <v>0</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="49">
         <v>0</v>
       </c>
-      <c r="R18" s="29">
+      <c r="R18" s="49">
         <v>0</v>
       </c>
-      <c r="S18" s="29">
+      <c r="S18" s="49">
         <v>0</v>
       </c>
-      <c r="T18" s="29">
+      <c r="T18" s="49">
         <v>0</v>
       </c>
-      <c r="U18" s="29">
+      <c r="U18" s="49">
         <v>0</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="49">
         <v>0</v>
       </c>
-      <c r="W18" s="29">
+      <c r="W18" s="49">
         <v>0</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="49">
         <v>0</v>
       </c>
-      <c r="Y18" s="29">
+      <c r="Y18" s="49">
         <v>0</v>
       </c>
-      <c r="Z18" s="29">
+      <c r="Z18" s="49">
         <v>0</v>
       </c>
-      <c r="AA18" s="29">
+      <c r="AA18" s="49">
         <v>0</v>
       </c>
-      <c r="AB18" s="29">
+      <c r="AB18" s="49">
         <v>0</v>
       </c>
-      <c r="AC18" s="29">
+      <c r="AC18" s="49">
         <v>0</v>
       </c>
-      <c r="AD18" s="29">
+      <c r="AD18" s="49">
         <v>0</v>
       </c>
-      <c r="AE18" s="29">
+      <c r="AE18" s="49">
         <v>0</v>
       </c>
-      <c r="AF18" s="29">
+      <c r="AF18" s="49">
         <v>0</v>
       </c>
-      <c r="AG18" s="29">
+      <c r="AG18" s="49">
         <v>0</v>
       </c>
-      <c r="AH18" s="29">
+      <c r="AH18" s="49">
         <v>0</v>
       </c>
-      <c r="AI18" s="29">
+      <c r="AI18" s="49">
         <v>0</v>
       </c>
-      <c r="AJ18" s="29">
+      <c r="AJ18" s="49">
         <v>0</v>
       </c>
-      <c r="AK18" s="29">
+      <c r="AK18" s="49">
         <v>0</v>
       </c>
-      <c r="AL18" s="29">
+      <c r="AL18" s="49">
         <v>0</v>
       </c>
-      <c r="AM18" s="29">
+      <c r="AM18" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="23">
         <f>C5-C16+C17+C18</f>
         <v>-210.17889999999989</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="23">
         <f>D5-D16+D17+D18</f>
         <v>-584.6552999999999</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="23">
         <f>E5-E16+E17+E18</f>
         <v>-57</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="23">
         <f>F5-F16+F17+F18</f>
         <v>193</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="23">
         <f>G5-G16+G17+G18</f>
         <v>553</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="23">
         <f>H5-H16+H17+H18</f>
         <v>1426</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="23">
         <f>I5-I16+I17+I18</f>
         <v>1671</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="23">
         <f>J5-J16+J17+J18</f>
         <v>2215</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="23">
         <f>N5-N16+N17+N18</f>
         <v>2215</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="23">
         <f>O5-O16+O17+O18</f>
         <v>2379.905999999999</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="23">
         <f>P5-P16+P17+P18</f>
         <v>3093.1546799999978</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="54">
         <f>Q5-Q16+Q17+Q18</f>
         <v>3954.9319943999981</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="54">
         <f>R5-R16+R17+R18</f>
         <v>4994.3903620319943</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="54">
         <f>S5-S16+S17+S18</f>
         <v>6246.2197088745525</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="54">
         <f>T5-T16+T17+T18</f>
         <v>7751.6790279499837</v>
       </c>
-      <c r="U19" s="36">
+      <c r="U19" s="54">
         <f>U5-U16+U17+U18</f>
         <v>9559.8177970363613</v>
       </c>
-      <c r="V19" s="36">
+      <c r="V19" s="54">
         <f>V5-V16+V17+V18</f>
         <v>11728.921929844932</v>
       </c>
-      <c r="W19" s="36">
+      <c r="W19" s="54">
         <f>W5-W16+W17+W18</f>
         <v>14328.225238080086</v>
       </c>
-      <c r="X19" s="36">
+      <c r="X19" s="54">
         <f>X5-X16+X17+X18</f>
         <v>17439.934825101132</v>
       </c>
-      <c r="Y19" s="36">
+      <c r="Y19" s="54">
         <f>Y5-Y16+Y17+Y18</f>
         <v>19543.936981844148</v>
       </c>
-      <c r="Z19" s="36">
+      <c r="Z19" s="54">
         <f>Z5-Z16+Z17+Z18</f>
         <v>21100.708773708815</v>
       </c>
-      <c r="AA19" s="36">
+      <c r="AA19" s="54">
         <f>AA5-AA16+AA17+AA18</f>
         <v>22766.308122461138</v>
       </c>
-      <c r="AB19" s="36">
+      <c r="AB19" s="54">
         <f>AB5-AB16+AB17+AB18</f>
         <v>24546.775679695391</v>
       </c>
-      <c r="AC19" s="36">
+      <c r="AC19" s="54">
         <f>AC5-AC16+AC17+AC18</f>
         <v>26448.245296226261</v>
       </c>
-      <c r="AD19" s="36">
+      <c r="AD19" s="54">
         <f>AD5-AD16+AD17+AD18</f>
         <v>28476.898354887904</v>
       </c>
-      <c r="AE19" s="36">
+      <c r="AE19" s="54">
         <f>AE5-AE16+AE17+AE18</f>
         <v>30638.907506669231</v>
       </c>
-      <c r="AF19" s="36">
+      <c r="AF19" s="54">
         <f>AF5-AF16+AF17+AF18</f>
         <v>32940.36807809188</v>
       </c>
-      <c r="AG19" s="36">
+      <c r="AG19" s="54">
         <f>AG5-AG16+AG17+AG18</f>
         <v>35387.215168441224</v>
       </c>
-      <c r="AH19" s="36">
+      <c r="AH19" s="54">
         <f>AH5-AH16+AH17+AH18</f>
         <v>37985.124172520562</v>
       </c>
-      <c r="AI19" s="36">
+      <c r="AI19" s="54">
         <f>AI5-AI16+AI17+AI18</f>
         <v>40739.392143637378</v>
       </c>
-      <c r="AJ19" s="36">
+      <c r="AJ19" s="54">
         <f>AJ5-AJ16+AJ17+AJ18</f>
         <v>43654.797047625529</v>
       </c>
-      <c r="AK19" s="36">
+      <c r="AK19" s="54">
         <f>AK5-AK16+AK17+AK18</f>
         <v>46735.431546299864</v>
       </c>
-      <c r="AL19" s="36">
+      <c r="AL19" s="54">
         <f>AL5-AL16+AL17+AL18</f>
         <v>49984.507481581473</v>
       </c>
-      <c r="AM19" s="36">
+      <c r="AM19" s="54">
         <f>AM5-AM16+AM17+AM18</f>
         <v>53404.126702572219</v>
       </c>
@@ -3954,130 +4205,130 @@
       <c r="B20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="20">
         <v>72.696899999999999</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="20">
         <v>113.1631</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="20">
         <v>-11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="20">
         <v>-11</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="20">
         <v>-64</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="21">
         <v>-453</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="21">
         <v>-411</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="21">
         <v>-214</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="21">
         <v>-214</v>
       </c>
       <c r="O20">
         <f>-1*$M$32*O19</f>
         <v>-333.1868399999999</v>
       </c>
-      <c r="P20" s="34">
+      <c r="P20" s="38">
         <f>-1*$M$32*P19</f>
         <v>-433.04165519999975</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="49">
         <f>-1*$M$32*Q19</f>
         <v>-553.69047921599974</v>
       </c>
-      <c r="R20" s="29">
+      <c r="R20" s="49">
         <f>-1*$M$32*R19</f>
         <v>-699.21465068447924</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="49">
         <f>-1*$M$32*S19</f>
         <v>-874.47075924243745</v>
       </c>
-      <c r="T20" s="29">
+      <c r="T20" s="49">
         <f>-1*$M$32*T19</f>
         <v>-1085.2350639129979</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="49">
         <f>-1*$M$32*U19</f>
         <v>-1338.3744915850907</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20" s="49">
         <f>-1*$M$32*V19</f>
         <v>-1642.0490701782905</v>
       </c>
-      <c r="W20" s="29">
+      <c r="W20" s="49">
         <f>-1*$M$32*W19</f>
         <v>-2005.9515333312122</v>
       </c>
-      <c r="X20" s="29">
+      <c r="X20" s="49">
         <f>-1*$M$32*X19</f>
         <v>-2441.5908755141586</v>
       </c>
-      <c r="Y20" s="29">
+      <c r="Y20" s="49">
         <f>-1*$N$32*Y19</f>
         <v>-2736.1511774581809</v>
       </c>
-      <c r="Z20" s="29">
+      <c r="Z20" s="49">
         <f>-1*$N$32*Z19</f>
         <v>-2954.0992283192345</v>
       </c>
-      <c r="AA20" s="29">
+      <c r="AA20" s="49">
         <f>-1*$N$32*AA19</f>
         <v>-3187.2831371445595</v>
       </c>
-      <c r="AB20" s="29">
+      <c r="AB20" s="49">
         <f>-1*$N$32*AB19</f>
         <v>-3436.5485951573551</v>
       </c>
-      <c r="AC20" s="29">
+      <c r="AC20" s="49">
         <f>-1*$N$32*AC19</f>
         <v>-3702.754341471677</v>
       </c>
-      <c r="AD20" s="29">
+      <c r="AD20" s="49">
         <f>-1*$N$32*AD19</f>
         <v>-3986.7657696843071</v>
       </c>
-      <c r="AE20" s="29">
+      <c r="AE20" s="49">
         <f>-1*$N$32*AE19</f>
         <v>-4289.4470509336925</v>
       </c>
-      <c r="AF20" s="29">
+      <c r="AF20" s="49">
         <f>-1*$N$32*AF19</f>
         <v>-4611.6515309328634</v>
       </c>
-      <c r="AG20" s="29">
+      <c r="AG20" s="49">
         <f>-1*$N$32*AG19</f>
         <v>-4954.2101235817718</v>
       </c>
-      <c r="AH20" s="29">
+      <c r="AH20" s="49">
         <f>-1*$N$32*AH19</f>
         <v>-5317.9173841528791</v>
       </c>
-      <c r="AI20" s="29">
+      <c r="AI20" s="49">
         <f>-1*$N$32*AI19</f>
         <v>-5703.5149001092332</v>
       </c>
-      <c r="AJ20" s="29">
+      <c r="AJ20" s="49">
         <f>-1*$N$32*AJ19</f>
         <v>-6111.671586667575</v>
       </c>
-      <c r="AK20" s="29">
+      <c r="AK20" s="49">
         <f>-1*$N$32*AK19</f>
         <v>-6542.9604164819812</v>
       </c>
-      <c r="AL20" s="29">
+      <c r="AL20" s="49">
         <f>-1*$N$32*AL19</f>
         <v>-6997.8310474214068</v>
       </c>
-      <c r="AM20" s="29">
+      <c r="AM20" s="49">
         <f>-1*$N$32*AM19</f>
         <v>-7476.5777383601117</v>
       </c>
@@ -4086,354 +4337,354 @@
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="23">
         <f>C19+C20</f>
         <v>-137.48199999999989</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="23">
         <f>D19+D20</f>
         <v>-471.49219999999991</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="23">
         <f>E19+E20</f>
         <v>-68</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="23">
         <f>F19+F20</f>
         <v>182</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="23">
         <f>G19+G20</f>
         <v>489</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="23">
         <f>H19+H20</f>
         <v>973</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="23">
         <f>I19+I20</f>
         <v>1260</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="23">
         <f>J19+J20</f>
         <v>2001</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="23">
         <f>N19+N20</f>
         <v>2001</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="55">
         <f>O19+O20</f>
         <v>2046.7191599999992</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="55">
         <f>P19+P20</f>
         <v>2660.1130247999981</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="48">
         <f>Q19+Q20</f>
         <v>3401.2415151839982</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="48">
         <f>R19+R20</f>
         <v>4295.1757113475151</v>
       </c>
-      <c r="S21" s="28">
+      <c r="S21" s="48">
         <f>S19+S20</f>
         <v>5371.748949632115</v>
       </c>
-      <c r="T21" s="28">
+      <c r="T21" s="48">
         <f>T19+T20</f>
         <v>6666.4439640369856</v>
       </c>
-      <c r="U21" s="28">
+      <c r="U21" s="48">
         <f>U19+U20</f>
         <v>8221.4433054512701</v>
       </c>
-      <c r="V21" s="28">
+      <c r="V21" s="48">
         <f>V19+V20</f>
         <v>10086.872859666641</v>
       </c>
-      <c r="W21" s="28">
+      <c r="W21" s="48">
         <f>W19+W20</f>
         <v>12322.273704748874</v>
       </c>
-      <c r="X21" s="28">
+      <c r="X21" s="48">
         <f>X19+X20</f>
         <v>14998.343949586973</v>
       </c>
-      <c r="Y21" s="28">
+      <c r="Y21" s="48">
         <f>Y19+Y20</f>
         <v>16807.785804385967</v>
       </c>
-      <c r="Z21" s="28">
+      <c r="Z21" s="48">
         <f>Z19+Z20</f>
         <v>18146.60954538958</v>
       </c>
-      <c r="AA21" s="28">
+      <c r="AA21" s="48">
         <f>AA19+AA20</f>
         <v>19579.024985316577</v>
       </c>
-      <c r="AB21" s="28">
+      <c r="AB21" s="48">
         <f>AB19+AB20</f>
         <v>21110.227084538037</v>
       </c>
-      <c r="AC21" s="28">
+      <c r="AC21" s="48">
         <f>AC19+AC20</f>
         <v>22745.490954754583</v>
       </c>
-      <c r="AD21" s="28">
+      <c r="AD21" s="48">
         <f>AD19+AD20</f>
         <v>24490.132585203595</v>
       </c>
-      <c r="AE21" s="28">
+      <c r="AE21" s="48">
         <f>AE19+AE20</f>
         <v>26349.460455735538</v>
       </c>
-      <c r="AF21" s="28">
+      <c r="AF21" s="48">
         <f>AF19+AF20</f>
         <v>28328.716547159016</v>
       </c>
-      <c r="AG21" s="28">
+      <c r="AG21" s="48">
         <f>AG19+AG20</f>
         <v>30433.005044859452</v>
       </c>
-      <c r="AH21" s="28">
+      <c r="AH21" s="48">
         <f>AH19+AH20</f>
         <v>32667.206788367683</v>
       </c>
-      <c r="AI21" s="28">
+      <c r="AI21" s="48">
         <f>AI19+AI20</f>
         <v>35035.877243528143</v>
       </c>
-      <c r="AJ21" s="28">
+      <c r="AJ21" s="48">
         <f>AJ19+AJ20</f>
         <v>37543.125460957956</v>
       </c>
-      <c r="AK21" s="28">
+      <c r="AK21" s="48">
         <f>AK19+AK20</f>
         <v>40192.471129817881</v>
       </c>
-      <c r="AL21" s="28">
+      <c r="AL21" s="48">
         <f>AL19+AL20</f>
         <v>42986.676434160065</v>
       </c>
-      <c r="AM21" s="28">
+      <c r="AM21" s="48">
         <f>AM19+AM20</f>
         <v>45927.54896421211</v>
       </c>
-      <c r="AN21" s="35">
+      <c r="AN21" s="24">
         <f>AM21*(1+$Z$25)</f>
         <v>46386.824453854235</v>
       </c>
-      <c r="AO21" s="35">
+      <c r="AO21" s="24">
         <f>AN21*(1+$Z$25)</f>
         <v>46850.692698392777</v>
       </c>
-      <c r="AP21" s="35">
+      <c r="AP21" s="24">
         <f>AO21*(1+$Z$25)</f>
         <v>47319.199625376707</v>
       </c>
-      <c r="AQ21" s="35">
+      <c r="AQ21" s="24">
         <f>AP21*(1+$Z$25)</f>
         <v>47792.391621630471</v>
       </c>
-      <c r="AR21" s="35">
+      <c r="AR21" s="24">
         <f>AQ21*(1+$Z$25)</f>
         <v>48270.315537846778</v>
       </c>
-      <c r="AS21" s="35">
+      <c r="AS21" s="24">
         <f>AR21*(1+$Z$25)</f>
         <v>48753.018693225247</v>
       </c>
-      <c r="AT21" s="35">
+      <c r="AT21" s="24">
         <f>AS21*(1+$Z$25)</f>
         <v>49240.548880157497</v>
       </c>
-      <c r="AU21" s="35">
+      <c r="AU21" s="24">
         <f>AT21*(1+$Z$25)</f>
         <v>49732.954368959072</v>
       </c>
-      <c r="AV21" s="35">
+      <c r="AV21" s="24">
         <f>AU21*(1+$Z$25)</f>
         <v>50230.283912648665</v>
       </c>
-      <c r="AW21" s="35">
+      <c r="AW21" s="24">
         <f>AV21*(1+$Z$25)</f>
         <v>50732.586751775154</v>
       </c>
-      <c r="AX21" s="35">
+      <c r="AX21" s="24">
         <f>AW21*(1+$Z$25)</f>
         <v>51239.912619292903</v>
       </c>
-      <c r="AY21" s="35">
+      <c r="AY21" s="24">
         <f>AX21*(1+$Z$25)</f>
         <v>51752.311745485829</v>
       </c>
-      <c r="AZ21" s="35">
+      <c r="AZ21" s="24">
         <f>AY21*(1+$Z$25)</f>
         <v>52269.83486294069</v>
       </c>
-      <c r="BA21" s="35">
+      <c r="BA21" s="24">
         <f>AZ21*(1+$Z$25)</f>
         <v>52792.533211570095</v>
       </c>
-      <c r="BB21" s="35">
+      <c r="BB21" s="24">
         <f>BA21*(1+$Z$25)</f>
         <v>53320.458543685796</v>
       </c>
-      <c r="BC21" s="35">
+      <c r="BC21" s="24">
         <f>BB21*(1+$Z$25)</f>
         <v>53853.663129122651</v>
       </c>
-      <c r="BD21" s="35">
+      <c r="BD21" s="24">
         <f>BC21*(1+$Z$25)</f>
         <v>54392.199760413881</v>
       </c>
-      <c r="BE21" s="35">
+      <c r="BE21" s="24">
         <f>BD21*(1+$Z$25)</f>
         <v>54936.121758018024</v>
       </c>
-      <c r="BF21" s="35">
+      <c r="BF21" s="24">
         <f>BE21*(1+$Z$25)</f>
         <v>55485.482975598206</v>
       </c>
-      <c r="BG21" s="35">
+      <c r="BG21" s="24">
         <f>BF21*(1+$Z$25)</f>
         <v>56040.337805354189</v>
       </c>
-      <c r="BH21" s="35">
+      <c r="BH21" s="24">
         <f>BG21*(1+$Z$25)</f>
         <v>56600.741183407728</v>
       </c>
-      <c r="BI21" s="35">
+      <c r="BI21" s="24">
         <f>BH21*(1+$Z$25)</f>
         <v>57166.748595241806</v>
       </c>
-      <c r="BJ21" s="35">
+      <c r="BJ21" s="24">
         <f>BI21*(1+$Z$25)</f>
         <v>57738.416081194227</v>
       </c>
-      <c r="BK21" s="35">
+      <c r="BK21" s="24">
         <f>BJ21*(1+$Z$25)</f>
         <v>58315.800242006168</v>
       </c>
-      <c r="BL21" s="35">
+      <c r="BL21" s="24">
         <f>BK21*(1+$Z$25)</f>
         <v>58898.958244426227</v>
       </c>
-      <c r="BM21" s="35">
+      <c r="BM21" s="24">
         <f>BL21*(1+$Z$25)</f>
         <v>59487.947826870492</v>
       </c>
-      <c r="BN21" s="35">
+      <c r="BN21" s="24">
         <f>BM21*(1+$Z$25)</f>
         <v>60082.827305139195</v>
       </c>
-      <c r="BO21" s="35">
+      <c r="BO21" s="24">
         <f>BN21*(1+$Z$25)</f>
         <v>60683.655578190584</v>
       </c>
-      <c r="BP21" s="35">
+      <c r="BP21" s="24">
         <f>BO21*(1+$Z$25)</f>
         <v>61290.49213397249</v>
       </c>
-      <c r="BQ21" s="35">
+      <c r="BQ21" s="24">
         <f>BP21*(1+$Z$25)</f>
         <v>61903.397055312213</v>
       </c>
-      <c r="BR21" s="35">
+      <c r="BR21" s="24">
         <f>BQ21*(1+$Z$25)</f>
         <v>62522.431025865335</v>
       </c>
-      <c r="BS21" s="35">
+      <c r="BS21" s="24">
         <f>BR21*(1+$Z$25)</f>
         <v>63147.655336123986</v>
       </c>
-      <c r="BT21" s="35">
+      <c r="BT21" s="24">
         <f>BS21*(1+$Z$25)</f>
         <v>63779.131889485223</v>
       </c>
-      <c r="BU21" s="35">
+      <c r="BU21" s="24">
         <f>BT21*(1+$Z$25)</f>
         <v>64416.923208380074</v>
       </c>
-      <c r="BV21" s="35">
+      <c r="BV21" s="24">
         <f>BU21*(1+$Z$25)</f>
         <v>65061.092440463879</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+        <v>288</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" ht="14.25">
       <c r="B24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="18">
+        <v>289</v>
+      </c>
+      <c r="C24" s="20">
         <v>-0.88</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="20">
         <v>-3.5699999999999998</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="20">
         <v>0.68000000000000005</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="20">
         <v>0.68000000000000005</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="20">
         <v>2.4100000000000001</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="20">
         <v>5.4100000000000001</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="21">
         <v>6.21</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="21">
         <v>8.3699999999999992</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="J25" s="6"/>
       <c r="K25" s="1" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z25" s="39">
+        <v>190</v>
+      </c>
+      <c r="Z25" s="31">
         <v>0.01</v>
       </c>
     </row>
@@ -4441,48 +4692,48 @@
       <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="33">
         <f>C3-C10</f>
         <v>1389.7412000000002</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="33">
         <f>D3-D10</f>
         <v>1927.8471999999999</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="33">
         <f>E3-E10</f>
         <v>2087</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="33">
         <f>F3-F10</f>
         <v>2596</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="33">
         <f>G3-G10</f>
         <v>3847</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="33">
         <f>H3-H10</f>
         <v>6028</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="33">
         <f>I3-I10</f>
         <v>8033</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="33">
         <f>J3-J10</f>
         <v>9772</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z26" s="39">
-        <v>0.10000000000000001</v>
+        <v>293</v>
+      </c>
+      <c r="Z26" s="31">
+        <v>0.11</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="B27" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="C27" s="9">
         <f>C26/C3</f>
@@ -4516,33 +4767,33 @@
         <f>J26/J3</f>
         <v>0.87156617909382805</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="36">
         <f>AVERAGE(C27:J27)</f>
         <v>0.8491041657345122</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="36">
         <f>MEDIAN(C27:J27)</f>
         <v>0.85112202499159817</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="31">
         <v>0.84999999999999998</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="31">
         <v>0.85999999999999999</v>
       </c>
       <c r="Y27" t="s">
-        <v>266</v>
-      </c>
-      <c r="Z27" s="42">
+        <v>195</v>
+      </c>
+      <c r="Z27" s="30">
         <f>NPV(Z26,O21:BV21)</f>
-        <v>158008.34369682599</v>
+        <v>132495.56975781417</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" s="44"/>
+      <c r="B28" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="37"/>
       <c r="D28" s="9">
         <f>D5/C5-1</f>
         <v>0.3915271263808191</v>
@@ -4571,22 +4822,22 @@
         <f>J5/I5-1</f>
         <v>0.18757170172084137</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="36">
         <f>AVERAGE(C28:J28)</f>
         <v>0.35576103580004376</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="36">
         <f>MEDIAN(C28:J28)</f>
         <v>0.36896158235070375</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M28" s="36">
         <v>0.17999999999999999</v>
       </c>
-      <c r="N28" s="39">
+      <c r="N28" s="31">
         <v>0.089999999999999997</v>
       </c>
       <c r="Y28" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="Z28" s="1">
         <v>951</v>
@@ -4594,52 +4845,52 @@
     </row>
     <row r="29" ht="14.25">
       <c r="B29" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="40">
+        <v>198</v>
+      </c>
+      <c r="D29" s="33">
         <f>D12/C12-1</f>
         <v>0.36642170899211535</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="33">
         <f>E12/D12-1</f>
         <v>0.79381218618764615</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="33">
         <f>F12/E12-1</f>
         <v>-0.64485981308411211</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="33">
         <f>G12/F12-1</f>
         <v>-0.10526315789473684</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="33">
         <f>H12/G12-1</f>
         <v>0.17647058823529416</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="33">
         <f>I12/H12-1</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="33">
         <f>J12/I12-1</f>
         <v>0.66233766233766245</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="36">
         <f>AVERAGE(C29:J29)</f>
         <v>0.31055988211055274</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="36">
         <f>MEDIAN(C29:J29)</f>
         <v>0.36642170899211535</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="31">
         <v>0.17999999999999999</v>
       </c>
-      <c r="N29" s="39">
+      <c r="N29" s="31">
         <v>0.089999999999999997</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Z29">
         <v>1684931507</v>
@@ -4647,7 +4898,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="B30" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C30" s="9">
         <f>C13/C6</f>
@@ -4681,31 +4932,31 @@
         <f>J13/J6</f>
         <v>0.51298337380907899</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="36">
         <f>AVERAGE(C30:J30)</f>
         <v>0.6302503286623351</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="36">
         <f>MEDIAN(C30:J30)</f>
         <v>0.52091085830990091</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="31">
         <v>0.52000000000000002</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="31">
         <v>0.25</v>
       </c>
       <c r="Y30" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z30" s="35">
+        <v>299</v>
+      </c>
+      <c r="Z30" s="24">
         <f>Z27*10000000/Z29</f>
-        <v>937.77309665339408</v>
+        <v>786.35582044353191</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="B31" s="43" t="s">
-        <v>273</v>
+      <c r="B31" s="56" t="s">
+        <v>200</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9">
@@ -4736,35 +4987,34 @@
         <f>J14/I14-1</f>
         <v>0.31266421439831849</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="36">
         <f>AVERAGE(C31:J31)</f>
         <v>0.37356074642835807</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="36">
         <f>MEDIAN(C31:J31)</f>
         <v>0.4638461538461538</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="31">
         <v>0.12</v>
       </c>
-      <c r="N31" s="39">
-        <f>M31</f>
+      <c r="N31" s="31">
         <v>0.12</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" t="s">
-        <v>274</v>
-      </c>
-      <c r="C32" s="40">
+        <v>300</v>
+      </c>
+      <c r="C32" s="33">
         <f>MAX(0,C19/C20)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="33">
         <f>MAX(0,D19/D20)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="33">
         <v>0</v>
       </c>
       <c r="F32" s="9">
@@ -4787,24 +5037,24 @@
         <f>J20/J19*-1</f>
         <v>0.096613995485327314</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="36">
         <f>AVERAGE(F32:J32)</f>
         <v>0.16659469899695262</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="36">
         <f>MEDIAN(F32:J32)</f>
         <v>0.11573236889692586</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="31">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="41">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C33">
         <f>C47/C40</f>
@@ -4838,18 +5088,18 @@
         <f>J47/J40</f>
         <v>6.4323144104803491</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
     </row>
     <row r="34" ht="14.25"/>
     <row r="36" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="C37" s="6">
         <v>1564.01</v>
@@ -4863,10 +5113,10 @@
       <c r="F37">
         <v>1564</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="57">
         <v>1564</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="57">
         <v>1584</v>
       </c>
       <c r="I37">
@@ -4878,7 +5128,7 @@
     </row>
     <row r="38" ht="14.25">
       <c r="B38" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -4892,10 +5142,10 @@
       <c r="F38">
         <v>1339</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="57">
         <v>1424</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="57">
         <v>1424</v>
       </c>
       <c r="I38">
@@ -4907,7 +5157,7 @@
     </row>
     <row r="39" ht="14.25">
       <c r="B39" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C39" s="6">
         <v>-222.59999999999999</v>
@@ -4921,10 +5171,10 @@
       <c r="F39">
         <v>-703</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="57">
         <v>-374</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="57">
         <v>4296</v>
       </c>
       <c r="I39">
@@ -4936,83 +5186,83 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="14.25">
       <c r="B40" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="47">
+        <v>306</v>
+      </c>
+      <c r="C40" s="58">
         <f>SUM(C37:C39)</f>
         <v>1341.4100000000001</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="58">
         <f>SUM(D37:D39)</f>
         <v>1933.346</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="58">
         <f>SUM(E37:E39)</f>
         <v>2356</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="58">
         <f>SUM(F37:F39)</f>
         <v>2200</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="58">
         <f>SUM(G37:G39)</f>
         <v>2614</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="58">
         <f>SUM(H37:H39)</f>
         <v>7304</v>
       </c>
-      <c r="I40" s="47">
+      <c r="I40" s="58">
         <f>SUM(I37:I39)</f>
         <v>9834</v>
       </c>
-      <c r="J40" s="47">
+      <c r="J40" s="58">
         <f>SUM(J37:J39)</f>
         <v>12137</v>
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
+        <v>307</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s">
-        <v>283</v>
-      </c>
-      <c r="C43" s="46">
+        <v>309</v>
+      </c>
+      <c r="C43" s="57">
         <v>0</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="57">
         <v>0</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="57">
         <v>0</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="57">
         <v>4013</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="57">
         <v>4013</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="57">
         <v>4013</v>
       </c>
       <c r="I43">
@@ -5021,24 +5271,24 @@
     </row>
     <row r="44" ht="14.25">
       <c r="B44" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="46">
+        <v>310</v>
+      </c>
+      <c r="C44" s="57">
         <v>8373.0499999999993</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="57">
         <v>9948.1100000000006</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="57">
         <v>12610</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="57">
         <v>15733</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="57">
         <v>38704</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="57">
         <v>44619</v>
       </c>
       <c r="I44">
@@ -5050,24 +5300,24 @@
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C45" s="46">
+        <v>311</v>
+      </c>
+      <c r="C45" s="57">
         <v>1351.3099999999999</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="57">
         <v>742.22000000000003</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="57">
         <v>1115</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="57">
         <v>3693</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="57">
         <v>9471</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="57">
         <v>4215</v>
       </c>
       <c r="I45">
@@ -5078,46 +5328,46 @@
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C47" s="47">
+        <v>312</v>
+      </c>
+      <c r="C47" s="58">
         <f>SUM(C43:C45)</f>
         <v>9724.3599999999988</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="58">
         <f>SUM(D43:D45)</f>
         <v>10690.33</v>
       </c>
-      <c r="E47" s="47">
+      <c r="E47" s="58">
         <f>SUM(E43:E45)</f>
         <v>13725</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="58">
         <f>SUM(F43:F45)</f>
         <v>23439</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="58">
         <f>SUM(G43:G45)</f>
         <v>52188</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="58">
         <f>SUM(H43:H45)</f>
         <v>52847</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="58">
         <f>SUM(I43:I45)</f>
         <v>63060</v>
       </c>
-      <c r="J47" s="47">
+      <c r="J47" s="58">
         <f>SUM(J43:J45)</f>
         <v>78069</v>
       </c>
@@ -5125,7 +5375,7 @@
     <row r="48" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="1" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -5158,7 +5408,7 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -5166,15 +5416,15 @@
         <v>2024</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6736,7 +6986,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="16384" width="15.7109375"/>
+    <col customWidth="1" min="1" max="2" width="15.7109375"/>
+    <col customWidth="1" min="3" max="19" width="15.7109375"/>
+    <col customWidth="1" min="20" max="16384" width="15.7109375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -6746,310 +6998,2639 @@
       <c r="B1" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="V1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.25">
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
+        <f>S2-1</f>
+        <v>2017</v>
+      </c>
+      <c r="S2" s="1">
+        <f>T2-1</f>
+        <v>2018</v>
+      </c>
+      <c r="T2" s="1">
         <v>2019</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2+1</f>
+      <c r="U2" s="1">
+        <f>T2+1</f>
         <v>2020</v>
       </c>
-      <c r="E2" s="1">
-        <f>D2+1</f>
+      <c r="V2" s="1">
+        <f>U2+1</f>
         <v>2021</v>
       </c>
-      <c r="F2" s="1">
-        <f>E2+1</f>
+      <c r="W2" s="1">
+        <f>V2+1</f>
         <v>2022</v>
       </c>
-      <c r="G2" s="1">
-        <f>F2+1</f>
+      <c r="X2" s="1">
+        <f>W2+1</f>
         <v>2023</v>
       </c>
-      <c r="H2" s="1">
-        <f>G2+1</f>
+      <c r="Y2" s="1">
+        <f>X2+1</f>
         <v>2024</v>
       </c>
-      <c r="I2" s="1">
-        <f>H2+1</f>
+      <c r="Z2" s="1">
+        <f>Y2+1</f>
         <v>2025</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1">
+        <v>2025</v>
+      </c>
+      <c r="AE2" s="1">
+        <f>AD2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AF2" s="1">
+        <f>AE2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AG2" s="1">
+        <f>AF2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AH2" s="1">
+        <f>AG2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AI2" s="1">
+        <f>AH2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f>AI2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AK2" s="1">
+        <f>AJ2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>AK2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="AM2" s="1">
+        <f>AL2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="AN2" s="1">
+        <f>AM2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="AO2" s="1"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="18">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18">
+        <v>27587.59</v>
+      </c>
+      <c r="S3" s="18">
+        <v>29331.220000000001</v>
+      </c>
+      <c r="T3" s="20">
+        <v>29881.060000000001</v>
+      </c>
+      <c r="U3" s="20">
+        <v>29136.369999999999</v>
+      </c>
+      <c r="V3" s="20">
+        <v>32703.310000000001</v>
+      </c>
+      <c r="W3" s="20">
+        <v>42815.669999999998</v>
+      </c>
+      <c r="X3" s="20">
         <v>55109.080000000002</v>
       </c>
-      <c r="H3" s="19">
+      <c r="Y3" s="21">
         <v>61448.900000000001</v>
+      </c>
+      <c r="Z3" s="21">
+        <v>65478.239999999998</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>65478.239999999998</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="18">
+        <v>172</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18">
+        <v>585.89999999999998</v>
+      </c>
+      <c r="S4" s="18">
+        <v>432.69</v>
+      </c>
+      <c r="T4" s="20">
+        <v>386.14999999999998</v>
+      </c>
+      <c r="U4" s="20">
+        <v>562.61000000000001</v>
+      </c>
+      <c r="V4" s="20">
+        <v>439.24000000000001</v>
+      </c>
+      <c r="W4" s="20">
+        <v>919.96000000000004</v>
+      </c>
+      <c r="X4" s="20">
         <v>1438.02</v>
       </c>
-      <c r="H4" s="19">
+      <c r="Y4" s="21">
         <v>1823.4200000000001</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>1513.9300000000001</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>1513.9300000000001</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25">
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="20">
-        <f>SUM(G3:G4)</f>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="23">
+        <f>SUM(R3:R4)</f>
+        <v>28173.490000000002</v>
+      </c>
+      <c r="S5" s="23">
+        <f>SUM(S3:S4)</f>
+        <v>29763.91</v>
+      </c>
+      <c r="T5" s="23">
+        <f>SUM(T3:T4)</f>
+        <v>30267.210000000003</v>
+      </c>
+      <c r="U5" s="23">
+        <f>SUM(U3:U4)</f>
+        <v>29698.98</v>
+      </c>
+      <c r="V5" s="23">
+        <f>SUM(V3:V4)</f>
+        <v>33142.550000000003</v>
+      </c>
+      <c r="W5" s="23">
+        <f>SUM(W3:W4)</f>
+        <v>43735.629999999997</v>
+      </c>
+      <c r="X5" s="23">
+        <f>SUM(X3:X4)</f>
         <v>56547.099999999999</v>
       </c>
-      <c r="H5" s="20">
-        <f>SUM(H3:H4)</f>
+      <c r="Y5" s="23">
+        <f>SUM(Y3:Y4)</f>
         <v>63272.32</v>
       </c>
+      <c r="Z5" s="23">
+        <f>SUM(Z3:Z4)</f>
+        <v>66992.169999999998</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="23">
+        <f>SUM(AD3:AD4)</f>
+        <v>66992.169999999998</v>
+      </c>
+      <c r="AE5" s="24">
+        <f>AD5*(1+$AC$30)</f>
+        <v>73155.449640000006</v>
+      </c>
+      <c r="AF5" s="24">
+        <f>AE5*(1+$AC$30)</f>
+        <v>79885.751006880018</v>
+      </c>
+      <c r="AG5" s="24">
+        <f>AF5*(1+$AC$30)</f>
+        <v>87235.240099512986</v>
+      </c>
+      <c r="AH5" s="24">
+        <f>AG5*(1+$AC$30)</f>
+        <v>95260.882188668184</v>
+      </c>
+      <c r="AI5" s="24">
+        <f>AH5*(1+$AC$30)</f>
+        <v>104024.88335002566</v>
+      </c>
+      <c r="AJ5" s="24">
+        <f>AI5*(1+$AC$30)</f>
+        <v>113595.17261822803</v>
+      </c>
+      <c r="AK5" s="24">
+        <f>AJ5*(1+$AC$30)</f>
+        <v>124045.92849910501</v>
+      </c>
+      <c r="AL5" s="24">
+        <f>AK5*(1+$AC$30)</f>
+        <v>135458.15392102269</v>
+      </c>
+      <c r="AM5" s="24">
+        <f>AL5*(1+$AC$30)</f>
+        <v>147920.3040817568</v>
+      </c>
+      <c r="AN5" s="24">
+        <f>AM5*(1+$AC$30)</f>
+        <v>161528.97205727844</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="18">
+        <v>173</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="25">
+        <v>8218.9899999999998</v>
+      </c>
+      <c r="S7" s="25">
+        <v>8004.2299999999996</v>
+      </c>
+      <c r="T7" s="20">
+        <v>6359.5299999999997</v>
+      </c>
+      <c r="U7" s="20">
+        <v>6220.46</v>
+      </c>
+      <c r="V7" s="20">
+        <v>8334.4099999999999</v>
+      </c>
+      <c r="W7" s="20">
+        <v>14640.620000000001</v>
+      </c>
+      <c r="X7" s="20">
         <v>19062.669999999998</v>
       </c>
-      <c r="H7" s="19">
+      <c r="Y7" s="21">
         <v>20014.459999999999</v>
       </c>
+      <c r="Z7" s="21">
+        <v>20523.610000000001</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>20523.610000000001</v>
+      </c>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="18">
+        <v>174</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="25">
+        <v>8692.3899999999994</v>
+      </c>
+      <c r="S8" s="25">
+        <v>10009.860000000001</v>
+      </c>
+      <c r="T8" s="20">
+        <v>11640.02</v>
+      </c>
+      <c r="U8" s="20">
+        <v>9922.3899999999994</v>
+      </c>
+      <c r="V8" s="20">
+        <v>9074.9599999999991</v>
+      </c>
+      <c r="W8" s="20">
+        <v>8290.9200000000001</v>
+      </c>
+      <c r="X8" s="20">
         <v>13763.59</v>
       </c>
-      <c r="H8" s="19">
+      <c r="Y8" s="21">
         <v>14130.469999999999</v>
       </c>
+      <c r="Z8" s="21">
+        <v>13918.469999999999</v>
+      </c>
+      <c r="AD8" s="21">
+        <v>13918.469999999999</v>
+      </c>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="18">
+        <v>175</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="25">
+        <v>224.13</v>
+      </c>
+      <c r="S9" s="25">
+        <v>281.99000000000001</v>
+      </c>
+      <c r="T9" s="20">
+        <v>248.22999999999999</v>
+      </c>
+      <c r="U9" s="20">
+        <v>214</v>
+      </c>
+      <c r="V9" s="20">
+        <v>504.60000000000002</v>
+      </c>
+      <c r="W9" s="20">
+        <v>1018.1900000000001</v>
+      </c>
+      <c r="X9" s="20">
         <v>1194.95</v>
       </c>
-      <c r="H9" s="19">
+      <c r="Y9" s="21">
         <v>1168.6900000000001</v>
       </c>
+      <c r="Z9" s="21">
+        <v>1277.8099999999999</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>1277.8099999999999</v>
+      </c>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="18">
+        <v>176</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="25">
+        <v>1009.67</v>
+      </c>
+      <c r="S10" s="25">
+        <v>748.97000000000003</v>
+      </c>
+      <c r="T10" s="20">
+        <v>919.35000000000002</v>
+      </c>
+      <c r="U10" s="20">
+        <v>957.17999999999995</v>
+      </c>
+      <c r="V10" s="20">
+        <v>2628.1900000000001</v>
+      </c>
+      <c r="W10" s="20">
+        <v>3832.8299999999999</v>
+      </c>
+      <c r="X10" s="20">
         <v>3882.3000000000002</v>
       </c>
-      <c r="H10" s="19">
+      <c r="Y10" s="21">
         <v>5439.8599999999997</v>
       </c>
+      <c r="Z10" s="21">
+        <v>4921.46</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>4921.46</v>
+      </c>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="18">
+        <v>177</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="25">
+        <v>26.399999999999999</v>
+      </c>
+      <c r="S11" s="25">
+        <v>181.68000000000001</v>
+      </c>
+      <c r="T11" s="20">
+        <v>345.22000000000003</v>
+      </c>
+      <c r="U11" s="20">
+        <v>111.73999999999999</v>
+      </c>
+      <c r="V11" s="20">
+        <v>28.890000000000001</v>
+      </c>
+      <c r="W11" s="20">
+        <v>49.109999999999999</v>
+      </c>
+      <c r="X11" s="20">
         <v>56.149999999999999</v>
       </c>
-      <c r="H11" s="19">
+      <c r="Y11" s="21">
         <v>39.890000000000001</v>
       </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="18">
-        <v>43.530000000000001</v>
-      </c>
-      <c r="H12" s="19">
-        <v>-51.780000000000001</v>
+      <c r="Z11" s="21">
+        <v>31.84</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>31.84</v>
+      </c>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.25">
+      <c r="B12" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="26">
+        <f>SUM(R7:R11)</f>
+        <v>18171.579999999998</v>
+      </c>
+      <c r="S12" s="26">
+        <f>SUM(S7:S11)</f>
+        <v>19226.730000000003</v>
+      </c>
+      <c r="T12" s="27">
+        <f>SUM(T7:T11)</f>
+        <v>19512.349999999999</v>
+      </c>
+      <c r="U12" s="27">
+        <f>SUM(U7:U11)</f>
+        <v>17425.77</v>
+      </c>
+      <c r="V12" s="27">
+        <f>SUM(V7:V11)</f>
+        <v>20571.049999999996</v>
+      </c>
+      <c r="W12" s="27">
+        <f>SUM(W7:W11)</f>
+        <v>27831.669999999998</v>
+      </c>
+      <c r="X12" s="27">
+        <f>SUM(X7:X11)</f>
+        <v>37959.659999999996</v>
+      </c>
+      <c r="Y12" s="27">
+        <f>SUM(Y7:Y11)</f>
+        <v>40793.370000000003</v>
+      </c>
+      <c r="Z12" s="27">
+        <f>SUM(Z7:Z11)</f>
+        <v>40673.189999999995</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="27">
+        <f>SUM(AD7:AD11)</f>
+        <v>40673.189999999995</v>
+      </c>
+      <c r="AE12" s="24">
+        <f>AE5*(1-$AC$32)</f>
+        <v>46819.487769600004</v>
+      </c>
+      <c r="AF12" s="24">
+        <f>AF5*(1-$AC$32)</f>
+        <v>51126.880644403216</v>
+      </c>
+      <c r="AG12" s="24">
+        <f>AG5*(1-$AC$32)</f>
+        <v>55830.553663688312</v>
+      </c>
+      <c r="AH12" s="24">
+        <f>AH5*(1-$AC$32)</f>
+        <v>60966.96460074764</v>
+      </c>
+      <c r="AI12" s="24">
+        <f>AI5*(1-$AC$32)</f>
+        <v>66575.925344016418</v>
+      </c>
+      <c r="AJ12" s="24">
+        <f>AJ5*(1-$AC$32)</f>
+        <v>72700.910475665936</v>
+      </c>
+      <c r="AK12" s="24">
+        <f>AK5*(1-$AC$32)</f>
+        <v>79389.394239427202</v>
+      </c>
+      <c r="AL12" s="24">
+        <f>AL5*(1-$AC$32)</f>
+        <v>86693.218509454528</v>
+      </c>
+      <c r="AM12" s="24">
+        <f>AM5*(1-$AC$32)</f>
+        <v>94668.994612324357</v>
+      </c>
+      <c r="AN12" s="24">
+        <f>AN5*(1-$AC$32)</f>
+        <v>103378.54211665821</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="18">
-        <v>3624.2600000000002</v>
-      </c>
-      <c r="H13" s="19">
-        <v>4036.0599999999999</v>
+        <v>179</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="25">
+        <v>28.34</v>
+      </c>
+      <c r="S13" s="25">
+        <v>-8.5099999999999998</v>
+      </c>
+      <c r="T13" s="20">
+        <v>24.370000000000001</v>
+      </c>
+      <c r="U13" s="20">
+        <v>-15.640000000000001</v>
+      </c>
+      <c r="V13" s="20">
+        <v>0.40999999999999998</v>
+      </c>
+      <c r="W13" s="20">
+        <v>-199.22</v>
+      </c>
+      <c r="X13" s="20">
+        <v>43.530000000000001</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>-51.780000000000001</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>-440.75999999999999</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>-440.75999999999999</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="B14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G14" s="18">
+        <v>62</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="25">
+        <v>1261.1099999999999</v>
+      </c>
+      <c r="S14" s="25">
+        <v>1381.9200000000001</v>
+      </c>
+      <c r="T14" s="20">
+        <v>1339.05</v>
+      </c>
+      <c r="U14" s="20">
+        <v>1440.6400000000001</v>
+      </c>
+      <c r="V14" s="20">
+        <v>2316.6700000000001</v>
+      </c>
+      <c r="W14" s="20">
+        <v>3611.6300000000001</v>
+      </c>
+      <c r="X14" s="20">
+        <v>3624.2600000000002</v>
+      </c>
+      <c r="Y14" s="21">
+        <v>4036.0599999999999</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>4372.9200000000001</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>4372.9200000000001</v>
+      </c>
+      <c r="AE14">
+        <f>AD14*(1+$AC$33)</f>
+        <v>4897.6704000000009</v>
+      </c>
+      <c r="AF14" s="6">
+        <f>AE14*(1+$AC$33)</f>
+        <v>5485.3908480000018</v>
+      </c>
+      <c r="AG14" s="6">
+        <f>AF14*(1+$AC$33)</f>
+        <v>6143.6377497600024</v>
+      </c>
+      <c r="AH14" s="6">
+        <f>AG14*(1+$AC$33)</f>
+        <v>6880.8742797312034</v>
+      </c>
+      <c r="AI14" s="6">
+        <f>AH14*(1+$AC$33)</f>
+        <v>7706.5791932989487</v>
+      </c>
+      <c r="AJ14" s="6">
+        <f>AI14*(1+$AC$33)</f>
+        <v>8631.3686964948229</v>
+      </c>
+      <c r="AK14" s="6">
+        <f>AJ14*(1+$AC$33)</f>
+        <v>9667.1329400742034</v>
+      </c>
+      <c r="AL14" s="6">
+        <f>AK14*(1+$AC$33)</f>
+        <v>10827.188892883109</v>
+      </c>
+      <c r="AM14" s="6">
+        <f>AL14*(1+$AC$33)</f>
+        <v>12126.451560029083</v>
+      </c>
+      <c r="AN14" s="6">
+        <f>AM14*(1+$AC$33)</f>
+        <v>13581.625747232574</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="25">
+        <v>3364.96</v>
+      </c>
+      <c r="S15" s="25">
+        <v>3722.9899999999998</v>
+      </c>
+      <c r="T15" s="20">
+        <v>4170</v>
+      </c>
+      <c r="U15" s="20">
+        <v>4493.7299999999996</v>
+      </c>
+      <c r="V15" s="20">
+        <v>4010.3899999999999</v>
+      </c>
+      <c r="W15" s="20">
+        <v>3859.02</v>
+      </c>
+      <c r="X15" s="20">
         <v>4371.6499999999996</v>
       </c>
-      <c r="H14" s="19">
+      <c r="Y15" s="21">
         <v>4633.2200000000003</v>
       </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="B15" s="7" t="s">
+      <c r="Z15" s="21">
+        <v>4702.4399999999996</v>
+      </c>
+      <c r="AD15" s="21">
+        <v>4702.4399999999996</v>
+      </c>
+      <c r="AE15">
+        <f>AD15*($AC$35+1)</f>
+        <v>4820.0009999999993</v>
+      </c>
+      <c r="AF15" s="6">
+        <f>AE15*($AC$35+1)</f>
+        <v>4940.5010249999987</v>
+      </c>
+      <c r="AG15" s="6">
+        <f>AF15*($AC$35+1)</f>
+        <v>5064.0135506249981</v>
+      </c>
+      <c r="AH15" s="6">
+        <f>AG15*($AC$35+1)</f>
+        <v>5190.6138893906227</v>
+      </c>
+      <c r="AI15" s="6">
+        <f>AH15*($AC$35+1)</f>
+        <v>5320.3792366253874</v>
+      </c>
+      <c r="AJ15" s="6">
+        <f>AI15*($AC$35+1)</f>
+        <v>5453.3887175410218</v>
+      </c>
+      <c r="AK15" s="6">
+        <f>AJ15*($AC$35+1)</f>
+        <v>5589.7234354795473</v>
+      </c>
+      <c r="AL15" s="6">
+        <f>AK15*($AC$35+1)</f>
+        <v>5729.4665213665357</v>
+      </c>
+      <c r="AM15" s="6">
+        <f>AL15*($AC$35+1)</f>
+        <v>5872.7031844006988</v>
+      </c>
+      <c r="AN15" s="6">
+        <f>AM15*($AC$35+1)</f>
+        <v>6019.5207640107155</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="18">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16" s="20">
+        <v>1955.5899999999999</v>
+      </c>
+      <c r="S16" s="20">
+        <v>2398.0999999999999</v>
+      </c>
+      <c r="T16" s="20">
+        <v>2393.1300000000001</v>
+      </c>
+      <c r="U16" s="20">
+        <v>2633.5599999999999</v>
+      </c>
+      <c r="V16" s="20">
+        <v>2744.9400000000001</v>
+      </c>
+      <c r="W16" s="20">
+        <v>3122.1999999999998</v>
+      </c>
+      <c r="X16" s="20">
         <v>3439.1999999999998</v>
       </c>
-      <c r="H15" s="19">
+      <c r="Y16" s="21">
         <v>3786.3699999999999</v>
       </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="Z16" s="21">
+        <v>4116.8599999999997</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>4116.8599999999997</v>
+      </c>
+      <c r="AE16">
+        <f>AD16*(1+AC34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AF16" s="6">
+        <f>AE16*(1+AD34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AG16" s="6">
+        <f>AF16*(1+AE34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AH16" s="6">
+        <f>AG16*(1+AF34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AI16" s="6">
+        <f>AH16*(1+AG34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AJ16" s="6">
+        <f>AI16*(1+AH34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AK16" s="6">
+        <f>AJ16*(1+AI34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AL16" s="6">
+        <f>AK16*(1+AJ34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AM16" s="6">
+        <f>AL16*(1+AK34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+      <c r="AN16" s="6">
+        <f>AM16*(1+AL34)</f>
+        <v>4528.5460000000003</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="25">
+        <v>2217.7600000000002</v>
+      </c>
+      <c r="S17" s="25">
+        <v>2374.1100000000001</v>
+      </c>
+      <c r="T17" s="20">
+        <v>2260.1500000000001</v>
+      </c>
+      <c r="U17" s="20">
+        <v>2342.7800000000002</v>
+      </c>
+      <c r="V17" s="20">
+        <v>2812.48</v>
+      </c>
+      <c r="W17" s="20">
+        <v>4060.4200000000001</v>
+      </c>
+      <c r="X17" s="20">
         <v>5775.3100000000004</v>
       </c>
-      <c r="H16" s="19">
+      <c r="Y17" s="21">
         <v>5887.3900000000003</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="14.25">
-      <c r="B17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="20">
-        <f>SUM(G7:G16)</f>
+      <c r="Z17" s="21">
+        <v>6943.0200000000004</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>6943.0200000000004</v>
+      </c>
+      <c r="AE17">
+        <v>8000</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>8000</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>8000</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>8000</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>8000</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>8000</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>8000</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>8000</v>
+      </c>
+      <c r="AM17" s="6">
+        <v>8000</v>
+      </c>
+      <c r="AN17" s="6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.25">
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="23">
+        <f>SUM(R12:R17)</f>
+        <v>26999.339999999997</v>
+      </c>
+      <c r="S18" s="23">
+        <f>SUM(S12:S17)</f>
+        <v>29095.340000000004</v>
+      </c>
+      <c r="T18" s="23">
+        <f>SUM(T12:T17)</f>
+        <v>29699.049999999999</v>
+      </c>
+      <c r="U18" s="23">
+        <f>SUM(U12:U17)</f>
+        <v>28320.84</v>
+      </c>
+      <c r="V18" s="23">
+        <f>SUM(V12:V17)</f>
+        <v>32455.939999999995</v>
+      </c>
+      <c r="W18" s="23">
+        <f>SUM(W12:W17)</f>
+        <v>42285.719999999994</v>
+      </c>
+      <c r="X18" s="23">
+        <f>SUM(X12:X17)</f>
         <v>55213.609999999993</v>
       </c>
-      <c r="H17" s="20">
-        <f>SUM(H7:H16)</f>
+      <c r="Y18" s="23">
+        <f>SUM(Y12:Y17)</f>
         <v>59084.630000000005</v>
       </c>
-    </row>
-    <row r="18" s="0" customFormat="1" ht="14.25">
-      <c r="B18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G18" s="19">
+      <c r="Z18" s="23">
+        <f>SUM(Z12:Z17)</f>
+        <v>60367.669999999998</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="23">
+        <f>SUM(AD12:AD17)</f>
+        <v>60367.669999999998</v>
+      </c>
+      <c r="AE18" s="23">
+        <f>SUM(AE12:AE17)</f>
+        <v>69065.705169599998</v>
+      </c>
+      <c r="AF18" s="23">
+        <f>SUM(AF12:AF17)</f>
+        <v>74081.318517403211</v>
+      </c>
+      <c r="AG18" s="23">
+        <f>SUM(AG12:AG17)</f>
+        <v>79566.750964073319</v>
+      </c>
+      <c r="AH18" s="23">
+        <f>SUM(AH12:AH17)</f>
+        <v>85566.99876986946</v>
+      </c>
+      <c r="AI18" s="23">
+        <f>SUM(AI12:AI17)</f>
+        <v>92131.429773940763</v>
+      </c>
+      <c r="AJ18" s="23">
+        <f>SUM(AJ12:AJ17)</f>
+        <v>99314.213889701787</v>
+      </c>
+      <c r="AK18" s="23">
+        <f>SUM(AK12:AK17)</f>
+        <v>107174.79661498095</v>
+      </c>
+      <c r="AL18" s="23">
+        <f>SUM(AL12:AL17)</f>
+        <v>115778.41992370418</v>
+      </c>
+      <c r="AM18" s="23">
+        <f>SUM(AM12:AM17)</f>
+        <v>125196.69535675413</v>
+      </c>
+      <c r="AN18" s="23">
+        <f>SUM(AN12:AN17)</f>
+        <v>135508.23462790152</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.25">
+      <c r="B19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="23">
+        <f>R5-R18</f>
+        <v>1174.1500000000051</v>
+      </c>
+      <c r="S19" s="23">
+        <f>S5-S18</f>
+        <v>668.56999999999607</v>
+      </c>
+      <c r="T19" s="23">
+        <f>T5-T18</f>
+        <v>568.16000000000349</v>
+      </c>
+      <c r="U19" s="23">
+        <f>U5-U18</f>
+        <v>1378.1399999999994</v>
+      </c>
+      <c r="V19" s="23">
+        <f>V5-V18</f>
+        <v>686.61000000000786</v>
+      </c>
+      <c r="W19" s="23">
+        <f>W5-W18</f>
+        <v>1449.9100000000035</v>
+      </c>
+      <c r="X19" s="23">
+        <f>X5-X18</f>
+        <v>1333.4900000000052</v>
+      </c>
+      <c r="Y19" s="23">
+        <f>Y5-Y18</f>
+        <v>4187.6899999999951</v>
+      </c>
+      <c r="Z19" s="23">
+        <f>Z5-Z18</f>
+        <v>6624.5</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="23">
+        <f>AD5-AD18</f>
+        <v>6624.5</v>
+      </c>
+      <c r="AE19" s="28">
+        <f>AE5-AE18</f>
+        <v>4089.7444704000081</v>
+      </c>
+      <c r="AF19" s="23">
+        <f>AF5-AF18</f>
+        <v>5804.4324894768069</v>
+      </c>
+      <c r="AG19" s="23">
+        <f>AG5-AG18</f>
+        <v>7668.4891354396677</v>
+      </c>
+      <c r="AH19" s="23">
+        <f>AH5-AH18</f>
+        <v>9693.8834187987231</v>
+      </c>
+      <c r="AI19" s="23">
+        <f>AI5-AI18</f>
+        <v>11893.453576084896</v>
+      </c>
+      <c r="AJ19" s="23">
+        <f>AJ5-AJ18</f>
+        <v>14280.958728526239</v>
+      </c>
+      <c r="AK19" s="23">
+        <f>AK5-AK18</f>
+        <v>16871.131884124057</v>
+      </c>
+      <c r="AL19" s="23">
+        <f>AL5-AL18</f>
+        <v>19679.733997318515</v>
+      </c>
+      <c r="AM19" s="23">
+        <f>AM5-AM18</f>
+        <v>22723.608725002661</v>
+      </c>
+      <c r="AN19" s="23">
+        <f>AN5-AN18</f>
+        <v>26020.737429376924</v>
+      </c>
+    </row>
+    <row r="20" s="0" customFormat="1" ht="14.25">
+      <c r="B20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20" s="21">
+        <v>-301.44</v>
+      </c>
+      <c r="S20" s="21">
+        <v>-409.85000000000002</v>
+      </c>
+      <c r="T20" s="21">
+        <v>103.27</v>
+      </c>
+      <c r="U20" s="21">
+        <v>-188.69</v>
+      </c>
+      <c r="V20" s="21">
+        <v>536.01999999999998</v>
+      </c>
+      <c r="W20" s="21">
+        <v>-239.47</v>
+      </c>
+      <c r="X20" s="21">
         <v>924.04999999999995</v>
       </c>
-      <c r="H18" s="19">
+      <c r="Y20" s="21">
         <v>93.430000000000007</v>
       </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="Z20" s="21">
+        <v>-976.15999999999997</v>
+      </c>
+      <c r="AD20" s="21">
+        <v>-976.15999999999997</v>
+      </c>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="25">
+        <v>-651.45000000000005</v>
+      </c>
+      <c r="S21" s="25">
+        <v>1102.53</v>
+      </c>
+      <c r="T21" s="20">
+        <v>1745.8299999999999</v>
+      </c>
+      <c r="U21" s="20">
+        <v>226.16</v>
+      </c>
+      <c r="V21" s="20">
+        <v>-109.29000000000001</v>
+      </c>
+      <c r="W21" s="20">
+        <v>-150.27000000000001</v>
+      </c>
+      <c r="X21" s="20">
         <v>0</v>
       </c>
-      <c r="H19" s="19">
+      <c r="Y21" s="21">
         <v>273.36000000000001</v>
       </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="B20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="Z21" s="21">
+        <v>-122.05</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>-122.05</v>
+      </c>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="25">
+        <v>1225.79</v>
+      </c>
+      <c r="S22" s="25">
+        <v>1553.9100000000001</v>
+      </c>
+      <c r="T22" s="29">
+        <v>1401.8299999999999</v>
+      </c>
+      <c r="U22" s="20">
+        <v>952.54999999999995</v>
+      </c>
+      <c r="V22" s="20">
+        <v>873.38999999999999</v>
+      </c>
+      <c r="W22" s="20">
+        <v>1942.8299999999999</v>
+      </c>
+      <c r="X22" s="20">
         <f>3199.46</f>
         <v>3199.46</v>
       </c>
-      <c r="H20" s="19">
+      <c r="Y22" s="21">
         <f>1177.57</f>
         <v>1177.5699999999999</v>
       </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="18">
-        <f>G5-G17+G20+G19+G18</f>
-        <v>5457.0000000000055</v>
-      </c>
-      <c r="H21" s="18">
-        <f>H5-H17+H20+H19+H18</f>
-        <v>5732.0499999999947</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1647.3299999999999</v>
-      </c>
-      <c r="H22" s="19">
-        <v>1451.9200000000001</v>
+      <c r="Z22" s="21">
+        <v>793.33000000000004</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>793.33000000000004</v>
+      </c>
+      <c r="AE22">
+        <v>400</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>400</v>
+      </c>
+      <c r="AG22" s="6">
+        <v>400</v>
+      </c>
+      <c r="AH22" s="6">
+        <v>400</v>
+      </c>
+      <c r="AI22" s="6">
+        <v>400</v>
+      </c>
+      <c r="AJ22" s="6">
+        <v>400</v>
+      </c>
+      <c r="AK22" s="6">
+        <v>400</v>
+      </c>
+      <c r="AL22" s="6">
+        <v>400</v>
+      </c>
+      <c r="AM22" s="6">
+        <v>400</v>
+      </c>
+      <c r="AN22" s="6">
+        <v>400</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.25">
       <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="27">
+        <f>R5-R18+R22+R21+R20</f>
+        <v>1447.050000000005</v>
+      </c>
+      <c r="S23" s="27">
+        <f>S5-S18+S22+S21+S20</f>
+        <v>2915.1599999999958</v>
+      </c>
+      <c r="T23" s="27">
+        <f>T5-T18+T22+T21+T20</f>
+        <v>3819.0900000000033</v>
+      </c>
+      <c r="U23" s="27">
+        <f>U5-U18+U22+U21+U20</f>
+        <v>2368.1599999999994</v>
+      </c>
+      <c r="V23" s="27">
+        <f>V5-V18+V22+V21+V20</f>
+        <v>1986.7300000000077</v>
+      </c>
+      <c r="W23" s="27">
+        <f>W5-W18+W22+W21+W20</f>
+        <v>3003.0000000000036</v>
+      </c>
+      <c r="X23" s="27">
+        <f>X5-X18+X22+X21+X20</f>
+        <v>5457.0000000000055</v>
+      </c>
+      <c r="Y23" s="27">
+        <f>Y5-Y18+Y22+Y21+Y20</f>
+        <v>5732.0499999999947</v>
+      </c>
+      <c r="Z23" s="27">
+        <f>Z5-Z18+Z22+Z21+Z20</f>
+        <v>6319.6199999999999</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="27">
+        <f>AD5-AD18+AD22+AD21+AD20</f>
+        <v>6319.6199999999999</v>
+      </c>
+      <c r="AE23" s="27">
+        <f>AE5-AE18+AE22+AE21+AE20</f>
+        <v>4489.7444704000081</v>
+      </c>
+      <c r="AF23" s="27">
+        <f>AF5-AF18+AF22+AF21+AF20</f>
+        <v>6204.4324894768069</v>
+      </c>
+      <c r="AG23" s="27">
+        <f>AG5-AG18+AG22+AG21+AG20</f>
+        <v>8068.4891354396677</v>
+      </c>
+      <c r="AH23" s="27">
+        <f>AH5-AH18+AH22+AH21+AH20</f>
+        <v>10093.883418798723</v>
+      </c>
+      <c r="AI23" s="27">
+        <f>AI5-AI18+AI22+AI21+AI20</f>
+        <v>12293.453576084896</v>
+      </c>
+      <c r="AJ23" s="27">
+        <f>AJ5-AJ18+AJ22+AJ21+AJ20</f>
+        <v>14680.958728526239</v>
+      </c>
+      <c r="AK23" s="27">
+        <f>AK5-AK18+AK22+AK21+AK20</f>
+        <v>17271.131884124057</v>
+      </c>
+      <c r="AL23" s="27">
+        <f>AL5-AL18+AL22+AL21+AL20</f>
+        <v>20079.733997318515</v>
+      </c>
+      <c r="AM23" s="27">
+        <f>AM5-AM18+AM22+AM21+AM20</f>
+        <v>23123.608725002661</v>
+      </c>
+      <c r="AN23" s="27">
+        <f>AN5-AN18+AN22+AN21+AN20</f>
+        <v>26420.737429376924</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="25">
+        <v>350.45999999999998</v>
+      </c>
+      <c r="S24" s="25">
+        <v>164.31</v>
+      </c>
+      <c r="T24" s="20">
+        <v>1087.5899999999999</v>
+      </c>
+      <c r="U24" s="20">
+        <v>641.49000000000001</v>
+      </c>
+      <c r="V24" s="20">
+        <v>501.88</v>
+      </c>
+      <c r="W24" s="20">
+        <v>379.56</v>
+      </c>
+      <c r="X24" s="20">
+        <v>1647.3299999999999</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>1451.9200000000001</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>1544.25</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>1544.25</v>
+      </c>
+      <c r="AE24" s="30">
+        <f>AE23*$AC$36</f>
+        <v>1077.538672896002</v>
+      </c>
+      <c r="AF24" s="30">
+        <f>AF23*$AC$36</f>
+        <v>1489.0637974744336</v>
+      </c>
+      <c r="AG24" s="30">
+        <f>AG23*$AC$36</f>
+        <v>1936.4373925055202</v>
+      </c>
+      <c r="AH24" s="30">
+        <f>AH23*$AC$36</f>
+        <v>2422.5320205116936</v>
+      </c>
+      <c r="AI24" s="30">
+        <f>AI23*$AC$36</f>
+        <v>2950.4288582603749</v>
+      </c>
+      <c r="AJ24" s="30">
+        <f>AJ23*$AC$36</f>
+        <v>3523.4300948462974</v>
+      </c>
+      <c r="AK24" s="30">
+        <f>AK23*$AC$36</f>
+        <v>4145.0716521897739</v>
+      </c>
+      <c r="AL24" s="30">
+        <f>AL23*$AC$36</f>
+        <v>4819.1361593564434</v>
+      </c>
+      <c r="AM24" s="30">
+        <f>AM23*$AC$36</f>
+        <v>5549.6660940006386</v>
+      </c>
+      <c r="AN24" s="30">
+        <f>AN23*$AC$36</f>
+        <v>6340.976983050462</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.25">
+      <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="21">
-        <f>G21-G22</f>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="27">
+        <f>R23-R24</f>
+        <v>1096.5900000000049</v>
+      </c>
+      <c r="S25" s="27">
+        <f>S23-S24</f>
+        <v>2750.8499999999958</v>
+      </c>
+      <c r="T25" s="27">
+        <f>T23-T24</f>
+        <v>2731.5000000000036</v>
+      </c>
+      <c r="U25" s="27">
+        <f>U23-U24</f>
+        <v>1726.6699999999994</v>
+      </c>
+      <c r="V25" s="27">
+        <f>V23-V24</f>
+        <v>1484.8500000000076</v>
+      </c>
+      <c r="W25" s="27">
+        <f>W23-W24</f>
+        <v>2623.4400000000037</v>
+      </c>
+      <c r="X25" s="27">
+        <f>X23-X24</f>
         <v>3809.6700000000055</v>
       </c>
-      <c r="H23" s="20">
-        <f>H21-H22</f>
+      <c r="Y25" s="23">
+        <f>Y23-Y24</f>
         <v>4280.1299999999947</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="B25" t="s">
+      <c r="Z25" s="23">
+        <f>Z23-Z24</f>
+        <v>4775.3699999999999</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="23">
+        <f>AD23-AD24</f>
+        <v>4775.3699999999999</v>
+      </c>
+      <c r="AE25" s="23">
+        <f>AE23-AE24</f>
+        <v>3412.2057975040061</v>
+      </c>
+      <c r="AF25" s="23">
+        <f>AF23-AF24</f>
+        <v>4715.3686920023738</v>
+      </c>
+      <c r="AG25" s="23">
+        <f>AG23-AG24</f>
+        <v>6132.0517429341471</v>
+      </c>
+      <c r="AH25" s="23">
+        <f>AH23-AH24</f>
+        <v>7671.35139828703</v>
+      </c>
+      <c r="AI25" s="23">
+        <f>AI23-AI24</f>
+        <v>9343.0247178245208</v>
+      </c>
+      <c r="AJ25" s="23">
+        <f>AJ23-AJ24</f>
+        <v>11157.528633679942</v>
+      </c>
+      <c r="AK25" s="23">
+        <f>AK23-AK24</f>
+        <v>13126.060231934283</v>
+      </c>
+      <c r="AL25" s="23">
+        <f>AL23-AL24</f>
+        <v>15260.597837962072</v>
+      </c>
+      <c r="AM25" s="23">
+        <f>AM23-AM24</f>
+        <v>17573.942631002021</v>
+      </c>
+      <c r="AN25" s="23">
+        <f>AN23-AN24</f>
+        <v>20079.760446326462</v>
+      </c>
+      <c r="AO25" s="23">
+        <f>AN25*(1+$AP$28)</f>
+        <v>20280.558050789725</v>
+      </c>
+      <c r="AP25" s="23">
+        <f>AO25*(1+$AP$28)</f>
+        <v>20483.363631297623</v>
+      </c>
+      <c r="AQ25" s="23">
+        <f>AP25*(1+$AP$28)</f>
+        <v>20688.197267610598</v>
+      </c>
+      <c r="AR25" s="23">
+        <f>AQ25*(1+$AP$28)</f>
+        <v>20895.079240286705</v>
+      </c>
+      <c r="AS25" s="23">
+        <f>AR25*(1+$AP$28)</f>
+        <v>21104.03003268957</v>
+      </c>
+      <c r="AT25" s="23">
+        <f>AS25*(1+$AP$28)</f>
+        <v>21315.070333016465</v>
+      </c>
+      <c r="AU25" s="23">
+        <f>AT25*(1+$AP$28)</f>
+        <v>21528.221036346629</v>
+      </c>
+      <c r="AV25" s="23">
+        <f>AU25*(1+$AP$28)</f>
+        <v>21743.503246710097</v>
+      </c>
+      <c r="AW25" s="23">
+        <f>AV25*(1+$AP$28)</f>
+        <v>21960.938279177197</v>
+      </c>
+      <c r="AX25" s="23">
+        <f>AW25*(1+$AP$28)</f>
+        <v>22180.547661968969</v>
+      </c>
+      <c r="AY25" s="23">
+        <f>AX25*(1+$AP$28)</f>
+        <v>22402.35313858866</v>
+      </c>
+      <c r="AZ25" s="23">
+        <f>AY25*(1+$AP$28)</f>
+        <v>22626.376669974547</v>
+      </c>
+      <c r="BA25" s="23">
+        <f>AZ25*(1+$AP$28)</f>
+        <v>22852.640436674294</v>
+      </c>
+      <c r="BB25" s="23">
+        <f>BA25*(1+$AP$28)</f>
+        <v>23081.166841041038</v>
+      </c>
+      <c r="BC25" s="23">
+        <f>BB25*(1+$AP$28)</f>
+        <v>23311.978509451448</v>
+      </c>
+      <c r="BD25" s="23">
+        <f>BC25*(1+$AP$28)</f>
+        <v>23545.098294545962</v>
+      </c>
+      <c r="BE25" s="23">
+        <f>BD25*(1+$AP$28)</f>
+        <v>23780.54927749142</v>
+      </c>
+      <c r="BF25" s="23">
+        <f>BE25*(1+$AP$28)</f>
+        <v>24018.354770266335</v>
+      </c>
+      <c r="BG25" s="23">
+        <f>BF25*(1+$AP$28)</f>
+        <v>24258.538317969</v>
+      </c>
+      <c r="BH25" s="23">
+        <f>BG25*(1+$AP$28)</f>
+        <v>24501.123701148688</v>
+      </c>
+      <c r="BI25" s="23">
+        <f>BH25*(1+$AP$28)</f>
+        <v>24746.134938160176</v>
+      </c>
+      <c r="BJ25" s="23">
+        <f>BI25*(1+$AP$28)</f>
+        <v>24993.596287541779</v>
+      </c>
+      <c r="BK25" s="23">
+        <f>BJ25*(1+$AP$28)</f>
+        <v>25243.532250417196</v>
+      </c>
+      <c r="BL25" s="23">
+        <f>BK25*(1+$AP$28)</f>
+        <v>25495.967572921367</v>
+      </c>
+      <c r="BM25" s="23">
+        <f>BL25*(1+$AP$28)</f>
+        <v>25750.92724865058</v>
+      </c>
+      <c r="BN25" s="23">
+        <f>BM25*(1+$AP$28)</f>
+        <v>26008.436521137086</v>
+      </c>
+      <c r="BO25" s="23">
+        <f>BN25*(1+$AP$28)</f>
+        <v>26268.520886348459</v>
+      </c>
+      <c r="BP25" s="23">
+        <f>BO25*(1+$AP$28)</f>
+        <v>26531.206095211943</v>
+      </c>
+      <c r="BQ25" s="23">
+        <f>BP25*(1+$AP$28)</f>
+        <v>26796.518156164064</v>
+      </c>
+      <c r="BR25" s="23">
+        <f>BQ25*(1+$AP$28)</f>
+        <v>27064.483337725705</v>
+      </c>
+      <c r="BS25" s="23">
+        <f>BR25*(1+$AP$28)</f>
+        <v>27335.128171102962</v>
+      </c>
+      <c r="BT25" s="23">
+        <f>BS25*(1+$AP$28)</f>
+        <v>27608.479452813994</v>
+      </c>
+      <c r="BU25" s="23">
+        <f>BT25*(1+$AP$28)</f>
+        <v>27884.564247342132</v>
+      </c>
+      <c r="BV25" s="23">
+        <f>BU25*(1+$AP$28)</f>
+        <v>28163.409889815553</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="18">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="25">
         <v>8.0899999999999999</v>
       </c>
-      <c r="H25" s="19">
+      <c r="S27" s="25">
+        <v>8.0899999999999999</v>
+      </c>
+      <c r="T27" s="20">
+        <v>8.0899999999999999</v>
+      </c>
+      <c r="U27" s="20">
+        <v>8.0899999999999999</v>
+      </c>
+      <c r="V27" s="20">
+        <v>8.0899999999999999</v>
+      </c>
+      <c r="W27" s="20">
+        <v>8.0899999999999999</v>
+      </c>
+      <c r="X27" s="20">
+        <v>8.0899999999999999</v>
+      </c>
+      <c r="Y27" s="21">
         <v>11.08</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP28" s="31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="33"/>
+      <c r="Z29" s="6"/>
+      <c r="AO29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP29" s="31">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="34">
+        <f>S5/R5-1</f>
+        <v>0.056450940227852353</v>
+      </c>
+      <c r="T30" s="17">
+        <f>T5/S5-1</f>
+        <v>0.016909740689311503</v>
+      </c>
+      <c r="U30" s="17">
+        <f>U5/T5-1</f>
+        <v>-0.018773781924399491</v>
+      </c>
+      <c r="V30" s="17">
+        <f>V5/U5-1</f>
+        <v>0.11594909993541869</v>
+      </c>
+      <c r="W30" s="17">
+        <f>W5/V5-1</f>
+        <v>0.31962175511540281</v>
+      </c>
+      <c r="X30" s="17">
+        <f>X5/W5-1</f>
+        <v>0.29292981489005654</v>
+      </c>
+      <c r="Y30" s="17">
+        <f>Y5/X5-1</f>
+        <v>0.1189312979799142</v>
+      </c>
+      <c r="Z30" s="17">
+        <f>Z5/Y5-1</f>
+        <v>0.058791111184163913</v>
+      </c>
+      <c r="AA30" s="35">
+        <f>AVERAGE(S30:Z30)</f>
+        <v>0.12010124726221506</v>
+      </c>
+      <c r="AB30" s="35">
+        <f>MEDIAN(S30:Z30)</f>
+        <v>0.0873701055597913</v>
+      </c>
+      <c r="AC30" s="36">
+        <v>0.091999999999999998</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP30">
+        <v>3195300000</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="32">
+        <f>R5-R12</f>
+        <v>10001.910000000003</v>
+      </c>
+      <c r="S31" s="32">
+        <f>S5-S12</f>
+        <v>10537.179999999997</v>
+      </c>
+      <c r="T31" s="33">
+        <f>T5-T12</f>
+        <v>10754.860000000004</v>
+      </c>
+      <c r="U31" s="33">
+        <f>U5-U12</f>
+        <v>12273.209999999999</v>
+      </c>
+      <c r="V31" s="33">
+        <f>V5-V12</f>
+        <v>12571.500000000007</v>
+      </c>
+      <c r="W31" s="33">
+        <f>W5-W12</f>
+        <v>15903.959999999999</v>
+      </c>
+      <c r="X31" s="33">
+        <f>X5-X12</f>
+        <v>18587.440000000002</v>
+      </c>
+      <c r="Y31" s="33">
+        <f>Y5-Y12</f>
+        <v>22478.949999999997</v>
+      </c>
+      <c r="Z31" s="33">
+        <f>Z5-Z12</f>
+        <v>26318.980000000003</v>
+      </c>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AO31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP31" s="30">
+        <f>NPV(AP29,AE25:BV25)</f>
+        <v>123376.54743698383</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="B32" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="37">
+        <f>R31/R5</f>
+        <v>0.35501139546431781</v>
+      </c>
+      <c r="S32" s="37">
+        <f>S31/S5</f>
+        <v>0.35402539518497389</v>
+      </c>
+      <c r="T32" s="9">
+        <f>T31/T5</f>
+        <v>0.35533040541232586</v>
+      </c>
+      <c r="U32" s="8">
+        <f>U31/U5</f>
+        <v>0.4132535864868086</v>
+      </c>
+      <c r="V32" s="8">
+        <f>V31/V5</f>
+        <v>0.37931601521307218</v>
+      </c>
+      <c r="W32" s="8">
+        <f>W31/W5</f>
+        <v>0.36363852538536656</v>
+      </c>
+      <c r="X32" s="8">
+        <f>X31/X5</f>
+        <v>0.32870721929152869</v>
+      </c>
+      <c r="Y32" s="8">
+        <f>Y31/Y5</f>
+        <v>0.35527304830927642</v>
+      </c>
+      <c r="Z32" s="8">
+        <f>Z31/Z5</f>
+        <v>0.39286650962343816</v>
+      </c>
+      <c r="AA32" s="35">
+        <f>AVERAGE(S32:Z32)</f>
+        <v>0.36780133811334881</v>
+      </c>
+      <c r="AB32" s="35">
+        <f>MEDIAN(S32:Z32)</f>
+        <v>0.35948446539884621</v>
+      </c>
+      <c r="AC32" s="31">
+        <v>0.35999999999999999</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP32" s="38">
+        <v>390.10000000000002</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="32">
+        <f>S14/R14-1</f>
+        <v>0.095796560173180945</v>
+      </c>
+      <c r="T33" s="33">
+        <f>T14/S14-1</f>
+        <v>-0.031022056269538134</v>
+      </c>
+      <c r="U33" s="33">
+        <f>U14/T14-1</f>
+        <v>0.075867219297263144</v>
+      </c>
+      <c r="V33" s="9">
+        <f>V14/U14-1</f>
+        <v>0.6080839071523767</v>
+      </c>
+      <c r="W33" s="9">
+        <f>W14/V14-1</f>
+        <v>0.55897473528815067</v>
+      </c>
+      <c r="X33" s="9">
+        <f>X14/W14-1</f>
+        <v>0.0034970359643706761</v>
+      </c>
+      <c r="Y33" s="9">
+        <f>Y14/X14-1</f>
+        <v>0.11362319480390481</v>
+      </c>
+      <c r="Z33" s="9">
+        <f>Z14/Y14-1</f>
+        <v>0.083462584798045691</v>
+      </c>
+      <c r="AA33" s="35">
+        <f>AVERAGE(S33:Z33)</f>
+        <v>0.1885353976509693</v>
+      </c>
+      <c r="AB33" s="35">
+        <f>MEDIAN(S33:Z33)</f>
+        <v>0.089629572485613318</v>
+      </c>
+      <c r="AC33" s="31">
+        <v>0.12</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP33" s="30">
+        <f>AP31*10000000/AP30</f>
+        <v>386.11882276150544</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="B34" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="40">
+        <f>S16/R16-1</f>
+        <v>0.22627953712178939</v>
+      </c>
+      <c r="T34" s="8">
+        <f>T16/S16-1</f>
+        <v>-0.0020724740419497678</v>
+      </c>
+      <c r="U34" s="8">
+        <f>U16/T16-1</f>
+        <v>0.10046675274640315</v>
+      </c>
+      <c r="V34" s="8">
+        <f>V16/U16-1</f>
+        <v>0.042292562159206515</v>
+      </c>
+      <c r="W34" s="8">
+        <f>W16/V16-1</f>
+        <v>0.13743834109306574</v>
+      </c>
+      <c r="X34" s="8">
+        <f>X16/W16-1</f>
+        <v>0.1015309717506887</v>
+      </c>
+      <c r="Y34" s="8">
+        <f>Y16/X16-1</f>
+        <v>0.10094498720632705</v>
+      </c>
+      <c r="Z34" s="8">
+        <f>Z16/Y16-1</f>
+        <v>0.087284127013471879</v>
+      </c>
+      <c r="AA34" s="35">
+        <f>AVERAGE(S34:Z34)</f>
+        <v>0.099270600631125333</v>
+      </c>
+      <c r="AB34" s="35">
+        <f>MEDIAN(S34:Z34)</f>
+        <v>0.1007058699763651</v>
+      </c>
+      <c r="AC34" s="41">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9">
+        <f>U15/T15-1</f>
+        <v>0.077633093525179664</v>
+      </c>
+      <c r="V35" s="9">
+        <f>V15/U15-1</f>
+        <v>-0.10755875408624904</v>
+      </c>
+      <c r="W35" s="9">
+        <f>W15/V15-1</f>
+        <v>-0.037744458768349198</v>
+      </c>
+      <c r="X35" s="9">
+        <f>X15/W15-1</f>
+        <v>0.13283942555363781</v>
+      </c>
+      <c r="Y35" s="9">
+        <f>Y15/X15-1</f>
+        <v>0.059833243740921693</v>
+      </c>
+      <c r="Z35" s="9">
+        <f>Z15/Y15-1</f>
+        <v>0.014939933782552872</v>
+      </c>
+      <c r="AA35" s="35">
+        <f>AVERAGE(S35:Z35)</f>
+        <v>0.023323747291282299</v>
+      </c>
+      <c r="AB35" s="35">
+        <f>MEDIAN(S35:Z35)</f>
+        <v>0.037386588761737283</v>
+      </c>
+      <c r="AC35" s="41">
+        <v>0.025000000000000001</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="37">
+        <f>R24/R23</f>
+        <v>0.24218928164196038</v>
+      </c>
+      <c r="S36" s="37">
+        <f>S24/S23</f>
+        <v>0.05636397316099296</v>
+      </c>
+      <c r="T36" s="9">
+        <f>T24/T23</f>
+        <v>0.28477726369370687</v>
+      </c>
+      <c r="U36" s="8">
+        <f>U24/U23</f>
+        <v>0.27088119046010412</v>
+      </c>
+      <c r="V36" s="8">
+        <f>V24/V23</f>
+        <v>0.25261610787575467</v>
+      </c>
+      <c r="W36" s="8">
+        <f>W24/W23</f>
+        <v>0.12639360639360625</v>
+      </c>
+      <c r="X36" s="8">
+        <f>X24/X23</f>
+        <v>0.30187465640461758</v>
+      </c>
+      <c r="Y36" s="8">
+        <f>Y24/Y23</f>
+        <v>0.25329855810748358</v>
+      </c>
+      <c r="Z36" s="8">
+        <f>Z24/Z23</f>
+        <v>0.24435804684458876</v>
+      </c>
+      <c r="AA36" s="35">
+        <f>AVERAGE(S36:Z36)</f>
+        <v>0.22382042536760682</v>
+      </c>
+      <c r="AB36" s="35">
+        <f>MEDIAN(S36:Z36)</f>
+        <v>0.25295733299161915</v>
+      </c>
+      <c r="AC36" s="31">
+        <v>0.23999999999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E1"/>
-    <hyperlink r:id="rId2" ref="F1"/>
-    <hyperlink r:id="rId3" ref="G1"/>
-    <hyperlink r:id="rId4" ref="I1"/>
+    <hyperlink r:id="rId1" ref="V1"/>
+    <hyperlink r:id="rId2" ref="W1"/>
+    <hyperlink r:id="rId3" ref="X1"/>
+    <hyperlink r:id="rId4" ref="Z1"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7064,27 +9645,27 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="B2" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="B6" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -7098,7 +9679,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="C10" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" ht="14.25"/>
@@ -7135,23 +9716,23 @@
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="5" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="5" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="5" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1">
         <v>2017</v>
@@ -7183,7 +9764,7 @@
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C3" s="7">
         <v>12692.530000000001</v>
@@ -7215,7 +9796,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C4" s="7">
         <v>21.84</v>
@@ -7247,7 +9828,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C5" s="7">
         <v>88.819999999999993</v>
@@ -7279,7 +9860,7 @@
     </row>
     <row r="6" s="1" customFormat="1">
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1">
         <f>SUM(C3:C5)</f>
@@ -7320,7 +9901,7 @@
     </row>
     <row r="7" s="1" customFormat="1">
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7334,7 +9915,7 @@
     </row>
     <row r="8" s="1" customFormat="1">
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7358,7 +9939,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -7393,7 +9974,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -7425,7 +10006,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C12" s="6">
         <v>-748.54999999999995</v>
@@ -7489,7 +10070,7 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C14" s="6">
         <v>1287.5899999999999</v>
@@ -7553,7 +10134,7 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C16" s="6">
         <v>1625.6099999999999</v>
@@ -7628,7 +10209,7 @@
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C18" s="1">
         <f>C6-C17</f>
@@ -7669,10 +10250,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -7824,7 +10405,7 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C23" s="6">
         <v>857.71000000000004</v>
@@ -7899,7 +10480,7 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C26" s="6">
         <f>C6-C10</f>
@@ -7981,7 +10562,7 @@
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C28" s="9">
         <f>C18/C6</f>
@@ -8022,7 +10603,7 @@
     </row>
     <row r="29" ht="14.25">
       <c r="B29" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D29" s="9">
         <f>D6/C6-1</f>
@@ -8059,7 +10640,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="B30" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="D30" s="9">
         <f>D10/C10-1</f>
@@ -8096,83 +10677,83 @@
     </row>
     <row r="31" ht="14.25">
       <c r="B31" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="D31" s="17">
         <f>D18/C18-1</f>
         <v>-1.9218716747660705</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="42">
         <f>E18/D18-1</f>
         <v>0.86889330758274075</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="42">
         <f>F18/E18-1</f>
         <v>0.66695955582721922</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="42">
         <f>G18/F18-1</f>
         <v>-0.73243928710571948</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="42">
         <f>H18/G18-1</f>
         <v>-0.88191123356507672</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="42">
         <f>I18/H18-1</f>
         <v>-3.0685444874274674</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="42">
         <f>J18/I18-1</f>
         <v>3.1691309683829427</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K31" s="42">
         <f>K18/J18-1</f>
         <v>1.0278533180072316</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="7" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="7" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="C33" s="17">
         <f>C21/C20</f>
         <v>0.012834717361971962</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="42">
         <f>D21/D20</f>
         <v>0.0039923326739159859</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="42">
         <f>E21/E20</f>
         <v>0.0077122988483399046</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="42">
         <f>F21/F20</f>
         <v>-0.0027720337562175158</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="42">
         <f>G21/G20</f>
         <v>1.5870248642469238</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="42">
         <f>H21/H20</f>
         <v>416.47499999931347</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="42">
         <f>I21/I20</f>
         <v>0.0015285073537802899</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="42">
         <f>J21/J20</f>
         <v>-0.0013040379687334147</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="42">
         <f>K21/K20</f>
         <v>-0.43203860005668371</v>
       </c>
@@ -8182,12 +10763,12 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="I37">
         <v>2721.7199999999998</v>
@@ -8195,7 +10776,7 @@
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8231,7 +10812,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -8241,27 +10822,27 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="15">
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C4" s="7">
         <v>87.439999999999998</v>
@@ -8284,7 +10865,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C5" s="7">
         <v>0.53000000000000003</v>
@@ -8307,7 +10888,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25">
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1">
         <f>C4+C5</f>
@@ -8344,7 +10925,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C8" s="6">
         <v>70.439999999999998</v>
@@ -8367,7 +10948,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -8390,7 +10971,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="C10" s="6">
         <v>-0.97999999999999998</v>
@@ -8436,10 +11017,10 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="C12" s="6">
         <v>2.77</v>
@@ -8485,7 +11066,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="B14" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C14" s="6">
         <v>9</v>
@@ -8514,7 +11095,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
@@ -8549,7 +11130,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C18" s="6">
         <v>0.080000000000000002</v>
@@ -8659,7 +11240,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="B22" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -8683,7 +11264,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C23" s="6">
         <f>C19</f>
@@ -8716,7 +11297,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="7" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -8785,32 +11366,32 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="43">
         <f>C29/C4</f>
         <v>0.19441903019213175</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="43">
         <f>D29/D4</f>
         <v>0.11728605523354919</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="43">
         <f>E29/E4</f>
         <v>0.14101760980023662</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="43">
         <f>F29/F4</f>
         <v>0.1237572340109809</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="43">
         <f>G29/G4</f>
         <v>0.14662972178240222</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="43">
         <f>H29/H4</f>
         <v>0.14628649377993264</v>
       </c>
@@ -8825,7 +11406,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="C33" s="9">
         <f>D21/C21</f>
@@ -8854,7 +11435,7 @@
     </row>
     <row r="34" ht="14.25">
       <c r="B34" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="9">
@@ -8880,7 +11461,7 @@
     </row>
     <row r="35" ht="14.25">
       <c r="B35" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9">
@@ -8925,158 +11506,158 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="12" style="24" width="9.140625"/>
-    <col customWidth="1" min="13" max="13" style="24" width="13.7109375"/>
-    <col customWidth="1" min="14" max="14" style="24" width="22.00390625"/>
-    <col min="15" max="16384" style="24" width="9.140625"/>
+    <col min="1" max="12" style="44" width="9.140625"/>
+    <col customWidth="1" min="13" max="13" style="44" width="13.7109375"/>
+    <col customWidth="1" min="14" max="14" style="44" width="22.00390625"/>
+    <col min="15" max="16384" style="44" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>231</v>
+      <c r="A1" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="M2" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="24">
+      <c r="M2" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="N2" s="44">
         <v>123.7</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="B3" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3" s="24">
+      <c r="B3" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="44">
         <v>216904290</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="M4" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="N4" s="26">
+      <c r="M4" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="N4" s="46">
         <f>N3*N2</f>
         <v>26831060673</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="44">
         <f>N4/10000000</f>
         <v>2683.1060673000002</v>
       </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="B5" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="B5" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="44">
         <v>2024</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="24">
+      <c r="M5" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="N5" s="44">
         <f>32.59</f>
         <v>32.590000000000003</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
     </row>
     <row r="6" ht="16.5">
-      <c r="B6" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="M6" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="N6" s="24">
+      <c r="B6" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="M6" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="N6" s="44">
         <f>59.6471</f>
         <v>59.647100000000002</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" ht="16.5">
-      <c r="B7" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="N7" s="24">
+      <c r="B7" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="N7" s="44">
         <f>O4+N6-N5</f>
         <v>2710.1631673000002</v>
       </c>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" ht="16.5">
-      <c r="B8" s="24" t="s">
-        <v>242</v>
+      <c r="B8" s="44" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="D9" s="24">
+      <c r="D9" s="44">
         <v>2021</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="D10" s="24"/>
-      <c r="H10" s="27"/>
+      <c r="D10" s="44"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="B18" s="25" t="s">
-        <v>243</v>
+      <c r="B18" s="45" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="A20" s="24">
+      <c r="A20" s="44">
         <v>2024</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>244</v>
+      <c r="B20" s="44" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="21" ht="16.5">
-      <c r="A21" s="24">
+      <c r="A21" s="44">
         <v>2021</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>245</v>
+      <c r="B21" s="44" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="22" ht="16.5">
-      <c r="B22" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>247</v>
+      <c r="B22" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="B23" s="24" t="s">
-        <v>248</v>
+      <c r="B23" s="44" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="24" ht="16.5">
-      <c r="B24" s="24" t="s">
-        <v>249</v>
+      <c r="B24" s="44" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/ENERGY.xlsx
+++ b/sheets/ENERGY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId2"/>
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t xml:space="preserve">Earnings Per Share</t>
   </si>
@@ -992,6 +992,33 @@
   </si>
   <si>
     <t xml:space="preserve">Company had some OCD's ( Optionally Convertible Debentures ) and CCPS ( Compulsorily Convertible Preference Shares ) and now they converted that to equity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C&amp;I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control and procuremnet </t>
+  </si>
+  <si>
+    <t>BESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery energy storeage systems </t>
+  </si>
+  <si>
+    <t>RLMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revised List of Models and Manufacturers</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/share/68587513-f3dc-8009-b82e-cfb336198247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Predicted </t>
+  </si>
+  <si>
+    <t>https://www.suzlon.com/NewPdf/Financial_Reports_&amp;_Presentations/2024-25/Call_Transcript-May_2025.pdf</t>
   </si>
   <si>
     <t>https://www.suzlon.com/pdf/investor/annual-report-2017-18.pdf</t>
@@ -2068,7 +2095,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="mohit" id="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" userId="mohit" providerId="Teamlab"/>
+  <person displayName="mohit" id="{43998786-F5F2-5959-8DE0-D1417C32A20E}" userId="mohit" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -2564,63 +2591,63 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L16" dT="2025-06-19T21:36:36.25Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{6788FAC3-FD09-97E3-2E6A-DE380B094467}" done="1">
+  <threadedComment ref="L16" dT="2025-06-19T21:36:36.25Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{6788FAC3-FD09-97E3-2E6A-DE380B094467}" done="1">
     <text xml:space="preserve">This is coming from making OCD / CD to equity and removing rerducing debt and increasing the no. of shares
 </text>
   </threadedComment>
-  <threadedComment ref="R16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{C25DF110-51D2-DBB6-4294-91D168F94F65}" done="1">
+  <threadedComment ref="R16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{C25DF110-51D2-DBB6-4294-91D168F94F65}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="V16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{C4C9A323-5FD8-C318-48C7-625C083DE3CC}" done="1">
+  <threadedComment ref="V16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{C4C9A323-5FD8-C318-48C7-625C083DE3CC}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="W16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{D25D12BC-92CF-4707-7E5C-ECCCA284E96B}" done="1">
+  <threadedComment ref="W16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{D25D12BC-92CF-4707-7E5C-ECCCA284E96B}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="X16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{C552B544-9419-49D1-86D6-3AA8D3E8C5A6}" done="1">
+  <threadedComment ref="X16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{C552B544-9419-49D1-86D6-3AA8D3E8C5A6}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="Y16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{5D933D35-8ACA-E96A-9241-B30FA5B6FB21}" done="1">
+  <threadedComment ref="Y16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{5D933D35-8ACA-E96A-9241-B30FA5B6FB21}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="Z16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{4A354EEA-C58E-D99D-F7E3-1F3AC30D963E}" done="1">
+  <threadedComment ref="Z16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{4A354EEA-C58E-D99D-F7E3-1F3AC30D963E}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AA16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{AE93DCD3-52A9-F445-D5C9-F624B1CF9FDF}" done="1">
+  <threadedComment ref="AA16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{AE93DCD3-52A9-F445-D5C9-F624B1CF9FDF}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AB16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{E071A292-1398-1D6B-A6A1-B97D26136388}" done="1">
+  <threadedComment ref="AB16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{E071A292-1398-1D6B-A6A1-B97D26136388}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AC16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{7FE70B89-01A7-FEEF-6513-920E788E781A}" done="1">
+  <threadedComment ref="AC16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{7FE70B89-01A7-FEEF-6513-920E788E781A}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AD16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{3EFF5A57-05A6-6336-1E59-C33C8CCBF375}" done="1">
+  <threadedComment ref="AD16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{3EFF5A57-05A6-6336-1E59-C33C8CCBF375}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AE16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{7200CAE6-E6E3-1427-AA30-8B8AD0F86A6F}" done="1">
+  <threadedComment ref="AE16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{7200CAE6-E6E3-1427-AA30-8B8AD0F86A6F}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AF16" dT="2025-06-19T21:34:29.91Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{17AF943B-8130-ED9E-4453-68498A5563E6}" done="1">
+  <threadedComment ref="AF16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{17AF943B-8130-ED9E-4453-68498A5563E6}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="P19" dT="2025-06-19T21:38:44.15Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}" done="0">
+  <threadedComment ref="P19" dT="2025-06-19T21:38:44.15Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}" done="0">
     <text xml:space="preserve">Converting Convertible debentures to equity leading to increased equity value
 </text>
   </threadedComment>
-  <threadedComment ref="P40" dT="2025-06-18T21:27:29.95Z" personId="{E7DB6518-89BC-5AAC-7FF2-3A1BECC9B4C7}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
+  <threadedComment ref="P40" dT="2025-06-18T21:27:29.95Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
     <text xml:space="preserve">this money came from exceptional item
 </text>
   </threadedComment>
@@ -3227,7 +3254,7 @@
     </row>
     <row r="6" s="0" customFormat="1" ht="14.25">
       <c r="B6" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C6" s="19">
         <f>C45</f>
@@ -3292,7 +3319,7 @@
     </row>
     <row r="7" s="0" customFormat="1" ht="14.25">
       <c r="B7" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C7" s="19">
         <f>C44+C43</f>
@@ -3357,7 +3384,7 @@
     </row>
     <row r="8" s="0" customFormat="1" ht="14.25">
       <c r="B8" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C8" s="19">
         <f>C40</f>
@@ -3458,7 +3485,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C10" s="18">
         <v>90.540999999999997</v>
@@ -3590,7 +3617,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C11" s="18">
         <v>423.86680000000001</v>
@@ -3768,7 +3795,7 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>180</v>
@@ -4283,7 +4310,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C17" s="18">
         <v>0</v>
@@ -4390,7 +4417,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C18" s="18">
         <v>0</v>
@@ -4497,7 +4524,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>72</v>
@@ -5065,7 +5092,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -5078,7 +5105,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="B24" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C24" s="18">
         <v>-0.88</v>
@@ -5108,16 +5135,16 @@
     <row r="25" ht="14.25">
       <c r="J25" s="6"/>
       <c r="K25" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>188</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>190</v>
@@ -5163,7 +5190,7 @@
         <v>9772</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Z26" s="24">
         <v>0.11</v>
@@ -5171,7 +5198,7 @@
     </row>
     <row r="27" ht="14.25">
       <c r="B27" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C27" s="9">
         <f>C26/C3</f>
@@ -5229,7 +5256,7 @@
     </row>
     <row r="28" ht="14.25">
       <c r="B28" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9">
@@ -5275,7 +5302,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="Y28" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Z28" s="1">
         <v>951</v>
@@ -5328,7 +5355,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="Y29" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Z29">
         <v>1684931507</v>
@@ -5336,7 +5363,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="B30" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C30" s="9">
         <f>C13/C6</f>
@@ -5385,7 +5412,7 @@
         <v>0.25</v>
       </c>
       <c r="Y30" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Z30" s="21">
         <f>Z27*10000000/Z29</f>
@@ -5442,7 +5469,7 @@
     </row>
     <row r="32" ht="14.25">
       <c r="B32" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C32" s="25">
         <f>MAX(0,C19/C20)</f>
@@ -5492,7 +5519,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C33">
         <f>C47/C40</f>
@@ -5532,12 +5559,12 @@
     <row r="34" ht="14.25"/>
     <row r="36" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C37" s="6">
         <v>1564.01</v>
@@ -5566,7 +5593,7 @@
     </row>
     <row r="38" ht="14.25">
       <c r="B38" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -5595,7 +5622,7 @@
     </row>
     <row r="39" ht="14.25">
       <c r="B39" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C39" s="6">
         <v>-222.59999999999999</v>
@@ -5624,7 +5651,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="14.25">
       <c r="B40" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C40" s="63">
         <f>SUM(C37:C39)</f>
@@ -5669,7 +5696,7 @@
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -5680,10 +5707,10 @@
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C43" s="62">
         <v>0</v>
@@ -5709,7 +5736,7 @@
     </row>
     <row r="44" ht="14.25">
       <c r="B44" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C44" s="62">
         <v>8373.0499999999993</v>
@@ -5738,7 +5765,7 @@
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="C45" s="62">
         <v>1351.3099999999999</v>
@@ -5775,7 +5802,7 @@
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C47" s="63">
         <f>SUM(C43:C45)</f>
@@ -5813,7 +5840,7 @@
     <row r="48" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -5846,7 +5873,7 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -5854,15 +5881,15 @@
         <v>2024</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -10033,7 +10060,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10080,7 +10107,48 @@
     </row>
     <row r="11" ht="14.25"/>
     <row r="12" ht="14.25"/>
+    <row r="14" ht="14.25">
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B18"/>
+    <hyperlink r:id="rId2" ref="C19"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -10121,23 +10189,23 @@
       <c r="I1" s="29"/>
       <c r="J1" s="7"/>
       <c r="K1" s="5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="5" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>166</v>
@@ -10155,7 +10223,7 @@
         <v>170</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="J2" s="1">
         <v>2017</v>
@@ -10286,7 +10354,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C4" s="30">
         <v>5.6100000000000003</v>
@@ -10337,7 +10405,7 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C5" s="30">
         <v>22.760000000000002</v>
@@ -10388,7 +10456,7 @@
     </row>
     <row r="6" s="1" customFormat="1">
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C6" s="20">
         <f>SUM(C3:C5)</f>
@@ -10495,7 +10563,7 @@
     </row>
     <row r="7" s="1" customFormat="1">
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -10530,7 +10598,7 @@
     </row>
     <row r="8" s="1" customFormat="1">
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -10591,7 +10659,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -10684,7 +10752,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C11" s="34">
         <v>0</v>
@@ -10764,7 +10832,7 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C12" s="34">
         <v>-77.650000000000006</v>
@@ -11104,7 +11172,7 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C16" s="36">
         <f>206.09-2.73</f>
@@ -11298,7 +11366,7 @@
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C18" s="20">
         <f>C6-C17</f>
@@ -11405,10 +11473,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C19" s="34">
         <v>0</v>
@@ -12030,7 +12098,7 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C23" s="39">
         <v>857.71000000000004</v>
@@ -12086,7 +12154,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D24" s="39">
         <v>1.71</v>
@@ -12143,16 +12211,16 @@
       <c r="P25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AH25" s="24">
         <v>0.01</v>
@@ -12160,7 +12228,7 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -12217,7 +12285,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AH26" s="24">
         <v>0.11</v>
@@ -12225,7 +12293,7 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -12280,7 +12348,7 @@
     </row>
     <row r="28" ht="15">
       <c r="B28" s="44" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
@@ -12400,7 +12468,7 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AH29">
         <v>63.229999999999997</v>
@@ -12408,7 +12476,7 @@
     </row>
     <row r="30">
       <c r="B30" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -12462,7 +12530,7 @@
         <v>-0.012525798875524775</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AH30">
         <f>AH27*10000000/AH28</f>
@@ -12583,7 +12651,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -12638,7 +12706,7 @@
     </row>
     <row r="34" ht="14.25">
       <c r="B34" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -12690,7 +12758,7 @@
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -12705,7 +12773,7 @@
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -12768,12 +12836,12 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -12788,7 +12856,7 @@
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -12832,7 +12900,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -12842,27 +12910,27 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="15">
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C4" s="7">
         <v>87.439999999999998</v>
@@ -12885,7 +12953,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C5" s="7">
         <v>0.53000000000000003</v>
@@ -12908,7 +12976,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25">
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1">
         <f>C4+C5</f>
@@ -12945,7 +13013,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C8" s="6">
         <v>70.439999999999998</v>
@@ -12968,7 +13036,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -12991,7 +13059,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C10" s="6">
         <v>-0.97999999999999998</v>
@@ -13037,10 +13105,10 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C12" s="6">
         <v>2.77</v>
@@ -13115,7 +13183,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
@@ -13150,7 +13218,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C18" s="6">
         <v>0.080000000000000002</v>
@@ -13260,7 +13328,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="B22" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -13284,7 +13352,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C23" s="6">
         <f>C19</f>
@@ -13317,7 +13385,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -13386,7 +13454,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -13426,7 +13494,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C33" s="9">
         <f>D21/C21</f>
@@ -13455,7 +13523,7 @@
     </row>
     <row r="34" ht="14.25">
       <c r="B34" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="9">
@@ -13481,7 +13549,7 @@
     </row>
     <row r="35" ht="14.25">
       <c r="B35" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9">
@@ -13534,15 +13602,15 @@
   <sheetData>
     <row r="1" ht="16.5">
       <c r="A1" s="51" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" ht="16.5">
       <c r="M2" s="50" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N2" s="50">
         <v>123.7</v>
@@ -13552,10 +13620,10 @@
     </row>
     <row r="3" ht="16.5">
       <c r="B3" s="50" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="N3" s="50">
         <v>216904290</v>
@@ -13565,7 +13633,7 @@
     </row>
     <row r="4" ht="16.5">
       <c r="M4" s="50" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="N4" s="52">
         <f>N3*N2</f>
@@ -13580,13 +13648,13 @@
     </row>
     <row r="5" ht="16.5">
       <c r="B5" s="50" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="D5" s="50">
         <v>2024</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N5" s="50">
         <f>32.59</f>
@@ -13597,11 +13665,11 @@
     </row>
     <row r="6" ht="16.5">
       <c r="B6" s="50" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="D6" s="50"/>
       <c r="M6" s="50" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N6" s="50">
         <f>59.6471</f>
@@ -13612,13 +13680,13 @@
     </row>
     <row r="7" ht="16.5">
       <c r="B7" s="50" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="M7" s="50" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="N7" s="50">
         <f>O4+N6-N5</f>
@@ -13629,7 +13697,7 @@
     </row>
     <row r="8" ht="16.5">
       <c r="B8" s="50" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" ht="16.5">
@@ -13643,7 +13711,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="B18" s="51" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" ht="16.5">
@@ -13651,7 +13719,7 @@
         <v>2024</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" ht="16.5">
@@ -13659,25 +13727,25 @@
         <v>2021</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" ht="16.5">
       <c r="B22" s="50" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" ht="16.5">
       <c r="B23" s="50" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" ht="16.5">
       <c r="B24" s="50" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/ENERGY.xlsx
+++ b/sheets/ENERGY.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" state="visible" r:id="rId2"/>
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="370">
   <si>
     <t xml:space="preserve">Earnings Per Share</t>
   </si>
@@ -994,10 +994,40 @@
     <t xml:space="preserve">Company had some OCD's ( Optionally Convertible Debentures ) and CCPS ( Compulsorily Convertible Preference Shares ) and now they converted that to equity </t>
   </si>
   <si>
+    <t xml:space="preserve">NTPC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Thermal Power Corporation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operations &amp; Maintenance Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn Key solutions that mean company does everything end to end , and provides the user with a key to turn to start the operations ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non EPC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its more limited to distribution , raw materials supplier , etc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original Equipment Manufacturer</t>
+  </si>
+  <si>
     <t xml:space="preserve">C&amp;I </t>
   </si>
   <si>
-    <t xml:space="preserve">Control and procuremnet </t>
+    <t xml:space="preserve">commercial and industrial </t>
   </si>
   <si>
     <t>BESS</t>
@@ -1012,6 +1042,33 @@
     <t xml:space="preserve">Revised List of Models and Manufacturers</t>
   </si>
   <si>
+    <t xml:space="preserve">:: All wind energy related materials ( generator , blades , motor etc ) all should be taken from indian manufacturers no import allowed .. all data , data-center and server needs to be from india .. manufactures need to setup R&amp;D center in India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of RLMM prepared bt the wind parts manufacturers </t>
+  </si>
+  <si>
+    <t>https://cdnbbsr.s3waas.gov.in/s3716e1b8c6cd17b771da77391355749f3/uploads/2025/05/202506122092181356.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind turbine generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering procurement and construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firm dispatchable renewable energy</t>
+  </si>
+  <si>
     <t>https://chatgpt.com/share/68587513-f3dc-8009-b82e-cfb336198247</t>
   </si>
   <si>
@@ -1021,6 +1078,69 @@
     <t>https://www.suzlon.com/NewPdf/Financial_Reports_&amp;_Presentations/2024-25/Call_Transcript-May_2025.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">2025 Predictions met </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order book check and internal deliverables ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Says this year the company will perform 60% growth across all the key parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribution margin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have a lot of order for next 24 months, execution is the problem ... more the execution better the margin wil be </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bulk pipelines coming from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">S144  , </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Order book , fulfilling happens after 2-3 years ,depend on many factors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintainance of around 3GW of energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under operations and maintainance they have 15GW+ to maintain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quaterly results and earnings calls for the quarter go hand-in-hand .. </t>
+  </si>
+  <si>
     <t>https://www.suzlon.com/pdf/investor/annual-report-2017-18.pdf</t>
   </si>
   <si>
@@ -1078,9 +1198,6 @@
     <t xml:space="preserve">Profit to equity owners</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>AVERAGE</t>
   </si>
   <si>
@@ -1124,6 +1241,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tax Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income y/y</t>
   </si>
   <si>
     <t xml:space="preserve">Balance Sheet</t>
@@ -1427,7 +1547,6 @@
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Liberation Sans"/>
     </font>
     <font>
@@ -1484,7 +1603,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="53">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1532,20 +1651,9 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="165" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="165" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="165" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="2" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1560,19 +1668,9 @@
     <xf fontId="4" fillId="0" borderId="1" numFmtId="165" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="6" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="10" xfId="1" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1625,7 +1723,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>88899</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>158748</xdr:rowOff>
+      <xdr:rowOff>158747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -1824,13 +1922,13 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
+      <xdr:colOff>13605</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
+      <xdr:rowOff>13605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
+      <xdr:colOff>13605</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
@@ -1997,7 +2095,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>53974</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>79373</xdr:rowOff>
+      <xdr:rowOff>79372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -2095,7 +2193,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="mohit" id="{43998786-F5F2-5959-8DE0-D1417C32A20E}" userId="mohit" providerId="Teamlab"/>
+  <person displayName="mohit" id="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" userId="mohit" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -2591,63 +2689,63 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L16" dT="2025-06-19T21:36:36.25Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{6788FAC3-FD09-97E3-2E6A-DE380B094467}" done="1">
+  <threadedComment ref="L16" dT="2025-06-19T21:36:36.25Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{6788FAC3-FD09-97E3-2E6A-DE380B094467}" done="1">
     <text xml:space="preserve">This is coming from making OCD / CD to equity and removing rerducing debt and increasing the no. of shares
 </text>
   </threadedComment>
-  <threadedComment ref="R16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{C25DF110-51D2-DBB6-4294-91D168F94F65}" done="1">
+  <threadedComment ref="R16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{C25DF110-51D2-DBB6-4294-91D168F94F65}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="V16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{C4C9A323-5FD8-C318-48C7-625C083DE3CC}" done="1">
+  <threadedComment ref="V16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{C4C9A323-5FD8-C318-48C7-625C083DE3CC}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="W16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{D25D12BC-92CF-4707-7E5C-ECCCA284E96B}" done="1">
+  <threadedComment ref="W16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{D25D12BC-92CF-4707-7E5C-ECCCA284E96B}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="X16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{C552B544-9419-49D1-86D6-3AA8D3E8C5A6}" done="1">
+  <threadedComment ref="X16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{C552B544-9419-49D1-86D6-3AA8D3E8C5A6}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="Y16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{5D933D35-8ACA-E96A-9241-B30FA5B6FB21}" done="1">
+  <threadedComment ref="Y16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{5D933D35-8ACA-E96A-9241-B30FA5B6FB21}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="Z16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{4A354EEA-C58E-D99D-F7E3-1F3AC30D963E}" done="1">
+  <threadedComment ref="Z16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{4A354EEA-C58E-D99D-F7E3-1F3AC30D963E}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AA16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{AE93DCD3-52A9-F445-D5C9-F624B1CF9FDF}" done="1">
+  <threadedComment ref="AA16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{AE93DCD3-52A9-F445-D5C9-F624B1CF9FDF}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AB16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{E071A292-1398-1D6B-A6A1-B97D26136388}" done="1">
+  <threadedComment ref="AB16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{E071A292-1398-1D6B-A6A1-B97D26136388}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AC16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{7FE70B89-01A7-FEEF-6513-920E788E781A}" done="1">
+  <threadedComment ref="AC16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{7FE70B89-01A7-FEEF-6513-920E788E781A}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AD16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{3EFF5A57-05A6-6336-1E59-C33C8CCBF375}" done="1">
+  <threadedComment ref="AD16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{3EFF5A57-05A6-6336-1E59-C33C8CCBF375}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AE16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{7200CAE6-E6E3-1427-AA30-8B8AD0F86A6F}" done="1">
+  <threadedComment ref="AE16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{7200CAE6-E6E3-1427-AA30-8B8AD0F86A6F}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="AF16" dT="2025-06-19T21:34:29.91Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{17AF943B-8130-ED9E-4453-68498A5563E6}" done="1">
+  <threadedComment ref="AF16" dT="2025-06-19T21:34:29.91Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{17AF943B-8130-ED9E-4453-68498A5563E6}" done="1">
     <text xml:space="preserve">AGAIN ? high value ?
 </text>
   </threadedComment>
-  <threadedComment ref="P19" dT="2025-06-19T21:38:44.15Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}" done="0">
+  <threadedComment ref="P19" dT="2025-06-19T21:38:44.15Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{3CB725A5-1E1E-8B7C-3D4E-334F096E1B49}" done="0">
     <text xml:space="preserve">Converting Convertible debentures to equity leading to increased equity value
 </text>
   </threadedComment>
-  <threadedComment ref="P40" dT="2025-06-18T21:27:29.95Z" personId="{43998786-F5F2-5959-8DE0-D1417C32A20E}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
+  <threadedComment ref="P40" dT="2025-06-18T21:27:29.95Z" personId="{DBAA1340-40C5-69BB-24C5-374D64A5FCDD}" id="{9A4B6B9E-88EE-C23D-B709-D7D46A1D7A02}" done="1">
     <text xml:space="preserve">this money came from exceptional item
 </text>
   </threadedComment>
@@ -3159,102 +3257,102 @@
         <f>O5*(1+$M$28)</f>
         <v>17296.392799999998</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="43">
         <f>P5*(1+$M$28)</f>
         <v>20409.743503999995</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="43">
         <f>Q5*(1+$M$28)</f>
         <v>24083.497334719992</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="43">
         <f>R5*(1+$M$28)</f>
         <v>28418.52685496959</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="43">
         <f>S5*(1+$M$28)</f>
         <v>33533.861688864112</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5" s="43">
         <f>T5*(1+$M$28)</f>
         <v>39569.956792859652</v>
       </c>
-      <c r="V5" s="54">
+      <c r="V5" s="43">
         <f>U5*(1+$M$28)</f>
         <v>46692.54901557439</v>
       </c>
-      <c r="W5" s="54">
+      <c r="W5" s="43">
         <f>V5*(1+$M$28)</f>
         <v>55097.207838377777</v>
       </c>
-      <c r="X5" s="54">
+      <c r="X5" s="43">
         <f>W5*(1+$M$28)</f>
         <v>65014.705249285777</v>
       </c>
-      <c r="Y5" s="54">
+      <c r="Y5" s="43">
         <f>X5*($N$28+1)</f>
         <v>70866.028721721508</v>
       </c>
-      <c r="Z5" s="54">
+      <c r="Z5" s="43">
         <f>Y5*($N$28+1)</f>
         <v>77243.971306676453</v>
       </c>
-      <c r="AA5" s="54">
+      <c r="AA5" s="43">
         <f>Z5*($N$28+1)</f>
         <v>84195.928724277343</v>
       </c>
-      <c r="AB5" s="54">
+      <c r="AB5" s="43">
         <f>AA5*($N$28+1)</f>
         <v>91773.562309462315</v>
       </c>
-      <c r="AC5" s="54">
+      <c r="AC5" s="43">
         <f>AB5*($N$28+1)</f>
         <v>100033.18291731393</v>
       </c>
-      <c r="AD5" s="54">
+      <c r="AD5" s="43">
         <f>AC5*($N$28+1)</f>
         <v>109036.16937987218</v>
       </c>
-      <c r="AE5" s="54">
+      <c r="AE5" s="43">
         <f>AD5*($N$28+1)</f>
         <v>118849.42462406069</v>
       </c>
-      <c r="AF5" s="54">
+      <c r="AF5" s="43">
         <f>AE5*($N$28+1)</f>
         <v>129545.87284022616</v>
       </c>
-      <c r="AG5" s="54">
+      <c r="AG5" s="43">
         <f>AF5*($N$28+1)</f>
         <v>141205.00139584651</v>
       </c>
-      <c r="AH5" s="54">
+      <c r="AH5" s="43">
         <f>AG5*($N$28+1)</f>
         <v>153913.45152147271</v>
       </c>
-      <c r="AI5" s="54">
+      <c r="AI5" s="43">
         <f>AH5*($N$28+1)</f>
         <v>167765.66215840526</v>
       </c>
-      <c r="AJ5" s="54">
+      <c r="AJ5" s="43">
         <f>AI5*($N$28+1)</f>
         <v>182864.57175266175</v>
       </c>
-      <c r="AK5" s="54">
+      <c r="AK5" s="43">
         <f>AJ5*($N$28+1)</f>
         <v>199322.38321040131</v>
       </c>
-      <c r="AL5" s="54">
+      <c r="AL5" s="43">
         <f>AK5*($N$28+1)</f>
         <v>217261.39769933745</v>
       </c>
-      <c r="AM5" s="54">
+      <c r="AM5" s="43">
         <f>AL5*($N$28+1)</f>
         <v>236814.92349227783</v>
       </c>
     </row>
     <row r="6" s="0" customFormat="1" ht="14.25">
       <c r="B6" s="7" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="C6" s="19">
         <f>C45</f>
@@ -3293,33 +3391,33 @@
         <v>0</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
     </row>
     <row r="7" s="0" customFormat="1" ht="14.25">
       <c r="B7" s="7" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C7" s="19">
         <f>C44+C43</f>
@@ -3358,33 +3456,33 @@
         <v>0</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
     </row>
     <row r="8" s="0" customFormat="1" ht="14.25">
       <c r="B8" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="C8" s="19">
         <f>C40</f>
@@ -3423,29 +3521,29 @@
         <v>0</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
     </row>
     <row r="9" s="0" customFormat="1" ht="14.25">
       <c r="B9" s="7"/>
@@ -3459,33 +3557,33 @@
       <c r="J9" s="19"/>
       <c r="N9" s="19"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C10" s="18">
         <v>90.540999999999997</v>
@@ -3511,113 +3609,113 @@
       <c r="J10" s="19">
         <v>1440</v>
       </c>
-      <c r="N10" s="56">
+      <c r="N10" s="45">
         <v>1440</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="46">
         <f>O5*(1-$M$27)</f>
         <v>2198.6940000000004</v>
       </c>
-      <c r="P10" s="58">
+      <c r="P10" s="47">
         <f>P5*(1-$M$27)</f>
         <v>2594.45892</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="44">
         <f>Q5*(1-$M$27)</f>
         <v>3061.4615255999997</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="44">
         <f>R5*(1-$M$27)</f>
         <v>3612.5246002079994</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="44">
         <f>S5*(1-$M$27)</f>
         <v>4262.7790282454389</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="44">
         <f>T5*(1-$M$27)</f>
         <v>5030.0792533296171</v>
       </c>
-      <c r="U10" s="55">
+      <c r="U10" s="44">
         <f>U5*(1-$M$27)</f>
         <v>5935.493518928949</v>
       </c>
-      <c r="V10" s="55">
+      <c r="V10" s="44">
         <f>V5*(1-$M$27)</f>
         <v>7003.8823523361598</v>
       </c>
-      <c r="W10" s="55">
+      <c r="W10" s="44">
         <f>W5*(1-$M$27)</f>
         <v>8264.581175756668</v>
       </c>
-      <c r="X10" s="55">
+      <c r="X10" s="44">
         <f>X5*(1-$M$27)</f>
         <v>9752.2057873928679</v>
       </c>
-      <c r="Y10" s="55">
+      <c r="Y10" s="44">
         <f>Y5*(1-$N$27)</f>
         <v>9921.2440210410114</v>
       </c>
-      <c r="Z10" s="55">
+      <c r="Z10" s="44">
         <f>Z5*(1-$N$27)</f>
         <v>10814.155982934704</v>
       </c>
-      <c r="AA10" s="55">
+      <c r="AA10" s="44">
         <f>AA5*(1-$N$27)</f>
         <v>11787.43002139883</v>
       </c>
-      <c r="AB10" s="55">
+      <c r="AB10" s="44">
         <f>AB5*(1-$N$27)</f>
         <v>12848.298723324726</v>
       </c>
-      <c r="AC10" s="55">
+      <c r="AC10" s="44">
         <f>AC5*(1-$N$27)</f>
         <v>14004.645608423951</v>
       </c>
-      <c r="AD10" s="55">
+      <c r="AD10" s="44">
         <f>AD5*(1-$N$27)</f>
         <v>15265.063713182108</v>
       </c>
-      <c r="AE10" s="55">
+      <c r="AE10" s="44">
         <f>AE5*(1-$N$27)</f>
         <v>16638.919447368498</v>
       </c>
-      <c r="AF10" s="55">
+      <c r="AF10" s="44">
         <f>AF5*(1-$N$27)</f>
         <v>18136.422197631666</v>
       </c>
-      <c r="AG10" s="55">
+      <c r="AG10" s="44">
         <f>AG5*(1-$N$27)</f>
         <v>19768.700195418514</v>
       </c>
-      <c r="AH10" s="55">
+      <c r="AH10" s="44">
         <f>AH5*(1-$N$27)</f>
         <v>21547.883213006182</v>
       </c>
-      <c r="AI10" s="55">
+      <c r="AI10" s="44">
         <f>AI5*(1-$N$27)</f>
         <v>23487.192702176741</v>
       </c>
-      <c r="AJ10" s="55">
+      <c r="AJ10" s="44">
         <f>AJ5*(1-$N$27)</f>
         <v>25601.040045372647</v>
       </c>
-      <c r="AK10" s="55">
+      <c r="AK10" s="44">
         <f>AK5*(1-$N$27)</f>
         <v>27905.133649456187</v>
       </c>
-      <c r="AL10" s="55">
+      <c r="AL10" s="44">
         <f>AL5*(1-$N$27)</f>
         <v>30416.595677907248</v>
       </c>
-      <c r="AM10" s="55">
+      <c r="AM10" s="44">
         <f>AM5*(1-$N$27)</f>
         <v>33154.089288918898</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="7" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="C11" s="18">
         <v>423.86680000000001</v>
@@ -3637,29 +3735,29 @@
       <c r="J11" s="19"/>
       <c r="N11" s="19"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" t="s">
@@ -3696,106 +3794,106 @@
         <f>N12*($M$29+1)</f>
         <v>151.03999999999999</v>
       </c>
-      <c r="P12" s="59">
+      <c r="P12" s="48">
         <f>O12*($M$29+1)</f>
         <v>178.22719999999998</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="44">
         <f>P12*($M$29+1)</f>
         <v>210.30809599999998</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="44">
         <f>Q12*($M$29+1)</f>
         <v>248.16355327999997</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="44">
         <f>R12*($M$29+1)</f>
         <v>292.83299287039995</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="44">
         <f>S12*($M$29+1)</f>
         <v>345.54293158707191</v>
       </c>
-      <c r="U12" s="55">
+      <c r="U12" s="44">
         <f>T12*($M$29+1)</f>
         <v>407.74065927274484</v>
       </c>
-      <c r="V12" s="55">
+      <c r="V12" s="44">
         <f>U12*($M$29+1)</f>
         <v>481.13397794183891</v>
       </c>
-      <c r="W12" s="55">
+      <c r="W12" s="44">
         <f>V12*($M$29+1)</f>
         <v>567.73809397136984</v>
       </c>
-      <c r="X12" s="55">
+      <c r="X12" s="44">
         <f>W12*($M$29+1)</f>
         <v>669.93095088621635</v>
       </c>
-      <c r="Y12" s="55">
+      <c r="Y12" s="44">
         <f>X12*($N$29+1)</f>
         <v>730.22473646597587</v>
       </c>
-      <c r="Z12" s="55">
+      <c r="Z12" s="44">
         <f>Y12*($N$29+1)</f>
         <v>795.94496274791379</v>
       </c>
-      <c r="AA12" s="55">
+      <c r="AA12" s="44">
         <f>Z12*($N$29+1)</f>
         <v>867.58000939522606</v>
       </c>
-      <c r="AB12" s="55">
+      <c r="AB12" s="44">
         <f>AA12*($N$29+1)</f>
         <v>945.66221024079653</v>
       </c>
-      <c r="AC12" s="55">
+      <c r="AC12" s="44">
         <f>AB12*($N$29+1)</f>
         <v>1030.7718091624683</v>
       </c>
-      <c r="AD12" s="55">
+      <c r="AD12" s="44">
         <f>AC12*($N$29+1)</f>
         <v>1123.5412719870906</v>
       </c>
-      <c r="AE12" s="55">
+      <c r="AE12" s="44">
         <f>AD12*($N$29+1)</f>
         <v>1224.6599864659288</v>
       </c>
-      <c r="AF12" s="55">
+      <c r="AF12" s="44">
         <f>AE12*($N$29+1)</f>
         <v>1334.8793852478625</v>
       </c>
-      <c r="AG12" s="55">
+      <c r="AG12" s="44">
         <f>AF12*($N$29+1)</f>
         <v>1455.0185299201703</v>
       </c>
-      <c r="AH12" s="55">
+      <c r="AH12" s="44">
         <f>AG12*($N$29+1)</f>
         <v>1585.9701976129857</v>
       </c>
-      <c r="AI12" s="55">
+      <c r="AI12" s="44">
         <f>AH12*($N$29+1)</f>
         <v>1728.7075153981546</v>
       </c>
-      <c r="AJ12" s="55">
+      <c r="AJ12" s="44">
         <f>AI12*($N$29+1)</f>
         <v>1884.2911917839886</v>
       </c>
-      <c r="AK12" s="55">
+      <c r="AK12" s="44">
         <f>AJ12*($N$29+1)</f>
         <v>2053.8773990445475</v>
       </c>
-      <c r="AL12" s="55">
+      <c r="AL12" s="44">
         <f>AK12*($N$29+1)</f>
         <v>2238.726364958557</v>
       </c>
-      <c r="AM12" s="55">
+      <c r="AM12" s="44">
         <f>AL12*($N$29+1)</f>
         <v>2440.2117378048274</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="B13" t="s">
         <v>180</v>
@@ -3835,95 +3933,95 @@
         <f>O13*($M$28+1)</f>
         <v>7647.0607999999993</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="44">
         <f>P13*($M$28+1)</f>
         <v>9023.5317439999981</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="44">
         <f>Q13*($M$28+1)</f>
         <v>10647.767457919997</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="44">
         <f>R13*($M$28+1)</f>
         <v>12564.365600345596</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13" s="44">
         <f>S13*($M$28+1)</f>
         <v>14825.951408407804</v>
       </c>
-      <c r="U13" s="55">
+      <c r="U13" s="44">
         <f>T13*($M$28+1)</f>
         <v>17494.622661921207</v>
       </c>
-      <c r="V13" s="55">
+      <c r="V13" s="44">
         <f>U13*($M$28+1)</f>
         <v>20643.654741067021</v>
       </c>
-      <c r="W13" s="55">
+      <c r="W13" s="44">
         <f>V13*($M$28+1)</f>
         <v>24359.512594459084</v>
       </c>
-      <c r="X13" s="55">
+      <c r="X13" s="44">
         <f>W13*($M$28+1)</f>
         <v>28744.224861461717</v>
       </c>
-      <c r="Y13" s="55">
+      <c r="Y13" s="44">
         <f>X13*($N$28+1)</f>
         <v>31331.205098993272</v>
       </c>
-      <c r="Z13" s="55">
+      <c r="Z13" s="44">
         <f>Y13*($N$28+1)</f>
         <v>34151.013557902668</v>
       </c>
-      <c r="AA13" s="55">
+      <c r="AA13" s="44">
         <f>Z13*($N$28+1)</f>
         <v>37224.604778113913</v>
       </c>
-      <c r="AB13" s="55">
+      <c r="AB13" s="44">
         <f>AA13*($N$28+1)</f>
         <v>40574.819208144167</v>
       </c>
-      <c r="AC13" s="55">
+      <c r="AC13" s="44">
         <f>AB13*($N$28+1)</f>
         <v>44226.552936877146</v>
       </c>
-      <c r="AD13" s="55">
+      <c r="AD13" s="44">
         <f>AC13*($N$28+1)</f>
         <v>48206.942701196094</v>
       </c>
-      <c r="AE13" s="55">
+      <c r="AE13" s="44">
         <f>AD13*($N$28+1)</f>
         <v>52545.567544303747</v>
       </c>
-      <c r="AF13" s="55">
+      <c r="AF13" s="44">
         <f>AE13*($N$28+1)</f>
         <v>57274.668623291087</v>
       </c>
-      <c r="AG13" s="55">
+      <c r="AG13" s="44">
         <f>AF13*($N$28+1)</f>
         <v>62429.388799387292</v>
       </c>
-      <c r="AH13" s="55">
+      <c r="AH13" s="44">
         <f>AG13*($N$28+1)</f>
         <v>68048.033791332156</v>
       </c>
-      <c r="AI13" s="55">
+      <c r="AI13" s="44">
         <f>AH13*($N$28+1)</f>
         <v>74172.356832552061</v>
       </c>
-      <c r="AJ13" s="55">
+      <c r="AJ13" s="44">
         <f>AI13*($N$28+1)</f>
         <v>80847.868947481751</v>
       </c>
-      <c r="AK13" s="55">
+      <c r="AK13" s="44">
         <f>AJ13*($N$28+1)</f>
         <v>88124.177152755117</v>
       </c>
-      <c r="AL13" s="55">
+      <c r="AL13" s="44">
         <f>AK13*($N$28+1)</f>
         <v>96055.35309650308</v>
       </c>
-      <c r="AM13" s="55">
+      <c r="AM13" s="44">
         <f>AL13*($N$28+1)</f>
         <v>104700.33487518836</v>
       </c>
@@ -3967,95 +4065,95 @@
         <f>O14*($M$31+1)</f>
         <v>3133.4912000000004</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="44">
         <f>P14*($M$31+1)</f>
         <v>3509.5101440000008</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="44">
         <f>Q14*($M$31+1)</f>
         <v>3930.6513612800013</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="44">
         <f>R14*($M$31+1)</f>
         <v>4402.329524633602</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="44">
         <f>S14*($M$31+1)</f>
         <v>4930.6090675896348</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14" s="44">
         <f>T14*($M$31+1)</f>
         <v>5522.2821557003917</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="44">
         <f>U14*($M$31+1)</f>
         <v>6184.9560143844392</v>
       </c>
-      <c r="W14" s="55">
+      <c r="W14" s="44">
         <f>V14*($M$31+1)</f>
         <v>6927.1507361105723</v>
       </c>
-      <c r="X14" s="55">
+      <c r="X14" s="44">
         <f>W14*($M$31+1)</f>
         <v>7758.4088244438417</v>
       </c>
-      <c r="Y14" s="55">
+      <c r="Y14" s="44">
         <f>X14*($N$31+1)</f>
         <v>8689.4178833771039</v>
       </c>
-      <c r="Z14" s="55">
+      <c r="Z14" s="44">
         <f>Y14*($N$31+1)</f>
         <v>9732.148029382357</v>
       </c>
-      <c r="AA14" s="55">
+      <c r="AA14" s="44">
         <f>Z14*($N$31+1)</f>
         <v>10900.005792908241</v>
       </c>
-      <c r="AB14" s="55">
+      <c r="AB14" s="44">
         <f>AA14*($N$31+1)</f>
         <v>12208.006488057232</v>
       </c>
-      <c r="AC14" s="55">
+      <c r="AC14" s="44">
         <f>AB14*($N$31+1)</f>
         <v>13672.9672666241</v>
       </c>
-      <c r="AD14" s="55">
+      <c r="AD14" s="44">
         <f>AC14*($N$31+1)</f>
         <v>15313.723338618995</v>
       </c>
-      <c r="AE14" s="55">
+      <c r="AE14" s="44">
         <f>AD14*($N$31+1)</f>
         <v>17151.370139253275</v>
       </c>
-      <c r="AF14" s="55">
+      <c r="AF14" s="44">
         <f>AE14*($N$31+1)</f>
         <v>19209.53455596367</v>
       </c>
-      <c r="AG14" s="55">
+      <c r="AG14" s="44">
         <f>AF14*($N$31+1)</f>
         <v>21514.678702679314</v>
       </c>
-      <c r="AH14" s="55">
+      <c r="AH14" s="44">
         <f>AG14*($N$31+1)</f>
         <v>24096.440147000834</v>
       </c>
-      <c r="AI14" s="55">
+      <c r="AI14" s="44">
         <f>AH14*($N$31+1)</f>
         <v>26988.012964640937</v>
       </c>
-      <c r="AJ14" s="55">
+      <c r="AJ14" s="44">
         <f>AI14*($N$31+1)</f>
         <v>30226.574520397851</v>
       </c>
-      <c r="AK14" s="55">
+      <c r="AK14" s="44">
         <f>AJ14*($N$31+1)</f>
         <v>33853.7634628456</v>
       </c>
-      <c r="AL14" s="55">
+      <c r="AL14" s="44">
         <f>AK14*($N$31+1)</f>
         <v>37916.215078387075</v>
       </c>
-      <c r="AM14" s="55">
+      <c r="AM14" s="44">
         <f>AL14*($N$31+1)</f>
         <v>42466.160887793529</v>
       </c>
@@ -4097,73 +4195,73 @@
       <c r="P15" s="6">
         <v>850</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="44">
         <v>850</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="44">
         <v>850</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="44">
         <v>850</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="44">
         <v>850</v>
       </c>
-      <c r="U15" s="55">
+      <c r="U15" s="44">
         <v>850</v>
       </c>
-      <c r="V15" s="55">
+      <c r="V15" s="44">
         <v>850</v>
       </c>
-      <c r="W15" s="55">
+      <c r="W15" s="44">
         <v>850</v>
       </c>
-      <c r="X15" s="55">
+      <c r="X15" s="44">
         <v>850</v>
       </c>
-      <c r="Y15" s="55">
+      <c r="Y15" s="44">
         <v>850</v>
       </c>
-      <c r="Z15" s="55">
+      <c r="Z15" s="44">
         <v>850</v>
       </c>
-      <c r="AA15" s="55">
+      <c r="AA15" s="44">
         <v>850</v>
       </c>
-      <c r="AB15" s="55">
+      <c r="AB15" s="44">
         <v>850</v>
       </c>
-      <c r="AC15" s="55">
+      <c r="AC15" s="44">
         <v>850</v>
       </c>
-      <c r="AD15" s="55">
+      <c r="AD15" s="44">
         <v>850</v>
       </c>
-      <c r="AE15" s="55">
+      <c r="AE15" s="44">
         <v>850</v>
       </c>
-      <c r="AF15" s="55">
+      <c r="AF15" s="44">
         <v>850</v>
       </c>
-      <c r="AG15" s="55">
+      <c r="AG15" s="44">
         <v>850</v>
       </c>
-      <c r="AH15" s="55">
+      <c r="AH15" s="44">
         <v>850</v>
       </c>
-      <c r="AI15" s="55">
+      <c r="AI15" s="44">
         <v>850</v>
       </c>
-      <c r="AJ15" s="55">
+      <c r="AJ15" s="44">
         <v>850</v>
       </c>
-      <c r="AK15" s="55">
+      <c r="AK15" s="44">
         <v>850</v>
       </c>
-      <c r="AL15" s="55">
+      <c r="AL15" s="44">
         <v>850</v>
       </c>
-      <c r="AM15" s="55">
+      <c r="AM15" s="44">
         <v>850</v>
       </c>
     </row>
@@ -4215,102 +4313,102 @@
         <f>SUM(P10:P15)</f>
         <v>14403.23812</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="Q16" s="43">
         <f>SUM(Q10:Q15)</f>
         <v>16654.811509599996</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="43">
         <f>SUM(R10:R15)</f>
         <v>19289.106972687998</v>
       </c>
-      <c r="S16" s="54">
+      <c r="S16" s="43">
         <f>SUM(S10:S15)</f>
         <v>22372.307146095038</v>
       </c>
-      <c r="T16" s="54">
+      <c r="T16" s="43">
         <f>SUM(T10:T15)</f>
         <v>25982.182660914128</v>
       </c>
-      <c r="U16" s="54">
+      <c r="U16" s="43">
         <f>SUM(U10:U15)</f>
         <v>30210.13899582329</v>
       </c>
-      <c r="V16" s="54">
+      <c r="V16" s="43">
         <f>SUM(V10:V15)</f>
         <v>35163.627085729458</v>
       </c>
-      <c r="W16" s="54">
+      <c r="W16" s="43">
         <f>SUM(W10:W15)</f>
         <v>40968.982600297692</v>
       </c>
-      <c r="X16" s="54">
+      <c r="X16" s="43">
         <f>SUM(X10:X15)</f>
         <v>47774.770424184644</v>
       </c>
-      <c r="Y16" s="54">
+      <c r="Y16" s="43">
         <f>SUM(Y10:Y15)</f>
         <v>51522.09173987736</v>
       </c>
-      <c r="Z16" s="54">
+      <c r="Z16" s="43">
         <f>SUM(Z10:Z15)</f>
         <v>56343.262532967638</v>
       </c>
-      <c r="AA16" s="54">
+      <c r="AA16" s="43">
         <f>SUM(AA10:AA15)</f>
         <v>61629.620601816205</v>
       </c>
-      <c r="AB16" s="54">
+      <c r="AB16" s="43">
         <f>SUM(AB10:AB15)</f>
         <v>67426.786629766924</v>
       </c>
-      <c r="AC16" s="54">
+      <c r="AC16" s="43">
         <f>SUM(AC10:AC15)</f>
         <v>73784.937621087665</v>
       </c>
-      <c r="AD16" s="54">
+      <c r="AD16" s="43">
         <f>SUM(AD10:AD15)</f>
         <v>80759.271024984278</v>
       </c>
-      <c r="AE16" s="54">
+      <c r="AE16" s="43">
         <f>SUM(AE10:AE15)</f>
         <v>88410.517117391457</v>
       </c>
-      <c r="AF16" s="54">
+      <c r="AF16" s="43">
         <f>SUM(AF10:AF15)</f>
         <v>96805.504762134282</v>
       </c>
-      <c r="AG16" s="54">
+      <c r="AG16" s="43">
         <f>SUM(AG10:AG15)</f>
         <v>106017.78622740529</v>
       </c>
-      <c r="AH16" s="54">
+      <c r="AH16" s="43">
         <f>SUM(AH10:AH15)</f>
         <v>116128.32734895215</v>
       </c>
-      <c r="AI16" s="54">
+      <c r="AI16" s="43">
         <f>SUM(AI10:AI15)</f>
         <v>127226.27001476788</v>
       </c>
-      <c r="AJ16" s="54">
+      <c r="AJ16" s="43">
         <f>SUM(AJ10:AJ15)</f>
         <v>139409.77470503622</v>
       </c>
-      <c r="AK16" s="54">
+      <c r="AK16" s="43">
         <f>SUM(AK10:AK15)</f>
         <v>152786.95166410145</v>
       </c>
-      <c r="AL16" s="54">
+      <c r="AL16" s="43">
         <f>SUM(AL10:AL15)</f>
         <v>167476.89021775598</v>
       </c>
-      <c r="AM16" s="54">
+      <c r="AM16" s="43">
         <f>SUM(AM10:AM15)</f>
         <v>183610.79678970561</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="B17" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="C17" s="18">
         <v>0</v>
@@ -4345,79 +4443,79 @@
       <c r="P17" s="6">
         <v>200</v>
       </c>
-      <c r="Q17" s="55">
+      <c r="Q17" s="44">
         <v>200</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="44">
         <v>200</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="44">
         <v>200</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="44">
         <v>200</v>
       </c>
-      <c r="U17" s="55">
+      <c r="U17" s="44">
         <v>200</v>
       </c>
-      <c r="V17" s="55">
+      <c r="V17" s="44">
         <v>200</v>
       </c>
-      <c r="W17" s="55">
+      <c r="W17" s="44">
         <v>200</v>
       </c>
-      <c r="X17" s="55">
+      <c r="X17" s="44">
         <v>200</v>
       </c>
-      <c r="Y17" s="55">
+      <c r="Y17" s="44">
         <v>200</v>
       </c>
-      <c r="Z17" s="55">
+      <c r="Z17" s="44">
         <v>200</v>
       </c>
-      <c r="AA17" s="55">
+      <c r="AA17" s="44">
         <v>200</v>
       </c>
-      <c r="AB17" s="55">
+      <c r="AB17" s="44">
         <v>200</v>
       </c>
-      <c r="AC17" s="55">
+      <c r="AC17" s="44">
         <v>200</v>
       </c>
-      <c r="AD17" s="55">
+      <c r="AD17" s="44">
         <v>200</v>
       </c>
-      <c r="AE17" s="55">
+      <c r="AE17" s="44">
         <v>200</v>
       </c>
-      <c r="AF17" s="55">
+      <c r="AF17" s="44">
         <v>200</v>
       </c>
-      <c r="AG17" s="55">
+      <c r="AG17" s="44">
         <v>200</v>
       </c>
-      <c r="AH17" s="55">
+      <c r="AH17" s="44">
         <v>200</v>
       </c>
-      <c r="AI17" s="55">
+      <c r="AI17" s="44">
         <v>200</v>
       </c>
-      <c r="AJ17" s="55">
+      <c r="AJ17" s="44">
         <v>200</v>
       </c>
-      <c r="AK17" s="55">
+      <c r="AK17" s="44">
         <v>200</v>
       </c>
-      <c r="AL17" s="55">
+      <c r="AL17" s="44">
         <v>200</v>
       </c>
-      <c r="AM17" s="55">
+      <c r="AM17" s="44">
         <v>200</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C18" s="18">
         <v>0</v>
@@ -4452,79 +4550,79 @@
       <c r="P18" s="6">
         <v>0</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="44">
         <v>0</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="44">
         <v>0</v>
       </c>
-      <c r="S18" s="55">
+      <c r="S18" s="44">
         <v>0</v>
       </c>
-      <c r="T18" s="55">
+      <c r="T18" s="44">
         <v>0</v>
       </c>
-      <c r="U18" s="55">
+      <c r="U18" s="44">
         <v>0</v>
       </c>
-      <c r="V18" s="55">
+      <c r="V18" s="44">
         <v>0</v>
       </c>
-      <c r="W18" s="55">
+      <c r="W18" s="44">
         <v>0</v>
       </c>
-      <c r="X18" s="55">
+      <c r="X18" s="44">
         <v>0</v>
       </c>
-      <c r="Y18" s="55">
+      <c r="Y18" s="44">
         <v>0</v>
       </c>
-      <c r="Z18" s="55">
+      <c r="Z18" s="44">
         <v>0</v>
       </c>
-      <c r="AA18" s="55">
+      <c r="AA18" s="44">
         <v>0</v>
       </c>
-      <c r="AB18" s="55">
+      <c r="AB18" s="44">
         <v>0</v>
       </c>
-      <c r="AC18" s="55">
+      <c r="AC18" s="44">
         <v>0</v>
       </c>
-      <c r="AD18" s="55">
+      <c r="AD18" s="44">
         <v>0</v>
       </c>
-      <c r="AE18" s="55">
+      <c r="AE18" s="44">
         <v>0</v>
       </c>
-      <c r="AF18" s="55">
+      <c r="AF18" s="44">
         <v>0</v>
       </c>
-      <c r="AG18" s="55">
+      <c r="AG18" s="44">
         <v>0</v>
       </c>
-      <c r="AH18" s="55">
+      <c r="AH18" s="44">
         <v>0</v>
       </c>
-      <c r="AI18" s="55">
+      <c r="AI18" s="44">
         <v>0</v>
       </c>
-      <c r="AJ18" s="55">
+      <c r="AJ18" s="44">
         <v>0</v>
       </c>
-      <c r="AK18" s="55">
+      <c r="AK18" s="44">
         <v>0</v>
       </c>
-      <c r="AL18" s="55">
+      <c r="AL18" s="44">
         <v>0</v>
       </c>
-      <c r="AM18" s="55">
+      <c r="AM18" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>72</v>
@@ -4573,95 +4671,95 @@
         <f>P5-P16+P17+P18</f>
         <v>3093.1546799999978</v>
       </c>
-      <c r="Q19" s="60">
+      <c r="Q19" s="49">
         <f>Q5-Q16+Q17+Q18</f>
         <v>3954.9319943999981</v>
       </c>
-      <c r="R19" s="60">
+      <c r="R19" s="49">
         <f>R5-R16+R17+R18</f>
         <v>4994.3903620319943</v>
       </c>
-      <c r="S19" s="60">
+      <c r="S19" s="49">
         <f>S5-S16+S17+S18</f>
         <v>6246.2197088745525</v>
       </c>
-      <c r="T19" s="60">
+      <c r="T19" s="49">
         <f>T5-T16+T17+T18</f>
         <v>7751.6790279499837</v>
       </c>
-      <c r="U19" s="60">
+      <c r="U19" s="49">
         <f>U5-U16+U17+U18</f>
         <v>9559.8177970363613</v>
       </c>
-      <c r="V19" s="60">
+      <c r="V19" s="49">
         <f>V5-V16+V17+V18</f>
         <v>11728.921929844932</v>
       </c>
-      <c r="W19" s="60">
+      <c r="W19" s="49">
         <f>W5-W16+W17+W18</f>
         <v>14328.225238080086</v>
       </c>
-      <c r="X19" s="60">
+      <c r="X19" s="49">
         <f>X5-X16+X17+X18</f>
         <v>17439.934825101132</v>
       </c>
-      <c r="Y19" s="60">
+      <c r="Y19" s="49">
         <f>Y5-Y16+Y17+Y18</f>
         <v>19543.936981844148</v>
       </c>
-      <c r="Z19" s="60">
+      <c r="Z19" s="49">
         <f>Z5-Z16+Z17+Z18</f>
         <v>21100.708773708815</v>
       </c>
-      <c r="AA19" s="60">
+      <c r="AA19" s="49">
         <f>AA5-AA16+AA17+AA18</f>
         <v>22766.308122461138</v>
       </c>
-      <c r="AB19" s="60">
+      <c r="AB19" s="49">
         <f>AB5-AB16+AB17+AB18</f>
         <v>24546.775679695391</v>
       </c>
-      <c r="AC19" s="60">
+      <c r="AC19" s="49">
         <f>AC5-AC16+AC17+AC18</f>
         <v>26448.245296226261</v>
       </c>
-      <c r="AD19" s="60">
+      <c r="AD19" s="49">
         <f>AD5-AD16+AD17+AD18</f>
         <v>28476.898354887904</v>
       </c>
-      <c r="AE19" s="60">
+      <c r="AE19" s="49">
         <f>AE5-AE16+AE17+AE18</f>
         <v>30638.907506669231</v>
       </c>
-      <c r="AF19" s="60">
+      <c r="AF19" s="49">
         <f>AF5-AF16+AF17+AF18</f>
         <v>32940.36807809188</v>
       </c>
-      <c r="AG19" s="60">
+      <c r="AG19" s="49">
         <f>AG5-AG16+AG17+AG18</f>
         <v>35387.215168441224</v>
       </c>
-      <c r="AH19" s="60">
+      <c r="AH19" s="49">
         <f>AH5-AH16+AH17+AH18</f>
         <v>37985.124172520562</v>
       </c>
-      <c r="AI19" s="60">
+      <c r="AI19" s="49">
         <f>AI5-AI16+AI17+AI18</f>
         <v>40739.392143637378</v>
       </c>
-      <c r="AJ19" s="60">
+      <c r="AJ19" s="49">
         <f>AJ5-AJ16+AJ17+AJ18</f>
         <v>43654.797047625529</v>
       </c>
-      <c r="AK19" s="60">
+      <c r="AK19" s="49">
         <f>AK5-AK16+AK17+AK18</f>
         <v>46735.431546299864</v>
       </c>
-      <c r="AL19" s="60">
+      <c r="AL19" s="49">
         <f>AL5-AL16+AL17+AL18</f>
         <v>49984.507481581473</v>
       </c>
-      <c r="AM19" s="60">
+      <c r="AM19" s="49">
         <f>AM5-AM16+AM17+AM18</f>
         <v>53404.126702572219</v>
       </c>
@@ -4705,95 +4803,95 @@
         <f>-1*$M$32*P19</f>
         <v>-433.04165519999975</v>
       </c>
-      <c r="Q20" s="55">
+      <c r="Q20" s="44">
         <f>-1*$M$32*Q19</f>
         <v>-553.69047921599974</v>
       </c>
-      <c r="R20" s="55">
+      <c r="R20" s="44">
         <f>-1*$M$32*R19</f>
         <v>-699.21465068447924</v>
       </c>
-      <c r="S20" s="55">
+      <c r="S20" s="44">
         <f>-1*$M$32*S19</f>
         <v>-874.47075924243745</v>
       </c>
-      <c r="T20" s="55">
+      <c r="T20" s="44">
         <f>-1*$M$32*T19</f>
         <v>-1085.2350639129979</v>
       </c>
-      <c r="U20" s="55">
+      <c r="U20" s="44">
         <f>-1*$M$32*U19</f>
         <v>-1338.3744915850907</v>
       </c>
-      <c r="V20" s="55">
+      <c r="V20" s="44">
         <f>-1*$M$32*V19</f>
         <v>-1642.0490701782905</v>
       </c>
-      <c r="W20" s="55">
+      <c r="W20" s="44">
         <f>-1*$M$32*W19</f>
         <v>-2005.9515333312122</v>
       </c>
-      <c r="X20" s="55">
+      <c r="X20" s="44">
         <f>-1*$M$32*X19</f>
         <v>-2441.5908755141586</v>
       </c>
-      <c r="Y20" s="55">
+      <c r="Y20" s="44">
         <f>-1*$N$32*Y19</f>
         <v>-2736.1511774581809</v>
       </c>
-      <c r="Z20" s="55">
+      <c r="Z20" s="44">
         <f>-1*$N$32*Z19</f>
         <v>-2954.0992283192345</v>
       </c>
-      <c r="AA20" s="55">
+      <c r="AA20" s="44">
         <f>-1*$N$32*AA19</f>
         <v>-3187.2831371445595</v>
       </c>
-      <c r="AB20" s="55">
+      <c r="AB20" s="44">
         <f>-1*$N$32*AB19</f>
         <v>-3436.5485951573551</v>
       </c>
-      <c r="AC20" s="55">
+      <c r="AC20" s="44">
         <f>-1*$N$32*AC19</f>
         <v>-3702.754341471677</v>
       </c>
-      <c r="AD20" s="55">
+      <c r="AD20" s="44">
         <f>-1*$N$32*AD19</f>
         <v>-3986.7657696843071</v>
       </c>
-      <c r="AE20" s="55">
+      <c r="AE20" s="44">
         <f>-1*$N$32*AE19</f>
         <v>-4289.4470509336925</v>
       </c>
-      <c r="AF20" s="55">
+      <c r="AF20" s="44">
         <f>-1*$N$32*AF19</f>
         <v>-4611.6515309328634</v>
       </c>
-      <c r="AG20" s="55">
+      <c r="AG20" s="44">
         <f>-1*$N$32*AG19</f>
         <v>-4954.2101235817718</v>
       </c>
-      <c r="AH20" s="55">
+      <c r="AH20" s="44">
         <f>-1*$N$32*AH19</f>
         <v>-5317.9173841528791</v>
       </c>
-      <c r="AI20" s="55">
+      <c r="AI20" s="44">
         <f>-1*$N$32*AI19</f>
         <v>-5703.5149001092332</v>
       </c>
-      <c r="AJ20" s="55">
+      <c r="AJ20" s="44">
         <f>-1*$N$32*AJ19</f>
         <v>-6111.671586667575</v>
       </c>
-      <c r="AK20" s="55">
+      <c r="AK20" s="44">
         <f>-1*$N$32*AK19</f>
         <v>-6542.9604164819812</v>
       </c>
-      <c r="AL20" s="55">
+      <c r="AL20" s="44">
         <f>-1*$N$32*AL19</f>
         <v>-6997.8310474214068</v>
       </c>
-      <c r="AM20" s="55">
+      <c r="AM20" s="44">
         <f>-1*$N$32*AM19</f>
         <v>-7476.5777383601117</v>
       </c>
@@ -4838,103 +4936,103 @@
         <f>N19+N20</f>
         <v>2001</v>
       </c>
-      <c r="O21" s="61">
+      <c r="O21" s="50">
         <f>O19+O20</f>
         <v>2046.7191599999992</v>
       </c>
-      <c r="P21" s="61">
+      <c r="P21" s="50">
         <f>P19+P20</f>
         <v>2660.1130247999981</v>
       </c>
-      <c r="Q21" s="54">
+      <c r="Q21" s="43">
         <f>Q19+Q20</f>
         <v>3401.2415151839982</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="43">
         <f>R19+R20</f>
         <v>4295.1757113475151</v>
       </c>
-      <c r="S21" s="54">
+      <c r="S21" s="43">
         <f>S19+S20</f>
         <v>5371.748949632115</v>
       </c>
-      <c r="T21" s="54">
+      <c r="T21" s="43">
         <f>T19+T20</f>
         <v>6666.4439640369856</v>
       </c>
-      <c r="U21" s="54">
+      <c r="U21" s="43">
         <f>U19+U20</f>
         <v>8221.4433054512701</v>
       </c>
-      <c r="V21" s="54">
+      <c r="V21" s="43">
         <f>V19+V20</f>
         <v>10086.872859666641</v>
       </c>
-      <c r="W21" s="54">
+      <c r="W21" s="43">
         <f>W19+W20</f>
         <v>12322.273704748874</v>
       </c>
-      <c r="X21" s="54">
+      <c r="X21" s="43">
         <f>X19+X20</f>
         <v>14998.343949586973</v>
       </c>
-      <c r="Y21" s="54">
+      <c r="Y21" s="43">
         <f>Y19+Y20</f>
         <v>16807.785804385967</v>
       </c>
-      <c r="Z21" s="54">
+      <c r="Z21" s="43">
         <f>Z19+Z20</f>
         <v>18146.60954538958</v>
       </c>
-      <c r="AA21" s="54">
+      <c r="AA21" s="43">
         <f>AA19+AA20</f>
         <v>19579.024985316577</v>
       </c>
-      <c r="AB21" s="54">
+      <c r="AB21" s="43">
         <f>AB19+AB20</f>
         <v>21110.227084538037</v>
       </c>
-      <c r="AC21" s="54">
+      <c r="AC21" s="43">
         <f>AC19+AC20</f>
         <v>22745.490954754583</v>
       </c>
-      <c r="AD21" s="54">
+      <c r="AD21" s="43">
         <f>AD19+AD20</f>
         <v>24490.132585203595</v>
       </c>
-      <c r="AE21" s="54">
+      <c r="AE21" s="43">
         <f>AE19+AE20</f>
         <v>26349.460455735538</v>
       </c>
-      <c r="AF21" s="54">
+      <c r="AF21" s="43">
         <f>AF19+AF20</f>
         <v>28328.716547159016</v>
       </c>
-      <c r="AG21" s="54">
+      <c r="AG21" s="43">
         <f>AG19+AG20</f>
         <v>30433.005044859452</v>
       </c>
-      <c r="AH21" s="54">
+      <c r="AH21" s="43">
         <f>AH19+AH20</f>
         <v>32667.206788367683</v>
       </c>
-      <c r="AI21" s="54">
+      <c r="AI21" s="43">
         <f>AI19+AI20</f>
         <v>35035.877243528143</v>
       </c>
-      <c r="AJ21" s="54">
+      <c r="AJ21" s="43">
         <f>AJ19+AJ20</f>
         <v>37543.125460957956</v>
       </c>
-      <c r="AK21" s="54">
+      <c r="AK21" s="43">
         <f>AK19+AK20</f>
         <v>40192.471129817881</v>
       </c>
-      <c r="AL21" s="54">
+      <c r="AL21" s="43">
         <f>AL19+AL20</f>
         <v>42986.676434160065</v>
       </c>
-      <c r="AM21" s="54">
+      <c r="AM21" s="43">
         <f>AM19+AM20</f>
         <v>45927.54896421211</v>
       </c>
@@ -5092,7 +5190,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -5105,7 +5203,7 @@
     </row>
     <row r="24" ht="14.25">
       <c r="B24" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C24" s="18">
         <v>-0.88</v>
@@ -5135,16 +5233,16 @@
     <row r="25" ht="14.25">
       <c r="J25" s="6"/>
       <c r="K25" s="1" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>188</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>190</v>
@@ -5190,7 +5288,7 @@
         <v>9772</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="Z26" s="24">
         <v>0.11</v>
@@ -5198,7 +5296,7 @@
     </row>
     <row r="27" ht="14.25">
       <c r="B27" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="C27" s="9">
         <f>C26/C3</f>
@@ -5233,11 +5331,11 @@
         <v>0.87156617909382805</v>
       </c>
       <c r="K27" s="27">
-        <f t="shared" ref="K27:K31" si="2">AVERAGE(C27:J27)</f>
+        <f t="shared" ref="K27:K31" si="6">AVERAGE(C27:J27)</f>
         <v>0.8491041657345122</v>
       </c>
       <c r="L27" s="27">
-        <f t="shared" ref="L27:L31" si="3">MEDIAN(C27:J27)</f>
+        <f t="shared" ref="L27:L31" si="7">MEDIAN(C27:J27)</f>
         <v>0.85112202499159817</v>
       </c>
       <c r="M27" s="24">
@@ -5256,7 +5354,7 @@
     </row>
     <row r="28" ht="14.25">
       <c r="B28" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9">
@@ -5288,11 +5386,11 @@
         <v>0.18757170172084137</v>
       </c>
       <c r="K28" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35576103580004376</v>
       </c>
       <c r="L28" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.36896158235070375</v>
       </c>
       <c r="M28" s="27">
@@ -5302,7 +5400,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="Y28" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="Z28" s="1">
         <v>951</v>
@@ -5341,11 +5439,11 @@
         <v>0.66233766233766245</v>
       </c>
       <c r="K29" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.31055988211055274</v>
       </c>
       <c r="L29" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.36642170899211535</v>
       </c>
       <c r="M29" s="24">
@@ -5355,7 +5453,7 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="Y29" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="Z29">
         <v>1684931507</v>
@@ -5363,7 +5461,7 @@
     </row>
     <row r="30" ht="14.25">
       <c r="B30" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="C30" s="9">
         <f>C13/C6</f>
@@ -5398,11 +5496,11 @@
         <v>0.51298337380907899</v>
       </c>
       <c r="K30" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.6302503286623351</v>
       </c>
       <c r="L30" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.52091085830990091</v>
       </c>
       <c r="M30" s="24">
@@ -5412,7 +5510,7 @@
         <v>0.25</v>
       </c>
       <c r="Y30" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="Z30" s="21">
         <f>Z27*10000000/Z29</f>
@@ -5453,11 +5551,11 @@
         <v>0.31266421439831849</v>
       </c>
       <c r="K31" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.37356074642835807</v>
       </c>
       <c r="L31" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.4638461538461538</v>
       </c>
       <c r="M31" s="24">
@@ -5469,7 +5567,7 @@
     </row>
     <row r="32" ht="14.25">
       <c r="B32" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="C32" s="25">
         <f>MAX(0,C19/C20)</f>
@@ -5519,7 +5617,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="C33">
         <f>C47/C40</f>
@@ -5559,12 +5657,12 @@
     <row r="34" ht="14.25"/>
     <row r="36" ht="14.25">
       <c r="A36" s="1" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="B37" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="C37" s="6">
         <v>1564.01</v>
@@ -5578,10 +5676,10 @@
       <c r="F37">
         <v>1564</v>
       </c>
-      <c r="G37" s="62">
+      <c r="G37" s="51">
         <v>1564</v>
       </c>
-      <c r="H37" s="62">
+      <c r="H37" s="51">
         <v>1584</v>
       </c>
       <c r="I37">
@@ -5593,7 +5691,7 @@
     </row>
     <row r="38" ht="14.25">
       <c r="B38" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -5607,10 +5705,10 @@
       <c r="F38">
         <v>1339</v>
       </c>
-      <c r="G38" s="62">
+      <c r="G38" s="51">
         <v>1424</v>
       </c>
-      <c r="H38" s="62">
+      <c r="H38" s="51">
         <v>1424</v>
       </c>
       <c r="I38">
@@ -5622,7 +5720,7 @@
     </row>
     <row r="39" ht="14.25">
       <c r="B39" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="C39" s="6">
         <v>-222.59999999999999</v>
@@ -5636,10 +5734,10 @@
       <c r="F39">
         <v>-703</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="51">
         <v>-374</v>
       </c>
-      <c r="H39" s="62">
+      <c r="H39" s="51">
         <v>4296</v>
       </c>
       <c r="I39">
@@ -5651,83 +5749,83 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="14.25">
       <c r="B40" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C40" s="63">
+        <v>358</v>
+      </c>
+      <c r="C40" s="52">
         <f>SUM(C37:C39)</f>
         <v>1341.4100000000001</v>
       </c>
-      <c r="D40" s="63">
+      <c r="D40" s="52">
         <f>SUM(D37:D39)</f>
         <v>1933.346</v>
       </c>
-      <c r="E40" s="63">
+      <c r="E40" s="52">
         <f>SUM(E37:E39)</f>
         <v>2356</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="52">
         <f>SUM(F37:F39)</f>
         <v>2200</v>
       </c>
-      <c r="G40" s="63">
+      <c r="G40" s="52">
         <f>SUM(G37:G39)</f>
         <v>2614</v>
       </c>
-      <c r="H40" s="63">
+      <c r="H40" s="52">
         <f>SUM(H37:H39)</f>
         <v>7304</v>
       </c>
-      <c r="I40" s="63">
+      <c r="I40" s="52">
         <f>SUM(I37:I39)</f>
         <v>9834</v>
       </c>
-      <c r="J40" s="63">
+      <c r="J40" s="52">
         <f>SUM(J37:J39)</f>
         <v>12137</v>
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
+        <v>359</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
     </row>
     <row r="43" ht="14.25">
       <c r="A43" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>327</v>
-      </c>
-      <c r="C43" s="62">
+        <v>361</v>
+      </c>
+      <c r="C43" s="51">
         <v>0</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="51">
         <v>0</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="51">
         <v>0</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="51">
         <v>4013</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="51">
         <v>4013</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="51">
         <v>4013</v>
       </c>
       <c r="I43">
@@ -5736,24 +5834,24 @@
     </row>
     <row r="44" ht="14.25">
       <c r="B44" t="s">
-        <v>328</v>
-      </c>
-      <c r="C44" s="62">
+        <v>362</v>
+      </c>
+      <c r="C44" s="51">
         <v>8373.0499999999993</v>
       </c>
-      <c r="D44" s="62">
+      <c r="D44" s="51">
         <v>9948.1100000000006</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="51">
         <v>12610</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="51">
         <v>15733</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="51">
         <v>38704</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="51">
         <v>44619</v>
       </c>
       <c r="I44">
@@ -5765,24 +5863,24 @@
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C45" s="62">
+        <v>363</v>
+      </c>
+      <c r="C45" s="51">
         <v>1351.3099999999999</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="51">
         <v>742.22000000000003</v>
       </c>
-      <c r="E45" s="62">
+      <c r="E45" s="51">
         <v>1115</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="51">
         <v>3693</v>
       </c>
-      <c r="G45" s="62">
+      <c r="G45" s="51">
         <v>9471</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="51">
         <v>4215</v>
       </c>
       <c r="I45">
@@ -5793,46 +5891,46 @@
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
     </row>
     <row r="47" ht="14.25">
       <c r="B47" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C47" s="63">
+        <v>364</v>
+      </c>
+      <c r="C47" s="52">
         <f>SUM(C43:C45)</f>
         <v>9724.3599999999988</v>
       </c>
-      <c r="D47" s="63">
+      <c r="D47" s="52">
         <f>SUM(D43:D45)</f>
         <v>10690.33</v>
       </c>
-      <c r="E47" s="63">
+      <c r="E47" s="52">
         <f>SUM(E43:E45)</f>
         <v>13725</v>
       </c>
-      <c r="F47" s="63">
+      <c r="F47" s="52">
         <f>SUM(F43:F45)</f>
         <v>23439</v>
       </c>
-      <c r="G47" s="63">
+      <c r="G47" s="52">
         <f>SUM(G43:G45)</f>
         <v>52188</v>
       </c>
-      <c r="H47" s="63">
+      <c r="H47" s="52">
         <f>SUM(H43:H45)</f>
         <v>52847</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="52">
         <f>SUM(I43:I45)</f>
         <v>63060</v>
       </c>
-      <c r="J47" s="63">
+      <c r="J47" s="52">
         <f>SUM(J43:J45)</f>
         <v>78069</v>
       </c>
@@ -5840,7 +5938,7 @@
     <row r="48" ht="14.25"/>
     <row r="50" ht="14.25">
       <c r="A50" s="1" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" ht="14.25">
@@ -5873,7 +5971,7 @@
   <sheetData>
     <row r="1" ht="15">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -5881,15 +5979,15 @@
         <v>2024</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="B7" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -10060,7 +10158,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10106,48 +10204,227 @@
       </c>
     </row>
     <row r="11" ht="14.25"/>
-    <row r="12" ht="14.25"/>
+    <row r="12" ht="14.25">
+      <c r="B12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>212</v>
+      </c>
+    </row>
     <row r="14" ht="14.25">
-      <c r="B14" t="s">
-        <v>209</v>
+      <c r="B14" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" t="s">
-        <v>211</v>
+      <c r="B15" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" t="s">
-        <v>213</v>
+      <c r="B16" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="5" t="s">
-        <v>215</v>
+      <c r="B18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
+      </c>
+      <c r="C19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="B27" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="B28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="B29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="C34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.23000000000000001</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="B36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="B38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="B39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25">
+      <c r="B41" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="B42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="B44" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B18"/>
-    <hyperlink r:id="rId2" ref="C19"/>
+    <hyperlink r:id="rId1" ref="D20"/>
+    <hyperlink r:id="rId2" ref="B27"/>
+    <hyperlink r:id="rId3" ref="C28"/>
+    <hyperlink r:id="rId3" ref="C29"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -10180,32 +10457,32 @@
       <c r="B1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="5" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="5" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="5" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>166</v>
@@ -10223,7 +10500,7 @@
         <v>170</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="J2" s="1">
         <v>2017</v>
@@ -10305,21 +10582,21 @@
       <c r="B3" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="19">
         <v>2015.98</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="19">
         <v>2092.9899999999998</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="19">
         <v>2968.8099999999999</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="29">
         <v>3773.54</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="19">
         <v>12692.530000000001</v>
       </c>
@@ -10354,23 +10631,23 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="30">
+        <v>258</v>
+      </c>
+      <c r="C4" s="19">
         <v>5.6100000000000003</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="19">
         <v>10.390000000000001</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="19">
         <v>6.0199999999999996</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>16.399999999999999</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="19">
         <v>21.84</v>
       </c>
@@ -10405,23 +10682,23 @@
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="30">
+        <v>259</v>
+      </c>
+      <c r="C5" s="19">
         <v>22.760000000000002</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="19">
         <v>17.850000000000001</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="19">
         <v>27.530000000000001</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <v>35.25</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="19">
         <v>88.819999999999993</v>
       </c>
@@ -10456,7 +10733,7 @@
     </row>
     <row r="6" s="1" customFormat="1">
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="C6" s="20">
         <f>SUM(C3:C5)</f>
@@ -10470,7 +10747,7 @@
         <f>SUM(E3:E5)</f>
         <v>3002.3600000000001</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="30">
         <f>SUM(F3:F5)</f>
         <v>3825.1900000000001</v>
       </c>
@@ -10563,12 +10840,12 @@
     </row>
     <row r="7" s="1" customFormat="1">
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="32"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -10598,12 +10875,12 @@
     </row>
     <row r="8" s="1" customFormat="1">
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="32"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -10635,7 +10912,7 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="31"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -10659,26 +10936,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="18">
         <v>1329.9300000000001</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="18">
         <v>1607.1900000000001</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="18">
         <v>1731.5999999999999</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="31">
         <v>2470.4499999999998</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="18">
         <v>8291.4400000000005</v>
       </c>
@@ -10752,23 +11029,23 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="34">
+        <v>264</v>
+      </c>
+      <c r="C11" s="18">
         <v>0</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="18">
         <v>0</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="31">
         <v>0</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="18">
         <v>0</v>
       </c>
@@ -10832,23 +11109,23 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="34">
+        <v>265</v>
+      </c>
+      <c r="C12" s="18">
         <v>-77.650000000000006</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="18">
         <v>-303.20999999999998</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="18">
         <v>153.97</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="31">
         <v>-25.68</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="18">
         <v>-748.54999999999995</v>
       </c>
@@ -10914,21 +11191,21 @@
       <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="18">
         <v>195.87</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="18">
         <v>241.94</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="18">
         <v>265.44</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="31">
         <v>238.28</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="18">
         <v>1046.48</v>
       </c>
@@ -11004,21 +11281,21 @@
       <c r="B14" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="18">
         <v>44.520000000000003</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="18">
         <v>56.030000000000001</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="18">
         <v>69.530000000000001</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="31">
         <v>84.719999999999999</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="18">
         <v>1287.5899999999999</v>
       </c>
@@ -11084,21 +11361,21 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="18">
         <v>45.840000000000003</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="18">
         <v>54.420000000000002</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="18">
         <v>66.180000000000007</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="31">
         <v>92.75</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="18">
         <v>389.02999999999997</v>
       </c>
@@ -11172,27 +11449,27 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" s="36">
+        <v>266</v>
+      </c>
+      <c r="C16" s="18">
         <f>206.09-2.73</f>
         <v>203.36000000000001</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="18">
         <f>+265.08-1.8</f>
         <v>263.27999999999997</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="18">
         <f>5.09+319.22</f>
         <v>324.31</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="31">
         <f>444.37-30.94</f>
         <v>413.43000000000001</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="18">
         <v>1625.6099999999999</v>
       </c>
@@ -11272,7 +11549,7 @@
         <f>SUM(E10:E16)</f>
         <v>2611.0299999999997</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="30">
         <f>SUM(F10:F16)</f>
         <v>3273.9499999999998</v>
       </c>
@@ -11366,7 +11643,7 @@
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="C18" s="20">
         <f>C6-C17</f>
@@ -11380,7 +11657,7 @@
         <f>E6-E17</f>
         <v>391.33000000000038</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="30">
         <f>F6-F17</f>
         <v>551.24000000000024</v>
       </c>
@@ -11473,26 +11750,26 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="34">
+        <v>269</v>
+      </c>
+      <c r="C19" s="18">
         <v>0</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="18">
         <v>0</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="18">
         <v>0</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="31">
         <v>0</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="18">
         <v>0</v>
       </c>
@@ -11570,7 +11847,7 @@
         <f>E6-E17-E19</f>
         <v>391.33000000000038</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="30">
         <f>F6-F17-F19</f>
         <v>551.24000000000024</v>
       </c>
@@ -11665,24 +11942,24 @@
       <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="18">
         <v>0.19</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="18">
         <f>1.36-0.38</f>
         <v>0.98000000000000009</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="18">
         <f>41.86-38.29</f>
         <v>3.5700000000000003</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="31">
         <f>-28.99-600.75</f>
         <v>-629.74000000000001</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="18">
         <v>11.699999999999999</v>
       </c>
@@ -11777,7 +12054,7 @@
         <f>E20-E21</f>
         <v>387.76000000000039</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="32">
         <f>F20-F21</f>
         <v>1180.9800000000002</v>
       </c>
@@ -11827,43 +12104,43 @@
         <f>V20-V21</f>
         <v>2071.6299999999992</v>
       </c>
-      <c r="W22" s="38">
+      <c r="W22" s="33">
         <f>W20-W21</f>
         <v>1878.4129040800005</v>
       </c>
-      <c r="X22" s="38">
+      <c r="X22" s="33">
         <f>X20-X21</f>
         <v>2951.273142160002</v>
       </c>
-      <c r="Y22" s="38">
+      <c r="Y22" s="33">
         <f>Y20-Y21</f>
         <v>3710.3817014224023</v>
       </c>
-      <c r="Z22" s="38">
+      <c r="Z22" s="33">
         <f>Z20-Z21</f>
         <v>4582.2412781431412</v>
       </c>
-      <c r="AA22" s="38">
+      <c r="AA22" s="33">
         <f>AA20-AA21</f>
         <v>5583.0255639160769</v>
       </c>
-      <c r="AB22" s="38">
+      <c r="AB22" s="33">
         <f>AB20-AB21</f>
         <v>6731.1958801071996</v>
       </c>
-      <c r="AC22" s="38">
+      <c r="AC22" s="33">
         <f>AC20-AC21</f>
         <v>8047.8228447996516</v>
       </c>
-      <c r="AD22" s="38">
+      <c r="AD22" s="33">
         <f>AD20-AD21</f>
         <v>9556.9531570376894</v>
       </c>
-      <c r="AE22" s="38">
+      <c r="AE22" s="33">
         <f>AE20-AE21</f>
         <v>11286.027819827021</v>
       </c>
-      <c r="AF22" s="38">
+      <c r="AF22" s="33">
         <f>AF20-AF21</f>
         <v>13266.359008655105</v>
       </c>
@@ -12098,23 +12375,23 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C23" s="39">
+        <v>270</v>
+      </c>
+      <c r="C23" s="34">
         <v>857.71000000000004</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="34">
         <v>857.71000000000004</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="34">
         <v>857.71000000000004</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="35">
         <v>857.71000000000004</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="18">
         <v>857.71000000000004</v>
       </c>
@@ -12153,21 +12430,21 @@
       <c r="B24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="39">
+      <c r="C24" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="34">
         <v>1.71</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="34">
         <v>1.71</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="35">
         <v>1.71</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="18">
         <v>1.71</v>
       </c>
@@ -12211,16 +12488,16 @@
       <c r="P25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="1" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="AH25" s="24">
         <v>0.01</v>
@@ -12228,15 +12505,27 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+        <v>275</v>
+      </c>
+      <c r="C26" s="8">
+        <f>C10/C6</f>
+        <v>0.6505392912172574</v>
+      </c>
+      <c r="D26" s="8">
+        <f>D10/D6</f>
+        <v>0.75766889964784601</v>
+      </c>
+      <c r="E26" s="8">
+        <f>E10/E6</f>
+        <v>0.57674629291623913</v>
+      </c>
+      <c r="F26" s="8">
+        <f>F10/F6</f>
+        <v>0.64583720024364799</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="8">
         <f>J10/J6</f>
         <v>0.64760735410471926</v>
@@ -12245,7 +12534,7 @@
         <f>K10/K6</f>
         <v>0.47925760221371422</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="8">
         <f>L10/L6</f>
         <v>0.58260290385130775</v>
       </c>
@@ -12273,19 +12562,19 @@
         <f>R10/R6</f>
         <v>0.64942104750876239</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="27">
         <f>AVERAGE(J26:R26)</f>
         <v>0.57139165816631932</v>
       </c>
-      <c r="T26" s="42">
+      <c r="T26" s="27">
         <f>MEDIAN(J26:R26)</f>
         <v>0.60545294282623507</v>
       </c>
-      <c r="U26" s="43">
+      <c r="U26" s="24">
         <v>0.57999999999999996</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="AH26" s="24">
         <v>0.11</v>
@@ -12293,15 +12582,27 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+        <v>277</v>
+      </c>
+      <c r="C27" s="6">
+        <f>C6-C10</f>
+        <v>714.41999999999985</v>
+      </c>
+      <c r="D27" s="6">
+        <f>D6-D10</f>
+        <v>514.03999999999951</v>
+      </c>
+      <c r="E27" s="6">
+        <f>E6-E10</f>
+        <v>1270.7600000000002</v>
+      </c>
+      <c r="F27" s="6">
+        <f>F6-F10</f>
+        <v>1354.7400000000002</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="6">
         <f>J6-J10</f>
         <v>4511.75</v>
@@ -12347,16 +12648,28 @@
       </c>
     </row>
     <row r="28" ht="15">
-      <c r="B28" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="B28" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="8" t="e">
+        <f>C6/B6-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D28" s="8">
+        <f>D6/C6-1</f>
+        <v>0.037606085063712102</v>
+      </c>
+      <c r="E28" s="8">
+        <f>E6/D6-1</f>
+        <v>0.4153863560292852</v>
+      </c>
+      <c r="F28" s="8">
+        <f>F6/E6-1</f>
+        <v>0.27406107195672735</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="6"/>
       <c r="K28" s="8">
         <f>K6/J6-1</f>
@@ -12382,7 +12695,7 @@
         <f>P6/O6-1</f>
         <v>-0.092945606960661453</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="8">
         <f>Q6/P6-1</f>
         <v>0.096383068231900459</v>
       </c>
@@ -12391,11 +12704,11 @@
         <v>0.67386574211535244</v>
       </c>
       <c r="S28" s="27">
-        <f>AVERAGE(J28:R28)</f>
+        <f t="shared" ref="S28:S32" si="2">AVERAGE(J28:R28)</f>
         <v>0.076595274296903368</v>
       </c>
       <c r="T28" s="27">
-        <f>MEDIAN(J28:R28)</f>
+        <f t="shared" ref="T28:T32" si="3">MEDIAN(J28:R28)</f>
         <v>0.0017187306356195031</v>
       </c>
       <c r="U28" s="24">
@@ -12404,22 +12717,34 @@
       <c r="AG28" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AH28" s="46">
+      <c r="AH28" s="36">
         <v>13648900000</v>
       </c>
-      <c r="AI28" s="46"/>
+      <c r="AI28" s="36"/>
     </row>
     <row r="29">
       <c r="B29" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="C29" s="9">
+        <f>C27/C6</f>
+        <v>0.3494607087827426</v>
+      </c>
+      <c r="D29" s="9">
+        <f>D27/D6</f>
+        <v>0.24233110035215399</v>
+      </c>
+      <c r="E29" s="9">
+        <f>E27/E6</f>
+        <v>0.42325370708376081</v>
+      </c>
+      <c r="F29" s="9">
+        <f>F27/F6</f>
+        <v>0.35416279975635201</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="9">
         <f>J27/J6</f>
         <v>0.3523926458952808</v>
@@ -12457,18 +12782,18 @@
         <v>0.35057895249123766</v>
       </c>
       <c r="S29" s="27">
-        <f>AVERAGE(J29:R29)</f>
+        <f t="shared" si="2"/>
         <v>0.42860834183368079</v>
       </c>
       <c r="T29" s="27">
-        <f>MEDIAN(J29:R29)</f>
+        <f t="shared" si="3"/>
         <v>0.39454705717376493</v>
       </c>
       <c r="U29" s="24">
         <v>0.40000000000000002</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="AH29">
         <v>63.229999999999997</v>
@@ -12476,15 +12801,24 @@
     </row>
     <row r="30">
       <c r="B30" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+        <v>280</v>
+      </c>
+      <c r="C30" s="9">
+        <f>C18/C6</f>
+        <v>0.14795900897595815</v>
+      </c>
+      <c r="D30" s="9">
+        <f>D18/D6</f>
+        <v>0.095029770463363014</v>
+      </c>
+      <c r="E30" s="9">
+        <f>E18/E6</f>
+        <v>0.13034079857179032</v>
+      </c>
+      <c r="F30" s="9">
+        <f>F18/F6</f>
+        <v>0.1441078743800962</v>
+      </c>
       <c r="J30" s="9">
         <f>J18/J6</f>
         <v>0.07120022431909534</v>
@@ -12522,15 +12856,15 @@
         <v>0.1315940046192485</v>
       </c>
       <c r="S30" s="27">
-        <f>AVERAGE(J30:R30)</f>
+        <f t="shared" si="2"/>
         <v>-0.12918025790197646</v>
       </c>
       <c r="T30" s="27">
-        <f>MEDIAN(J30:R30)</f>
+        <f t="shared" si="3"/>
         <v>-0.012525798875524775</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="AH30">
         <f>AH27*10000000/AH28</f>
@@ -12538,17 +12872,29 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="47"/>
+      <c r="C31" s="9" t="e">
+        <f>C13/B13-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D31" s="9">
+        <f>D13/C13-1</f>
+        <v>0.23520702506764679</v>
+      </c>
+      <c r="E31" s="9">
+        <f>E13/D13-1</f>
+        <v>0.097131520211622746</v>
+      </c>
+      <c r="F31" s="9">
+        <f>F13/E13-1</f>
+        <v>-0.10232067510548526</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="9">
         <f>K13/J13-1</f>
         <v>-0.23106031648956504</v>
@@ -12582,11 +12928,11 @@
         <v>0.33949352681747058</v>
       </c>
       <c r="S31" s="27">
-        <f>AVERAGE(J31:R31)</f>
+        <f t="shared" si="2"/>
         <v>0.0071374014503098882</v>
       </c>
       <c r="T31" s="27">
-        <f>MEDIAN(J31:R31)</f>
+        <f t="shared" si="3"/>
         <v>0.036077486319283592</v>
       </c>
       <c r="U31" s="24">
@@ -12594,17 +12940,29 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="47"/>
+      <c r="C32" s="9" t="e">
+        <f>C15/B15-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D32" s="9">
+        <f>D15/C15-1</f>
+        <v>0.18717277486910988</v>
+      </c>
+      <c r="E32" s="9">
+        <f>E15/D15-1</f>
+        <v>0.21609702315325263</v>
+      </c>
+      <c r="F32" s="9">
+        <f>F15/E15-1</f>
+        <v>0.40148080991236013</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="9">
         <f>K15/J15-1</f>
         <v>-0.12189291314294515</v>
@@ -12638,11 +12996,11 @@
         <v>0.36703586497890295</v>
       </c>
       <c r="S32" s="27">
-        <f>AVERAGE(J32:R32)</f>
+        <f t="shared" si="2"/>
         <v>-0.022151765196056494</v>
       </c>
       <c r="T32" s="27">
-        <f>MEDIAN(J32:R32)</f>
+        <f t="shared" si="3"/>
         <v>4.3395999499928894e-05</v>
       </c>
       <c r="U32" s="24">
@@ -12651,15 +13009,27 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
+        <v>282</v>
+      </c>
+      <c r="C33" s="9" t="e">
+        <f>C10/B10-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D33" s="9">
+        <f>D10/C10-1</f>
+        <v>0.20847713789447564</v>
+      </c>
+      <c r="E33" s="9">
+        <f>E10/D10-1</f>
+        <v>0.077408396020383297</v>
+      </c>
+      <c r="F33" s="9">
+        <f>F10/E10-1</f>
+        <v>0.42668630168630162</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
       <c r="K33" s="9">
         <f>K10/J10-1</f>
         <v>-0.51371547041285959</v>
@@ -12693,11 +13063,11 @@
         <v>0.776509524342752</v>
       </c>
       <c r="S33" s="27">
-        <f>AVERAGE(K33:R33)</f>
+        <f t="shared" ref="S33:S34" si="4">AVERAGE(K33:R33)</f>
         <v>0.14409649588603621</v>
       </c>
       <c r="T33" s="27">
-        <f>MEDIAN(K33:R33)</f>
+        <f t="shared" ref="T33:T34" si="5">MEDIAN(K33:R33)</f>
         <v>-0.0028145306102442813</v>
       </c>
       <c r="U33" s="24">
@@ -12706,115 +13076,136 @@
     </row>
     <row r="34" ht="14.25">
       <c r="B34" t="s">
-        <v>250</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
+        <v>283</v>
+      </c>
+      <c r="C34" s="17" t="e">
+        <f>C18/B18-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D34" s="17">
+        <f>D18/C18-1</f>
+        <v>-0.33357577360486823</v>
+      </c>
+      <c r="E34" s="17">
+        <f>E18/D18-1</f>
+        <v>0.94131362238317995</v>
+      </c>
+      <c r="F34" s="17">
+        <f>F18/E18-1</f>
+        <v>0.40863210078450329</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
       <c r="K34" s="17">
         <f>K18/J18-1</f>
         <v>-1.9218716747660705</v>
       </c>
-      <c r="L34" s="48">
+      <c r="L34" s="37">
         <f>L18/K18-1</f>
         <v>0.86889330758274075</v>
       </c>
-      <c r="M34" s="48">
+      <c r="M34" s="37">
         <f>M18/L18-1</f>
         <v>0.66695955582721922</v>
       </c>
-      <c r="N34" s="48">
+      <c r="N34" s="37">
         <f>N18/M18-1</f>
         <v>-0.73243928710571948</v>
       </c>
-      <c r="O34" s="48">
+      <c r="O34" s="37">
         <f>O18/N18-1</f>
         <v>-0.88191123356507672</v>
       </c>
-      <c r="P34" s="48">
+      <c r="P34" s="37">
         <f>P18/O18-1</f>
         <v>-3.0685444874274674</v>
       </c>
-      <c r="Q34" s="48">
+      <c r="Q34" s="37">
         <f>Q18/P18-1</f>
         <v>3.1691309683829427</v>
       </c>
-      <c r="R34" s="48">
+      <c r="R34" s="37">
         <f>R18/Q18-1</f>
         <v>1.0278533180072316</v>
       </c>
       <c r="S34" s="27">
-        <f>AVERAGE(K34:R34)</f>
+        <f t="shared" si="4"/>
         <v>-0.10899119163302495</v>
       </c>
       <c r="T34" s="27">
-        <f>MEDIAN(K34:R34)</f>
+        <f t="shared" si="5"/>
         <v>-0.032739865639250132</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="B35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
+        <v>284</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
       <c r="U35" s="24">
         <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="B36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
+        <v>285</v>
+      </c>
+      <c r="C36" s="37">
+        <f>C21/C20</f>
+        <v>0.00062814070351758795</v>
+      </c>
+      <c r="D36" s="37">
+        <f>D21/D20</f>
+        <v>0.0048615934120448592</v>
+      </c>
+      <c r="E36" s="37">
+        <f>E21/E20</f>
+        <v>0.0091227352873533771</v>
+      </c>
+      <c r="F36" s="37">
+        <f>F21/F20</f>
+        <v>-1.1424062114505473</v>
+      </c>
       <c r="J36" s="17">
         <f>J21/J20</f>
         <v>0.012834717361971962</v>
       </c>
-      <c r="K36" s="48">
+      <c r="K36" s="37">
         <f>K21/K20</f>
         <v>0.0039923326739159859</v>
       </c>
-      <c r="L36" s="48">
+      <c r="L36" s="37">
         <f>L21/L20</f>
         <v>0.0077122988483399046</v>
       </c>
-      <c r="M36" s="48">
+      <c r="M36" s="37">
         <f>M21/M20</f>
         <v>-0.0027720337562175158</v>
       </c>
-      <c r="N36" s="48">
+      <c r="N36" s="37">
         <f>N21/N20</f>
         <v>1.5870248642469238</v>
       </c>
-      <c r="O36" s="48">
+      <c r="O36" s="37">
         <f>O21/O20</f>
         <v>416.47499999931347</v>
       </c>
-      <c r="P36" s="48">
+      <c r="P36" s="37">
         <f>P21/P20</f>
         <v>0.0015285073537802899</v>
       </c>
-      <c r="Q36" s="48">
+      <c r="Q36" s="37">
         <f>Q21/Q20</f>
         <v>-0.0013040379687334147</v>
       </c>
-      <c r="R36" s="48">
+      <c r="R36" s="37">
         <f>R21/R20</f>
         <v>-0.43203860005668371</v>
       </c>
@@ -12825,46 +13216,89 @@
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="B37" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="9">
+        <f>D6/C6-1</f>
+        <v>0.037606085063712102</v>
+      </c>
+      <c r="E37" s="9">
+        <f>E6/D6-1</f>
+        <v>0.4153863560292852</v>
+      </c>
+      <c r="F37" s="9">
+        <f>F6/E6-1</f>
+        <v>0.27406107195672735</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="K37" s="25">
+        <f>K6/J6-1</f>
+        <v>-0.34289735604954708</v>
+      </c>
+      <c r="L37" s="25">
+        <f>L6/K6-1</f>
+        <v>-0.39681041624816815</v>
+      </c>
+      <c r="M37" s="9">
+        <f>M6/L6-1</f>
+        <v>-0.40874229501994219</v>
+      </c>
+      <c r="N37" s="9">
+        <f>N6/M6-1</f>
+        <v>0.12170629445211012</v>
+      </c>
+      <c r="O37" s="9">
+        <f>O6/N6-1</f>
+        <v>0.9622027638541828</v>
+      </c>
+      <c r="P37" s="9">
+        <f>P6/O6-1</f>
+        <v>-0.092945606960661453</v>
+      </c>
+      <c r="Q37" s="9">
+        <f>Q6/P6-1</f>
+        <v>0.096383068231900459</v>
+      </c>
+      <c r="R37" s="9">
+        <f>R6/Q6-1</f>
+        <v>0.67386574211535244</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
+        <v>288</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
       <c r="P40">
         <v>2721.7199999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
+        <v>289</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12900,7 +13334,7 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -12910,27 +13344,27 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="15">
       <c r="C3" s="1" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="B4" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="C4" s="7">
         <v>87.439999999999998</v>
@@ -12953,7 +13387,7 @@
     </row>
     <row r="5" ht="14.25">
       <c r="B5" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="C5" s="7">
         <v>0.53000000000000003</v>
@@ -12976,7 +13410,7 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="14.25">
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1">
         <f>C4+C5</f>
@@ -13013,7 +13447,7 @@
     </row>
     <row r="8" ht="14.25">
       <c r="B8" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="C8" s="6">
         <v>70.439999999999998</v>
@@ -13036,7 +13470,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -13059,7 +13493,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="B10" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="C10" s="6">
         <v>-0.97999999999999998</v>
@@ -13105,10 +13539,10 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C12" s="6">
         <v>2.77</v>
@@ -13183,7 +13617,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="C16" s="6">
         <f>SUM(C8:C14)</f>
@@ -13218,7 +13652,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="C18" s="6">
         <v>0.080000000000000002</v>
@@ -13328,7 +13762,7 @@
     </row>
     <row r="22" ht="14.25">
       <c r="B22" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -13352,7 +13786,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="B23" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="C23" s="6">
         <f>C19</f>
@@ -13385,7 +13819,7 @@
     </row>
     <row r="25" ht="14.25">
       <c r="B25" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -13454,32 +13888,32 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="14.25">
       <c r="A30" s="1" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="38">
         <f>C29/C4</f>
         <v>0.19441903019213175</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="38">
         <f>D29/D4</f>
         <v>0.11728605523354919</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="38">
         <f>E29/E4</f>
         <v>0.14101760980023662</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="38">
         <f>F29/F4</f>
         <v>0.1237572340109809</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="38">
         <f>G29/G4</f>
         <v>0.14662972178240222</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="38">
         <f>H29/H4</f>
         <v>0.14628649377993264</v>
       </c>
@@ -13494,7 +13928,7 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="C33" s="9">
         <f>D21/C21</f>
@@ -13523,7 +13957,7 @@
     </row>
     <row r="34" ht="14.25">
       <c r="B34" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="9">
@@ -13549,7 +13983,7 @@
     </row>
     <row r="35" ht="14.25">
       <c r="B35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9">
@@ -13594,158 +14028,158 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="12" style="50" width="9.140625"/>
-    <col customWidth="1" min="13" max="13" style="50" width="13.7109375"/>
-    <col customWidth="1" min="14" max="14" style="50" width="22.00390625"/>
-    <col min="15" max="16384" style="50" width="9.140625"/>
+    <col min="1" max="12" style="39" width="9.140625"/>
+    <col customWidth="1" min="13" max="13" style="39" width="13.7109375"/>
+    <col customWidth="1" min="14" max="14" style="39" width="22.00390625"/>
+    <col min="15" max="16384" style="39" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5">
-      <c r="A1" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>281</v>
+      <c r="A1" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2" ht="16.5">
-      <c r="M2" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="N2" s="50">
+      <c r="M2" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="39">
         <v>123.7</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="B3" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="N3" s="50">
+      <c r="B3" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="N3" s="39">
         <v>216904290</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" ht="16.5">
-      <c r="M4" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="N4" s="52">
+      <c r="M4" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="N4" s="41">
         <f>N3*N2</f>
         <v>26831060673</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="39">
         <f>N4/10000000</f>
         <v>2683.1060673000002</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="B5" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="50">
+      <c r="B5" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="39">
         <v>2024</v>
       </c>
-      <c r="M5" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="N5" s="50">
+      <c r="M5" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="N5" s="39">
         <f>32.59</f>
         <v>32.590000000000003</v>
       </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" ht="16.5">
-      <c r="B6" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="50"/>
-      <c r="M6" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="N6" s="50">
+      <c r="B6" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="N6" s="39">
         <f>59.6471</f>
         <v>59.647100000000002</v>
       </c>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
     </row>
     <row r="7" ht="16.5">
-      <c r="B7" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="N7" s="50">
+      <c r="B7" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="N7" s="39">
         <f>O4+N6-N5</f>
         <v>2710.1631673000002</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
     </row>
     <row r="8" ht="16.5">
-      <c r="B8" s="50" t="s">
-        <v>292</v>
+      <c r="B8" s="39" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="16.5">
-      <c r="D9" s="50">
+      <c r="D9" s="39">
         <v>2021</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="D10" s="50"/>
-      <c r="H10" s="53"/>
+      <c r="D10" s="39"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="18" ht="16.5">
-      <c r="B18" s="51" t="s">
-        <v>293</v>
+      <c r="B18" s="40" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="20" ht="16.5">
-      <c r="A20" s="50">
+      <c r="A20" s="39">
         <v>2024</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>294</v>
+      <c r="B20" s="39" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="21" ht="16.5">
-      <c r="A21" s="50">
+      <c r="A21" s="39">
         <v>2021</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>295</v>
+      <c r="B21" s="39" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="22" ht="16.5">
-      <c r="B22" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>297</v>
+      <c r="B22" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="23" ht="16.5">
-      <c r="B23" s="50" t="s">
-        <v>298</v>
+      <c r="B23" s="39" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="24" ht="16.5">
-      <c r="B24" s="50" t="s">
-        <v>299</v>
+      <c r="B24" s="39" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
